--- a/spreadsheet/macrofree/sap_checklist.es.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.es.xlsx
@@ -1668,12 +1668,12 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/well-architected/sap/design-areas/security</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
@@ -1718,12 +1718,12 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
@@ -1768,7 +1768,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1814,12 +1814,12 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
         </is>
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J24" s="22" t="n"/>
@@ -1865,7 +1865,7 @@
       <c r="H25" s="15" t="n"/>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
@@ -1910,12 +1910,12 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
@@ -1961,7 +1961,7 @@
       <c r="H27" s="15" t="n"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
@@ -2051,7 +2051,7 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
@@ -2096,7 +2096,7 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/saphana-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
@@ -2141,7 +2141,7 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
@@ -2232,7 +2232,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2278,7 +2278,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2370,12 +2370,12 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
@@ -2403,13 +2403,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Permitir que las aplicaciones estén estrechamente acopladas en la misma suscripción de SAP para evitar una complejidad adicional de enrutamiento y administración</t>
+          <t>Integre aplicaciones estrechamente acopladas en la misma suscripción de SAP para evitar una complejidad adicional de enrutamiento y administración</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2420,12 +2420,12 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
@@ -2459,7 +2459,7 @@
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2470,12 +2470,12 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
       <c r="J38" s="22" t="n"/>
@@ -2503,13 +2503,13 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Garantice el aumento de la cuota como parte del aprovisionamiento de suscripciones (por ejemplo, el total de núcleos de VM disponibles dentro de una suscripción).</t>
+          <t>Garantizar el aumento de la cuota como parte del aprovisionamiento de suscripciones (por ejemplo, el total de núcleos de VM disponibles dentro de una suscripción)</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2520,12 +2520,12 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
@@ -2553,13 +2553,13 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios y características requeridos estén disponibles dentro de las regiones de implementación elegidas, por ejemplo. ANF, zona, etc.</t>
+          <t>La API de cuota es una API de REST que puede usar para ver y administrar cuotas para servicios de Azure. Considere usarlo si es necesario.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2570,19 +2570,15 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2603,13 +2599,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la etiqueta de recursos de Azure para la categorización de costos y la agrupación de recursos (BillTo, Departamento (o unidad de negocio), Entorno (producción, etapa, desarrollo), Nivel (nivel web, nivel de aplicación), propietario de la aplicación, nombre del proyecto)</t>
+          <t>Si se implementa en una zona de disponibilidad, asegúrese de que la implementación de la zona de la máquina virtual esté disponible una vez que se haya aprobado la cuota. Envíe una solicitud de soporte con la suscripción, la serie de máquinas virtuales, el número de CPU y la zona de disponibilidad requerida.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2620,7 +2616,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2628,7 +2624,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2649,13 +2645,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Asegúrese de que los servicios y características requeridos estén disponibles dentro de las regiones de implementación elegidas, por ejemplo. ANF, zona, etc.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2666,15 +2662,19 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I42" s="15" t="n"/>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
+        </is>
+      </c>
+      <c r="I42" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+        </is>
+      </c>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>7d474317-6c8b-4cbf-95bb-e609d8a03e97</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Aproveche la etiqueta de recursos de Azure para la categorización de costos y la agrupación de recursos (BillTo, Departamento (o unidad de negocio), Entorno (producción, etapa, desarrollo), Nivel (nivel web, nivel de aplicación), propietario de la aplicación, nombre del proyecto)</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2712,15 +2712,19 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>778424d6-1678-45d6-ba96-c96ad88518f4</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>

--- a/spreadsheet/macrofree/sap_checklist.es.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.es.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>No combine ASCS y clúster de base de datos en una sola máquina virtual o la misma</t>
+          <t>No combine ASCS y el clúster de base de datos en una sola máquina virtual o en la misma máquina virtual</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>No mezcle servidores de diferentes roles en el mismo conjunto de disponibilidad. Mantenga las máquinas virtuales de servicios centrales, las máquinas virtuales de bases de datos y las máquinas virtuales de aplicaciones en sus propios conjuntos de disponibilidad</t>
+          <t>No mezcle servidores de diferentes roles en el mismo conjunto de disponibilidad. Mantenga las máquinas virtuales de servicios centrales, las máquinas virtuales de base de datos y las máquinas virtuales de aplicaciones en sus propios conjuntos de disponibilidad</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Utilice un grupo de ubicación de proximidad por SID de SAP. Los grupos no abarcan zonas de disponibilidad ni regiones de Azure</t>
+          <t>Use un grupo de selección de ubicación de proximidad por SID de SAP. Los grupos no abarcan zonas de disponibilidad ni regiones de Azure</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Actualmente, Azure no admite la combinación de ASCS y db HA en el mismo clúster de Linux Pacemaker; Separarlos en grupos individuales. Sin embargo, puede combinar hasta cinco clústeres de servicios centrales múltiples en un par de máquinas virtuales.</t>
+          <t>Azure no admite actualmente la combinación de ASCS y alta disponibilidad de base de datos en el mismo clúster de Linux Pacemaker; sepáralos en grupos individuales. Sin embargo, puede combinar hasta cinco clústeres de servicios centrales en un par de máquinas virtuales.</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Usar una SKU de equilibrador de carga estándar delante de clústeres ASCS y DB</t>
+          <t>Uso de una SKU de Standard Load Balancer delante de clústeres de ASCS y bases de datos</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Ambas máquinas virtuales del par de alta disponibilidad deben implementarse en un conjunto de disponibilidad o las zonas de disponibilidad deben tener el mismo tamaño y la misma configuración de almacenamiento.</t>
+          <t>Ambas máquinas virtuales del par de alta disponibilidad deben implementarse en un conjunto de disponibilidad, o las zonas de disponibilidad deben tener el mismo tamaño y la misma configuración de almacenamiento</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>La tecnología de replicación de base de datos nativa se debe utilizar para sincronizar la base de datos en un par de alta disponibilidad.</t>
+          <t>Se debe usar la tecnología de replicación de bases de datos nativas para sincronizar la base de datos en un par de alta disponibilidad.</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Realice una recuperación puntual para sus bases de datos de producción en cualquier momento y en un período de tiempo que cumpla con su RTO; La recuperación puntual generalmente incluye errores del operador al eliminar datos en la capa DBMS o a través de SAP, por cierto.</t>
+          <t>Realice una recuperación a un momento dado de sus bases de datos de producción en cualquier momento y en un período de tiempo que cumpla con su RTO; La recuperación a un momento dado suele incluir errores del operador al eliminar datos en la capa DBMS o a través de SAP, por cierto</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>El CIDR para la red virtual principal (VNet) no debe entrar en conflicto ni superponerse con el CIDR de la red virtual del sitio de recuperación ante desastres</t>
+          <t>El CIDR de la red virtual (VNet) principal no debe entrar en conflicto ni superponerse con el CIDR de la red virtual del sitio de recuperación ante desastres</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Utilice Site Recovery para replicar un servidor de aplicaciones en un sitio de recuperación ante desastres. Site Recovery también puede ayudar a replicar máquinas virtuales de clúster de servicios centrales en el sitio de recuperación ante desastres. Cuando invoque DR, deberá volver a configurar el clúster de Linux Pacemaker en el sitio de DR (por ejemplo, reemplazar VIP o SBD, ejecutar corosync.conf y más).</t>
+          <t>Use Site Recovery para replicar un servidor de aplicaciones en un sitio de recuperación ante desastres. Site Recovery también puede ayudar a replicar máquinas virtuales de clúster de servicios centrales en el sitio de recuperación ante desastres. Al invocar la recuperación ante desastres, deberá volver a configurar el clúster de Linux Pacemaker en el sitio de recuperación ante desastres (por ejemplo, reemplazar la VIP o SBD, ejecutar corosync.conf, etc.).</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>La replicación de base de datos nativa se debe usar para sincronizar los datos con el sitio de recuperación ante desastres, en lugar de Azure Site Recovery</t>
+          <t>La replicación nativa de la base de datos debe usarse para sincronizar los datos con el sitio de recuperación ante desastres, en lugar de Azure Site Recovery</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Realizar solicitudes de cuota para SKU y zonas de VM correctas</t>
+          <t>Realizar solicitudes de cuota para la SKU y las zonas de VM correctas</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Aplicar un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
+          <t>Aplicación de un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Aplicar la propagación del principio para reenviar la identidad desde la aplicación en la nube de SAP a SAP local (incluida IaaS) a través del conector de nube</t>
+          <t>Aplicación de la propagación del principio para reenviar la identidad de la aplicación en la nube de SAP a SAP local (incluida IaaS) a través del conector en la nube</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO en aplicaciones SaaS de SAP como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics y SAP C4C con Azure AD mediante SAML.</t>
+          <t>Implemente SSO en aplicaciones SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics y SAP C4C con Azure AD mediante SAML.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver como SAP Fiori y SAP Web GUI mediante SAML.</t>
+          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI mediante SAML.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver como SAP Fiori y SAP Web GUI mediante SAML.</t>
+          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI mediante SAML.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Puede implementar SSO en SAP GUI mediante SAP NetWeaver SSO o una solución de socio.</t>
+          <t>Puede implementar SSO en la GUI de SAP mediante SAP NetWeaver SSO o una solución de partner.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC – Kerberos/SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere SAP Secure Login Server, que es un componente de la solución SAP SSO.</t>
+          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC – Kerberos/SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere el servidor de inicio de sesión seguro de SAP, que es un componente de la solución SSO de SAP.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC – Kerberos/SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere SAP Secure Login Server, que es un componente de la solución SAP SSO.</t>
+          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC – Kerberos/SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere el servidor de inicio de sesión seguro de SAP, que es un componente de la solución SSO de SAP.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO mediante OAuth para SAP NetWeaver para permitir que aplicaciones personalizadas o de terceros accedan a los servicios OData de SAP NetWeaver.</t>
+          <t>Implemente el inicio de sesión único mediante OAuth para SAP NetWeaver a fin de permitir que aplicaciones personalizadas o de terceros accedan a los servicios OData de SAP NetWeaver.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Implementar SSO en SAP HANA</t>
+          <t>Implementación de SSO en SAP HANA</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Para las aplicaciones que acceden a SAP, es posible que desee utilizar la propagación de entidades de seguridad para establecer SSO.</t>
+          <t>En el caso de las aplicaciones que acceden a SAP, es posible que desee utilizar la propagación de entidades de seguridad para establecer el inicio de sesión único.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Si usa servicios BTP de SAP o soluciones SaaS que requieren SAP Identity Authentication Service (IAS), considere la posibilidad de implementar SSO entre SAP Cloud Identity Authentication Services y Azure AD para acceder a esos servicios de SAP. Esta integración permite que SAP IAS actúe como proveedor de identidades proxy y reenvíe las solicitudes de autenticación a Azure AD como almacén de usuarios central y proveedor de identidades.</t>
+          <t>Si usa servicios BTP de SAP o soluciones SaaS que requieren SAP Identity Authentication Service (IAS), considere la posibilidad de implementar SSO entre SAP Cloud Identity Authentication Services y Azure AD para acceder a esos servicios de SAP. Esta integración permite a SAP IAS actuar como proveedor de identidades de proxy y reenvía las solicitudes de autenticación a Azure AD como almacén de usuarios central y proveedor de identidades.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Implementar SSO en SAP BTP</t>
+          <t>Implementación de SSO en SAP BTP</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>aplicar directivas de grupo de administración existentes a suscripciones de SAP</t>
+          <t>aplicar las directivas de grupo de administración existentes a las suscripciones de SAP</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aproveche la suscripción como unidad de escala y escalando nuestros recursos, considere implementar la suscripción por entorno, por ejemplo. Sandbox, no prod, prod </t>
+          <t xml:space="preserve">Aprovechar la suscripción como unidad de escalado y escalar nuestros recursos, considere la posibilidad de implementar la suscripción por entorno, por ejemplo. Sandbox, no-prod, prod </t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Garantizar el aumento de la cuota como parte del aprovisionamiento de suscripciones (por ejemplo, el total de núcleos de VM disponibles dentro de una suscripción)</t>
+          <t>Garantizar el aumento de la cuota como parte del aprovisionamiento de suscripciones (por ejemplo, el total de núcleos de máquina virtual disponibles dentro de una suscripción)</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>La API de cuota es una API de REST que puede usar para ver y administrar cuotas para servicios de Azure. Considere usarlo si es necesario.</t>
+          <t>La API de cuota es una API de REST que se puede usar para ver y administrar las cuotas de los servicios de Azure. Considere usarlo si es necesario.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Si se implementa en una zona de disponibilidad, asegúrese de que la implementación de la zona de la máquina virtual esté disponible una vez que se haya aprobado la cuota. Envíe una solicitud de soporte con la suscripción, la serie de máquinas virtuales, el número de CPU y la zona de disponibilidad requerida.</t>
+          <t>Si realiza la implementación en una zona de disponibilidad, asegúrese de que la implementación de la zona de la máquina virtual esté disponible una vez que se haya aprobado la cuota. Envíe una solicitud de soporte técnico con la suscripción, la serie de máquinas virtuales, el número de CPU y la zona de disponibilidad necesaria.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios y características requeridos estén disponibles dentro de las regiones de implementación elegidas, por ejemplo. ANF, zona, etc.</t>
+          <t>Asegúrese de que los servicios y funciones requeridos estén disponibles dentro de las regiones de implementación elegidas, por ejemplo. ANF, Zona, etc.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la etiqueta de recursos de Azure para la categorización de costos y la agrupación de recursos (BillTo, Departamento (o unidad de negocio), Entorno (producción, etapa, desarrollo), Nivel (nivel web, nivel de aplicación), propietario de la aplicación, nombre del proyecto)</t>
+          <t>Aproveche la etiqueta de recurso de Azure para la categorización de costos y la agrupación de recursos (: BillTo, Departamento (o unidad de negocio), Entorno (producción, Fase, Desarrollo), Nivel (nivel web, nivel de aplicación), Propietario de la aplicación, ProjectName)</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2735,23 +2735,23 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Usar SAP Solution Manager y Azure Monitor for SAP Solutions para supervisar SAP HANA, clústeres de SUSE de alta disponibilidad y sistemas SQL</t>
+          <t>Ayude a proteger la base de datos de HANA mediante el servicio Azure Backup.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2760,13 +2760,21 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="n"/>
-      <c r="I44" s="15" t="n"/>
+      <c r="H44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2777,17 +2785,17 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Ejecute una extensión de máquina virtual para la comprobación de SAP. VM Extension for SAP usa la identidad administrada asignada de una máquina virtual para acceder a los datos de configuración y supervisión de VM.</t>
+          <t>Si implementa Azure NetApp Files para la base de datos HANA, Oracle o DB2, use la herramienta Azure Application Consistent Snapshot (AzAcSnap) para tomar instantáneas coherentes con la aplicación. AzAcSnap también es compatible con las bases de datos de Oracle. Considere la posibilidad de usar AzAcSnap en una máquina virtual central en lugar de en máquinas virtuales individuales.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2804,19 +2812,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2827,23 +2830,23 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
+          <t>Asegúrese de que la zona horaria coincida entre el sistema operativo y el sistema SAP.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2854,19 +2857,15 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I46" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2877,17 +2876,17 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Proteja su base de datos de HANA con el servicio Copia de seguridad de Azure. Si implementa Azure NetApp Files (ANF) para la base de datos de HANA, use la herramienta Azure Application Consistent Snapshot (AzAcSnap) para tomar instantáneas coherentes con la aplicación</t>
+          <t>No agrupe diferentes servicios de aplicaciones en el mismo clúster. Por ejemplo, no combine DRBD y clústeres de servicios centrales en el mismo clúster. Sin embargo, puede usar el mismo clúster de Pacemaker para administrar aproximadamente cinco servicios centrales diferentes (clúster de varios SID).</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2904,19 +2903,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2927,23 +2926,23 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Realice una comprobación de calidad de SAP HANA en la infraestructura de Azure aprovisionada para comprobar que las máquinas virtuales aprovisionadas cumplen con los procedimientos recomendados de SAP HANA en Azure.</t>
+          <t>Considere la posibilidad de ejecutar sistemas de desarrollo y pruebas en un modelo de repetición para ahorrar y optimizar los costos de ejecución de Azure.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2954,19 +2953,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2977,17 +2971,17 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Use el Monitor de conexión de Network Watcher para supervisar las métricas de latencia de la base de datos SAP y del servidor de aplicaciones, o para recopilar y mostrar mediciones de latencia de red con Azure Monitor.</t>
+          <t>Si se asocia con los clientes mediante la administración de sus propiedades de SAP, considere la posibilidad de usar Azure Lighthouse. Azure Lighthouse permite a los proveedores de servicios administrados usar los servicios de identidad nativos de Azure para autenticarse en el entorno de los clientes. Pone el control en manos de los clientes, ya que pueden revocar el acceso en cualquier momento y auditar las acciones de los proveedores de servicios.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3004,19 +2998,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3027,17 +3016,17 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Optimice y gestione las operaciones de SAP Basis mediante SAP Landscape Management (LaMa). Use el conector de SAP LaMa para Azure para reubicar, copiar, clonar y actualizar sistemas SAP.</t>
+          <t>Use Azure Update Manager para comprobar el estado de las actualizaciones disponibles para una sola máquina virtual o varias máquinas virtuales y considere la posibilidad de programar revisiones periódicas.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3054,19 +3043,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3077,23 +3066,23 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Para cada suscripción de Azure, ejecute una prueba de latencia de la zona de disponibilidad de Azure antes de la implementación zonal para elegir zonas de baja latencia para la implementación de SAP en Azure.</t>
+          <t>Optimice y gestione las operaciones de SAP Basis mediante SAP Landscape Management (LaMa). Use el conector de SAP LaMa para Azure para reubicar, copiar, clonar y actualizar sistemas SAP.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3104,15 +3093,19 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3123,7 +3116,7 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
@@ -3133,7 +3126,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Implemente protección contra amenazas para SAP con Microsoft Sentinel.</t>
+          <t>Use Azure Monitor para soluciones SAP para supervisar las cargas de trabajo de SAP (SAP HANA, clústeres de SUSE de alta disponibilidad y sistemas SQL) en Azure. Considere la posibilidad de complementar las soluciones de Azure Monitor para SAP con SAP Solution Manager.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3150,15 +3143,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3169,7 +3166,7 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
@@ -3179,13 +3176,13 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>La aplicación de la configuración de la administración de actualizaciones a través de la directiva garantiza que todas las máquinas virtuales estén incluidas en el régimen de administración de parches, proporciona a los equipos de aplicaciones la capacidad de administrar la implementación de parches para sus máquinas virtuales y proporciona a TI central capacidades de visibilidad y aplicación en todas las máquinas virtuales.</t>
+          <t>Ejecute una comprobación de extensión de máquina virtual para SAP. VM Extension for SAP usa la identidad administrada asignada de una máquina virtual (VM) para acceder a los datos de configuración y supervisión de VM. La comprobación garantiza que todas las métricas de rendimiento de la aplicación SAP proceden de la extensión de Azure para SAP subyacente.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3196,14 +3193,19 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3214,7 +3216,7 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
@@ -3224,7 +3226,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Habilite VM Insights para las cargas de trabajo de SAP que ejecutan máquinas virtuales.</t>
+          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3241,15 +3243,19 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
-        </is>
-      </c>
-      <c r="I54" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I54" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>c486ba28-0dc0-4591-af65-de8e1309cccd</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3260,7 +3266,7 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
@@ -3270,7 +3276,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>El etiquetado de Azure se puede aprovechar para agrupar y realizar un seguimiento de los recursos de forma lógica, automatizar sus implementaciones y, lo que es más importante, proporcionar visibilidad de los costos incurridos.</t>
+          <t>Use el Monitor de conexión en Azure Network Watcher para supervisar las métricas de latencia de las bases de datos y los servidores de aplicaciones de SAP. O bien, recopile y muestre medidas de latencia de red mediante Azure Monitor.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3287,14 +3293,19 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3305,7 +3316,7 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
@@ -3315,13 +3326,13 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones SAP.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3332,14 +3343,19 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>4919cb1b-3d13-425a-b124-ba34df685edd</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3350,17 +3366,17 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Para la entrega segura de aplicaciones HTTP/S, utilice Application Gateway v2 y asegúrese de que la protección y las directivas de WAF estén habilitadas.</t>
+          <t>Realice una comprobación de calidad de SAP HANA en la infraestructura de Azure aprovisionada para comprobar que las máquinas virtuales aprovisionadas cumplen con los procedimientos recomendados de SAP HANA en Azure.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3377,19 +3393,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3400,23 +3411,23 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>El emparejamiento de red virtual local y global proporciona conectividad y son los enfoques preferidos para garantizar la conectividad entre las zonas de aterrizaje para las implementaciones de SAP en varias regiones de Azure.</t>
+          <t>Para cada suscripción de Azure, ejecute una prueba de latencia en las zonas de disponibilidad de Azure antes de la implementación zonal para elegir zonas de baja latencia para la implementación de SAP en Azure.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3427,19 +3438,19 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3450,17 +3461,17 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>No se recomienda la asignación de IP pública a la máquina virtual que ejecuta SAP Workload.</t>
+          <t>Ejecute el informe de resistencia para asegurarse de que la configuración de toda la infraestructura de Azure aprovisionada (proceso, base de datos, redes, almacenamiento, Site Recovery) cumple con la configuración definida por Cloud Adaption Framework para Azure.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3477,19 +3488,19 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3500,17 +3511,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Considere reservar la dirección IP en el lado DR al configurar ASR</t>
+          <t>Implemente la protección contra amenazas mediante la solución Microsoft Sentinel para SAP. Utilice esta solución para supervisar sus sistemas SAP y detectar amenazas sofisticadas en toda la lógica empresarial y las capas de aplicación.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3527,19 +3538,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3550,17 +3561,17 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
+          <t>El etiquetado de Azure se puede aprovechar para agrupar y realizar un seguimiento lógico de los recursos, automatizar sus implementaciones y, lo que es más importante, proporcionar visibilidad de los costos incurridos.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3577,19 +3588,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3600,23 +3611,23 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la red acelerada esté habilitada para todas las máquinas virtuales donde corresponda.</t>
+          <t>Use la supervisión de latencia entre máquinas virtuales para aplicaciones sensibles a la latencia.</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3627,19 +3638,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3650,17 +3656,17 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones SAP.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3677,19 +3683,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3700,17 +3706,17 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Utilice SAP Web Dispatcher o un servicio de terceros como NetScaler junto con Application Gateway si es necesario para superar la limitación de proxy inverso para SAP Web Apps.</t>
+          <t>Excluya todos los sistemas de archivos de bases de datos y programas ejecutables de los análisis antivirus. Incluirlos podría dar lugar a problemas de rendimiento. Consulte con los proveedores de bases de datos para obtener detalles prescriptivos sobre la lista de exclusión. Por ejemplo, Oracle recomienda excluir /oracle/&lt;sid&gt;/sapdata de los análisis antivirus.</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3727,19 +3733,15 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3750,23 +3752,23 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Considere la posibilidad de recopilar estadísticas de base de datos completas para bases de datos que no son de HANA después de la migración. Por ejemplo, implemente la nota de SAP 1020260 - Entrega de estadísticas de Oracle.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3777,19 +3779,15 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3800,17 +3798,17 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Considere la posibilidad de usar Oracle Automatic Storage Management (ASM) para todas las implementaciones de Oracle que usan SAP en Azure.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3827,19 +3825,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3850,17 +3848,17 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Utilice un firewall de aplicaciones web para analizar su tráfico cuando esté expuesto a Internet. Otra opción es usarlo con el equilibrador de carga o con recursos que tengan capacidades de firewall integradas, como Application Gateway o soluciones de terceros.</t>
+          <t>En el caso de SAP en Azure que ejecuta Oracle, una colección de scripts SQL puede ayudarle a diagnosticar problemas de rendimiento.  Los informes de repositorio automático de cargas de trabajo (AWR) contienen información valiosa para diagnosticar problemas en el sistema Oracle. Le recomendamos que ejecute un informe de AWR durante varias sesiones y elija las horas punta para él, a fin de garantizar una amplia cobertura del análisis.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3877,19 +3875,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3905,12 +3903,12 @@
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones internas de Azure Load Balancer estén configuradas para usar Direct Server Return (DSR) para la configuración de alta disponibilidad en la capa de DBMS</t>
+          <t>Para la entrega segura de aplicaciones HTTP/S, use Application Gateway v2 y asegúrese de que la protección y las directivas de WAF están habilitadas.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3925,13 +3923,21 @@
         </is>
       </c>
       <c r="G68" s="21" t="n"/>
-      <c r="H68" s="15" t="n"/>
-      <c r="I68" s="15" t="n"/>
+      <c r="H68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+        </is>
+      </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3947,12 +3953,12 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Si se usa Azure NetApp Files para la implementación de SAP, asegúrese de que solo puede existir una subred delegada en una red virtual para Azure NetAppFiles</t>
+          <t>Si el DNS o el nombre virtual de la máquina virtual no se cambia durante la migración a Azure, el DNS en segundo plano y los nombres virtuales conectan muchas interfaces del sistema en el entorno de SAP, y los clientes solo conocen a veces las interfaces que los desarrolladores definen a lo largo del tiempo. Los problemas de conexión surgen entre varios sistemas cuando los nombres virtuales o DNS cambian después de las migraciones, y se recomienda conservar los alias DNS para evitar este tipo de dificultades.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3969,19 +3975,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3997,12 +4003,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Utilice NSG y grupos de seguridad de aplicaciones para microsegmentar el tráfico dentro de la capa de aplicación de SAP, como subred de aplicaciones, subred de base de datos y subred web, etc.</t>
+          <t>Utilice diferentes zonas DNS para distinguir cada entorno (espacio aislado, desarrollo, preproducción y producción) entre sí. La excepción es para las implementaciones de SAP con su propia red virtual; en este caso, es posible que las zonas DNS privadas no sean necesarias.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4019,19 +4025,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4047,12 +4053,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>No se admite la implementación de ningún NVA entre la aplicación SAP y el servidor de base de datos SAP</t>
+          <t>El emparejamiento de red virtual local y global proporciona conectividad y son los enfoques preferidos para garantizar la conectividad entre las zonas de aterrizaje para las implementaciones de SAP en varias regiones de Azure</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4069,19 +4075,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4097,18 +4103,18 @@
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>No se admite la colocación de la capa de aplicación SAP y SAP DBMS en diferentes redes virtuales de Azure que no están emparejadas</t>
+          <t>No se admite la implementación de ninguna aplicación virtual de red entre la aplicación SAP y el servidor de base de datos SAP</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4117,13 +4123,21 @@
         </is>
       </c>
       <c r="G72" s="21" t="n"/>
-      <c r="H72" s="15" t="n"/>
-      <c r="I72" s="15" t="n"/>
+      <c r="H72" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/2731110</t>
+        </is>
+      </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4139,12 +4153,12 @@
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Para obtener una latencia de red óptima con aplicaciones SAP, considere la posibilidad de usar grupos de ubicación de proximidad de Azure.</t>
+          <t>Use Virtual WAN para implementaciones de Azure en redes nuevas, grandes o globales en las que necesite conectividad de tránsito global entre regiones de Azure y ubicaciones locales. Con este enfoque, no tendrá que configurar manualmente el enrutamiento transitivo para las redes de Azure y puede seguir un estándar para las implementaciones de SAP en Azure.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4159,13 +4173,21 @@
         </is>
       </c>
       <c r="G73" s="21" t="n"/>
-      <c r="H73" s="15" t="n"/>
-      <c r="I73" s="15" t="n"/>
+      <c r="H73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4176,23 +4198,23 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Personalización de roles de control de acceso basado en roles (RBAC) para SAP en suscripciones radiales de Azure para evitar cambios accidentales relacionados con la red</t>
+          <t>Considere la posibilidad de implementar aplicaciones virtuales de red (NVA) entre regiones solo si se usan aplicaciones virtuales de red de asociado. Las aplicaciones virtuales de red entre regiones o redes virtuales no son necesarias si hay aplicaciones virtuales de red nativas. Al implementar tecnologías de redes de asociados y aplicaciones virtuales de red, siga las instrucciones del proveedor para comprobar las configuraciones conflictivas con las redes de Azure.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4203,15 +4225,19 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4222,17 +4248,17 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Aísle las DMZ y NVA del resto del estado de SAP, configure Azure Private Link y administre y controle de forma segura los recursos de SAP en Azure</t>
+          <t>Virtual WAN administra la conectividad entre redes virtuales de radio para topologías basadas en WAN virtuales (sin necesidad de configurar el enrutamiento definido por el usuario [UDR] o NVA), y el rendimiento máximo de red para el tráfico de red virtual a red virtual en el mismo centro virtual es de 50 gigabits por segundo. Si es necesario, las zonas de aterrizaje de SAP pueden usar el emparejamiento de red virtual para conectarse a otras zonas de aterrizaje y superar esta limitación de ancho de banda.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4249,15 +4275,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4268,23 +4298,23 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Para el cifrado del servidor de base de datos SAP, utilice la tecnología de cifrado nativa de SAP HANA. Si usa Base de datos SQL de Azure, use el cifrado de datos transparente (TDE) ofrecido por el proveedor de DBMS para proteger los datos y los archivos de registro, y asegúrese de que las copias de seguridad también estén cifradas.</t>
+          <t>No se recomienda la asignación de I.P pública a la máquina virtual que ejecuta SAP Workload.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4295,15 +4325,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I76" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I76" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4314,23 +4348,23 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>El cifrado de Azure Storage está habilitado de forma predeterminada</t>
+          <t>Considere la posibilidad de reservar la dirección I.P en el lado de la recuperación ante desastres al configurar ASR</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4341,15 +4375,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I77" s="15" t="n"/>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I77" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4360,23 +4398,23 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Evite el uso de intervalos de direcciones IP superpuestos para los sitios de producción y recuperación ante desastres.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4387,15 +4425,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I78" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I78" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4406,17 +4448,17 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Aunque Azure le ayuda a crear varias subredes delegadas en una red virtual, solo puede existir una subred delegada en una red virtual para Azure NetApp Files. Se producirá un error al intentar crear un nuevo volumen si se utiliza más de una subred delegada para Azure NetApp Files.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4433,15 +4475,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I79" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+        </is>
+      </c>
+      <c r="I79" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+        </is>
+      </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4452,23 +4498,23 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4479,15 +4525,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I80" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+        </is>
+      </c>
+      <c r="I80" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4498,17 +4548,17 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Se recomienda BLOQUEAR la implementación posterior a la implementación correcta de Azure Resources para protegerse contra cambios no autorizados.</t>
+          <t>Use SAP Web Dispatcher o un servicio de terceros como NetScaler junto con Application Gateway si es necesario para superar la limitación de proxy inverso para SAP Web Apps.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4523,17 +4573,13 @@
         </is>
       </c>
       <c r="G81" s="21" t="n"/>
-      <c r="H81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
-        </is>
-      </c>
+      <c r="H81" s="15" t="n"/>
       <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4544,17 +4590,17 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
+          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4571,15 +4617,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4590,17 +4640,17 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>En función de los requisitos existentes, los controles normativos y de cumplimiento (internos y externos): determine qué directivas de Azure y rol RBAC de Azure son necesarios</t>
+          <t>Aproveche las directivas de Web Application Firewall en Azure Front Door cuando use Azure Front Door y Application Gateway para proteger las aplicaciones HTTP/S. Bloquee Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4617,15 +4667,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4636,17 +4690,17 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Cuando habilite Microsoft Defender para Cloud Standard para SAP, asegúrese de excluir los servidores de bases de datos SAP de cualquier directiva que instale la protección de extremos.</t>
+          <t>Utilice un firewall de aplicaciones web para analizar su tráfico cuando esté expuesto a Internet. Otra opción es usarlo con el equilibrador de carga o con recursos que tengan funcionalidades de firewall integradas, como Application Gateway o soluciones de terceros.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4663,15 +4717,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I84" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I84" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4682,17 +4740,17 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Delegue un rol personalizado de administrador de SAP con acceso justo a tiempo.</t>
+          <t>Use Virtual WAN para implementaciones de Azure en redes nuevas, grandes o globales en las que necesite conectividad de tránsito global entre regiones de Azure y ubicaciones locales. Con este enfoque, no tendrá que configurar manualmente el enrutamiento transitivo para las redes de Azure y puede seguir un estándar para las implementaciones de SAP en Azure.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4709,15 +4767,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I85" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+        </is>
+      </c>
+      <c r="I85" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+        </is>
+      </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4728,17 +4790,17 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>cifrar datos en tránsito integrando el producto de seguridad de terceros con comunicaciones de red seguras (SNC) para DIAG (SAP GUI), RFC y SPNEGO para HTTPS</t>
+          <t>Para evitar la pérdida de datos, use Azure Private Link para acceder de forma segura a los recursos de la plataforma como servicio, como Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, etc. El punto de conexión privado de Azure también puede ayudar a proteger el tráfico entre redes virtuales y servicios como Azure Storage, Azure Backup, etc. El tráfico entre la red virtual y el servicio habilitado para punto de conexión privado viaja a través de la red global de Microsoft, lo que impide su exposición a la red pública de Internet.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4755,15 +4817,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4774,23 +4840,23 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Azure Active Directory (Azure AD) con SAML 2.0 también puede proporcionar SSO a una amplia gama de aplicaciones y plataformas de SAP, como SAP NetWeaver, SAP HANA y SAP Cloud Platform</t>
+          <t>Asegúrese de que las redes aceleradas de Azure están habilitadas en las máquinas virtuales que se usan en las capas de aplicación SAP y DBMS.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4801,15 +4867,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I87" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+        </is>
+      </c>
+      <c r="I87" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4820,17 +4890,17 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de reforzar el sistema operativo para erradicar las vulnerabilidades que podrían conducir a ataques a la base de datos SAP.</t>
+          <t>Asegúrese de que las implementaciones internas de Azure Load Balancer están configuradas para usar Direct Server Return (DSR). Esta configuración reducirá la latencia cuando se utilicen configuraciones internas del equilibrador de carga para configuraciones de alta disponibilidad en la capa DBMS.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4847,15 +4917,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I88" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+        </is>
+      </c>
+      <c r="I88" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4866,17 +4940,17 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>Puede usar reglas de grupo de seguridad de aplicaciones (ASG) y NSG para definir listas de control de acceso de seguridad de red entre las capas de aplicación SAP y DBMS. Los ASG agrupan las máquinas virtuales para ayudar a administrar su seguridad.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4893,15 +4967,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -4912,23 +4990,23 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
+          <t>No se admite la colocación de la capa de aplicación de SAP y DBMS de SAP en diferentes redes virtuales de Azure que no están emparejadas.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4939,15 +5017,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="n"/>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -4958,17 +5040,17 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Para obtener una latencia de red óptima con aplicaciones SAP, considere la posibilidad de usar grupos de selección de ubicación por proximidad de Azure.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -4985,15 +5067,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5004,23 +5090,23 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Configuración de disco para Oracle, SQL, HANA</t>
+          <t>NO se admite en absoluto la ejecución de una capa de servidor de aplicaciones de SAP y una capa de DBMS divididas entre el entorno local y Azure. Ambas capas deben residir completamente en el entorno local o en Azure.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5029,13 +5115,21 @@
         </is>
       </c>
       <c r="G92" s="21" t="n"/>
-      <c r="H92" s="15" t="n"/>
-      <c r="I92" s="15" t="n"/>
+      <c r="H92" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5044,389 +5138,1064 @@
       <c r="P92" s="25" t="n"/>
     </row>
     <row r="93" ht="16.5" customHeight="1">
-      <c r="A93" s="21" t="n"/>
-      <c r="B93" s="21" t="n"/>
-      <c r="C93" s="21" t="n"/>
+      <c r="A93" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B93" s="21" t="inlineStr">
+        <is>
+          <t>Segmentación</t>
+        </is>
+      </c>
+      <c r="C93" s="21" t="inlineStr">
+        <is>
+          <t>No se recomienda hospedar el sistema de administración de bases de datos (DBMS) y las capas de aplicación de los sistemas SAP en diferentes redes virtuales y conectarlas con el emparejamiento de redes virtuales debido a los costos sustanciales que puede generar un tráfico de red excesivo entre las capas. Se recomienda el uso de subredes dentro de la red virtual de Azure para separar la capa de aplicación de SAP y la capa de DBMS.</t>
+        </is>
+      </c>
       <c r="D93" s="21" t="n"/>
-      <c r="E93" s="21" t="n"/>
+      <c r="E93" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G93" s="21" t="n"/>
-      <c r="H93" s="15" t="n"/>
-      <c r="I93" s="15" t="n"/>
+      <c r="H93" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I93" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
-      <c r="L93" s="25" t="n"/>
+      <c r="L93" s="25" t="inlineStr">
+        <is>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+        </is>
+      </c>
       <c r="M93" s="25" t="n"/>
       <c r="N93" s="25" t="n"/>
       <c r="O93" s="25" t="n"/>
       <c r="P93" s="25" t="n"/>
     </row>
     <row r="94" ht="16.5" customHeight="1">
-      <c r="A94" s="21" t="n"/>
-      <c r="B94" s="21" t="n"/>
-      <c r="C94" s="21" t="n"/>
+      <c r="A94" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B94" s="21" t="inlineStr">
+        <is>
+          <t>Segmentación</t>
+        </is>
+      </c>
+      <c r="C94" s="21" t="inlineStr">
+        <is>
+          <t>Asegúrese de que las redes aceleradas de Azure están habilitadas en las máquinas virtuales que se usan en las capas de aplicación SAP y DBMS.</t>
+        </is>
+      </c>
       <c r="D94" s="21" t="n"/>
-      <c r="E94" s="21" t="n"/>
+      <c r="E94" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G94" s="21" t="n"/>
-      <c r="H94" s="15" t="n"/>
-      <c r="I94" s="15" t="n"/>
+      <c r="H94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
-      <c r="L94" s="25" t="n"/>
+      <c r="L94" s="25" t="inlineStr">
+        <is>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+        </is>
+      </c>
       <c r="M94" s="25" t="n"/>
       <c r="N94" s="25" t="n"/>
       <c r="O94" s="25" t="n"/>
       <c r="P94" s="25" t="n"/>
     </row>
     <row r="95" ht="16.5" customHeight="1">
-      <c r="A95" s="21" t="n"/>
-      <c r="B95" s="21" t="n"/>
-      <c r="C95" s="21" t="n"/>
+      <c r="A95" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B95" s="21" t="inlineStr">
+        <is>
+          <t>Segmentación</t>
+        </is>
+      </c>
+      <c r="C95" s="21" t="inlineStr">
+        <is>
+          <t>Si utiliza Load Balancer con sistemas operativos invitados Linux, compruebe que el parámetro de red de Linux net.ipv4.tcp_timestamps esté establecido en 0.</t>
+        </is>
+      </c>
       <c r="D95" s="21" t="n"/>
-      <c r="E95" s="21" t="n"/>
+      <c r="E95" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G95" s="21" t="n"/>
-      <c r="H95" s="15" t="n"/>
-      <c r="I95" s="15" t="n"/>
+      <c r="H95" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+        </is>
+      </c>
+      <c r="I95" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
-      <c r="L95" s="25" t="n"/>
+      <c r="L95" s="25" t="inlineStr">
+        <is>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+        </is>
+      </c>
       <c r="M95" s="25" t="n"/>
       <c r="N95" s="25" t="n"/>
       <c r="O95" s="25" t="n"/>
       <c r="P95" s="25" t="n"/>
     </row>
     <row r="96" ht="16.5" customHeight="1">
-      <c r="A96" s="21" t="n"/>
-      <c r="B96" s="21" t="n"/>
-      <c r="C96" s="21" t="n"/>
+      <c r="A96" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B96" s="21" t="inlineStr">
+        <is>
+          <t>Segmentación</t>
+        </is>
+      </c>
+      <c r="C96" s="21" t="inlineStr">
+        <is>
+          <t>En el caso de las implementaciones de SAP RISE/ECS, el emparejamiento virtual es la forma preferida de establecer la conectividad con el entorno de Azure existente del cliente. Tanto la red virtual de SAP como las redes virtuales del cliente están protegidas con grupos de seguridad de red (NSG), lo que permite la comunicación en los puertos de SAP y de base de datos a través del emparejamiento de red virtual</t>
+        </is>
+      </c>
       <c r="D96" s="21" t="n"/>
-      <c r="E96" s="21" t="n"/>
+      <c r="E96" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G96" s="21" t="n"/>
-      <c r="H96" s="15" t="n"/>
+      <c r="H96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
       <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
-      <c r="L96" s="25" t="n"/>
+      <c r="L96" s="25" t="inlineStr">
+        <is>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+        </is>
+      </c>
       <c r="M96" s="25" t="n"/>
       <c r="N96" s="25" t="n"/>
       <c r="O96" s="25" t="n"/>
       <c r="P96" s="25" t="n"/>
     </row>
     <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="21" t="n"/>
-      <c r="B97" s="21" t="n"/>
-      <c r="C97" s="21" t="n"/>
+      <c r="A97" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B97" s="21" t="inlineStr">
+        <is>
+          <t>Gobernanza</t>
+        </is>
+      </c>
+      <c r="C97" s="21" t="inlineStr">
+        <is>
+          <t>Personalización de los roles de control de acceso basado en rol (RBAC) para SAP en suscripciones de Azure spoke para evitar cambios accidentales relacionados con la red</t>
+        </is>
+      </c>
       <c r="D97" s="21" t="n"/>
-      <c r="E97" s="21" t="n"/>
+      <c r="E97" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G97" s="21" t="n"/>
-      <c r="H97" s="15" t="n"/>
+      <c r="H97" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
-      <c r="L97" s="25" t="n"/>
+      <c r="L97" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M97" s="25" t="n"/>
       <c r="N97" s="25" t="n"/>
       <c r="O97" s="25" t="n"/>
       <c r="P97" s="25" t="n"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
-      <c r="A98" s="21" t="n"/>
-      <c r="B98" s="21" t="n"/>
-      <c r="C98" s="21" t="n"/>
+      <c r="A98" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B98" s="21" t="inlineStr">
+        <is>
+          <t>Gobernanza</t>
+        </is>
+      </c>
+      <c r="C98" s="21" t="inlineStr">
+        <is>
+          <t>Aísle las redes perimetrales y las aplicaciones virtuales de red del resto del patrimonio de SAP, configure Azure Private Link y administre y controle de forma segura los recursos de SAP en Azure</t>
+        </is>
+      </c>
       <c r="D98" s="21" t="n"/>
-      <c r="E98" s="21" t="n"/>
+      <c r="E98" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G98" s="21" t="n"/>
-      <c r="H98" s="15" t="n"/>
+      <c r="H98" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
-      <c r="L98" s="25" t="n"/>
+      <c r="L98" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M98" s="25" t="n"/>
       <c r="N98" s="25" t="n"/>
       <c r="O98" s="25" t="n"/>
       <c r="P98" s="25" t="n"/>
     </row>
     <row r="99" ht="16.5" customHeight="1">
-      <c r="A99" s="21" t="n"/>
-      <c r="B99" s="21" t="n"/>
-      <c r="C99" s="21" t="n"/>
+      <c r="A99" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B99" s="21" t="inlineStr">
+        <is>
+          <t>Gobernanza</t>
+        </is>
+      </c>
+      <c r="C99" s="21" t="inlineStr">
+        <is>
+          <t>Para el cifrado del servidor de base de datos de SAP, use la tecnología de cifrado nativa de SAP HANA. Si usa Azure SQL Database, use el cifrado de datos transparente (TDE) que ofrece el proveedor de DBMS para proteger los datos y los archivos de registro, y asegúrese de que las copias de seguridad también están cifradas.</t>
+        </is>
+      </c>
       <c r="D99" s="21" t="n"/>
-      <c r="E99" s="21" t="n"/>
+      <c r="E99" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G99" s="21" t="n"/>
-      <c r="H99" s="15" t="n"/>
+      <c r="H99" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
-      <c r="L99" s="25" t="n"/>
+      <c r="L99" s="25" t="inlineStr">
+        <is>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+        </is>
+      </c>
       <c r="M99" s="25" t="n"/>
       <c r="N99" s="25" t="n"/>
       <c r="O99" s="25" t="n"/>
       <c r="P99" s="25" t="n"/>
     </row>
     <row r="100" ht="16.5" customHeight="1">
-      <c r="A100" s="21" t="n"/>
-      <c r="B100" s="21" t="n"/>
-      <c r="C100" s="21" t="n"/>
+      <c r="A100" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B100" s="21" t="inlineStr">
+        <is>
+          <t>Gobernanza</t>
+        </is>
+      </c>
+      <c r="C100" s="21" t="inlineStr">
+        <is>
+          <t>El cifrado de Azure Storage está habilitado de forma predeterminada</t>
+        </is>
+      </c>
       <c r="D100" s="21" t="n"/>
-      <c r="E100" s="21" t="n"/>
+      <c r="E100" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G100" s="21" t="n"/>
-      <c r="H100" s="15" t="n"/>
+      <c r="H100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
-      <c r="L100" s="25" t="n"/>
+      <c r="L100" s="25" t="inlineStr">
+        <is>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+        </is>
+      </c>
       <c r="M100" s="25" t="n"/>
       <c r="N100" s="25" t="n"/>
       <c r="O100" s="25" t="n"/>
       <c r="P100" s="25" t="n"/>
     </row>
     <row r="101" ht="16.5" customHeight="1">
-      <c r="A101" s="21" t="n"/>
-      <c r="B101" s="21" t="n"/>
-      <c r="C101" s="21" t="n"/>
+      <c r="A101" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B101" s="21" t="inlineStr">
+        <is>
+          <t>Gobernanza</t>
+        </is>
+      </c>
+      <c r="C101" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D101" s="21" t="n"/>
-      <c r="E101" s="21" t="n"/>
+      <c r="E101" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G101" s="21" t="n"/>
-      <c r="H101" s="15" t="n"/>
+      <c r="H101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I101" s="15" t="n"/>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
-      <c r="L101" s="25" t="n"/>
+      <c r="L101" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M101" s="25" t="n"/>
       <c r="N101" s="25" t="n"/>
       <c r="O101" s="25" t="n"/>
       <c r="P101" s="25" t="n"/>
     </row>
     <row r="102" ht="16.5" customHeight="1">
-      <c r="A102" s="21" t="n"/>
-      <c r="B102" s="21" t="n"/>
-      <c r="C102" s="21" t="n"/>
+      <c r="A102" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B102" s="21" t="inlineStr">
+        <is>
+          <t>Gobernanza</t>
+        </is>
+      </c>
+      <c r="C102" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D102" s="21" t="n"/>
-      <c r="E102" s="21" t="n"/>
+      <c r="E102" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G102" s="21" t="n"/>
-      <c r="H102" s="15" t="n"/>
+      <c r="H102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
-      <c r="L102" s="25" t="n"/>
+      <c r="L102" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M102" s="25" t="n"/>
       <c r="N102" s="25" t="n"/>
       <c r="O102" s="25" t="n"/>
       <c r="P102" s="25" t="n"/>
     </row>
     <row r="103" ht="16.5" customHeight="1">
-      <c r="A103" s="21" t="n"/>
-      <c r="B103" s="21" t="n"/>
-      <c r="C103" s="21" t="n"/>
+      <c r="A103" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B103" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C103" s="21" t="inlineStr">
+        <is>
+          <t>Uso de Azure Key Vault para almacenar los secretos y las credenciales</t>
+        </is>
+      </c>
       <c r="D103" s="21" t="n"/>
-      <c r="E103" s="21" t="n"/>
+      <c r="E103" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G103" s="21" t="n"/>
-      <c r="H103" s="15" t="n"/>
+      <c r="H103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+        </is>
+      </c>
       <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
-      <c r="L103" s="25" t="n"/>
+      <c r="L103" s="25" t="inlineStr">
+        <is>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+        </is>
+      </c>
       <c r="M103" s="25" t="n"/>
       <c r="N103" s="25" t="n"/>
       <c r="O103" s="25" t="n"/>
       <c r="P103" s="25" t="n"/>
     </row>
     <row r="104" ht="16.5" customHeight="1">
-      <c r="A104" s="21" t="n"/>
-      <c r="B104" s="21" t="n"/>
-      <c r="C104" s="21" t="n"/>
+      <c r="A104" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B104" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C104" s="21" t="inlineStr">
+        <is>
+          <t>Se recomienda BLOQUEAR los recursos de Azure después de la implementación correcta para protegerse contra cambios no autorizados</t>
+        </is>
+      </c>
       <c r="D104" s="21" t="n"/>
-      <c r="E104" s="21" t="n"/>
+      <c r="E104" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G104" s="21" t="n"/>
-      <c r="H104" s="15" t="n"/>
+      <c r="H104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+        </is>
+      </c>
       <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
-      <c r="L104" s="25" t="n"/>
+      <c r="L104" s="25" t="inlineStr">
+        <is>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+        </is>
+      </c>
       <c r="M104" s="25" t="n"/>
       <c r="N104" s="25" t="n"/>
       <c r="O104" s="25" t="n"/>
       <c r="P104" s="25" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1">
-      <c r="A105" s="21" t="n"/>
-      <c r="B105" s="21" t="n"/>
-      <c r="C105" s="21" t="n"/>
+      <c r="A105" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B105" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C105" s="21" t="inlineStr">
+        <is>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
+        </is>
+      </c>
       <c r="D105" s="21" t="n"/>
-      <c r="E105" s="21" t="n"/>
+      <c r="E105" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G105" s="21" t="n"/>
-      <c r="H105" s="15" t="n"/>
+      <c r="H105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
-      <c r="L105" s="25" t="n"/>
+      <c r="L105" s="25" t="inlineStr">
+        <is>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+        </is>
+      </c>
       <c r="M105" s="25" t="n"/>
       <c r="N105" s="25" t="n"/>
       <c r="O105" s="25" t="n"/>
       <c r="P105" s="25" t="n"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
-      <c r="A106" s="21" t="n"/>
-      <c r="B106" s="21" t="n"/>
-      <c r="C106" s="21" t="n"/>
+      <c r="A106" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B106" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C106" s="21" t="inlineStr">
+        <is>
+          <t>En función de los requisitos existentes, controles normativos y de cumplimiento (internos y externos): determine qué directivas de Azure y el rol de RBAC de Azure son necesarios</t>
+        </is>
+      </c>
       <c r="D106" s="21" t="n"/>
-      <c r="E106" s="21" t="n"/>
+      <c r="E106" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G106" s="21" t="n"/>
-      <c r="H106" s="15" t="n"/>
+      <c r="H106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
-      <c r="L106" s="25" t="n"/>
+      <c r="L106" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M106" s="25" t="n"/>
       <c r="N106" s="25" t="n"/>
       <c r="O106" s="25" t="n"/>
       <c r="P106" s="25" t="n"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="21" t="n"/>
-      <c r="B107" s="21" t="n"/>
-      <c r="C107" s="21" t="n"/>
+      <c r="A107" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B107" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C107" s="21" t="inlineStr">
+        <is>
+          <t>Al habilitar Microsoft Defender for Cloud Standard para SAP, asegúrese de excluir los servidores de base de datos de SAP de cualquier directiva que instale Endpoint Protection.</t>
+        </is>
+      </c>
       <c r="D107" s="21" t="n"/>
-      <c r="E107" s="21" t="n"/>
+      <c r="E107" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G107" s="21" t="n"/>
-      <c r="H107" s="15" t="n"/>
+      <c r="H107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
-      <c r="L107" s="25" t="n"/>
+      <c r="L107" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M107" s="25" t="n"/>
       <c r="N107" s="25" t="n"/>
       <c r="O107" s="25" t="n"/>
       <c r="P107" s="25" t="n"/>
     </row>
     <row r="108" ht="16.5" customHeight="1">
-      <c r="A108" s="21" t="n"/>
-      <c r="B108" s="21" t="n"/>
-      <c r="C108" s="21" t="n"/>
+      <c r="A108" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B108" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C108" s="21" t="inlineStr">
+        <is>
+          <t>Delegue un rol personalizado de administrador de SAP con acceso Just-In-Time.</t>
+        </is>
+      </c>
       <c r="D108" s="21" t="n"/>
-      <c r="E108" s="21" t="n"/>
+      <c r="E108" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G108" s="21" t="n"/>
-      <c r="H108" s="15" t="n"/>
+      <c r="H108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
-      <c r="L108" s="25" t="n"/>
+      <c r="L108" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M108" s="25" t="n"/>
       <c r="N108" s="25" t="n"/>
       <c r="O108" s="25" t="n"/>
       <c r="P108" s="25" t="n"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
-      <c r="A109" s="21" t="n"/>
-      <c r="B109" s="21" t="n"/>
-      <c r="C109" s="21" t="n"/>
+      <c r="A109" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B109" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C109" s="21" t="inlineStr">
+        <is>
+          <t>cifre los datos en tránsito integrando el producto de seguridad de terceros con comunicaciones de red seguras (SNC) para DIAG (SAP GUI), RFC y SPNEGO para HTTPS</t>
+        </is>
+      </c>
       <c r="D109" s="21" t="n"/>
-      <c r="E109" s="21" t="n"/>
+      <c r="E109" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G109" s="21" t="n"/>
-      <c r="H109" s="15" t="n"/>
+      <c r="H109" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
-      <c r="L109" s="25" t="n"/>
+      <c r="L109" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M109" s="25" t="n"/>
       <c r="N109" s="25" t="n"/>
       <c r="O109" s="25" t="n"/>
       <c r="P109" s="25" t="n"/>
     </row>
     <row r="110" ht="16.5" customHeight="1">
-      <c r="A110" s="21" t="n"/>
-      <c r="B110" s="21" t="n"/>
-      <c r="C110" s="21" t="n"/>
+      <c r="A110" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B110" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C110" s="21" t="inlineStr">
+        <is>
+          <t>Azure Active Directory (Azure AD) con SAML 2.0 también puede proporcionar SSO a una amplia gama de aplicaciones y plataformas de SAP, como SAP NetWeaver, SAP HANA y SAP Cloud Platform</t>
+        </is>
+      </c>
       <c r="D110" s="21" t="n"/>
-      <c r="E110" s="21" t="n"/>
+      <c r="E110" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G110" s="21" t="n"/>
-      <c r="H110" s="15" t="n"/>
+      <c r="H110" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
-      <c r="L110" s="25" t="n"/>
+      <c r="L110" s="25" t="inlineStr">
+        <is>
+          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
+        </is>
+      </c>
       <c r="M110" s="25" t="n"/>
       <c r="N110" s="25" t="n"/>
       <c r="O110" s="25" t="n"/>
       <c r="P110" s="25" t="n"/>
     </row>
     <row r="111" ht="16.5" customHeight="1">
-      <c r="A111" s="21" t="n"/>
-      <c r="B111" s="21" t="n"/>
-      <c r="C111" s="21" t="n"/>
+      <c r="A111" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B111" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C111" s="21" t="inlineStr">
+        <is>
+          <t>Asegúrese de reforzar el sistema operativo para erradicar las vulnerabilidades que podrían provocar ataques a la base de datos de SAP.</t>
+        </is>
+      </c>
       <c r="D111" s="21" t="n"/>
-      <c r="E111" s="21" t="n"/>
+      <c r="E111" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G111" s="21" t="n"/>
-      <c r="H111" s="15" t="n"/>
+      <c r="H111" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
-      <c r="L111" s="25" t="n"/>
+      <c r="L111" s="25" t="inlineStr">
+        <is>
+          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
+        </is>
+      </c>
       <c r="M111" s="25" t="n"/>
       <c r="N111" s="25" t="n"/>
       <c r="O111" s="25" t="n"/>
       <c r="P111" s="25" t="n"/>
     </row>
     <row r="112" ht="16.5" customHeight="1">
-      <c r="A112" s="21" t="n"/>
-      <c r="B112" s="21" t="n"/>
-      <c r="C112" s="21" t="n"/>
+      <c r="A112" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B112" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C112" s="21" t="inlineStr">
+        <is>
+          <t>De forma predeterminada, utilice claves administradas por Microsoft para la funcionalidad de cifrado de entidad de seguridad y use claves administradas por el cliente cuando sea necesario.</t>
+        </is>
+      </c>
       <c r="D112" s="21" t="n"/>
-      <c r="E112" s="21" t="n"/>
+      <c r="E112" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G112" s="21" t="n"/>
-      <c r="H112" s="15" t="n"/>
+      <c r="H112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I112" s="15" t="n"/>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
-      <c r="L112" s="25" t="n"/>
+      <c r="L112" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M112" s="25" t="n"/>
       <c r="N112" s="25" t="n"/>
       <c r="O112" s="25" t="n"/>
       <c r="P112" s="25" t="n"/>
     </row>
     <row r="113" ht="16.5" customHeight="1">
-      <c r="A113" s="21" t="n"/>
-      <c r="B113" s="21" t="n"/>
-      <c r="C113" s="21" t="n"/>
+      <c r="A113" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B113" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C113" s="21" t="inlineStr">
+        <is>
+          <t>Use una instancia de Azure Key Vault por aplicación, por entorno, por región.</t>
+        </is>
+      </c>
       <c r="D113" s="21" t="n"/>
-      <c r="E113" s="21" t="n"/>
+      <c r="E113" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G113" s="21" t="n"/>
-      <c r="H113" s="15" t="n"/>
+      <c r="H113" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I113" s="15" t="n"/>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
-      <c r="L113" s="25" t="n"/>
+      <c r="L113" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M113" s="25" t="n"/>
       <c r="N113" s="25" t="n"/>
       <c r="O113" s="25" t="n"/>
       <c r="P113" s="25" t="n"/>
     </row>
     <row r="114" ht="16.5" customHeight="1">
-      <c r="A114" s="21" t="n"/>
-      <c r="B114" s="21" t="n"/>
-      <c r="C114" s="21" t="n"/>
+      <c r="A114" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B114" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C114" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D114" s="21" t="n"/>
-      <c r="E114" s="21" t="n"/>
+      <c r="E114" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G114" s="21" t="n"/>
-      <c r="H114" s="15" t="n"/>
+      <c r="H114" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I114" s="15" t="n"/>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
-      <c r="L114" s="25" t="n"/>
+      <c r="L114" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M114" s="25" t="n"/>
       <c r="N114" s="25" t="n"/>
       <c r="O114" s="25" t="n"/>
       <c r="P114" s="25" t="n"/>
     </row>
     <row r="115" ht="16.5" customHeight="1">
-      <c r="A115" s="21" t="n"/>
-      <c r="B115" s="21" t="n"/>
-      <c r="C115" s="21" t="n"/>
+      <c r="A115" s="21" t="inlineStr">
+        <is>
+          <t>Almacenamiento</t>
+        </is>
+      </c>
+      <c r="B115" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
+      <c r="C115" s="21" t="inlineStr">
+        <is>
+          <t>Configuración de disco para Oracle, SQL, HANA</t>
+        </is>
+      </c>
       <c r="D115" s="21" t="n"/>
-      <c r="E115" s="21" t="n"/>
+      <c r="E115" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="n"/>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
-      <c r="L115" s="25" t="n"/>
+      <c r="L115" s="25" t="inlineStr">
+        <is>
+          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+        </is>
+      </c>
       <c r="M115" s="25" t="n"/>
       <c r="N115" s="25" t="n"/>
       <c r="O115" s="25" t="n"/>
@@ -8367,7 +9136,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F93" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F116" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -8529,7 +9298,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">

--- a/spreadsheet/macrofree/sap_checklist.es.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.es.xlsx
@@ -4558,7 +4558,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Use SAP Web Dispatcher o un servicio de terceros como NetScaler junto con Application Gateway si es necesario para superar la limitación de proxy inverso para SAP Web Apps.</t>
+          <t>Application Gateway y Web Application Firewall tienen limitaciones cuando Application Gateway actúa como proxy inverso para aplicaciones web de SAP, como se muestra en la comparación entre Application Gateway, SAP Web Dispatcher y otros servicios de terceros.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4573,13 +4573,21 @@
         </is>
       </c>
       <c r="G81" s="21" t="n"/>
-      <c r="H81" s="15" t="n"/>
-      <c r="I81" s="15" t="n"/>
+      <c r="H81" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>

--- a/spreadsheet/macrofree/sap_checklist.es.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.es.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>No combine ASCS y el clúster de base de datos en una sola máquina virtual o en la misma máquina virtual</t>
+          <t>Azure no admite actualmente la combinación de ASCS y alta disponibilidad de base de datos en el mismo clúster de Linux Pacemaker; sepáralos en grupos individuales. Sin embargo, puede combinar hasta cinco clústeres de servicios centrales en un par de máquinas virtuales.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1086,7 +1086,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1094,7 +1094,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>aff6691b-4935-4ada-9222-3ece81b12318</t>
+          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la IP flotante esté habilitada en el equilibrador de carga</t>
+          <t>Uso de una SKU de Standard Load Balancer delante de clústeres de ASCS y bases de datos</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1132,7 +1132,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1140,7 +1140,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
+          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>No mezcle servidores de diferentes roles en el mismo conjunto de disponibilidad. Mantenga las máquinas virtuales de servicios centrales, las máquinas virtuales de base de datos y las máquinas virtuales de aplicaciones en sus propios conjuntos de disponibilidad</t>
+          <t>Ambas máquinas virtuales del par de alta disponibilidad deben implementarse en un conjunto de disponibilidad, o las zonas de disponibilidad deben tener el mismo tamaño y la misma configuración de almacenamiento</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1178,7 +1178,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1186,7 +1186,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
+          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Use un grupo de selección de ubicación de proximidad por SID de SAP. Los grupos no abarcan zonas de disponibilidad ni regiones de Azure</t>
+          <t>Se debe usar la tecnología de replicación de bases de datos nativas para sincronizar la base de datos en un par de alta disponibilidad.</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1224,7 +1224,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1232,7 +1232,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
+          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Azure no admite actualmente la combinación de ASCS y alta disponibilidad de base de datos en el mismo clúster de Linux Pacemaker; sepáralos en grupos individuales. Sin embargo, puede combinar hasta cinco clústeres de servicios centrales en un par de máquinas virtuales.</t>
+          <t>Realice una recuperación a un momento dado de sus bases de datos de producción en cualquier momento y en un período de tiempo que cumpla con su RTO; La recuperación a un momento dado suele incluir errores del operador al eliminar datos en la capa DBMS o a través de SAP, por cierto</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1270,7 +1270,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1278,7 +1278,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
+          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Uso de una SKU de Standard Load Balancer delante de clústeres de ASCS y bases de datos</t>
+          <t>El CIDR de la red virtual (VNet) principal no debe entrar en conflicto ni superponerse con el CIDR de la red virtual del sitio de recuperación ante desastres</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1314,17 +1314,13 @@
         </is>
       </c>
       <c r="G13" s="21" t="n"/>
-      <c r="H13" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
+      <c r="H13" s="15" t="n"/>
       <c r="I13" s="15" t="n"/>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
+          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1345,7 +1341,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Ambas máquinas virtuales del par de alta disponibilidad deben implementarse en un conjunto de disponibilidad, o las zonas de disponibilidad deben tener el mismo tamaño y la misma configuración de almacenamiento</t>
+          <t>Use Site Recovery para replicar un servidor de aplicaciones en un sitio de recuperación ante desastres. Site Recovery también puede ayudar a replicar máquinas virtuales de clúster de servicios centrales en el sitio de recuperación ante desastres. Al invocar la recuperación ante desastres, deberá volver a configurar el clúster de Linux Pacemaker en el sitio de recuperación ante desastres (por ejemplo, reemplazar el VIP o SBD, ejecutar corosync.conf, etc.).</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1360,17 +1356,13 @@
         </is>
       </c>
       <c r="G14" s="21" t="n"/>
-      <c r="H14" s="15" t="inlineStr">
-        <is>
-          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
-        </is>
-      </c>
+      <c r="H14" s="15" t="n"/>
       <c r="I14" s="15" t="n"/>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
+          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1391,7 +1383,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Se debe usar la tecnología de replicación de bases de datos nativas para sincronizar la base de datos en un par de alta disponibilidad.</t>
+          <t>La replicación nativa de la base de datos debe usarse para sincronizar los datos con el sitio de recuperación ante desastres, en lugar de Azure Site Recovery</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1406,17 +1398,13 @@
         </is>
       </c>
       <c r="G15" s="21" t="n"/>
-      <c r="H15" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
+      <c r="H15" s="15" t="n"/>
       <c r="I15" s="15" t="n"/>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
+          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1432,18 +1420,18 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Realice una recuperación a un momento dado de sus bases de datos de producción en cualquier momento y en un período de tiempo que cumpla con su RTO; La recuperación a un momento dado suele incluir errores del operador al eliminar datos en la capa DBMS o a través de SAP, por cierto</t>
+          <t>Considere la disponibilidad del software de SAP frente a puntos únicos de fallo. Esto incluye puntos únicos de falla dentro de aplicaciones como DBMS utilizados en las arquitecturas SAP NetWeaver y SAP S/4HANA, SAP ABAP y ASCS + SCS. También, otras herramientas como SAP Web Dispatcher.</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1454,15 +1442,19 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
-      <c r="I16" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
+        </is>
+      </c>
+      <c r="I16" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/2-explore-high-availability-disaster-recovery-support-azure-for-sap-workloads?source=recommendations</t>
+        </is>
+      </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
+          <t>8300cb30-766b-4084-b126-0dd8fb1269a1</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1478,18 +1470,18 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>El CIDR de la red virtual (VNet) principal no debe entrar en conflicto ni superponerse con el CIDR de la red virtual del sitio de recuperación ante desastres</t>
+          <t>En el caso de SAP y bases de datos de SAP, considere la posibilidad de implementar clústeres de conmutación por error automática. En Windows, los clústeres de conmutación por error de Windows Server admiten la conmutación por error. En Linux, Linux Pacemaker o herramientas de terceros como SIOS Protection Suite y Veritas InfoScale admiten la conmutación por error.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1498,13 +1490,21 @@
         </is>
       </c>
       <c r="G17" s="21" t="n"/>
-      <c r="H17" s="15" t="n"/>
-      <c r="I17" s="15" t="n"/>
+      <c r="H17" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-supported-configurations</t>
+        </is>
+      </c>
+      <c r="I17" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
+          <t>56402f11-ccbe-42c3-a2f6-c6f6f38ab579</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1520,18 +1520,18 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Use Site Recovery para replicar un servidor de aplicaciones en un sitio de recuperación ante desastres. Site Recovery también puede ayudar a replicar máquinas virtuales de clúster de servicios centrales en el sitio de recuperación ante desastres. Al invocar la recuperación ante desastres, deberá volver a configurar el clúster de Linux Pacemaker en el sitio de recuperación ante desastres (por ejemplo, reemplazar la VIP o SBD, ejecutar corosync.conf, etc.).</t>
+          <t>Azure no admite arquitecturas en las que las máquinas virtuales principal y secundaria compartan el almacenamiento de los datos de DBMS. Para la capa DBMS, el patrón de arquitectura común es replicar bases de datos al mismo tiempo y con pilas de almacenamiento diferentes a las que usan las máquinas virtuales principal y secundaria.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1540,13 +1540,21 @@
         </is>
       </c>
       <c r="G18" s="21" t="n"/>
-      <c r="H18" s="15" t="n"/>
-      <c r="I18" s="15" t="n"/>
+      <c r="H18" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/disaster-recovery-sap-guide?tabs=windows</t>
+        </is>
+      </c>
+      <c r="I18" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/?source=recommendationshttps%3A%2F%2Flearn.microsoft.com%2Fja-jp%2Ftraining%2Fpaths%2Fensure-business-continuity-implement-disaster-recovery%2F%3Fsource%3Drecommendations</t>
+        </is>
+      </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
+          <t>afae6bec-2671-49ae-bc69-140b8ec8d320</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1562,18 +1570,18 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>La replicación nativa de la base de datos debe usarse para sincronizar los datos con el sitio de recuperación ante desastres, en lugar de Azure Site Recovery</t>
+          <t>Los datos de DBMS y los archivos de registro de transacciones y puesta al día se almacenan en el almacenamiento en bloque compatible con Azure o en Azure NetApp Files. Azure Files o Azure Premium Files no se admiten como almacenamiento para datos de DBMS o archivos de registro de puesta al día con la carga de trabajo de SAP.</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1582,13 +1590,21 @@
         </is>
       </c>
       <c r="G19" s="21" t="n"/>
-      <c r="H19" s="15" t="n"/>
-      <c r="I19" s="15" t="n"/>
+      <c r="H19" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/dbms-guide-general</t>
+        </is>
+      </c>
+      <c r="I19" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-databases/2-explore-database-support-azure-for-sap-workloads</t>
+        </is>
+      </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
+          <t>ac614e95-6767-4bc3-b8a4-9953533da6ba</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1599,23 +1615,23 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Realizar solicitudes de cuota para la SKU y las zonas de VM correctas</t>
+          <t>Puede usar discos compartidos de Azure en Windows para componentes ASCS + SCS y escenarios específicos de alta disponibilidad. Configure los clústeres de conmutación por error por separado para los componentes de la capa de aplicación de SAP y la capa de DBMS. Actualmente, Azure no admite arquitecturas de alta disponibilidad que combinen componentes de la capa de aplicación de SAP y la capa de DBMS en un clúster de conmutación por error.</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1624,13 +1640,21 @@
         </is>
       </c>
       <c r="G20" s="21" t="n"/>
-      <c r="H20" s="15" t="n"/>
-      <c r="I20" s="15" t="n"/>
+      <c r="H20" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-guide-wsfc-shared-disk</t>
+        </is>
+      </c>
+      <c r="I20" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>1f737179-8e7f-4e1a-a30c-e5a649a3092b</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1641,17 +1665,17 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Aplicación de un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
+          <t>La mayoría de los clústeres de conmutación por error para los componentes de la capa de aplicación (ASCS) de SAP y la capa de DBMS requieren una dirección IP virtual para un clúster de conmutación por error.  Azure Load Balancer debe controlar la dirección IP virtual para todos los demás casos. Un principio de diseño es usar un equilibrador de carga por configuración de clúster. Te recomendamos que utilices la versión estándar del equilibrador de carga (SKU de equilibrador de carga estándar).</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1668,19 +1692,19 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-standard-load-balancer-outbound-connections</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>a78b3d31-3170-44f2-b5d7-651a29f4ccf5</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1691,23 +1715,23 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Aplicación de la propagación del principio para reenviar la identidad de la aplicación en la nube de SAP a SAP local (incluida IaaS) a través del conector en la nube</t>
+          <t>Asegúrese de que la IP flotante esté habilitada en el equilibrador de carga</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1718,19 +1742,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-ha-ports-overview?source=recommendations</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+          <t>https://learn.microsoft.com/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1741,23 +1765,23 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO en aplicaciones SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics y SAP C4C con Azure AD mediante SAML.</t>
+          <t>Antes de implementar la infraestructura de alta disponibilidad, y en función de la región que elija, determine si desea realizar la implementación con un conjunto de disponibilidad de Azure o una zona de disponibilidad.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1768,15 +1792,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I23" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+        </is>
+      </c>
+      <c r="I23" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>c47cc4f3-f105-452c-845e-9b307b3856c1</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1787,23 +1815,23 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI mediante SAML.</t>
+          <t>Si desea cumplir los acuerdos de nivel de servicio de infraestructura para las aplicaciones de los componentes de SAP (servicios centrales, servidores de aplicaciones y bases de datos), debe elegir las mismas opciones de alta disponibilidad (máquinas virtuales, conjuntos de disponibilidad, zonas de disponibilidad) para todos los componentes.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1814,19 +1842,15 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
-        </is>
-      </c>
+          <t>https://www.microsoft.com/licensing/docs/view/Service-Level-Agreements-SLA-for-Online-Services?lang=1</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>844f69c3-07e5-4ec1-bff7-4be27bcf5fea</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1837,23 +1861,23 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI mediante SAML.</t>
+          <t>No mezcle servidores de diferentes roles en el mismo conjunto de disponibilidad. Mantenga las máquinas virtuales de servicios centrales, las máquinas virtuales de base de datos y las máquinas virtuales de aplicaciones en sus propios conjuntos de disponibilidad</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1862,17 +1886,21 @@
         </is>
       </c>
       <c r="G25" s="21" t="n"/>
-      <c r="H25" s="15" t="n"/>
+      <c r="H25" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+        </is>
+      </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1883,17 +1911,17 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Puede implementar SSO en la GUI de SAP mediante SAP NetWeaver SSO o una solución de partner.</t>
+          <t>No se pueden implementar conjuntos de disponibilidad de Azure dentro de una zona de disponibilidad de Azure a menos que se usen grupos de selección de ubicación de proximidad.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1910,19 +1938,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>f2201000-d045-40a6-a79a-d7cdc01b4d86</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1933,23 +1961,23 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC – Kerberos/SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere el servidor de inicio de sesión seguro de SAP, que es un componente de la solución SSO de SAP.</t>
+          <t>Al crear conjuntos de disponibilidad, use el número máximo de dominios de error y dominios de actualización disponibles. Por ejemplo, si implementa más de dos máquinas virtuales en un conjunto de disponibilidad, use el número máximo de dominios de error (tres) y suficientes dominios de actualización para limitar el efecto de posibles errores de hardware físico, interrupciones de red o interrupciones de energía, además del mantenimiento planeado de Azure. El número predeterminado de dominios de error es dos y no puede cambiarlo en línea más adelante.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1958,17 +1986,21 @@
         </is>
       </c>
       <c r="G27" s="21" t="n"/>
-      <c r="H27" s="15" t="n"/>
+      <c r="H27" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>9674e7c7-7796-4181-8920-09f4429543ba</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1979,23 +2011,23 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC – Kerberos/SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere el servidor de inicio de sesión seguro de SAP, que es un componente de la solución SSO de SAP.</t>
+          <t>Cuando se usan grupos de selección con selección de ubicación de proximidad de Azure en una implementación de conjunto de disponibilidad, los tres componentes de SAP (servicios centrales, servidor de aplicaciones y base de datos) deben estar en el mismo grupo con selección de ubicación de proximidad.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2006,14 +2038,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>ae4ecb95-b70f-428f-8b9a-4c5b7e3478a2</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2024,23 +2056,23 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Implemente el inicio de sesión único mediante OAuth para SAP NetWeaver a fin de permitir que aplicaciones personalizadas o de terceros accedan a los servicios OData de SAP NetWeaver.</t>
+          <t>Use un grupo de selección de ubicación de proximidad por SID de SAP. Los grupos no abarcan zonas de disponibilidad ni regiones de Azure</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2051,14 +2083,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2069,17 +2101,17 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Implementación de SSO en SAP HANA</t>
+          <t>Realizar solicitudes de cuota para la SKU y las zonas de máquina virtual correctas</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2094,16 +2126,12 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
-        </is>
-      </c>
+      <c r="H30" s="15" t="n"/>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2124,13 +2152,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Considere Azure AD como un proveedor de identidades para sistemas SAP hospedados en RISE. Para obtener más información, consulte Integración del servicio con Azure AD.</t>
+          <t>Aplicación de un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2141,14 +2169,19 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2169,7 +2202,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las aplicaciones que acceden a SAP, es posible que desee utilizar la propagación de entidades de seguridad para establecer el inicio de sesión único.</t>
+          <t>Aplicación de la propagación del principio para reenviar la identidad de la aplicación en la nube de SAP a SAP local (incluida IaaS) a través del conector en la nube</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2186,15 +2219,19 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
-        </is>
-      </c>
-      <c r="I32" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+        </is>
+      </c>
+      <c r="I32" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+        </is>
+      </c>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2215,7 +2252,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Si usa servicios BTP de SAP o soluciones SaaS que requieren SAP Identity Authentication Service (IAS), considere la posibilidad de implementar SSO entre SAP Cloud Identity Authentication Services y Azure AD para acceder a esos servicios de SAP. Esta integración permite a SAP IAS actuar como proveedor de identidades de proxy y reenvía las solicitudes de autenticación a Azure AD como almacén de usuarios central y proveedor de identidades.</t>
+          <t>Implemente SSO en aplicaciones SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics y SAP C4C con Azure AD mediante SAML.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2232,7 +2269,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2240,7 +2277,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2261,7 +2298,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Implementación de SSO en SAP BTP</t>
+          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI mediante SAML.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2278,15 +2315,19 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
-        </is>
-      </c>
-      <c r="I34" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
+      <c r="I34" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2307,7 +2348,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Si usa SAP SuccessFactors, considere la posibilidad de usar el aprovisionamiento automatizado de usuarios de Azure AD. Con esta integración, a medida que agrega nuevos empleados a SAP SuccessFactors, puede crear automáticamente sus cuentas de usuario en Azure AD. Opcionalmente, puede crear cuentas de usuario en Microsoft 365 u otras aplicaciones SaaS compatibles con Azure AD. Utilice la escritura diferida de la dirección de correo electrónico en SAP SuccessFactors.</t>
+          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI mediante SAML.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2322,17 +2363,17 @@
         </is>
       </c>
       <c r="G35" s="21" t="n"/>
-      <c r="H35" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
-        </is>
-      </c>
-      <c r="I35" s="15" t="n"/>
+      <c r="H35" s="15" t="n"/>
+      <c r="I35" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+        </is>
+      </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2343,17 +2384,17 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>aplicar las directivas de grupo de administración existentes a las suscripciones de SAP</t>
+          <t>Puede implementar SSO en la GUI de SAP mediante SAP NetWeaver SSO o una solución de partner.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2370,19 +2411,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2393,23 +2434,23 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Integre aplicaciones estrechamente acopladas en la misma suscripción de SAP para evitar una complejidad adicional de enrutamiento y administración</t>
+          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC – Kerberos/SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere el servidor de inicio de sesión seguro de SAP, que es un componente de la solución SSO de SAP.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2418,21 +2459,17 @@
         </is>
       </c>
       <c r="G37" s="21" t="n"/>
-      <c r="H37" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
+      <c r="H37" s="15" t="n"/>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2443,23 +2480,23 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aprovechar la suscripción como unidad de escalado y escalar nuestros recursos, considere la posibilidad de implementar la suscripción por entorno, por ejemplo. Sandbox, no-prod, prod </t>
+          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC – Kerberos/SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere el servidor de inicio de sesión seguro de SAP, que es un componente de la solución SSO de SAP.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2470,19 +2507,15 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="n"/>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2493,23 +2526,23 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Garantizar el aumento de la cuota como parte del aprovisionamiento de suscripciones (por ejemplo, el total de núcleos de máquina virtual disponibles dentro de una suscripción)</t>
+          <t>Implemente el inicio de sesión único mediante OAuth para SAP NetWeaver a fin de permitir que aplicaciones personalizadas o de terceros accedan a los servicios OData de SAP NetWeaver.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2520,19 +2553,15 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
-        </is>
-      </c>
-      <c r="I39" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2543,23 +2572,23 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>La API de cuota es una API de REST que se puede usar para ver y administrar las cuotas de los servicios de Azure. Considere usarlo si es necesario.</t>
+          <t>Implementación de SSO en SAP HANA</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2570,7 +2599,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2578,7 +2607,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2589,23 +2618,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Si realiza la implementación en una zona de disponibilidad, asegúrese de que la implementación de la zona de la máquina virtual esté disponible una vez que se haya aprobado la cuota. Envíe una solicitud de soporte técnico con la suscripción, la serie de máquinas virtuales, el número de CPU y la zona de disponibilidad necesaria.</t>
+          <t>Considere Azure AD como un proveedor de identidades para sistemas SAP hospedados en RISE. Para obtener más información, consulte Integración del servicio con Azure AD.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2616,7 +2645,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2624,7 +2653,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2635,23 +2664,23 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios y funciones requeridos estén disponibles dentro de las regiones de implementación elegidas, por ejemplo. ANF, Zona, etc.</t>
+          <t>En el caso de las aplicaciones que acceden a SAP, es posible que desee utilizar la propagación de entidades de seguridad para establecer el inicio de sesión único.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2662,19 +2691,15 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I42" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+        </is>
+      </c>
+      <c r="I42" s="15" t="n"/>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2685,17 +2710,17 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la etiqueta de recurso de Azure para la categorización de costos y la agrupación de recursos (: BillTo, Departamento (o unidad de negocio), Entorno (producción, Fase, Desarrollo), Nivel (nivel web, nivel de aplicación), Propietario de la aplicación, ProjectName)</t>
+          <t>Si usa servicios BTP de SAP o soluciones SaaS que requieren SAP Identity Authentication Service (IAS), considere la posibilidad de implementar SSO entre SAP Cloud Identity Authentication Services y Azure AD para acceder a esos servicios de SAP. Esta integración permite a SAP IAS actuar como proveedor de identidades de proxy y reenvía las solicitudes de autenticación a Azure AD como almacén de usuarios central y proveedor de identidades.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2712,19 +2737,15 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2735,23 +2756,23 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Ayude a proteger la base de datos de HANA mediante el servicio Azure Backup.</t>
+          <t>Implementación de SSO en SAP BTP</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2762,19 +2783,15 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+        </is>
+      </c>
+      <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2785,17 +2802,17 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Si implementa Azure NetApp Files para la base de datos HANA, Oracle o DB2, use la herramienta Azure Application Consistent Snapshot (AzAcSnap) para tomar instantáneas coherentes con la aplicación. AzAcSnap también es compatible con las bases de datos de Oracle. Considere la posibilidad de usar AzAcSnap en una máquina virtual central en lugar de en máquinas virtuales individuales.</t>
+          <t>Si usa SAP SuccessFactors, considere la posibilidad de usar el aprovisionamiento automatizado de usuarios de Azure AD. Con esta integración, a medida que agrega nuevos empleados a SAP SuccessFactors, puede crear automáticamente sus cuentas de usuario en Azure AD. Opcionalmente, puede crear cuentas de usuario en Microsoft 365 u otras aplicaciones SaaS compatibles con Azure AD. Utilice la escritura diferida de la dirección de correo electrónico en SAP SuccessFactors.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2812,14 +2829,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2830,23 +2847,23 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la zona horaria coincida entre el sistema operativo y el sistema SAP.</t>
+          <t>aplicar las directivas de grupo de administración existentes a las suscripciones de SAP</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2857,15 +2874,19 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I46" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+        </is>
+      </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2876,23 +2897,23 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>No agrupe diferentes servicios de aplicaciones en el mismo clúster. Por ejemplo, no combine DRBD y clústeres de servicios centrales en el mismo clúster. Sin embargo, puede usar el mismo clúster de Pacemaker para administrar aproximadamente cinco servicios centrales diferentes (clúster de varios SID).</t>
+          <t>Integre aplicaciones estrechamente acopladas en la misma suscripción de SAP para evitar una complejidad adicional de enrutamiento y administración</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2903,19 +2924,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2926,23 +2947,23 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de ejecutar sistemas de desarrollo y pruebas en un modelo de repetición para ahorrar y optimizar los costos de ejecución de Azure.</t>
+          <t xml:space="preserve">Aprovechar la suscripción como unidad de escalado y escalar nuestros recursos, considere implementar la suscripción por entorno, por ejemplo. Sandbox, no-prod, prod </t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2953,14 +2974,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2971,23 +2997,23 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Si se asocia con los clientes mediante la administración de sus propiedades de SAP, considere la posibilidad de usar Azure Lighthouse. Azure Lighthouse permite a los proveedores de servicios administrados usar los servicios de identidad nativos de Azure para autenticarse en el entorno de los clientes. Pone el control en manos de los clientes, ya que pueden revocar el acceso en cualquier momento y auditar las acciones de los proveedores de servicios.</t>
+          <t>Garantizar el aumento de la cuota como parte del aprovisionamiento de suscripciones (por ejemplo, el total de núcleos de máquina virtual disponibles dentro de una suscripción)</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2998,14 +3024,19 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3016,23 +3047,23 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Update Manager para comprobar el estado de las actualizaciones disponibles para una sola máquina virtual o varias máquinas virtuales y considere la posibilidad de programar revisiones periódicas.</t>
+          <t>La API de cuota es una API de REST que se puede usar para ver y administrar las cuotas de los servicios de Azure. Considere usarlo si es necesario.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3043,19 +3074,15 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
-        </is>
-      </c>
-      <c r="I50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
+        </is>
+      </c>
+      <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3066,23 +3093,23 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Optimice y gestione las operaciones de SAP Basis mediante SAP Landscape Management (LaMa). Use el conector de SAP LaMa para Azure para reubicar, copiar, clonar y actualizar sistemas SAP.</t>
+          <t>Si realiza la implementación en una zona de disponibilidad, asegúrese de que la implementación de la zona de la máquina virtual esté disponible una vez que se haya aprobado la cuota. Envíe una solicitud de soporte técnico con la suscripción, la serie de máquinas virtuales, el número de CPU y la zona de disponibilidad necesarias.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3093,19 +3120,15 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3116,23 +3139,23 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor para soluciones SAP para supervisar las cargas de trabajo de SAP (SAP HANA, clústeres de SUSE de alta disponibilidad y sistemas SQL) en Azure. Considere la posibilidad de complementar las soluciones de Azure Monitor para SAP con SAP Solution Manager.</t>
+          <t>Asegúrese de que los servicios y funciones requeridos estén disponibles dentro de las regiones de implementación elegidas, por ejemplo. ANF, Zona, etc.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3143,19 +3166,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3166,23 +3189,23 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Ejecute una comprobación de extensión de máquina virtual para SAP. VM Extension for SAP usa la identidad administrada asignada de una máquina virtual (VM) para acceder a los datos de configuración y supervisión de VM. La comprobación garantiza que todas las métricas de rendimiento de la aplicación SAP proceden de la extensión de Azure para SAP subyacente.</t>
+          <t>Aproveche la etiqueta de recurso de Azure para la categorización de costos y la agrupación de recursos (facturación, departamento (o unidad de negocio), entorno (producción, fase, desarrollo), nivel (nivel web, nivel de aplicación), propietario de la aplicación, ProjectName)</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3193,19 +3216,19 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3221,18 +3244,18 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
+          <t>Ayude a proteger la base de datos de HANA mediante el servicio Azure Backup.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3243,19 +3266,19 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
         </is>
       </c>
       <c r="I54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3271,12 +3294,12 @@
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Use el Monitor de conexión en Azure Network Watcher para supervisar las métricas de latencia de las bases de datos y los servidores de aplicaciones de SAP. O bien, recopile y muestre medidas de latencia de red mediante Azure Monitor.</t>
+          <t>Si implementa Azure NetApp Files para la base de datos HANA, Oracle o DB2, use la herramienta Azure Application Consistent Snapshot (AzAcSnap) para tomar instantáneas coherentes con la aplicación. AzAcSnap también es compatible con las bases de datos de Oracle. Considere la posibilidad de usar AzAcSnap en una máquina virtual central en lugar de en máquinas virtuales individuales.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3293,19 +3316,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3321,12 +3339,12 @@
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones SAP.</t>
+          <t>Asegúrese de que la zona horaria coincida entre el sistema operativo y el sistema SAP.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3343,19 +3361,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3371,12 +3384,12 @@
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Realice una comprobación de calidad de SAP HANA en la infraestructura de Azure aprovisionada para comprobar que las máquinas virtuales aprovisionadas cumplen con los procedimientos recomendados de SAP HANA en Azure.</t>
+          <t>No agrupe diferentes servicios de aplicaciones en el mismo clúster. Por ejemplo, no combine DRBD y clústeres de servicios centrales en el mismo clúster. Sin embargo, puede usar el mismo clúster de Pacemaker para administrar aproximadamente cinco servicios centrales diferentes (clúster de varios SID).</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3393,14 +3406,19 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3416,18 +3434,18 @@
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Para cada suscripción de Azure, ejecute una prueba de latencia en las zonas de disponibilidad de Azure antes de la implementación zonal para elegir zonas de baja latencia para la implementación de SAP en Azure.</t>
+          <t>Considere la posibilidad de ejecutar sistemas de desarrollo y pruebas en un modelo de repetición para ahorrar y optimizar los costos de ejecución de Azure.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3438,19 +3456,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3466,12 +3479,12 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Ejecute el informe de resistencia para asegurarse de que la configuración de toda la infraestructura de Azure aprovisionada (proceso, base de datos, redes, almacenamiento, Site Recovery) cumple con la configuración definida por Cloud Adaption Framework para Azure.</t>
+          <t>Si se asocia con los clientes mediante la administración de sus propiedades de SAP, considere la posibilidad de usar Azure Lighthouse. Azure Lighthouse permite a los proveedores de servicios administrados usar los servicios de identidad nativos de Azure para autenticarse en el entorno de los clientes. Pone el control en manos de los clientes, ya que pueden revocar el acceso en cualquier momento y auditar las acciones de los proveedores de servicios.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3488,19 +3501,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3516,12 +3524,12 @@
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Implemente la protección contra amenazas mediante la solución Microsoft Sentinel para SAP. Utilice esta solución para supervisar sus sistemas SAP y detectar amenazas sofisticadas en toda la lógica empresarial y las capas de aplicación.</t>
+          <t>Use Azure Update Manager para comprobar el estado de las actualizaciones disponibles para una sola máquina virtual o varias máquinas virtuales y considere la posibilidad de programar revisiones periódicas.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3538,19 +3546,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3566,18 +3574,18 @@
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>El etiquetado de Azure se puede aprovechar para agrupar y realizar un seguimiento lógico de los recursos, automatizar sus implementaciones y, lo que es más importante, proporcionar visibilidad de los costos incurridos.</t>
+          <t>Optimice y gestione las operaciones de SAP Basis mediante SAP Landscape Management (LaMa). Use el conector de SAP LaMa para Azure para reubicar, copiar, clonar y actualizar sistemas SAP.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3588,19 +3596,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3616,18 +3624,18 @@
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Use la supervisión de latencia entre máquinas virtuales para aplicaciones sensibles a la latencia.</t>
+          <t>Use Azure Monitor para soluciones SAP para supervisar las cargas de trabajo de SAP (SAP HANA, clústeres de SUSE de alta disponibilidad y sistemas SQL) en Azure. Considere la posibilidad de complementar las soluciones de Azure Monitor para SAP con SAP Solution Manager.</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3638,14 +3646,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3661,18 +3674,18 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones SAP.</t>
+          <t>Ejecute una comprobación de extensión de máquina virtual para SAP. VM Extension for SAP usa la identidad administrada asignada de una máquina virtual (VM) para acceder a los datos de configuración y supervisión de VM. La comprobación garantiza que todas las métricas de rendimiento de la aplicación SAP proceden de la extensión de Azure para SAP subyacente.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
       <c r="E63" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3683,19 +3696,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3711,12 +3724,12 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Excluya todos los sistemas de archivos de bases de datos y programas ejecutables de los análisis antivirus. Incluirlos podría dar lugar a problemas de rendimiento. Consulte con los proveedores de bases de datos para obtener detalles prescriptivos sobre la lista de exclusión. Por ejemplo, Oracle recomienda excluir /oracle/&lt;sid&gt;/sapdata de los análisis antivirus.</t>
+          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3733,15 +3746,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3757,18 +3774,18 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de recopilar estadísticas de base de datos completas para bases de datos que no son de HANA después de la migración. Por ejemplo, implemente la nota de SAP 1020260 - Entrega de estadísticas de Oracle.</t>
+          <t>Use el Monitor de conexión en Azure Network Watcher para supervisar las métricas de latencia de las bases de datos y los servidores de aplicaciones de SAP. O bien, recopile y muestre medidas de latencia de red mediante Azure Monitor.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3779,15 +3796,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3803,18 +3824,18 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Oracle Automatic Storage Management (ASM) para todas las implementaciones de Oracle que usan SAP en Azure.</t>
+          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones SAP.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3825,19 +3846,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3853,12 +3874,12 @@
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>En el caso de SAP en Azure que ejecuta Oracle, una colección de scripts SQL puede ayudarle a diagnosticar problemas de rendimiento.  Los informes de repositorio automático de cargas de trabajo (AWR) contienen información valiosa para diagnosticar problemas en el sistema Oracle. Le recomendamos que ejecute un informe de AWR durante varias sesiones y elija las horas punta para él, a fin de garantizar una amplia cobertura del análisis.</t>
+          <t>Realice una comprobación de calidad de SAP HANA en la infraestructura de Azure aprovisionada para comprobar que las máquinas virtuales aprovisionadas cumplen con los procedimientos recomendados de SAP HANA en Azure.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3875,19 +3896,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3898,23 +3915,23 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Para la entrega segura de aplicaciones HTTP/S, use Application Gateway v2 y asegúrese de que la protección y las directivas de WAF están habilitadas.</t>
+          <t>Para cada suscripción de Azure, ejecute una prueba de latencia en las zonas de disponibilidad de Azure antes de la implementación zonal para elegir zonas de baja latencia para la implementación de SAP en Azure.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3925,19 +3942,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3948,17 +3965,17 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Si el DNS o el nombre virtual de la máquina virtual no se cambia durante la migración a Azure, el DNS en segundo plano y los nombres virtuales conectan muchas interfaces del sistema en el entorno de SAP, y los clientes solo conocen a veces las interfaces que los desarrolladores definen a lo largo del tiempo. Los problemas de conexión surgen entre varios sistemas cuando los nombres virtuales o DNS cambian después de las migraciones, y se recomienda conservar los alias DNS para evitar este tipo de dificultades.</t>
+          <t>Ejecute el informe de resistencia para asegurarse de que la configuración de toda la infraestructura de Azure aprovisionada (proceso, base de datos, redes, almacenamiento, Site Recovery) cumple con la configuración definida por Cloud Adaption Framework para Azure.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3975,19 +3992,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3998,17 +4015,17 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Utilice diferentes zonas DNS para distinguir cada entorno (espacio aislado, desarrollo, preproducción y producción) entre sí. La excepción es para las implementaciones de SAP con su propia red virtual; en este caso, es posible que las zonas DNS privadas no sean necesarias.</t>
+          <t>Implemente la protección contra amenazas mediante la solución Microsoft Sentinel para SAP. Utilice esta solución para supervisar sus sistemas SAP y detectar amenazas sofisticadas en toda la lógica empresarial y las capas de aplicación.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4025,19 +4042,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4048,17 +4065,17 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>El emparejamiento de red virtual local y global proporciona conectividad y son los enfoques preferidos para garantizar la conectividad entre las zonas de aterrizaje para las implementaciones de SAP en varias regiones de Azure</t>
+          <t>El etiquetado de Azure se puede aprovechar para agrupar y realizar un seguimiento lógico de los recursos, automatizar sus implementaciones y, lo que es más importante, proporcionar visibilidad de los costos incurridos.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4075,19 +4092,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4098,23 +4115,23 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>No se admite la implementación de ninguna aplicación virtual de red entre la aplicación SAP y el servidor de base de datos SAP</t>
+          <t>Use la supervisión de latencia entre máquinas virtuales para aplicaciones sensibles a la latencia.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4125,19 +4142,15 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
-        </is>
-      </c>
-      <c r="I72" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/2731110</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4148,17 +4161,17 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Use Virtual WAN para implementaciones de Azure en redes nuevas, grandes o globales en las que necesite conectividad de tránsito global entre regiones de Azure y ubicaciones locales. Con este enfoque, no tendrá que configurar manualmente el enrutamiento transitivo para las redes de Azure y puede seguir un estándar para las implementaciones de SAP en Azure.</t>
+          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones SAP.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4175,19 +4188,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
         </is>
       </c>
       <c r="I73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
         </is>
       </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4198,17 +4211,17 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de implementar aplicaciones virtuales de red (NVA) entre regiones solo si se usan aplicaciones virtuales de red de asociado. Las aplicaciones virtuales de red entre regiones o redes virtuales no son necesarias si hay aplicaciones virtuales de red nativas. Al implementar tecnologías de redes de asociados y aplicaciones virtuales de red, siga las instrucciones del proveedor para comprobar las configuraciones conflictivas con las redes de Azure.</t>
+          <t>Excluya todos los sistemas de archivos de bases de datos y programas ejecutables de los análisis antivirus. Incluirlos podría dar lugar a problemas de rendimiento. Consulte con los proveedores de bases de datos para obtener detalles prescriptivos sobre la lista de exclusión. Por ejemplo, Oracle recomienda excluir /oracle/&lt;sid&gt;/sapdata de los análisis antivirus.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4225,19 +4238,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4248,23 +4257,23 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN administra la conectividad entre redes virtuales de radio para topologías basadas en WAN virtuales (sin necesidad de configurar el enrutamiento definido por el usuario [UDR] o NVA), y el rendimiento máximo de red para el tráfico de red virtual a red virtual en el mismo centro virtual es de 50 gigabits por segundo. Si es necesario, las zonas de aterrizaje de SAP pueden usar el emparejamiento de red virtual para conectarse a otras zonas de aterrizaje y superar esta limitación de ancho de banda.</t>
+          <t>Considere la posibilidad de recopilar estadísticas de base de datos completas para bases de datos que no son de HANA después de la migración. Por ejemplo, implemente la nota de SAP 1020260 - Entrega de estadísticas de Oracle.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4275,19 +4284,15 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4298,23 +4303,23 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>No se recomienda la asignación de I.P pública a la máquina virtual que ejecuta SAP Workload.</t>
+          <t>Considere la posibilidad de usar Oracle Automatic Storage Management (ASM) para todas las implementaciones de Oracle que usan SAP en Azure.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4325,19 +4330,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4348,23 +4353,23 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de reservar la dirección I.P en el lado de la recuperación ante desastres al configurar ASR</t>
+          <t>En el caso de SAP en Azure que ejecuta Oracle, una colección de scripts SQL puede ayudarle a diagnosticar problemas de rendimiento.  Los informes de repositorio automático de cargas de trabajo (AWR) contienen información valiosa para diagnosticar problemas en el sistema Oracle. Le recomendamos que ejecute un informe de AWR durante varias sesiones y elija las horas punta para él, a fin de garantizar una amplia cobertura del análisis.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4375,19 +4380,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4403,18 +4408,18 @@
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Evite el uso de intervalos de direcciones IP superpuestos para los sitios de producción y recuperación ante desastres.</t>
+          <t>Para la entrega segura de aplicaciones HTTP/S, use Application Gateway v2 y asegúrese de que la protección y las directivas de WAF están habilitadas.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4425,19 +4430,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4453,12 +4458,12 @@
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Aunque Azure le ayuda a crear varias subredes delegadas en una red virtual, solo puede existir una subred delegada en una red virtual para Azure NetApp Files. Se producirá un error al intentar crear un nuevo volumen si se utiliza más de una subred delegada para Azure NetApp Files.</t>
+          <t>Si el DNS o el nombre virtual de la máquina virtual no se cambia durante la migración a Azure, el DNS en segundo plano y los nombres virtuales conectan muchas interfaces del sistema en el entorno de SAP, y los clientes solo conocen a veces las interfaces que los desarrolladores definen a lo largo del tiempo. Los desafíos de conexión surgen entre varios sistemas cuando los nombres virtuales o DNS cambian después de las migraciones, y se recomienda conservar los alias DNS para evitar este tipo de dificultades.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4475,19 +4480,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4503,12 +4508,12 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Utilice diferentes zonas DNS para distinguir cada entorno (espacio aislado, desarrollo, preproducción y producción) entre sí. La excepción es para las implementaciones de SAP con su propia red virtual; en este caso, es posible que las zonas DNS privadas no sean necesarias.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4525,19 +4530,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4553,12 +4558,12 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway y Web Application Firewall tienen limitaciones cuando Application Gateway actúa como proxy inverso para aplicaciones web de SAP, como se muestra en la comparación entre Application Gateway, SAP Web Dispatcher y otros servicios de terceros.</t>
+          <t>El emparejamiento de red virtual local y global proporciona conectividad y son los enfoques preferidos para garantizar la conectividad entre las zonas de aterrizaje para las implementaciones de SAP en varias regiones de Azure</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4575,19 +4580,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I81" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4603,18 +4608,18 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>No se admite la implementación de ninguna aplicación virtual de red entre la aplicación SAP y el servidor de base de datos SAP</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4625,19 +4630,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4653,12 +4658,12 @@
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Aproveche las directivas de Web Application Firewall en Azure Front Door cuando use Azure Front Door y Application Gateway para proteger las aplicaciones HTTP/S. Bloquee Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Use Virtual WAN para implementaciones de Azure en redes nuevas, grandes o globales en las que necesite conectividad de tránsito global entre regiones de Azure y ubicaciones locales. Con este enfoque, no tendrá que configurar manualmente el enrutamiento transitivo para las redes de Azure y puede seguir un estándar para las implementaciones de SAP en Azure.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4675,19 +4680,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4703,12 +4708,12 @@
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Utilice un firewall de aplicaciones web para analizar su tráfico cuando esté expuesto a Internet. Otra opción es usarlo con el equilibrador de carga o con recursos que tengan funcionalidades de firewall integradas, como Application Gateway o soluciones de terceros.</t>
+          <t>Considere la posibilidad de implementar aplicaciones virtuales de red (NVA) entre regiones solo si se usan aplicaciones virtuales de red de asociados. Las aplicaciones virtuales de red entre regiones o redes virtuales no son necesarias si hay aplicaciones virtuales de red nativas. Al implementar tecnologías de redes de asociados y aplicaciones virtuales de red, siga las instrucciones del proveedor para comprobar las configuraciones conflictivas con las redes de Azure.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4725,19 +4730,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4753,12 +4758,12 @@
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Use Virtual WAN para implementaciones de Azure en redes nuevas, grandes o globales en las que necesite conectividad de tránsito global entre regiones de Azure y ubicaciones locales. Con este enfoque, no tendrá que configurar manualmente el enrutamiento transitivo para las redes de Azure y puede seguir un estándar para las implementaciones de SAP en Azure.</t>
+          <t>Virtual WAN administra la conectividad entre redes virtuales de radio para topologías basadas en WAN virtuales (sin necesidad de configurar el enrutamiento definido por el usuario [UDR] o NVA), y el rendimiento máximo de red para el tráfico de red virtual a red virtual en el mismo centro virtual es de 50 gigabits por segundo. Si es necesario, las zonas de aterrizaje de SAP pueden usar el emparejamiento de red virtual para conectarse a otras zonas de aterrizaje y superar esta limitación de ancho de banda.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4775,19 +4780,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4803,18 +4808,18 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Para evitar la pérdida de datos, use Azure Private Link para acceder de forma segura a los recursos de la plataforma como servicio, como Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, etc. El punto de conexión privado de Azure también puede ayudar a proteger el tráfico entre redes virtuales y servicios como Azure Storage, Azure Backup, etc. El tráfico entre la red virtual y el servicio habilitado para punto de conexión privado viaja a través de la red global de Microsoft, lo que impide su exposición a la red pública de Internet.</t>
+          <t>No se recomienda la asignación de I.P pública a la máquina virtual que ejecuta SAP Workload.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4825,19 +4830,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4853,12 +4858,12 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las redes aceleradas de Azure están habilitadas en las máquinas virtuales que se usan en las capas de aplicación SAP y DBMS.</t>
+          <t>Considere la posibilidad de reservar la dirección I.P en el lado de la recuperación ante desastres al configurar ASR</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4875,19 +4880,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4903,18 +4908,18 @@
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones internas de Azure Load Balancer están configuradas para usar Direct Server Return (DSR). Esta configuración reducirá la latencia cuando se utilicen configuraciones internas del equilibrador de carga para configuraciones de alta disponibilidad en la capa DBMS.</t>
+          <t>Evite el uso de intervalos de direcciones IP superpuestos para los sitios de producción y recuperación ante desastres.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4925,19 +4930,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4953,12 +4958,12 @@
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Puede usar reglas de grupo de seguridad de aplicaciones (ASG) y NSG para definir listas de control de acceso de seguridad de red entre las capas de aplicación SAP y DBMS. Los ASG agrupan las máquinas virtuales para ayudar a administrar su seguridad.</t>
+          <t>Aunque Azure le ayuda a crear varias subredes delegadas en una red virtual, solo puede existir una subred delegada en una red virtual para Azure NetApp Files. Se producirá un error al intentar crear un nuevo volumen si se utiliza más de una subred delegada para Azure NetApp Files.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4975,19 +4980,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5003,18 +5008,18 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>No se admite la colocación de la capa de aplicación de SAP y DBMS de SAP en diferentes redes virtuales de Azure que no están emparejadas.</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5025,19 +5030,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5053,12 +5058,12 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Para obtener una latencia de red óptima con aplicaciones SAP, considere la posibilidad de usar grupos de selección de ubicación por proximidad de Azure.</t>
+          <t>Application Gateway y Web Application Firewall tienen limitaciones cuando Application Gateway actúa como proxy inverso para aplicaciones web de SAP, como se muestra en la comparación entre Application Gateway, SAP Web Dispatcher y otros servicios de terceros.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5075,19 +5080,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
         </is>
       </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5103,18 +5108,18 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>NO se admite en absoluto la ejecución de una capa de servidor de aplicaciones de SAP y una capa de DBMS divididas entre el entorno local y Azure. Ambas capas deben residir completamente en el entorno local o en Azure.</t>
+          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5125,19 +5130,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5153,18 +5158,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>No se recomienda hospedar el sistema de administración de bases de datos (DBMS) y las capas de aplicación de los sistemas SAP en diferentes redes virtuales y conectarlas con el emparejamiento de redes virtuales debido a los costos sustanciales que puede generar un tráfico de red excesivo entre las capas. Se recomienda el uso de subredes dentro de la red virtual de Azure para separar la capa de aplicación de SAP y la capa de DBMS.</t>
+          <t>Aproveche las directivas de Web Application Firewall en Azure Front Door cuando use Azure Front Door y Application Gateway para proteger las aplicaciones HTTP/S. Bloquee Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5175,19 +5180,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5203,18 +5208,18 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las redes aceleradas de Azure están habilitadas en las máquinas virtuales que se usan en las capas de aplicación SAP y DBMS.</t>
+          <t>Utilice un firewall de aplicaciones web para analizar su tráfico cuando esté expuesto a Internet. Otra opción es usarlo con el equilibrador de carga o con recursos que tengan funcionalidades de firewall integradas, como Application Gateway o soluciones de terceros.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5225,19 +5230,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5253,18 +5258,18 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Si utiliza Load Balancer con sistemas operativos invitados Linux, compruebe que el parámetro de red de Linux net.ipv4.tcp_timestamps esté establecido en 0.</t>
+          <t>Use Virtual WAN para implementaciones de Azure en redes nuevas, grandes o globales en las que necesite conectividad de tránsito global entre regiones de Azure y ubicaciones locales. Con este enfoque, no tendrá que configurar manualmente el enrutamiento transitivo para las redes de Azure y puede seguir un estándar para las implementaciones de SAP en Azure.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5275,19 +5280,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5303,12 +5308,12 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las implementaciones de SAP RISE/ECS, el emparejamiento virtual es la forma preferida de establecer la conectividad con el entorno de Azure existente del cliente. Tanto la red virtual de SAP como las redes virtuales del cliente están protegidas con grupos de seguridad de red (NSG), lo que permite la comunicación en los puertos de SAP y de base de datos a través del emparejamiento de red virtual</t>
+          <t>Para evitar la pérdida de datos, use Azure Private Link para acceder de forma segura a los recursos de plataforma como servicio, como Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, etc. El punto de conexión privado de Azure también puede ayudar a proteger el tráfico entre redes virtuales y servicios como Azure Storage, Azure Backup, etc. El tráfico entre la red virtual y el servicio habilitado para punto de conexión privado viaja a través de la red global de Microsoft, lo que impide su exposición a la red pública de Internet.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5325,15 +5330,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
-        </is>
-      </c>
-      <c r="I96" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5344,17 +5353,17 @@
     <row r="97" ht="16.5" customHeight="1">
       <c r="A97" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Personalización de los roles de control de acceso basado en rol (RBAC) para SAP en suscripciones de Azure spoke para evitar cambios accidentales relacionados con la red</t>
+          <t>Asegúrese de que las redes aceleradas de Azure están habilitadas en las máquinas virtuales que se usan en las capas de aplicación SAP y DBMS.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5371,15 +5380,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5390,17 +5403,17 @@
     <row r="98" ht="16.5" customHeight="1">
       <c r="A98" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Aísle las redes perimetrales y las aplicaciones virtuales de red del resto del patrimonio de SAP, configure Azure Private Link y administre y controle de forma segura los recursos de SAP en Azure</t>
+          <t>Asegúrese de que las implementaciones internas de Azure Load Balancer están configuradas para usar Direct Server Return (DSR). Esta configuración reducirá la latencia cuando se utilicen configuraciones internas del equilibrador de carga para configuraciones de alta disponibilidad en la capa DBMS.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5417,15 +5430,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I98" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+        </is>
+      </c>
+      <c r="I98" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5436,17 +5453,17 @@
     <row r="99" ht="16.5" customHeight="1">
       <c r="A99" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Para el cifrado del servidor de base de datos de SAP, use la tecnología de cifrado nativa de SAP HANA. Si usa Azure SQL Database, use el cifrado de datos transparente (TDE) que ofrece el proveedor de DBMS para proteger los datos y los archivos de registro, y asegúrese de que las copias de seguridad también están cifradas.</t>
+          <t>Puede usar reglas de grupo de seguridad de aplicaciones (ASG) y NSG para definir listas de control de acceso de seguridad de red entre la aplicación SAP y las capas DBMS. Los ASG agrupan las máquinas virtuales para ayudar a administrar su seguridad.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5463,15 +5480,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5482,23 +5503,23 @@
     <row r="100" ht="16.5" customHeight="1">
       <c r="A100" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>El cifrado de Azure Storage está habilitado de forma predeterminada</t>
+          <t>No se admite la colocación de la capa de aplicación de SAP y DBMS de SAP en diferentes redes virtuales de Azure que no están emparejadas.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5509,15 +5530,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="n"/>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5528,17 +5553,17 @@
     <row r="101" ht="16.5" customHeight="1">
       <c r="A101" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Para obtener una latencia de red óptima con aplicaciones SAP, considere la posibilidad de usar grupos de selección de ubicación por proximidad de Azure.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5555,15 +5580,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I101" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+        </is>
+      </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5574,23 +5603,23 @@
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>NO se admite en absoluto la ejecución de una capa de servidor de aplicaciones de SAP y una capa de DBMS divididas entre el entorno local y Azure. Ambas capas deben residir completamente en el entorno local o en Azure.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5601,15 +5630,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="n"/>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5620,17 +5653,17 @@
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Key Vault para almacenar los secretos y las credenciales</t>
+          <t>No se recomienda hospedar el sistema de administración de bases de datos (DBMS) y las capas de aplicación de los sistemas SAP en diferentes redes virtuales y conectarlas con el emparejamiento de redes virtuales debido a los costos sustanciales que puede producir un tráfico de red excesivo entre las capas. Se recomienda el uso de subredes dentro de la red virtual de Azure para separar la capa de aplicación de SAP y la capa de DBMS.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5647,15 +5680,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="n"/>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5666,23 +5703,23 @@
     <row r="104" ht="16.5" customHeight="1">
       <c r="A104" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Se recomienda BLOQUEAR los recursos de Azure después de la implementación correcta para protegerse contra cambios no autorizados</t>
+          <t>Asegúrese de que las redes aceleradas de Azure están habilitadas en las máquinas virtuales que se usan en las capas de aplicación SAP y DBMS.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5693,15 +5730,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5712,23 +5753,23 @@
     <row r="105" ht="16.5" customHeight="1">
       <c r="A105" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
+          <t>Si utiliza Load Balancer con sistemas operativos invitados Linux, compruebe que el parámetro de red de Linux net.ipv4.tcp_timestamps esté establecido en 0.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5739,15 +5780,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5758,17 +5803,17 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>En función de los requisitos existentes, controles normativos y de cumplimiento (internos y externos): determine qué directivas de Azure y el rol de RBAC de Azure son necesarios</t>
+          <t>En el caso de las implementaciones de SAP RISE/ECS, el emparejamiento virtual es la forma preferida de establecer la conectividad con el entorno de Azure existente del cliente. Tanto la red virtual de SAP como las redes virtuales del cliente están protegidas con grupos de seguridad de red (NSG), lo que permite la comunicación en los puertos de SAP y de base de datos a través del emparejamiento de redes virtuales</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5785,7 +5830,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
         </is>
       </c>
       <c r="I106" s="15" t="n"/>
@@ -5793,7 +5838,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5809,12 +5854,12 @@
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Al habilitar Microsoft Defender for Cloud Standard para SAP, asegúrese de excluir los servidores de base de datos de SAP de cualquier directiva que instale Endpoint Protection.</t>
+          <t>Si ejecuta máquinas virtuales Windows y Linux en Azure, en el entorno local o en otros entornos en la nube, puede usar el Centro de administración de actualizaciones de Automatización de Azure para administrar las actualizaciones del sistema operativo, incluidas las revisiones de seguridad.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5831,15 +5876,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I107" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5855,12 +5904,12 @@
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Delegue un rol personalizado de administrador de SAP con acceso Just-In-Time.</t>
+          <t>Revise de forma rutinaria las notas de seguridad de SAP OSS, ya que SAP publica parches de seguridad muy críticos, o revisiones, que requieren una acción inmediata para proteger sus sistemas SAP.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5877,15 +5926,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5901,18 +5954,18 @@
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>cifre los datos en tránsito integrando el producto de seguridad de terceros con comunicaciones de red seguras (SNC) para DIAG (SAP GUI), RFC y SPNEGO para HTTPS</t>
+          <t>En el caso de SAP en SQL Server, puede deshabilitar la cuenta de administrador del sistema de SQL Server porque los sistemas SAP en SQL Server no usan la cuenta. Asegúrese de que otro usuario con derechos de administrador del sistema pueda acceder al servidor antes de deshabilitar la cuenta de administrador del sistema original.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5923,7 +5976,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I109" s="15" t="n"/>
@@ -5931,7 +5984,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5947,18 +6000,18 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Azure Active Directory (Azure AD) con SAML 2.0 también puede proporcionar SSO a una amplia gama de aplicaciones y plataformas de SAP, como SAP NetWeaver, SAP HANA y SAP Cloud Platform</t>
+          <t>Deshabilite xp_cmdshell. La característica de SQL Server xp_cmdshell habilita un shell de comandos del sistema operativo interno de SQL Server. Es un riesgo potencial en las auditorías de seguridad.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5969,15 +6022,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/3019299/E</t>
+        </is>
+      </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -5998,13 +6055,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de reforzar el sistema operativo para erradicar las vulnerabilidades que podrían provocar ataques a la base de datos de SAP.</t>
+          <t>El cifrado de servidores de bases de datos SAP HANA en Azrue utiliza la tecnología de cifrado nativa de SAP HANA. Además, si usa SQL Server en Azure, use el cifrado de datos transparente (TDE) para proteger los datos y los archivos de registro y asegurarse de que las copias de seguridad también están cifradas.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6015,14 +6072,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6043,7 +6105,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice claves administradas por Microsoft para la funcionalidad de cifrado de entidad de seguridad y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>El cifrado de Azure Storage está habilitado para todas las cuentas de Azure Resource Manager y de almacenamiento clásico, y no se puede deshabilitar. Dado que los datos están cifrados de forma predeterminada, no es necesario modificar el código o las aplicaciones para usar el cifrado de Azure Storage.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6060,15 +6122,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
+        </is>
+      </c>
+      <c r="I112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6089,13 +6155,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Use una instancia de Azure Key Vault por aplicación, por entorno, por región.</t>
+          <t>Uso de Azure Key Vault para almacenar los secretos y las credenciales</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6106,15 +6172,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I113" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+        </is>
+      </c>
+      <c r="I113" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6135,7 +6205,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Se recomienda bloquear los recursos de Azure después de la implementación correcta para protegerse contra cambios no autorizados. También puede aplicar restricciones y reglas de LOCK por suscripción mediante directivas de Azure personalizadas (rol personalizado).</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6152,15 +6222,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I114" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I114" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6171,17 +6245,17 @@
     <row r="115" ht="16.5" customHeight="1">
       <c r="A115" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Configuración de disco para Oracle, SQL, HANA</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6196,12 +6270,21 @@
         </is>
       </c>
       <c r="G115" s="21" t="n"/>
-      <c r="H115" s="15" t="n"/>
+      <c r="H115" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6210,262 +6293,787 @@
       <c r="P115" s="25" t="n"/>
     </row>
     <row r="116" ht="16.5" customHeight="1">
-      <c r="A116" s="21" t="n"/>
-      <c r="B116" s="21" t="n"/>
-      <c r="C116" s="21" t="n"/>
+      <c r="A116" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B116" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C116" s="21" t="inlineStr">
+        <is>
+          <t>En función de los requisitos existentes, controles normativos y de cumplimiento (internos y externos): determine qué directivas de Azure y el rol de RBAC de Azure son necesarios</t>
+        </is>
+      </c>
       <c r="D116" s="21" t="n"/>
-      <c r="E116" s="21" t="n"/>
+      <c r="E116" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G116" s="21" t="n"/>
-      <c r="H116" s="15" t="n"/>
+      <c r="H116" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
-      <c r="L116" s="25" t="n"/>
+      <c r="L116" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M116" s="25" t="n"/>
       <c r="N116" s="25" t="n"/>
       <c r="O116" s="25" t="n"/>
       <c r="P116" s="25" t="n"/>
     </row>
     <row r="117" ht="16.5" customHeight="1">
-      <c r="A117" s="21" t="n"/>
-      <c r="B117" s="21" t="n"/>
-      <c r="C117" s="21" t="n"/>
+      <c r="A117" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B117" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C117" s="21" t="inlineStr">
+        <is>
+          <t>Al habilitar Microsoft Defender para punto de conexión en el entorno de SAP, se recomienda excluir los archivos de datos y registro en los servidores DBMS en lugar de dirigirse a todos los servidores. Siga las recomendaciones de su proveedor de DBMS al excluir archivos de destino.</t>
+        </is>
+      </c>
       <c r="D117" s="21" t="n"/>
-      <c r="E117" s="21" t="n"/>
+      <c r="E117" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G117" s="21" t="n"/>
-      <c r="H117" s="15" t="n"/>
+      <c r="H117" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
-      <c r="L117" s="25" t="n"/>
+      <c r="L117" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M117" s="25" t="n"/>
       <c r="N117" s="25" t="n"/>
       <c r="O117" s="25" t="n"/>
       <c r="P117" s="25" t="n"/>
     </row>
     <row r="118" ht="16.5" customHeight="1">
-      <c r="A118" s="21" t="n"/>
-      <c r="B118" s="21" t="n"/>
-      <c r="C118" s="21" t="n"/>
+      <c r="A118" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B118" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C118" s="21" t="inlineStr">
+        <is>
+          <t>Delegue un rol personalizado de administrador de SAP con acceso Just-In-Time de Microsoft Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D118" s="21" t="n"/>
-      <c r="E118" s="21" t="n"/>
+      <c r="E118" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G118" s="21" t="n"/>
-      <c r="H118" s="15" t="n"/>
-      <c r="I118" s="15" t="n"/>
+      <c r="H118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
-      <c r="L118" s="25" t="n"/>
+      <c r="L118" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M118" s="25" t="n"/>
       <c r="N118" s="25" t="n"/>
       <c r="O118" s="25" t="n"/>
       <c r="P118" s="25" t="n"/>
     </row>
     <row r="119" ht="16.5" customHeight="1">
-      <c r="A119" s="21" t="n"/>
-      <c r="B119" s="21" t="n"/>
-      <c r="C119" s="21" t="n"/>
+      <c r="A119" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B119" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C119" s="21" t="inlineStr">
+        <is>
+          <t>cifre los datos en tránsito integrando el producto de seguridad de terceros con comunicaciones de red seguras (SNC) para DIAG (SAP GUI), RFC y SPNEGO para HTTPS</t>
+        </is>
+      </c>
       <c r="D119" s="21" t="n"/>
-      <c r="E119" s="21" t="n"/>
+      <c r="E119" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G119" s="21" t="n"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
-      <c r="L119" s="25" t="n"/>
+      <c r="L119" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M119" s="25" t="n"/>
       <c r="N119" s="25" t="n"/>
       <c r="O119" s="25" t="n"/>
       <c r="P119" s="25" t="n"/>
     </row>
     <row r="120" ht="16.5" customHeight="1">
-      <c r="A120" s="21" t="n"/>
-      <c r="B120" s="21" t="n"/>
-      <c r="C120" s="21" t="n"/>
+      <c r="A120" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B120" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C120" s="21" t="inlineStr">
+        <is>
+          <t>De forma predeterminada, utilice claves administradas por Microsoft para la funcionalidad de cifrado de entidad de seguridad y use claves administradas por el cliente cuando sea necesario.</t>
+        </is>
+      </c>
       <c r="D120" s="21" t="n"/>
-      <c r="E120" s="21" t="n"/>
+      <c r="E120" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G120" s="21" t="n"/>
-      <c r="H120" s="15" t="n"/>
-      <c r="I120" s="15" t="n"/>
+      <c r="H120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
-      <c r="L120" s="25" t="n"/>
+      <c r="L120" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M120" s="25" t="n"/>
       <c r="N120" s="25" t="n"/>
       <c r="O120" s="25" t="n"/>
       <c r="P120" s="25" t="n"/>
     </row>
     <row r="121" ht="16.5" customHeight="1">
-      <c r="A121" s="21" t="n"/>
-      <c r="B121" s="21" t="n"/>
-      <c r="C121" s="21" t="n"/>
+      <c r="A121" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B121" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C121" s="21" t="inlineStr">
+        <is>
+          <t>Use una instancia de Azure Key Vault por aplicación, por entorno, por región.</t>
+        </is>
+      </c>
       <c r="D121" s="21" t="n"/>
-      <c r="E121" s="21" t="n"/>
+      <c r="E121" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G121" s="21" t="n"/>
-      <c r="H121" s="15" t="n"/>
-      <c r="I121" s="15" t="n"/>
+      <c r="H121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
-      <c r="L121" s="25" t="n"/>
+      <c r="L121" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M121" s="25" t="n"/>
       <c r="N121" s="25" t="n"/>
       <c r="O121" s="25" t="n"/>
       <c r="P121" s="25" t="n"/>
     </row>
     <row r="122" ht="16.5" customHeight="1">
-      <c r="A122" s="21" t="n"/>
-      <c r="B122" s="21" t="n"/>
-      <c r="C122" s="21" t="n"/>
+      <c r="A122" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B122" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C122" s="21" t="inlineStr">
+        <is>
+          <t>Para controlar y administrar claves y secretos de cifrado de disco para sistemas operativos Windows y Windows que no son de HANA, use Azure Key Vault. SAP HANA no es compatible con Azure Key Vault, por lo que debe usar métodos alternativos como SAP ABAP o claves SSH.</t>
+        </is>
+      </c>
       <c r="D122" s="21" t="n"/>
-      <c r="E122" s="21" t="n"/>
+      <c r="E122" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="15" t="n"/>
-      <c r="I122" s="15" t="n"/>
+      <c r="H122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
-      <c r="L122" s="25" t="n"/>
+      <c r="L122" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M122" s="25" t="n"/>
       <c r="N122" s="25" t="n"/>
       <c r="O122" s="25" t="n"/>
       <c r="P122" s="25" t="n"/>
     </row>
     <row r="123" ht="16.5" customHeight="1">
-      <c r="A123" s="21" t="n"/>
-      <c r="B123" s="21" t="n"/>
-      <c r="C123" s="21" t="n"/>
+      <c r="A123" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B123" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C123" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D123" s="21" t="n"/>
-      <c r="E123" s="21" t="n"/>
+      <c r="E123" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G123" s="21" t="n"/>
-      <c r="H123" s="15" t="n"/>
+      <c r="H123" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
-      <c r="L123" s="25" t="n"/>
+      <c r="L123" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M123" s="25" t="n"/>
       <c r="N123" s="25" t="n"/>
       <c r="O123" s="25" t="n"/>
       <c r="P123" s="25" t="n"/>
     </row>
     <row r="124" ht="16.5" customHeight="1">
-      <c r="A124" s="21" t="n"/>
-      <c r="B124" s="21" t="n"/>
-      <c r="C124" s="21" t="n"/>
+      <c r="A124" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B124" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C124" s="21" t="inlineStr">
+        <is>
+          <t>Personalización de los roles de control de acceso basado en rol (RBAC) para SAP en suscripciones de Azure spoke para evitar cambios accidentales relacionados con la red</t>
+        </is>
+      </c>
       <c r="D124" s="21" t="n"/>
-      <c r="E124" s="21" t="n"/>
+      <c r="E124" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G124" s="21" t="n"/>
-      <c r="H124" s="15" t="n"/>
-      <c r="I124" s="15" t="n"/>
+      <c r="H124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
-      <c r="L124" s="25" t="n"/>
+      <c r="L124" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M124" s="25" t="n"/>
       <c r="N124" s="25" t="n"/>
       <c r="O124" s="25" t="n"/>
       <c r="P124" s="25" t="n"/>
     </row>
     <row r="125" ht="16.5" customHeight="1">
-      <c r="A125" s="21" t="n"/>
-      <c r="B125" s="21" t="n"/>
-      <c r="C125" s="21" t="n"/>
+      <c r="A125" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B125" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C125" s="21" t="inlineStr">
+        <is>
+          <t>Aísle las redes perimetrales y las aplicaciones virtuales de red del resto del patrimonio de SAP, configure Azure Private Link y administre y controle de forma segura los recursos de SAP en Azure</t>
+        </is>
+      </c>
       <c r="D125" s="21" t="n"/>
-      <c r="E125" s="21" t="n"/>
+      <c r="E125" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G125" s="21" t="n"/>
-      <c r="H125" s="15" t="n"/>
-      <c r="I125" s="15" t="n"/>
+      <c r="H125" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
-      <c r="L125" s="25" t="n"/>
+      <c r="L125" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M125" s="25" t="n"/>
       <c r="N125" s="25" t="n"/>
       <c r="O125" s="25" t="n"/>
       <c r="P125" s="25" t="n"/>
     </row>
     <row r="126" ht="16.5" customHeight="1">
-      <c r="A126" s="21" t="n"/>
-      <c r="B126" s="21" t="n"/>
-      <c r="C126" s="21" t="n"/>
+      <c r="A126" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B126" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C126" s="21" t="inlineStr">
+        <is>
+          <t>Considere la posibilidad de usar el software antimalware de Microsoft en Azure para proteger las máquinas virtuales de archivos malintencionados, adware y otras amenazas.</t>
+        </is>
+      </c>
       <c r="D126" s="21" t="n"/>
-      <c r="E126" s="21" t="n"/>
+      <c r="E126" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G126" s="21" t="n"/>
-      <c r="H126" s="15" t="n"/>
+      <c r="H126" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
-      <c r="L126" s="25" t="n"/>
+      <c r="L126" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M126" s="25" t="n"/>
       <c r="N126" s="25" t="n"/>
       <c r="O126" s="25" t="n"/>
       <c r="P126" s="25" t="n"/>
     </row>
     <row r="127" ht="16.5" customHeight="1">
-      <c r="A127" s="21" t="n"/>
-      <c r="B127" s="21" t="n"/>
-      <c r="C127" s="21" t="n"/>
+      <c r="A127" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B127" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C127" s="21" t="inlineStr">
+        <is>
+          <t>Para una protección aún más eficaz, considere la posibilidad de usar Microsoft Defender para punto de conexión.</t>
+        </is>
+      </c>
       <c r="D127" s="21" t="n"/>
-      <c r="E127" s="21" t="n"/>
+      <c r="E127" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="n"/>
+      <c r="H127" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
-      <c r="L127" s="25" t="n"/>
+      <c r="L127" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M127" s="25" t="n"/>
       <c r="N127" s="25" t="n"/>
       <c r="O127" s="25" t="n"/>
       <c r="P127" s="25" t="n"/>
     </row>
     <row r="128" ht="16.5" customHeight="1">
-      <c r="A128" s="21" t="n"/>
-      <c r="B128" s="21" t="n"/>
-      <c r="C128" s="21" t="n"/>
+      <c r="A128" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B128" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C128" s="21" t="inlineStr">
+        <is>
+          <t>Aísle los servidores de aplicaciones y bases de datos de SAP de Internet o de la red local pasando todo el tráfico a través de la red virtual del centro de conectividad, que está conectada a la red radial mediante el emparejamiento de red virtual. Las redes virtuales emparejadas garantizan que la solución de SAP en Azure esté aislada de la red pública de Internet.</t>
+        </is>
+      </c>
       <c r="D128" s="21" t="n"/>
-      <c r="E128" s="21" t="n"/>
+      <c r="E128" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="n"/>
+      <c r="H128" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
-      <c r="L128" s="25" t="n"/>
+      <c r="L128" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M128" s="25" t="n"/>
       <c r="N128" s="25" t="n"/>
       <c r="O128" s="25" t="n"/>
       <c r="P128" s="25" t="n"/>
     </row>
     <row r="129" ht="16.5" customHeight="1">
-      <c r="A129" s="21" t="n"/>
-      <c r="B129" s="21" t="n"/>
-      <c r="C129" s="21" t="n"/>
+      <c r="A129" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B129" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C129" s="21" t="inlineStr">
+        <is>
+          <t>En el caso de las aplicaciones orientadas a Internet, como SAP Fiori, asegúrese de distribuir la carga según los requisitos de la aplicación mientras se mantienen los niveles de seguridad. Para la seguridad de nivel 7, puede usar un firewall de aplicaciones web (WAF) de terceros disponible en Azure Marketplace.</t>
+        </is>
+      </c>
       <c r="D129" s="21" t="n"/>
-      <c r="E129" s="21" t="n"/>
+      <c r="E129" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G129" s="21" t="n"/>
-      <c r="H129" s="15" t="n"/>
+      <c r="H129" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
-      <c r="L129" s="25" t="n"/>
+      <c r="L129" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M129" s="25" t="n"/>
       <c r="N129" s="25" t="n"/>
       <c r="O129" s="25" t="n"/>
       <c r="P129" s="25" t="n"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
-      <c r="A130" s="21" t="n"/>
-      <c r="B130" s="21" t="n"/>
-      <c r="C130" s="21" t="n"/>
+      <c r="A130" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B130" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C130" s="21" t="inlineStr">
+        <is>
+          <t>Para habilitar la comunicación segura en las soluciones de Azure Monitor para SAP, puede optar por usar un certificado raíz o un certificado de servidor. Le recomendamos encarecidamente que utilice certificados raíz.</t>
+        </is>
+      </c>
       <c r="D130" s="21" t="n"/>
-      <c r="E130" s="21" t="n"/>
+      <c r="E130" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="n"/>
+      <c r="H130" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
-      <c r="L130" s="25" t="n"/>
+      <c r="L130" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M130" s="25" t="n"/>
       <c r="N130" s="25" t="n"/>
       <c r="O130" s="25" t="n"/>
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="n"/>
-      <c r="B131" s="21" t="n"/>
-      <c r="C131" s="21" t="n"/>
+      <c r="A131" s="21" t="inlineStr">
+        <is>
+          <t>Almacenamiento</t>
+        </is>
+      </c>
+      <c r="B131" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
+      <c r="C131" s="21" t="inlineStr">
+        <is>
+          <t>Configuración de disco para Oracle, SQL, HANA</t>
+        </is>
+      </c>
       <c r="D131" s="21" t="n"/>
-      <c r="E131" s="21" t="n"/>
+      <c r="E131" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="n"/>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="n"/>
+      <c r="L131" s="25" t="inlineStr">
+        <is>
+          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+        </is>
+      </c>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
@@ -9144,7 +9752,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F116" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F132" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.es.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.es.xlsx
@@ -5713,7 +5713,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las redes aceleradas de Azure están habilitadas en las máquinas virtuales que se usan en las capas de aplicación SAP y DBMS.</t>
+          <t>Si utiliza Load Balancer con sistemas operativos invitados Linux, compruebe que el parámetro de red de Linux net.ipv4.tcp_timestamps esté establecido en 0.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5730,19 +5730,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5763,13 +5763,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Si utiliza Load Balancer con sistemas operativos invitados Linux, compruebe que el parámetro de red de Linux net.ipv4.tcp_timestamps esté establecido en 0.</t>
+          <t>En el caso de las implementaciones de SAP RISE/ECS, el emparejamiento virtual es la forma preferida de establecer la conectividad con el entorno de Azure existente del cliente. Tanto la red virtual de SAP como las redes virtuales del cliente están protegidas con grupos de seguridad de red (NSG), lo que permite la comunicación en los puertos de SAP y de base de datos a través del emparejamiento de redes virtuales</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5780,19 +5780,15 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5803,17 +5799,17 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las implementaciones de SAP RISE/ECS, el emparejamiento virtual es la forma preferida de establecer la conectividad con el entorno de Azure existente del cliente. Tanto la red virtual de SAP como las redes virtuales del cliente están protegidas con grupos de seguridad de red (NSG), lo que permite la comunicación en los puertos de SAP y de base de datos a través del emparejamiento de redes virtuales</t>
+          <t>Si ejecuta máquinas virtuales Windows y Linux en Azure, en el entorno local o en otros entornos en la nube, puede usar el Centro de administración de actualizaciones de Automatización de Azure para administrar las actualizaciones del sistema operativo, incluidas las revisiones de seguridad.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5830,15 +5826,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
-        </is>
-      </c>
-      <c r="I106" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Si ejecuta máquinas virtuales Windows y Linux en Azure, en el entorno local o en otros entornos en la nube, puede usar el Centro de administración de actualizaciones de Automatización de Azure para administrar las actualizaciones del sistema operativo, incluidas las revisiones de seguridad.</t>
+          <t>Revise de forma rutinaria las notas de seguridad de SAP OSS, ya que SAP publica parches de seguridad muy críticos, o revisiones, que requieren una acción inmediata para proteger sus sistemas SAP.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5881,14 +5881,14 @@
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5909,13 +5909,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Revise de forma rutinaria las notas de seguridad de SAP OSS, ya que SAP publica parches de seguridad muy críticos, o revisiones, que requieren una acción inmediata para proteger sus sistemas SAP.</t>
+          <t>En el caso de SAP en SQL Server, puede deshabilitar la cuenta de administrador del sistema de SQL Server porque los sistemas SAP en SQL Server no usan la cuenta. Asegúrese de que otro usuario con derechos de administrador del sistema pueda acceder al servidor antes de deshabilitar la cuenta de administrador del sistema original.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5926,19 +5926,15 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="inlineStr">
-        <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5959,13 +5955,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>En el caso de SAP en SQL Server, puede deshabilitar la cuenta de administrador del sistema de SQL Server porque los sistemas SAP en SQL Server no usan la cuenta. Asegúrese de que otro usuario con derechos de administrador del sistema pueda acceder al servidor antes de deshabilitar la cuenta de administrador del sistema original.</t>
+          <t>Deshabilite xp_cmdshell. La característica de SQL Server xp_cmdshell habilita un shell de comandos del sistema operativo interno de SQL Server. Es un riesgo potencial en las auditorías de seguridad.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5979,12 +5975,16 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
-      <c r="I109" s="15" t="n"/>
+      <c r="I109" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/3019299/E</t>
+        </is>
+      </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6000,12 +6000,12 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Deshabilite xp_cmdshell. La característica de SQL Server xp_cmdshell habilita un shell de comandos del sistema operativo interno de SQL Server. Es un riesgo potencial en las auditorías de seguridad.</t>
+          <t>El cifrado de servidores de bases de datos SAP HANA en Azrue utiliza la tecnología de cifrado nativa de SAP HANA. Además, si usa SQL Server en Azure, use el cifrado de datos transparente (TDE) para proteger los datos y los archivos de registro y asegurarse de que las copias de seguridad también están cifradas.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6022,19 +6022,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="inlineStr">
+        <is>
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6055,13 +6055,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>El cifrado de servidores de bases de datos SAP HANA en Azrue utiliza la tecnología de cifrado nativa de SAP HANA. Además, si usa SQL Server en Azure, use el cifrado de datos transparente (TDE) para proteger los datos y los archivos de registro y asegurarse de que las copias de seguridad también están cifradas.</t>
+          <t>El cifrado de Azure Storage está habilitado para todas las cuentas de Azure Resource Manager y de almacenamiento clásico, y no se puede deshabilitar. Dado que los datos están cifrados de forma predeterminada, no es necesario modificar el código o las aplicaciones para usar el cifrado de Azure Storage.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6072,19 +6072,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6105,13 +6105,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>El cifrado de Azure Storage está habilitado para todas las cuentas de Azure Resource Manager y de almacenamiento clásico, y no se puede deshabilitar. Dado que los datos están cifrados de forma predeterminada, no es necesario modificar el código o las aplicaciones para usar el cifrado de Azure Storage.</t>
+          <t>Uso de Azure Key Vault para almacenar los secretos y las credenciales</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6122,19 +6122,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6155,13 +6155,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Key Vault para almacenar los secretos y las credenciales</t>
+          <t>Se recomienda bloquear los recursos de Azure después de la implementación correcta para protegerse contra cambios no autorizados. También puede aplicar restricciones y reglas de LOCK por suscripción mediante directivas de Azure personalizadas (rol personalizado).</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6172,19 +6172,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Se recomienda bloquear los recursos de Azure después de la implementación correcta para protegerse contra cambios no autorizados. También puede aplicar restricciones y reglas de LOCK por suscripción mediante directivas de Azure personalizadas (rol personalizado).</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6222,19 +6222,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6255,13 +6255,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
+          <t>En función de los requisitos existentes, controles normativos y de cumplimiento (internos y externos): determine qué directivas de Azure y el rol de RBAC de Azure son necesarios</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6272,19 +6272,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6305,7 +6305,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>En función de los requisitos existentes, controles normativos y de cumplimiento (internos y externos): determine qué directivas de Azure y el rol de RBAC de Azure son necesarios</t>
+          <t>Al habilitar Microsoft Defender para punto de conexión en el entorno de SAP, se recomienda excluir los archivos de datos y registro en los servidores DBMS en lugar de dirigirse a todos los servidores. Siga las recomendaciones de su proveedor de DBMS al excluir archivos de destino.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6322,19 +6322,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Al habilitar Microsoft Defender para punto de conexión en el entorno de SAP, se recomienda excluir los archivos de datos y registro en los servidores DBMS en lugar de dirigirse a todos los servidores. Siga las recomendaciones de su proveedor de DBMS al excluir archivos de destino.</t>
+          <t>Delegue un rol personalizado de administrador de SAP con acceso Just-In-Time de Microsoft Defender for Cloud.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6372,19 +6372,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6405,13 +6405,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Delegue un rol personalizado de administrador de SAP con acceso Just-In-Time de Microsoft Defender for Cloud.</t>
+          <t>cifre los datos en tránsito integrando el producto de seguridad de terceros con comunicaciones de red seguras (SNC) para DIAG (SAP GUI), RFC y SPNEGO para HTTPS</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6422,19 +6422,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6455,13 +6455,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>cifre los datos en tránsito integrando el producto de seguridad de terceros con comunicaciones de red seguras (SNC) para DIAG (SAP GUI), RFC y SPNEGO para HTTPS</t>
+          <t>De forma predeterminada, utilice claves administradas por Microsoft para la funcionalidad de cifrado de entidad de seguridad y use claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6472,19 +6472,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6505,13 +6505,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice claves administradas por Microsoft para la funcionalidad de cifrado de entidad de seguridad y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>Use una instancia de Azure Key Vault por aplicación, por entorno, por región.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6522,7 +6522,7 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
@@ -6534,7 +6534,7 @@
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Use una instancia de Azure Key Vault por aplicación, por entorno, por región.</t>
+          <t>Para controlar y administrar claves y secretos de cifrado de disco para sistemas operativos Windows y Windows que no son de HANA, use Azure Key Vault. SAP HANA no es compatible con Azure Key Vault, por lo que debe usar métodos alternativos como SAP ABAP o claves SSH.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6572,19 +6572,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6605,13 +6605,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Para controlar y administrar claves y secretos de cifrado de disco para sistemas operativos Windows y Windows que no son de HANA, use Azure Key Vault. SAP HANA no es compatible con Azure Key Vault, por lo que debe usar métodos alternativos como SAP ABAP o claves SSH.</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6622,19 +6622,15 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6650,18 +6646,18 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Personalización de los roles de control de acceso basado en rol (RBAC) para SAP en suscripciones de Azure spoke para evitar cambios accidentales relacionados con la red</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6672,15 +6668,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Personalización de los roles de control de acceso basado en rol (RBAC) para SAP en suscripciones de Azure spoke para evitar cambios accidentales relacionados con la red</t>
+          <t>Aísle las redes perimetrales y las aplicaciones virtuales de red del resto del patrimonio de SAP, configure Azure Private Link y administre y controle de forma segura los recursos de SAP en Azure</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6718,19 +6718,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6751,13 +6751,13 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Aísle las redes perimetrales y las aplicaciones virtuales de red del resto del patrimonio de SAP, configure Azure Private Link y administre y controle de forma segura los recursos de SAP en Azure</t>
+          <t>Considere la posibilidad de usar el software antimalware de Microsoft en Azure para proteger las máquinas virtuales de archivos malintencionados, adware y otras amenazas.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6768,19 +6768,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
         </is>
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar el software antimalware de Microsoft en Azure para proteger las máquinas virtuales de archivos malintencionados, adware y otras amenazas.</t>
+          <t>Para una protección aún más eficaz, considere la posibilidad de usar Microsoft Defender para punto de conexión.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6818,19 +6818,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6851,13 +6851,13 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Para una protección aún más eficaz, considere la posibilidad de usar Microsoft Defender para punto de conexión.</t>
+          <t>Aísle los servidores de aplicaciones y bases de datos de SAP de Internet o de la red local pasando todo el tráfico a través de la red virtual del centro de conectividad, que está conectada a la red radial mediante el emparejamiento de red virtual. Las redes virtuales emparejadas garantizan que la solución de SAP en Azure esté aislada de la red pública de Internet.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6868,19 +6868,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6901,13 +6901,13 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Aísle los servidores de aplicaciones y bases de datos de SAP de Internet o de la red local pasando todo el tráfico a través de la red virtual del centro de conectividad, que está conectada a la red radial mediante el emparejamiento de red virtual. Las redes virtuales emparejadas garantizan que la solución de SAP en Azure esté aislada de la red pública de Internet.</t>
+          <t>En el caso de las aplicaciones orientadas a Internet, como SAP Fiori, asegúrese de distribuir la carga según los requisitos de la aplicación mientras se mantienen los niveles de seguridad. Para la seguridad de nivel 7, puede usar un firewall de aplicaciones web (WAF) de terceros disponible en Azure Marketplace.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6918,19 +6918,19 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6951,13 +6951,13 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las aplicaciones orientadas a Internet, como SAP Fiori, asegúrese de distribuir la carga según los requisitos de la aplicación mientras se mantienen los niveles de seguridad. Para la seguridad de nivel 7, puede usar un firewall de aplicaciones web (WAF) de terceros disponible en Azure Marketplace.</t>
+          <t>Para habilitar la comunicación segura en las soluciones de Azure Monitor para SAP, puede optar por usar un certificado raíz o un certificado de servidor. Le recomendamos encarecidamente que utilice certificados raíz.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6968,19 +6968,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6991,17 +6991,17 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Para habilitar la comunicación segura en las soluciones de Azure Monitor para SAP, puede optar por usar un certificado raíz o un certificado de servidor. Le recomendamos encarecidamente que utilice certificados raíz.</t>
+          <t>Configuración de disco para Oracle, SQL, HANA</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -7016,21 +7016,12 @@
         </is>
       </c>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H130" s="15" t="n"/>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7039,41 +7030,16 @@
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="inlineStr">
-        <is>
-          <t>Almacenamiento</t>
-        </is>
-      </c>
-      <c r="B131" s="21" t="inlineStr">
-        <is>
-          <t>&amp;nbsp</t>
-        </is>
-      </c>
-      <c r="C131" s="21" t="inlineStr">
-        <is>
-          <t>Configuración de disco para Oracle, SQL, HANA</t>
-        </is>
-      </c>
+      <c r="A131" s="21" t="n"/>
+      <c r="B131" s="21" t="n"/>
+      <c r="C131" s="21" t="n"/>
       <c r="D131" s="21" t="n"/>
-      <c r="E131" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E131" s="21" t="n"/>
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="n"/>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="inlineStr">
-        <is>
-          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
-        </is>
-      </c>
+      <c r="L131" s="25" t="n"/>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
@@ -9752,7 +9718,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F132" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F131" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.es.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.es.xlsx
@@ -1059,17 +1059,17 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Automatización</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>ACSS</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure no admite actualmente la combinación de ASCS y alta disponibilidad de base de datos en el mismo clúster de Linux Pacemaker; sepáralos en grupos individuales. Sin embargo, puede combinar hasta cinco clústeres de servicios centrales en un par de máquinas virtuales.</t>
+          <t>Azure Center for SAP Solutions (ACSS) es una oferta de Azure que convierte a SAP en una carga de trabajo de nivel superior en Azure. ACSS es una solución integral que permite crear y ejecutar sistemas SAP como una carga de trabajo unificada en Azure y proporciona una base más fluida para la innovación. Puede aprovechar las funcionalidades de administración de los sistemas SAP nuevos y existentes basados en Azure.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1086,15 +1086,19 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I8" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/center-sap-solutions/overview</t>
+        </is>
+      </c>
+      <c r="I8" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-center-sap-solutions/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J8" s="22" t="n"/>
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
+          <t>4620dc87-e948-4ce8-8426-f3e6e5d7bd85</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1105,17 +1109,17 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Automatización</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>SDAF</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Uso de una SKU de Standard Load Balancer delante de clústeres de ASCS y bases de datos</t>
+          <t>Azure admite la automatización de implementaciones de SAP en Linux y Windows. SAP Deployment Automation Framework es una herramienta de orquestación de código abierto que puede implementar, instalar y mantener entornos SAP.</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1132,15 +1136,19 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
-      <c r="I9" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-platform-automation-and-devops</t>
+        </is>
+      </c>
+      <c r="I9" s="15" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/sap-automation</t>
+        </is>
+      </c>
       <c r="J9" s="22" t="n"/>
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
+          <t>5d75e99d-624d-4afe-91d9-e17adc580790</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1156,12 +1164,12 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Copia de seguridad y restauración</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Ambas máquinas virtuales del par de alta disponibilidad deben implementarse en un conjunto de disponibilidad, o las zonas de disponibilidad deben tener el mismo tamaño y la misma configuración de almacenamiento</t>
+          <t>Realice una recuperación a un momento dado de sus bases de datos de producción en cualquier momento y en un período de tiempo que cumpla con su RTO; La recuperación a un momento dado suele incluir errores del operador al eliminar datos en la capa DBMS o a través de SAP, por cierto</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1178,7 +1186,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/data-platform</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1186,7 +1194,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
+          <t>d17f6f39-a377-48a2-931f-5ead3ebe33a8</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1202,12 +1210,12 @@
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Recuperación ante desastres</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Se debe usar la tecnología de replicación de bases de datos nativas para sincronizar la base de datos en un par de alta disponibilidad.</t>
+          <t>Pruebe los tiempos de copia de seguridad y recuperación para verificar que cumplen con los requisitos de RTO para restaurar todos los sistemas simultáneamente después de un desastre.</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1222,17 +1230,13 @@
         </is>
       </c>
       <c r="G11" s="21" t="n"/>
-      <c r="H11" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
+      <c r="H11" s="15" t="n"/>
       <c r="I11" s="15" t="n"/>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
+          <t>c4b8e117-930b-4dbd-ae50-7bc5faf6f91a</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1248,18 +1252,18 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Recuperación ante desastres</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Realice una recuperación a un momento dado de sus bases de datos de producción en cualquier momento y en un período de tiempo que cumpla con su RTO; La recuperación a un momento dado suele incluir errores del operador al eliminar datos en la capa DBMS o a través de SAP, por cierto</t>
+          <t>Puede replicar el almacenamiento estándar entre regiones emparejadas, pero no puede usar el almacenamiento estándar para almacenar las bases de datos o los discos duros virtuales. Las copias de seguridad solo se pueden replicar entre las regiones emparejadas que utilice. Para todos los demás datos, ejecute la replicación mediante características nativas de DBMS, como SQL Server Always On o SAP HANA System Replication. Use una combinación de Site Recovery, rsync o robocopy y otro software de terceros para la capa de aplicación de SAP.</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1270,15 +1274,19 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
-      <c r="I12" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+        </is>
+      </c>
+      <c r="I12" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
+          <t>b651423c-8552-42db-a545-5cb50c05527a</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1294,12 +1302,12 @@
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Recuperación ante desastres</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>El CIDR de la red virtual (VNet) principal no debe entrar en conflicto ni superponerse con el CIDR de la red virtual del sitio de recuperación ante desastres</t>
+          <t>Al usar Azure Availability Zones para lograr una alta disponibilidad, debe tener en cuenta la latencia entre los servidores de aplicaciones SAP y los servidores de bases de datos. En el caso de las zonas con latencias altas, es necesario implementar procedimientos operativos para garantizar que los servidores de aplicaciones SAP y los servidores de bases de datos se ejecuten en la misma zona en todo momento.</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1314,13 +1322,21 @@
         </is>
       </c>
       <c r="G13" s="21" t="n"/>
-      <c r="H13" s="15" t="n"/>
-      <c r="I13" s="15" t="n"/>
+      <c r="H13" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
+        </is>
+      </c>
+      <c r="I13" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
+          <t>aa208dca-784f-46c6-9014-cc919c542dc9</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1336,18 +1352,18 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Recuperación ante desastres</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Use Site Recovery para replicar un servidor de aplicaciones en un sitio de recuperación ante desastres. Site Recovery también puede ayudar a replicar máquinas virtuales de clúster de servicios centrales en el sitio de recuperación ante desastres. Al invocar la recuperación ante desastres, deberá volver a configurar el clúster de Linux Pacemaker en el sitio de recuperación ante desastres (por ejemplo, reemplazar el VIP o SBD, ejecutar corosync.conf, etc.).</t>
+          <t>Configure conexiones de ExpressRoute desde el entorno local a las regiones de recuperación ante desastres de Azure principal y secundaria. Además, como alternativa al uso de ExpressRoute, considere la posibilidad de configurar conexiones VPN desde el entorno local a las regiones de recuperación ante desastres de Azure principal y secundaria.</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1356,13 +1372,21 @@
         </is>
       </c>
       <c r="G14" s="21" t="n"/>
-      <c r="H14" s="15" t="n"/>
-      <c r="I14" s="15" t="n"/>
+      <c r="H14" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+        </is>
+      </c>
+      <c r="I14" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/expressroute/use-s2s-vpn-as-backup-for-expressroute-privatepeering</t>
+        </is>
+      </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
+          <t>ba07c007-1f90-43e9-aa4f-601346b80352</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1378,18 +1402,18 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Recuperación ante desastres</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>La replicación nativa de la base de datos debe usarse para sincronizar los datos con el sitio de recuperación ante desastres, en lugar de Azure Site Recovery</t>
+          <t>Replique el contenido del almacén de claves, como certificados, secretos o claves, en todas las regiones para poder descifrar los datos de la región de recuperación ante desastres.</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1398,13 +1422,17 @@
         </is>
       </c>
       <c r="G15" s="21" t="n"/>
-      <c r="H15" s="15" t="n"/>
+      <c r="H15" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/disaster-recovery-guidance</t>
+        </is>
+      </c>
       <c r="I15" s="15" t="n"/>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
+          <t>d2b30195-b11d-4a8f-a672-28b2b4169a7c</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1420,18 +1448,18 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>Alta disponibilidad</t>
+          <t>Recuperación ante desastres</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Considere la disponibilidad del software de SAP frente a puntos únicos de fallo. Esto incluye puntos únicos de falla dentro de aplicaciones como DBMS utilizados en las arquitecturas SAP NetWeaver y SAP S/4HANA, SAP ABAP y ASCS + SCS. También, otras herramientas como SAP Web Dispatcher.</t>
+          <t>Empareje las redes virtuales principal y de recuperación ante desastres. Por ejemplo, para la replicación del sistema HANA, una red virtual de base de datos de SAP HANA debe estar emparejada con la red virtual de base de datos de SAP HANA del sitio de recuperación ante desastres.</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1442,19 +1470,15 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
-        </is>
-      </c>
-      <c r="I16" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/2-explore-high-availability-disaster-recovery-support-azure-for-sap-workloads?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-s4hana</t>
+        </is>
+      </c>
+      <c r="I16" s="15" t="n"/>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>8300cb30-766b-4084-b126-0dd8fb1269a1</t>
+          <t>05f1101d-250f-40e7-b2a1-b674ab50edbd</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1470,18 +1494,18 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>Alta disponibilidad</t>
+          <t>Recuperación ante desastres</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>En el caso de SAP y bases de datos de SAP, considere la posibilidad de implementar clústeres de conmutación por error automática. En Windows, los clústeres de conmutación por error de Windows Server admiten la conmutación por error. En Linux, Linux Pacemaker o herramientas de terceros como SIOS Protection Suite y Veritas InfoScale admiten la conmutación por error.</t>
+          <t>Si usa el almacenamiento de Azure NetApp Files para las implementaciones de SAP, como mínimo, cree dos cuentas de Azure NetApp Files en el nivel Premium, en dos regiones.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1492,19 +1516,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-supported-configurations</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-service-levels</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/choose-service-level-azure-netapp-files-hpc-applications/2-identify-decision-criteria</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>56402f11-ccbe-42c3-a2f6-c6f6f38ab579</t>
+          <t>d3351bf7-628a-46de-917d-dfc11d3b6b40</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1520,12 +1544,12 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>Alta disponibilidad</t>
+          <t>Recuperación ante desastres</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Azure no admite arquitecturas en las que las máquinas virtuales principal y secundaria compartan el almacenamiento de los datos de DBMS. Para la capa DBMS, el patrón de arquitectura común es replicar bases de datos al mismo tiempo y con pilas de almacenamiento diferentes a las que usan las máquinas virtuales principal y secundaria.</t>
+          <t>Se debe usar la tecnología de replicación de bases de datos nativas para sincronizar la base de datos en un par de alta disponibilidad.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1547,14 +1571,14 @@
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/?source=recommendationshttps%3A%2F%2Flearn.microsoft.com%2Fja-jp%2Ftraining%2Fpaths%2Fensure-business-continuity-implement-disaster-recovery%2F%3Fsource%3Drecommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-disaster-recovery-for-sap-workloads-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>afae6bec-2671-49ae-bc69-140b8ec8d320</t>
+          <t>726a1d3e-5508-4a06-9d54-93f4b50040c1</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1570,12 +1594,12 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>Alta disponibilidad</t>
+          <t>Recuperación ante desastres</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Los datos de DBMS y los archivos de registro de transacciones y puesta al día se almacenan en el almacenamiento en bloque compatible con Azure o en Azure NetApp Files. Azure Files o Azure Premium Files no se admiten como almacenamiento para datos de DBMS o archivos de registro de puesta al día con la carga de trabajo de SAP.</t>
+          <t>El CIDR de la red virtual (VNet) principal no debe entrar en conflicto ni superponerse con el CIDR de la red virtual del sitio de recuperación ante desastres</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1592,19 +1616,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/dbms-guide-general</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/virtual-network/virtual-networks-faq</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-databases/2-explore-database-support-azure-for-sap-workloads</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>ac614e95-6767-4bc3-b8a4-9953533da6ba</t>
+          <t>6561f847-3db5-4ff8-9200-5ad3c3b436ad</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1620,12 +1644,12 @@
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>Alta disponibilidad</t>
+          <t>Recuperación ante desastres</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Puede usar discos compartidos de Azure en Windows para componentes ASCS + SCS y escenarios específicos de alta disponibilidad. Configure los clústeres de conmutación por error por separado para los componentes de la capa de aplicación de SAP y la capa de DBMS. Actualmente, Azure no admite arquitecturas de alta disponibilidad que combinen componentes de la capa de aplicación de SAP y la capa de DBMS en un clúster de conmutación por error.</t>
+          <t>Use Site Recovery para replicar un servidor de aplicaciones en un sitio de recuperación ante desastres. Site Recovery también puede ayudar a replicar máquinas virtuales de clúster de servicios centrales en el sitio de recuperación ante desastres. Al invocar la recuperación ante desastres, deberá volver a configurar el clúster de Linux Pacemaker en el sitio de recuperación ante desastres (por ejemplo, reemplazar el VIP o SBD, ejecutar corosync.conf, etc.).</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1640,21 +1664,17 @@
         </is>
       </c>
       <c r="G20" s="21" t="n"/>
-      <c r="H20" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-guide-wsfc-shared-disk</t>
-        </is>
-      </c>
+      <c r="H20" s="15" t="n"/>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>1f737179-8e7f-4e1a-a30c-e5a649a3092b</t>
+          <t>0258ed30-fe42-434f-87b9-58f91f908e0a</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1675,7 +1695,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>La mayoría de los clústeres de conmutación por error para los componentes de la capa de aplicación (ASCS) de SAP y la capa de DBMS requieren una dirección IP virtual para un clúster de conmutación por error.  Azure Load Balancer debe controlar la dirección IP virtual para todos los demás casos. Un principio de diseño es usar un equilibrador de carga por configuración de clúster. Te recomendamos que utilices la versión estándar del equilibrador de carga (SKU de equilibrador de carga estándar).</t>
+          <t>Considere la disponibilidad del software de SAP frente a puntos únicos de fallo. Esto incluye puntos únicos de falla dentro de aplicaciones como DBMS utilizados en las arquitecturas SAP NetWeaver y SAP S/4HANA, SAP ABAP y ASCS + SCS. También, otras herramientas como SAP Web Dispatcher.</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1692,19 +1712,19 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-standard-load-balancer-outbound-connections</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/2-explore-high-availability-disaster-recovery-support-azure-for-sap-workloads?source=recommendations</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>a78b3d31-3170-44f2-b5d7-651a29f4ccf5</t>
+          <t>8300cb30-766b-4084-b126-0dd8fb1269a1</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1725,7 +1745,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la IP flotante esté habilitada en el equilibrador de carga</t>
+          <t>En el caso de SAP y bases de datos de SAP, considere la posibilidad de implementar clústeres de conmutación por error automática. En Windows, los clústeres de conmutación por error de Windows Server admiten la conmutación por error. En Linux, Linux Pacemaker o herramientas de terceros como SIOS Protection Suite y Veritas InfoScale admiten la conmutación por error.</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1742,19 +1762,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-ha-ports-overview?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-supported-configurations</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
+          <t>56402f11-ccbe-42c3-a2f6-c6f6f38ab579</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1775,7 +1795,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Antes de implementar la infraestructura de alta disponibilidad, y en función de la región que elija, determine si desea realizar la implementación con un conjunto de disponibilidad de Azure o una zona de disponibilidad.</t>
+          <t>Azure no admite arquitecturas en las que las máquinas virtuales principal y secundaria compartan el almacenamiento de los datos de DBMS. Para la capa DBMS, el patrón de arquitectura común es replicar bases de datos al mismo tiempo y con pilas de almacenamiento diferentes a las que usan las máquinas virtuales principal y secundaria.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1792,19 +1812,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/disaster-recovery-sap-guide?tabs=windows</t>
         </is>
       </c>
       <c r="I23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/?source=recommendationshttps%3A%2F%2Flearn.microsoft.com%2Fja-jp%2Ftraining%2Fpaths%2Fensure-business-continuity-implement-disaster-recovery%2F%3Fsource%3Drecommendations</t>
         </is>
       </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>c47cc4f3-f105-452c-845e-9b307b3856c1</t>
+          <t>afae6bec-2671-49ae-bc69-140b8ec8d320</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1825,7 +1845,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Si desea cumplir los acuerdos de nivel de servicio de infraestructura para las aplicaciones de los componentes de SAP (servicios centrales, servidores de aplicaciones y bases de datos), debe elegir las mismas opciones de alta disponibilidad (máquinas virtuales, conjuntos de disponibilidad, zonas de disponibilidad) para todos los componentes.</t>
+          <t>Los datos de DBMS y los archivos de registro de transacciones y puesta al día se almacenan en el almacenamiento en bloque compatible con Azure o en Azure NetApp Files. Azure Files o Azure Premium Files no se admiten como almacenamiento para datos de DBMS o archivos de registro de puesta al día con la carga de trabajo de SAP.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1842,15 +1862,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/licensing/docs/view/Service-Level-Agreements-SLA-for-Online-Services?lang=1</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/dbms-guide-general</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-databases/2-explore-database-support-azure-for-sap-workloads</t>
+        </is>
+      </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>844f69c3-07e5-4ec1-bff7-4be27bcf5fea</t>
+          <t>ac614e95-6767-4bc3-b8a4-9953533da6ba</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1871,7 +1895,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>No mezcle servidores de diferentes roles en el mismo conjunto de disponibilidad. Mantenga las máquinas virtuales de servicios centrales, las máquinas virtuales de base de datos y las máquinas virtuales de aplicaciones en sus propios conjuntos de disponibilidad</t>
+          <t>Puede usar discos compartidos de Azure en Windows para componentes ASCS + SCS y escenarios específicos de alta disponibilidad. Configure los clústeres de conmutación por error por separado para los componentes de la capa de aplicación de SAP y la capa de DBMS. Actualmente, Azure no admite arquitecturas de alta disponibilidad que combinen componentes de la capa de aplicación de SAP y la capa de DBMS en un clúster de conmutación por error.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1888,19 +1912,19 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-guide-wsfc-shared-disk</t>
         </is>
       </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
+          <t>1f737179-8e7f-4e1a-a30c-e5a649a3092b</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1921,13 +1945,13 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>No se pueden implementar conjuntos de disponibilidad de Azure dentro de una zona de disponibilidad de Azure a menos que se usen grupos de selección de ubicación de proximidad.</t>
+          <t>La mayoría de los clústeres de conmutación por error para los componentes de la capa de aplicación (ASCS) de SAP y la capa de DBMS requieren una dirección IP virtual para un clúster de conmutación por error.  Azure Load Balancer debe controlar la dirección IP virtual para todos los demás casos. Un principio de diseño es usar un equilibrador de carga por configuración de clúster. Te recomendamos que utilices la versión estándar del equilibrador de carga (SKU de equilibrador de carga estándar).</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1938,19 +1962,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-standard-load-balancer-outbound-connections</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>f2201000-d045-40a6-a79a-d7cdc01b4d86</t>
+          <t>a78b3d31-3170-44f2-b5d7-651a29f4ccf5</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1971,7 +1995,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Al crear conjuntos de disponibilidad, use el número máximo de dominios de error y dominios de actualización disponibles. Por ejemplo, si implementa más de dos máquinas virtuales en un conjunto de disponibilidad, use el número máximo de dominios de error (tres) y suficientes dominios de actualización para limitar el efecto de posibles errores de hardware físico, interrupciones de red o interrupciones de energía, además del mantenimiento planeado de Azure. El número predeterminado de dominios de error es dos y no puede cambiarlo en línea más adelante.</t>
+          <t>Asegúrese de que la IP flotante esté habilitada en el equilibrador de carga</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1988,19 +2012,19 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-ha-ports-overview?source=recommendations</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>9674e7c7-7796-4181-8920-09f4429543ba</t>
+          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2021,7 +2045,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Cuando se usan grupos de selección con selección de ubicación de proximidad de Azure en una implementación de conjunto de disponibilidad, los tres componentes de SAP (servicios centrales, servidor de aplicaciones y base de datos) deben estar en el mismo grupo con selección de ubicación de proximidad.</t>
+          <t>Antes de implementar la infraestructura de alta disponibilidad, y en función de la región que elija, determine si desea realizar la implementación con un conjunto de disponibilidad de Azure o una zona de disponibilidad.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2038,14 +2062,19 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>ae4ecb95-b70f-428f-8b9a-4c5b7e3478a2</t>
+          <t>c47cc4f3-f105-452c-845e-9b307b3856c1</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2066,7 +2095,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Use un grupo de selección de ubicación de proximidad por SID de SAP. Los grupos no abarcan zonas de disponibilidad ni regiones de Azure</t>
+          <t>Si desea cumplir los acuerdos de nivel de servicio de infraestructura para las aplicaciones de los componentes de SAP (servicios centrales, servidores de aplicaciones y bases de datos), debe elegir las mismas opciones de alta disponibilidad (máquinas virtuales, conjuntos de disponibilidad, zonas de disponibilidad) para todos los componentes.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2083,14 +2112,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://www.microsoft.com/licensing/docs/view/Service-Level-Agreements-SLA-for-Online-Services?lang=1</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
+          <t>844f69c3-07e5-4ec1-bff7-4be27bcf5fea</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2101,23 +2130,23 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Realizar solicitudes de cuota para la SKU y las zonas de máquina virtual correctas</t>
+          <t>No mezcle servidores de diferentes roles en el mismo conjunto de disponibilidad. Mantenga las máquinas virtuales de servicios centrales, las máquinas virtuales de base de datos y las máquinas virtuales de aplicaciones en sus propios conjuntos de disponibilidad</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2126,12 +2155,21 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="n"/>
+      <c r="H30" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2142,23 +2180,23 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Aplicación de un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
+          <t>No se pueden implementar conjuntos de disponibilidad de Azure dentro de una zona de disponibilidad de Azure a menos que se usen grupos de selección de ubicación de proximidad.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2169,19 +2207,19 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>f2201000-d045-40a6-a79a-d7cdc01b4d86</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2192,23 +2230,23 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Aplicación de la propagación del principio para reenviar la identidad de la aplicación en la nube de SAP a SAP local (incluida IaaS) a través del conector en la nube</t>
+          <t>Al crear conjuntos de disponibilidad, use el número máximo de dominios de error y dominios de actualización disponibles. Por ejemplo, si implementa más de dos máquinas virtuales en un conjunto de disponibilidad, use el número máximo de dominios de error (tres) y suficientes dominios de actualización para limitar el efecto de posibles errores de hardware físico, interrupciones de red o interrupciones de energía, además del mantenimiento planeado de Azure. El número predeterminado de dominios de error es dos y no puede cambiarlo en línea más adelante.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2219,19 +2257,19 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
         </is>
       </c>
       <c r="I32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
         </is>
       </c>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>9674e7c7-7796-4181-8920-09f4429543ba</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2242,23 +2280,23 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO en aplicaciones SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics y SAP C4C con Azure AD mediante SAML.</t>
+          <t>Cuando se usan grupos de selección con selección de ubicación de proximidad de Azure en una implementación de conjunto de disponibilidad, los tres componentes de SAP (servicios centrales, servidor de aplicaciones y base de datos) deben estar en el mismo grupo con selección de ubicación de proximidad.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2269,7 +2307,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2277,7 +2315,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>ae4ecb95-b70f-428f-8b9a-4c5b7e3478a2</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2288,23 +2326,23 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI mediante SAML.</t>
+          <t>Use un grupo de selección de ubicación de proximidad por SID de SAP. Los grupos no abarcan zonas de disponibilidad ni regiones de Azure</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2315,19 +2353,15 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
-        </is>
-      </c>
-      <c r="I34" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+        </is>
+      </c>
+      <c r="I34" s="15" t="n"/>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2338,23 +2372,23 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI mediante SAML.</t>
+          <t>Utilice uno de los siguientes servicios para ejecutar clústeres de servicios centrales de SAP, en función del sistema operativo.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2363,17 +2397,21 @@
         </is>
       </c>
       <c r="G35" s="21" t="n"/>
-      <c r="H35" s="15" t="n"/>
+      <c r="H35" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
+        </is>
+      </c>
       <c r="I35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>bca3b10e-0ff5-4aec-ac16-4c4bd1a1c13f</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2384,17 +2422,17 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Puede implementar SSO en la GUI de SAP mediante SAP NetWeaver SSO o una solución de partner.</t>
+          <t>Actualmente, Azure no admite la combinación de ASCS y alta disponibilidad de base de datos en el mismo clúster de Linux Pacemaker; sepáralos en grupos individuales. Sin embargo, puede combinar hasta cinco clústeres de servicios centrales en un par de máquinas virtuales.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2411,19 +2449,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-suse-multi-sid</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>ed46b937-913e-4018-9c62-8393ab037e53</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2434,17 +2472,17 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC – Kerberos/SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere el servidor de inicio de sesión seguro de SAP, que es un componente de la solución SSO de SAP.</t>
+          <t>Implemente ambas máquinas virtuales en el par de alta disponibilidad en un conjunto de disponibilidad o en zonas de disponibilidad. Estas máquinas virtuales deben tener el mismo tamaño y la misma configuración de almacenamiento.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2459,17 +2497,17 @@
         </is>
       </c>
       <c r="G37" s="21" t="n"/>
-      <c r="H37" s="15" t="n"/>
-      <c r="I37" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
-        </is>
-      </c>
+      <c r="H37" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
+        </is>
+      </c>
+      <c r="I37" s="15" t="n"/>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>f656e745-0cfb-453e-8008-0528fa21c933</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2480,17 +2518,17 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC – Kerberos/SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere el servidor de inicio de sesión seguro de SAP, que es un componente de la solución SSO de SAP.</t>
+          <t>Azure admite la instalación y configuración de SAP HANA y las instancias de ASCS/SCS y ERS en el mismo clúster de alta disponibilidad que se ejecuta en Red Hat Enterprise Linux (RHEL).</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2507,15 +2545,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-with-hana-ascs-ers-dialog-instance</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>7f684ebc-95da-425e-b329-e782dbed050f</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2526,23 +2568,23 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Implemente el inicio de sesión único mediante OAuth para SAP NetWeaver a fin de permitir que aplicaciones personalizadas o de terceros accedan a los servicios OData de SAP NetWeaver.</t>
+          <t>Ejecute todos los sistemas de producción en SSD administradas Premium y use Azure NetApp Files o Ultra Disk Storage. Al menos el disco del sistema operativo debe estar en el nivel Premium para que pueda lograr un mejor rendimiento y el mejor Acuerdo de Nivel de Servicio.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2553,15 +2595,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
-        </is>
-      </c>
-      <c r="I39" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>07991f7d-6598-4d90-9431-45c62605d3a5</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2572,23 +2618,23 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Implementación de SSO en SAP HANA</t>
+          <t>Debe ejecutar SAP HANA en Azure solo en los tipos de almacenamiento certificados por SAP. Tenga en cuenta que ciertos volúmenes deben ejecutarse en determinadas configuraciones de disco, cuando corresponda. Estas configuraciones incluyen la habilitación del acelerador de escritura y el uso del almacenamiento premium. También debe asegurarse de que el sistema de archivos que se ejecuta en el almacenamiento es compatible con el DBMS que se ejecuta en la máquina.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2599,15 +2645,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-operations-storage</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1?source=recommendations</t>
+        </is>
+      </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>73cdaecc-7d74-48d8-a040-88416eebc98c</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2618,23 +2668,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Considere Azure AD como un proveedor de identidades para sistemas SAP hospedados en RISE. Para obtener más información, consulte Integración del servicio con Azure AD.</t>
+          <t>Considere la posibilidad de configurar la alta disponibilidad en función del tipo de almacenamiento que utilice para las cargas de trabajo de SAP. Algunos servicios de almacenamiento disponibles en Azure no son compatibles con Azure Site Recovery, por lo que la configuración de alta disponibilidad puede diferir.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2645,15 +2695,19 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/disaster-recovery-overview-guide#storage</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-disaster-recovery-for-sap-workloads-azure/2-explore-disaster-recovery-sap-workloads</t>
+        </is>
+      </c>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>51904867-a70e-4fa0-b4ff-3e6292846d7c</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2664,23 +2718,23 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las aplicaciones que acceden a SAP, es posible que desee utilizar la propagación de entidades de seguridad para establecer el inicio de sesión único.</t>
+          <t>Es posible que los diferentes servicios de almacenamiento nativos de Azure (como Azure Files, Azure NetApp Files, Azure Shared Disk) no estén disponibles en todas las regiones. Por lo tanto, para tener una configuración de SAP similar en la región de recuperación ante desastres después de la conmutación por error, asegúrese de que el servicio de almacenamiento correspondiente se ofrece en el sitio de recuperación ante desastres.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2691,7 +2745,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+          <t>https://azure.microsoft.com/ja-jp/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2699,7 +2753,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>1ac2d928-c9b7-42c6-ba18-23b1aea78693</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2710,17 +2764,17 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Si usa servicios BTP de SAP o soluciones SaaS que requieren SAP Identity Authentication Service (IAS), considere la posibilidad de implementar SSO entre SAP Cloud Identity Authentication Services y Azure AD para acceder a esos servicios de SAP. Esta integración permite a SAP IAS actuar como proveedor de identidades de proxy y reenvía las solicitudes de autenticación a Azure AD como almacén de usuarios central y proveedor de identidades.</t>
+          <t>Realizar solicitudes de cuota para la SKU y las zonas de máquina virtual correctas</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2735,17 +2789,13 @@
         </is>
       </c>
       <c r="G43" s="21" t="n"/>
-      <c r="H43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
-        </is>
-      </c>
+      <c r="H43" s="15" t="n"/>
       <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2756,17 +2806,17 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Optimización de costos</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Implementación de SSO en SAP BTP</t>
+          <t>Automatice SAP System Start-Stop para gestionar los costes.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2783,7 +2833,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/optimize-your-azure-costs-by-automating-sap-system-start-stop/ba-p/2120675</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2791,7 +2841,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>925d1f8c-01f3-4a67-948e-aabf0a1fad60</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2812,13 +2862,13 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Si usa SAP SuccessFactors, considere la posibilidad de usar el aprovisionamiento automatizado de usuarios de Azure AD. Con esta integración, a medida que agrega nuevos empleados a SAP SuccessFactors, puede crear automáticamente sus cuentas de usuario en Azure AD. Opcionalmente, puede crear cuentas de usuario en Microsoft 365 u otras aplicaciones SaaS compatibles con Azure AD. Utilice la escritura diferida de la dirección de correo electrónico en SAP SuccessFactors.</t>
+          <t>Aplicación de un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2829,14 +2879,19 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2847,17 +2902,17 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>aplicar las directivas de grupo de administración existentes a las suscripciones de SAP</t>
+          <t>Aplicación de la propagación del principio para reenviar la identidad de la aplicación en la nube de SAP a SAP local (incluida IaaS) a través del conector en la nube</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2874,19 +2929,19 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
         </is>
       </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2897,23 +2952,23 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Integre aplicaciones estrechamente acopladas en la misma suscripción de SAP para evitar una complejidad adicional de enrutamiento y administración</t>
+          <t>Implemente SSO en aplicaciones SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics y SAP C4C con Azure AD mediante SAML.</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2924,19 +2979,15 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
-      <c r="I47" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+        </is>
+      </c>
+      <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2947,23 +2998,23 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aprovechar la suscripción como unidad de escalado y escalar nuestros recursos, considere implementar la suscripción por entorno, por ejemplo. Sandbox, no-prod, prod </t>
+          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI mediante SAML.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2974,19 +3025,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2997,23 +3048,23 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Garantizar el aumento de la cuota como parte del aprovisionamiento de suscripciones (por ejemplo, el total de núcleos de máquina virtual disponibles dentro de una suscripción)</t>
+          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI mediante SAML.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3022,21 +3073,17 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
-        </is>
-      </c>
+      <c r="H49" s="15" t="n"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3047,23 +3094,23 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>La API de cuota es una API de REST que se puede usar para ver y administrar las cuotas de los servicios de Azure. Considere usarlo si es necesario.</t>
+          <t>Puede implementar SSO en la GUI de SAP mediante SAP NetWeaver SSO o una solución de partner.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3074,15 +3121,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
-        </is>
-      </c>
-      <c r="I50" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
+      <c r="I50" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3093,23 +3144,23 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Si realiza la implementación en una zona de disponibilidad, asegúrese de que la implementación de la zona de la máquina virtual esté disponible una vez que se haya aprobado la cuota. Envíe una solicitud de soporte técnico con la suscripción, la serie de máquinas virtuales, el número de CPU y la zona de disponibilidad necesarias.</t>
+          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere el servidor de inicio de sesión seguro de SAP, que es un componente de la solución SSO de SAP.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3118,17 +3169,17 @@
         </is>
       </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="n"/>
+      <c r="H51" s="15" t="n"/>
+      <c r="I51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+        </is>
+      </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3139,23 +3190,23 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios y funciones requeridos estén disponibles dentro de las regiones de implementación elegidas, por ejemplo. ANF, Zona, etc.</t>
+          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere el servidor de inicio de sesión seguro de SAP, que es un componente de la solución SSO de SAP.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3166,19 +3217,15 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3189,17 +3236,17 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la etiqueta de recurso de Azure para la categorización de costos y la agrupación de recursos (facturación, departamento (o unidad de negocio), entorno (producción, fase, desarrollo), nivel (nivel web, nivel de aplicación), propietario de la aplicación, ProjectName)</t>
+          <t>Implemente el inicio de sesión único mediante OAuth para SAP NetWeaver a fin de permitir que aplicaciones personalizadas o de terceros accedan a los servicios OData de SAP NetWeaver.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3216,19 +3263,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3239,23 +3281,23 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Ayude a proteger la base de datos de HANA mediante el servicio Azure Backup.</t>
+          <t>Implementación de SSO en SAP HANA</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3266,19 +3308,15 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
-        </is>
-      </c>
-      <c r="I54" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
+        </is>
+      </c>
+      <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3289,17 +3327,17 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Si implementa Azure NetApp Files para la base de datos HANA, Oracle o DB2, use la herramienta Azure Application Consistent Snapshot (AzAcSnap) para tomar instantáneas coherentes con la aplicación. AzAcSnap también es compatible con las bases de datos de Oracle. Considere la posibilidad de usar AzAcSnap en una máquina virtual central en lugar de en máquinas virtuales individuales.</t>
+          <t>Considere Azure AD como un proveedor de identidades para sistemas SAP hospedados en RISE. Para obtener más información, consulte Integración del servicio con Azure AD.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3316,14 +3354,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3334,23 +3372,23 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la zona horaria coincida entre el sistema operativo y el sistema SAP.</t>
+          <t>En el caso de las aplicaciones que acceden a SAP, es posible que desee utilizar la propagación de entidades de seguridad para establecer el inicio de sesión único.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3361,14 +3399,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3379,17 +3417,17 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>No agrupe diferentes servicios de aplicaciones en el mismo clúster. Por ejemplo, no combine DRBD y clústeres de servicios centrales en el mismo clúster. Sin embargo, puede usar el mismo clúster de Pacemaker para administrar aproximadamente cinco servicios centrales diferentes (clúster de varios SID).</t>
+          <t>Si usa servicios BTP de SAP o soluciones SaaS que requieren SAP Identity Authentication Service (IAS), considere la posibilidad de implementar SSO entre SAP Cloud Identity Authentication Services y Azure AD para acceder a esos servicios de SAP. Esta integración permite a SAP IAS actuar como proveedor de identidades de proxy y reenvía las solicitudes de autenticación a Azure AD como almacén de usuarios central y proveedor de identidades.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3406,19 +3444,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3429,23 +3462,23 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de ejecutar sistemas de desarrollo y pruebas en un modelo de repetición para ahorrar y optimizar los costos de ejecución de Azure.</t>
+          <t>Implementación de SSO en SAP BTP</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3456,14 +3489,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3474,17 +3507,17 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Si se asocia con los clientes mediante la administración de sus propiedades de SAP, considere la posibilidad de usar Azure Lighthouse. Azure Lighthouse permite a los proveedores de servicios administrados usar los servicios de identidad nativos de Azure para autenticarse en el entorno de los clientes. Pone el control en manos de los clientes, ya que pueden revocar el acceso en cualquier momento y auditar las acciones de los proveedores de servicios.</t>
+          <t>Si usa SAP SuccessFactors, considere la posibilidad de usar el aprovisionamiento automatizado de usuarios de Azure AD. Con esta integración, a medida que agrega nuevos empleados a SAP SuccessFactors, puede crear automáticamente sus cuentas de usuario en Azure AD. Opcionalmente, puede crear cuentas de usuario en Microsoft 365 u otras aplicaciones SaaS compatibles con Azure AD. Utilice la escritura diferida de la dirección de correo electrónico en SAP SuccessFactors.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3501,14 +3534,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3519,17 +3552,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Update Manager para comprobar el estado de las actualizaciones disponibles para una sola máquina virtual o varias máquinas virtuales y considere la posibilidad de programar revisiones periódicas.</t>
+          <t>aplicar las directivas de grupo de administración existentes a las suscripciones de SAP</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3546,19 +3579,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3569,23 +3602,23 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Optimice y gestione las operaciones de SAP Basis mediante SAP Landscape Management (LaMa). Use el conector de SAP LaMa para Azure para reubicar, copiar, clonar y actualizar sistemas SAP.</t>
+          <t>Integre aplicaciones estrechamente acopladas en la misma suscripción de SAP para evitar una complejidad adicional de enrutamiento y administración</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3596,19 +3629,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3619,23 +3652,23 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor para soluciones SAP para supervisar las cargas de trabajo de SAP (SAP HANA, clústeres de SUSE de alta disponibilidad y sistemas SQL) en Azure. Considere la posibilidad de complementar las soluciones de Azure Monitor para SAP con SAP Solution Manager.</t>
+          <t xml:space="preserve">Aprovechar la suscripción como unidad de escalado y escalar nuestros recursos, considere implementar la suscripción por entorno, por ejemplo. Sandbox, no-prod, prod </t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3646,19 +3679,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3669,17 +3702,17 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Ejecute una comprobación de extensión de máquina virtual para SAP. VM Extension for SAP usa la identidad administrada asignada de una máquina virtual (VM) para acceder a los datos de configuración y supervisión de VM. La comprobación garantiza que todas las métricas de rendimiento de la aplicación SAP proceden de la extensión de Azure para SAP subyacente.</t>
+          <t>Garantizar el aumento de la cuota como parte del aprovisionamiento de suscripciones (por ejemplo, el total de núcleos de máquina virtual disponibles dentro de una suscripción)</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3696,19 +3729,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3719,23 +3752,23 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
+          <t>La API de cuota es una API de REST que se puede usar para ver y administrar las cuotas de los servicios de Azure. Considere usarlo si es necesario.</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3746,19 +3779,15 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3769,23 +3798,23 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Use el Monitor de conexión en Azure Network Watcher para supervisar las métricas de latencia de las bases de datos y los servidores de aplicaciones de SAP. O bien, recopile y muestre medidas de latencia de red mediante Azure Monitor.</t>
+          <t>Si realiza la implementación en una zona de disponibilidad, asegúrese de que la implementación de la zona de la máquina virtual esté disponible una vez que se haya aprobado la cuota. Envíe una solicitud de soporte técnico con la suscripción, la serie de máquinas virtuales, el número de CPU y la zona de disponibilidad necesarias.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3796,19 +3825,15 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="inlineStr">
-        <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3819,17 +3844,17 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones SAP.</t>
+          <t>Asegúrese de que los servicios y funciones requeridos estén disponibles dentro de las regiones de implementación elegidas, por ejemplo. ANF, Zona, etc.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3846,19 +3871,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3869,17 +3894,17 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Realice una comprobación de calidad de SAP HANA en la infraestructura de Azure aprovisionada para comprobar que las máquinas virtuales aprovisionadas cumplen con los procedimientos recomendados de SAP HANA en Azure.</t>
+          <t>Aproveche la etiqueta de recurso de Azure para la categorización de costos y la agrupación de recursos (facturación, departamento (o unidad de negocio), entorno (producción, fase, desarrollo), nivel (nivel web, nivel de aplicación), propietario de la aplicación, ProjectName)</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3896,15 +3921,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3920,12 +3949,12 @@
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Para cada suscripción de Azure, ejecute una prueba de latencia en las zonas de disponibilidad de Azure antes de la implementación zonal para elegir zonas de baja latencia para la implementación de SAP en Azure.</t>
+          <t>Ayude a proteger la base de datos de HANA mediante el servicio Azure Backup.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3942,19 +3971,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3970,12 +3999,12 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Ejecute el informe de resistencia para asegurarse de que la configuración de toda la infraestructura de Azure aprovisionada (proceso, base de datos, redes, almacenamiento, Site Recovery) cumple con la configuración definida por Cloud Adaption Framework para Azure.</t>
+          <t>Si implementa Azure NetApp Files para la base de datos HANA, Oracle o DB2, use la herramienta Azure Application Consistent Snapshot (AzAcSnap) para tomar instantáneas coherentes con la aplicación. AzAcSnap también es compatible con las bases de datos de Oracle. Considere la posibilidad de usar AzAcSnap en una máquina virtual central en lugar de en máquinas virtuales individuales.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3992,19 +4021,15 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4020,18 +4045,18 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Implemente la protección contra amenazas mediante la solución Microsoft Sentinel para SAP. Utilice esta solución para supervisar sus sistemas SAP y detectar amenazas sofisticadas en toda la lógica empresarial y las capas de aplicación.</t>
+          <t>Asegúrese de que la zona horaria coincida entre el sistema operativo y el sistema SAP.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4042,19 +4067,15 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4070,12 +4091,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>El etiquetado de Azure se puede aprovechar para agrupar y realizar un seguimiento lógico de los recursos, automatizar sus implementaciones y, lo que es más importante, proporcionar visibilidad de los costos incurridos.</t>
+          <t>No agrupe diferentes servicios de aplicaciones en el mismo clúster. Por ejemplo, no combine DRBD y clústeres de servicios centrales en el mismo clúster. Sin embargo, puede usar el mismo clúster de Pacemaker para administrar aproximadamente cinco servicios centrales diferentes (clúster de varios SID).</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4092,19 +4113,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4120,12 +4141,12 @@
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Use la supervisión de latencia entre máquinas virtuales para aplicaciones sensibles a la latencia.</t>
+          <t>Considere la posibilidad de ejecutar sistemas de desarrollo y pruebas en un modelo de repetición para ahorrar y optimizar los costos de ejecución de Azure.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -4142,7 +4163,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4150,7 +4171,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4166,12 +4187,12 @@
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones SAP.</t>
+          <t>Si se asocia con los clientes mediante la administración de sus propiedades de SAP, considere la posibilidad de usar Azure Lighthouse. Azure Lighthouse permite a los proveedores de servicios administrados usar los servicios de identidad nativos de Azure para autenticarse en el entorno de los clientes. Pone el control en manos de los clientes, ya que pueden revocar el acceso en cualquier momento y auditar las acciones de los proveedores de servicios.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4188,19 +4209,15 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="n"/>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4216,12 +4233,12 @@
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Excluya todos los sistemas de archivos de bases de datos y programas ejecutables de los análisis antivirus. Incluirlos podría dar lugar a problemas de rendimiento. Consulte con los proveedores de bases de datos para obtener detalles prescriptivos sobre la lista de exclusión. Por ejemplo, Oracle recomienda excluir /oracle/&lt;sid&gt;/sapdata de los análisis antivirus.</t>
+          <t>Use Azure Update Manager para comprobar el estado de las actualizaciones disponibles para una sola máquina virtual o varias máquinas virtuales y considere la posibilidad de programar revisiones periódicas.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4238,15 +4255,19 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4262,12 +4283,12 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de recopilar estadísticas de base de datos completas para bases de datos que no son de HANA después de la migración. Por ejemplo, implemente la nota de SAP 1020260 - Entrega de estadísticas de Oracle.</t>
+          <t>Optimice y gestione las operaciones de SAP Basis mediante SAP Landscape Management (LaMa). Use el conector de SAP LaMa para Azure para reubicar, copiar, clonar y actualizar sistemas SAP.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4284,15 +4305,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4308,12 +4333,12 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Oracle Automatic Storage Management (ASM) para todas las implementaciones de Oracle que usan SAP en Azure.</t>
+          <t>Use Azure Monitor para soluciones SAP para supervisar las cargas de trabajo de SAP (SAP HANA, clústeres de SUSE de alta disponibilidad y sistemas SQL) en Azure. Considere la posibilidad de complementar las soluciones de Azure Monitor para SAP con SAP Solution Manager.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4330,19 +4355,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4358,18 +4383,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>En el caso de SAP en Azure que ejecuta Oracle, una colección de scripts SQL puede ayudarle a diagnosticar problemas de rendimiento.  Los informes de repositorio automático de cargas de trabajo (AWR) contienen información valiosa para diagnosticar problemas en el sistema Oracle. Le recomendamos que ejecute un informe de AWR durante varias sesiones y elija las horas punta para él, a fin de garantizar una amplia cobertura del análisis.</t>
+          <t>Ejecute una comprobación de extensión de máquina virtual para SAP. VM Extension for SAP usa la identidad administrada asignada de una máquina virtual (VM) para acceder a los datos de configuración y supervisión de VM. La comprobación garantiza que todas las métricas de rendimiento de la aplicación SAP proceden de la extensión de Azure para SAP subyacente.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4380,19 +4405,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4403,17 +4428,17 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Para la entrega segura de aplicaciones HTTP/S, use Application Gateway v2 y asegúrese de que la protección y las directivas de WAF están habilitadas.</t>
+          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4430,19 +4455,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4453,17 +4478,17 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Si el DNS o el nombre virtual de la máquina virtual no se cambia durante la migración a Azure, el DNS en segundo plano y los nombres virtuales conectan muchas interfaces del sistema en el entorno de SAP, y los clientes solo conocen a veces las interfaces que los desarrolladores definen a lo largo del tiempo. Los desafíos de conexión surgen entre varios sistemas cuando los nombres virtuales o DNS cambian después de las migraciones, y se recomienda conservar los alias DNS para evitar este tipo de dificultades.</t>
+          <t>Use el Monitor de conexión en Azure Network Watcher para supervisar las métricas de latencia de las bases de datos y los servidores de aplicaciones de SAP. O bien, recopile y muestre medidas de latencia de red mediante Azure Monitor.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4480,19 +4505,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4503,23 +4528,23 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Utilice diferentes zonas DNS para distinguir cada entorno (espacio aislado, desarrollo, preproducción y producción) entre sí. La excepción es para las implementaciones de SAP con su propia red virtual; en este caso, es posible que las zonas DNS privadas no sean necesarias.</t>
+          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones SAP.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4530,19 +4555,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4553,17 +4578,17 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>El emparejamiento de red virtual local y global proporciona conectividad y son los enfoques preferidos para garantizar la conectividad entre las zonas de aterrizaje para las implementaciones de SAP en varias regiones de Azure</t>
+          <t>Realice una comprobación de calidad de SAP HANA en la infraestructura de Azure aprovisionada para comprobar que las máquinas virtuales aprovisionadas cumplen con los procedimientos recomendados de SAP HANA en Azure.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4580,19 +4605,15 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4603,17 +4624,17 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>No se admite la implementación de ninguna aplicación virtual de red entre la aplicación SAP y el servidor de base de datos SAP</t>
+          <t>Para cada suscripción de Azure, ejecute una prueba de latencia en las zonas de disponibilidad de Azure antes de la implementación zonal para elegir zonas de baja latencia para la implementación de SAP en Azure.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4630,19 +4651,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2731110</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4653,17 +4674,17 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Use Virtual WAN para implementaciones de Azure en redes nuevas, grandes o globales en las que necesite conectividad de tránsito global entre regiones de Azure y ubicaciones locales. Con este enfoque, no tendrá que configurar manualmente el enrutamiento transitivo para las redes de Azure y puede seguir un estándar para las implementaciones de SAP en Azure.</t>
+          <t>Ejecute el informe de resistencia para asegurarse de que la configuración de toda la infraestructura de Azure aprovisionada (proceso, base de datos, redes, almacenamiento, Site Recovery) cumple con la configuración definida por Cloud Adaption Framework para Azure.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4680,19 +4701,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4703,17 +4724,17 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de implementar aplicaciones virtuales de red (NVA) entre regiones solo si se usan aplicaciones virtuales de red de asociados. Las aplicaciones virtuales de red entre regiones o redes virtuales no son necesarias si hay aplicaciones virtuales de red nativas. Al implementar tecnologías de redes de asociados y aplicaciones virtuales de red, siga las instrucciones del proveedor para comprobar las configuraciones conflictivas con las redes de Azure.</t>
+          <t>Implemente la protección contra amenazas mediante la solución Microsoft Sentinel para SAP. Utilice esta solución para supervisar sus sistemas SAP y detectar amenazas sofisticadas en toda la lógica empresarial y las capas de aplicación.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4730,19 +4751,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4753,17 +4774,17 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN administra la conectividad entre redes virtuales de radio para topologías basadas en WAN virtuales (sin necesidad de configurar el enrutamiento definido por el usuario [UDR] o NVA), y el rendimiento máximo de red para el tráfico de red virtual a red virtual en el mismo centro virtual es de 50 gigabits por segundo. Si es necesario, las zonas de aterrizaje de SAP pueden usar el emparejamiento de red virtual para conectarse a otras zonas de aterrizaje y superar esta limitación de ancho de banda.</t>
+          <t>El etiquetado de Azure se puede aprovechar para agrupar y realizar un seguimiento lógico de los recursos, automatizar sus implementaciones y, lo que es más importante, proporcionar visibilidad de los costos incurridos.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4780,19 +4801,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4803,23 +4824,23 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>No se recomienda la asignación de I.P pública a la máquina virtual que ejecuta SAP Workload.</t>
+          <t>Use la supervisión de latencia entre máquinas virtuales para aplicaciones sensibles a la latencia.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4830,19 +4851,15 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4853,23 +4870,23 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de reservar la dirección I.P en el lado de la recuperación ante desastres al configurar ASR</t>
+          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones SAP.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4880,19 +4897,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4903,23 +4920,23 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Evite el uso de intervalos de direcciones IP superpuestos para los sitios de producción y recuperación ante desastres.</t>
+          <t>Excluya todos los sistemas de archivos de bases de datos y programas ejecutables de los análisis antivirus. Incluirlos podría dar lugar a problemas de rendimiento. Consulte con los proveedores de bases de datos para obtener detalles prescriptivos sobre la lista de exclusión. Por ejemplo, Oracle recomienda excluir /oracle/&lt;sid&gt;/sapdata de los análisis antivirus.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4930,19 +4947,15 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I88" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4953,23 +4966,23 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Aunque Azure le ayuda a crear varias subredes delegadas en una red virtual, solo puede existir una subred delegada en una red virtual para Azure NetApp Files. Se producirá un error al intentar crear un nuevo volumen si se utiliza más de una subred delegada para Azure NetApp Files.</t>
+          <t>Considere la posibilidad de recopilar estadísticas de base de datos completas para bases de datos que no son de HANA después de la migración. Por ejemplo, implemente la nota de SAP 1020260 - Entrega de estadísticas de Oracle.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4980,19 +4993,15 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5003,17 +5012,17 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Considere la posibilidad de usar Oracle Automatic Storage Management (ASM) para todas las implementaciones de Oracle que usan SAP en Azure.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5030,19 +5039,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5053,17 +5062,17 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway y Web Application Firewall tienen limitaciones cuando Application Gateway actúa como proxy inverso para aplicaciones web de SAP, como se muestra en la comparación entre Application Gateway, SAP Web Dispatcher y otros servicios de terceros.</t>
+          <t>En el caso de SAP en Azure que ejecuta Oracle, una colección de scripts SQL puede ayudarle a diagnosticar problemas de rendimiento.  Los informes de repositorio automático de cargas de trabajo (AWR) contienen información valiosa para diagnosticar problemas en el sistema Oracle. Le recomendamos que ejecute un informe de AWR durante varias sesiones y elija las horas punta para él, a fin de garantizar una amplia cobertura del análisis.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5080,19 +5089,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5108,12 +5117,12 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Para la entrega segura de aplicaciones HTTP/S, use Application Gateway v2 y asegúrese de que la protección y las directivas de WAF están habilitadas.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5130,19 +5139,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5158,12 +5167,12 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Aproveche las directivas de Web Application Firewall en Azure Front Door cuando use Azure Front Door y Application Gateway para proteger las aplicaciones HTTP/S. Bloquee Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Si el DNS o el nombre virtual de la máquina virtual no se cambia durante la migración a Azure, el DNS en segundo plano y los nombres virtuales conectan muchas interfaces del sistema en el entorno de SAP, y los clientes solo conocen a veces las interfaces que los desarrolladores definen a lo largo del tiempo. Los desafíos de conexión surgen entre varios sistemas cuando los nombres virtuales o DNS cambian después de las migraciones, y se recomienda conservar los alias DNS para evitar este tipo de dificultades.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5180,19 +5189,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5208,12 +5217,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Utilice un firewall de aplicaciones web para analizar su tráfico cuando esté expuesto a Internet. Otra opción es usarlo con el equilibrador de carga o con recursos que tengan funcionalidades de firewall integradas, como Application Gateway o soluciones de terceros.</t>
+          <t>Utilice diferentes zonas DNS para distinguir cada entorno (espacio aislado, desarrollo, preproducción y producción) entre sí. La excepción es para las implementaciones de SAP con su propia red virtual; en este caso, es posible que las zonas DNS privadas no sean necesarias.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5230,19 +5239,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5258,12 +5267,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Use Virtual WAN para implementaciones de Azure en redes nuevas, grandes o globales en las que necesite conectividad de tránsito global entre regiones de Azure y ubicaciones locales. Con este enfoque, no tendrá que configurar manualmente el enrutamiento transitivo para las redes de Azure y puede seguir un estándar para las implementaciones de SAP en Azure.</t>
+          <t>El emparejamiento de red virtual local y global proporciona conectividad y son los enfoques preferidos para garantizar la conectividad entre las zonas de aterrizaje para las implementaciones de SAP en varias regiones de Azure</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5280,19 +5289,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5308,18 +5317,18 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Para evitar la pérdida de datos, use Azure Private Link para acceder de forma segura a los recursos de plataforma como servicio, como Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, etc. El punto de conexión privado de Azure también puede ayudar a proteger el tráfico entre redes virtuales y servicios como Azure Storage, Azure Backup, etc. El tráfico entre la red virtual y el servicio habilitado para punto de conexión privado viaja a través de la red global de Microsoft, lo que impide su exposición a la red pública de Internet.</t>
+          <t>No se admite la implementación de ninguna aplicación virtual de red entre la aplicación SAP y el servidor de base de datos SAP</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5330,19 +5339,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5358,18 +5367,18 @@
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las redes aceleradas de Azure están habilitadas en las máquinas virtuales que se usan en las capas de aplicación SAP y DBMS.</t>
+          <t>Use Virtual WAN para implementaciones de Azure en redes nuevas, grandes o globales en las que necesite conectividad de tránsito global entre regiones de Azure y ubicaciones locales. Con este enfoque, no tendrá que configurar manualmente el enrutamiento transitivo para las redes de Azure y puede seguir un estándar para las implementaciones de SAP en Azure.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5380,19 +5389,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5408,12 +5417,12 @@
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones internas de Azure Load Balancer están configuradas para usar Direct Server Return (DSR). Esta configuración reducirá la latencia cuando se utilicen configuraciones internas del equilibrador de carga para configuraciones de alta disponibilidad en la capa DBMS.</t>
+          <t>Considere la posibilidad de implementar aplicaciones virtuales de red (NVA) entre regiones solo si se usan aplicaciones virtuales de red de asociados. Las aplicaciones virtuales de red entre regiones o redes virtuales no son necesarias si hay aplicaciones virtuales de red nativas. Al implementar tecnologías de redes de asociados y aplicaciones virtuales de red, siga las instrucciones del proveedor para comprobar las configuraciones conflictivas con las redes de Azure.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5430,19 +5439,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5458,12 +5467,12 @@
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Puede usar reglas de grupo de seguridad de aplicaciones (ASG) y NSG para definir listas de control de acceso de seguridad de red entre la aplicación SAP y las capas DBMS. Los ASG agrupan las máquinas virtuales para ayudar a administrar su seguridad.</t>
+          <t>Virtual WAN administra la conectividad entre redes virtuales de radio para topologías basadas en WAN virtuales (sin necesidad de configurar el enrutamiento definido por el usuario [UDR] o NVA), y el rendimiento máximo de red para el tráfico de red virtual a red virtual en el mismo centro virtual es de 50 gigabits por segundo. Si es necesario, las zonas de aterrizaje de SAP pueden usar el emparejamiento de red virtual para conectarse a otras zonas de aterrizaje y superar esta limitación de ancho de banda.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5480,19 +5489,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5508,12 +5517,12 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>No se admite la colocación de la capa de aplicación de SAP y DBMS de SAP en diferentes redes virtuales de Azure que no están emparejadas.</t>
+          <t>No se recomienda la asignación de I.P pública a la máquina virtual que ejecuta SAP Workload.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5530,19 +5539,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,18 +5567,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Para obtener una latencia de red óptima con aplicaciones SAP, considere la posibilidad de usar grupos de selección de ubicación por proximidad de Azure.</t>
+          <t>Considere la posibilidad de reservar la dirección I.P en el lado de la recuperación ante desastres al configurar ASR</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5580,19 +5589,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5608,12 +5617,12 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>NO se admite en absoluto la ejecución de una capa de servidor de aplicaciones de SAP y una capa de DBMS divididas entre el entorno local y Azure. Ambas capas deben residir completamente en el entorno local o en Azure.</t>
+          <t>Evite el uso de intervalos de direcciones IP superpuestos para los sitios de producción y recuperación ante desastres.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5630,19 +5639,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5658,18 +5667,18 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>No se recomienda hospedar el sistema de administración de bases de datos (DBMS) y las capas de aplicación de los sistemas SAP en diferentes redes virtuales y conectarlas con el emparejamiento de redes virtuales debido a los costos sustanciales que puede producir un tráfico de red excesivo entre las capas. Se recomienda el uso de subredes dentro de la red virtual de Azure para separar la capa de aplicación de SAP y la capa de DBMS.</t>
+          <t>Aunque Azure le ayuda a crear varias subredes delegadas en una red virtual, solo puede existir una subred delegada en una red virtual para Azure NetApp Files. Se producirá un error al intentar crear un nuevo volumen si se utiliza más de una subred delegada para Azure NetApp Files.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5680,19 +5689,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5708,18 +5717,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Si utiliza Load Balancer con sistemas operativos invitados Linux, compruebe que el parámetro de red de Linux net.ipv4.tcp_timestamps esté establecido en 0.</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5730,19 +5739,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5758,12 +5767,12 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las implementaciones de SAP RISE/ECS, el emparejamiento virtual es la forma preferida de establecer la conectividad con el entorno de Azure existente del cliente. Tanto la red virtual de SAP como las redes virtuales del cliente están protegidas con grupos de seguridad de red (NSG), lo que permite la comunicación en los puertos de SAP y de base de datos a través del emparejamiento de redes virtuales</t>
+          <t>Application Gateway y Web Application Firewall tienen limitaciones cuando Application Gateway actúa como proxy inverso para aplicaciones web de SAP, como se muestra en la comparación entre Application Gateway, SAP Web Dispatcher y otros servicios de terceros.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5780,15 +5789,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5799,17 +5812,17 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Si ejecuta máquinas virtuales Windows y Linux en Azure, en el entorno local o en otros entornos en la nube, puede usar el Centro de administración de actualizaciones de Automatización de Azure para administrar las actualizaciones del sistema operativo, incluidas las revisiones de seguridad.</t>
+          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5826,19 +5839,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5849,17 +5862,17 @@
     <row r="107" ht="16.5" customHeight="1">
       <c r="A107" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Revise de forma rutinaria las notas de seguridad de SAP OSS, ya que SAP publica parches de seguridad muy críticos, o revisiones, que requieren una acción inmediata para proteger sus sistemas SAP.</t>
+          <t>Aproveche las directivas de Web Application Firewall en Azure Front Door cuando use Azure Front Door y Application Gateway para proteger las aplicaciones HTTP/S. Bloquee Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5876,19 +5889,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5899,23 +5912,23 @@
     <row r="108" ht="16.5" customHeight="1">
       <c r="A108" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>En el caso de SAP en SQL Server, puede deshabilitar la cuenta de administrador del sistema de SQL Server porque los sistemas SAP en SQL Server no usan la cuenta. Asegúrese de que otro usuario con derechos de administrador del sistema pueda acceder al servidor antes de deshabilitar la cuenta de administrador del sistema original.</t>
+          <t>Utilice un firewall de aplicaciones web para analizar su tráfico cuando esté expuesto a Internet. Otra opción es usarlo con el equilibrador de carga o con recursos que tengan funcionalidades de firewall integradas, como Application Gateway o soluciones de terceros.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5926,15 +5939,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5945,23 +5962,23 @@
     <row r="109" ht="16.5" customHeight="1">
       <c r="A109" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Deshabilite xp_cmdshell. La característica de SQL Server xp_cmdshell habilita un shell de comandos del sistema operativo interno de SQL Server. Es un riesgo potencial en las auditorías de seguridad.</t>
+          <t>Use Virtual WAN para implementaciones de Azure en redes nuevas, grandes o globales en las que necesite conectividad de tránsito global entre regiones de Azure y ubicaciones locales. Con este enfoque, no tendrá que configurar manualmente el enrutamiento transitivo para las redes de Azure y puede seguir un estándar para las implementaciones de SAP en Azure.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5972,19 +5989,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5995,23 +6012,23 @@
     <row r="110" ht="16.5" customHeight="1">
       <c r="A110" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>El cifrado de servidores de bases de datos SAP HANA en Azrue utiliza la tecnología de cifrado nativa de SAP HANA. Además, si usa SQL Server en Azure, use el cifrado de datos transparente (TDE) para proteger los datos y los archivos de registro y asegurarse de que las copias de seguridad también están cifradas.</t>
+          <t>Para evitar la pérdida de datos, use Azure Private Link para acceder de forma segura a los recursos de plataforma como servicio, como Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, etc. El punto de conexión privado de Azure también puede ayudar a proteger el tráfico entre redes virtuales y servicios como Azure Storage, Azure Backup, etc. El tráfico entre la red virtual y el servicio habilitado para punto de conexión privado viaja a través de la red global de Microsoft, lo que impide su exposición a la red pública de Internet.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6022,19 +6039,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6045,23 +6062,23 @@
     <row r="111" ht="16.5" customHeight="1">
       <c r="A111" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>El cifrado de Azure Storage está habilitado para todas las cuentas de Azure Resource Manager y de almacenamiento clásico, y no se puede deshabilitar. Dado que los datos están cifrados de forma predeterminada, no es necesario modificar el código o las aplicaciones para usar el cifrado de Azure Storage.</t>
+          <t>Asegúrese de que las redes aceleradas de Azure están habilitadas en las máquinas virtuales que se usan en las capas de aplicación SAP y DBMS.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6072,19 +6089,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6095,23 +6112,23 @@
     <row r="112" ht="16.5" customHeight="1">
       <c r="A112" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Key Vault para almacenar los secretos y las credenciales</t>
+          <t>Asegúrese de que las implementaciones internas de Azure Load Balancer están configuradas para usar Direct Server Return (DSR). Esta configuración reducirá la latencia cuando se utilicen configuraciones internas del equilibrador de carga para configuraciones de alta disponibilidad en la capa DBMS.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6122,19 +6139,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6145,17 +6162,17 @@
     <row r="113" ht="16.5" customHeight="1">
       <c r="A113" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Se recomienda bloquear los recursos de Azure después de la implementación correcta para protegerse contra cambios no autorizados. También puede aplicar restricciones y reglas de LOCK por suscripción mediante directivas de Azure personalizadas (rol personalizado).</t>
+          <t>Puede usar reglas de grupo de seguridad de aplicaciones (ASG) y NSG para definir listas de control de acceso de seguridad de red entre la aplicación SAP y las capas DBMS. Los ASG agrupan las máquinas virtuales para ayudar a administrar su seguridad.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6172,19 +6189,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6195,23 +6212,23 @@
     <row r="114" ht="16.5" customHeight="1">
       <c r="A114" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
+          <t>No se admite la colocación de la capa de aplicación de SAP y DBMS de SAP en diferentes redes virtuales de Azure que no están emparejadas.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6222,19 +6239,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6245,23 +6262,23 @@
     <row r="115" ht="16.5" customHeight="1">
       <c r="A115" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>En función de los requisitos existentes, controles normativos y de cumplimiento (internos y externos): determine qué directivas de Azure y el rol de RBAC de Azure son necesarios</t>
+          <t>Para obtener una latencia de red óptima con aplicaciones SAP, considere la posibilidad de usar grupos de selección de ubicación por proximidad de Azure.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6272,19 +6289,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6295,17 +6312,17 @@
     <row r="116" ht="16.5" customHeight="1">
       <c r="A116" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Al habilitar Microsoft Defender para punto de conexión en el entorno de SAP, se recomienda excluir los archivos de datos y registro en los servidores DBMS en lugar de dirigirse a todos los servidores. Siga las recomendaciones de su proveedor de DBMS al excluir archivos de destino.</t>
+          <t>NO se admite en absoluto la ejecución de una capa de servidor de aplicaciones de SAP y una capa de DBMS divididas entre el entorno local y Azure. Ambas capas deben residir completamente en el entorno local o en Azure.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6322,19 +6339,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6345,17 +6362,17 @@
     <row r="117" ht="16.5" customHeight="1">
       <c r="A117" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Delegue un rol personalizado de administrador de SAP con acceso Just-In-Time de Microsoft Defender for Cloud.</t>
+          <t>No se recomienda hospedar el sistema de administración de bases de datos (DBMS) y las capas de aplicación de los sistemas SAP en diferentes redes virtuales y conectarlas con el emparejamiento de redes virtuales debido a los costos sustanciales que puede producir un tráfico de red excesivo entre las capas. Se recomienda el uso de subredes dentro de la red virtual de Azure para separar la capa de aplicación de SAP y la capa de DBMS.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6372,19 +6389,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6395,23 +6412,23 @@
     <row r="118" ht="16.5" customHeight="1">
       <c r="A118" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>cifre los datos en tránsito integrando el producto de seguridad de terceros con comunicaciones de red seguras (SNC) para DIAG (SAP GUI), RFC y SPNEGO para HTTPS</t>
+          <t>Si utiliza Load Balancer con sistemas operativos invitados Linux, compruebe que el parámetro de red de Linux net.ipv4.tcp_timestamps esté establecido en 0.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6422,19 +6439,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6445,17 +6462,17 @@
     <row r="119" ht="16.5" customHeight="1">
       <c r="A119" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice claves administradas por Microsoft para la funcionalidad de cifrado de entidad de seguridad y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>En el caso de las implementaciones de SAP RISE/ECS, el emparejamiento virtual es la forma preferida de establecer la conectividad con el entorno de Azure existente del cliente. Tanto la red virtual de SAP como las redes virtuales del cliente están protegidas con grupos de seguridad de red (NSG), lo que permite la comunicación en los puertos de SAP y de base de datos a través del emparejamiento de redes virtuales</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6472,19 +6489,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6500,18 +6512,18 @@
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Use una instancia de Azure Key Vault por aplicación, por entorno, por región.</t>
+          <t>Si ejecuta máquinas virtuales Windows y Linux en Azure, en el entorno local o en otros entornos en la nube, puede usar el Centro de administración de actualizaciones de Automatización de Azure para administrar las actualizaciones del sistema operativo, incluidas las revisiones de seguridad.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6522,19 +6534,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6550,18 +6562,18 @@
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Para controlar y administrar claves y secretos de cifrado de disco para sistemas operativos Windows y Windows que no son de HANA, use Azure Key Vault. SAP HANA no es compatible con Azure Key Vault, por lo que debe usar métodos alternativos como SAP ABAP o claves SSH.</t>
+          <t>Revise de forma rutinaria las notas de seguridad de SAP OSS, ya que SAP publica parches de seguridad muy críticos, o revisiones, que requieren una acción inmediata para proteger sus sistemas SAP.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6572,19 +6584,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6600,18 +6612,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>En el caso de SAP en SQL Server, puede deshabilitar la cuenta de administrador del sistema de SQL Server porque los sistemas SAP en SQL Server no usan la cuenta. Asegúrese de que otro usuario con derechos de administrador del sistema pueda acceder al servidor antes de deshabilitar la cuenta de administrador del sistema original.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6622,7 +6634,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I122" s="15" t="n"/>
@@ -6630,7 +6642,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6646,12 +6658,12 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Personalización de los roles de control de acceso basado en rol (RBAC) para SAP en suscripciones de Azure spoke para evitar cambios accidentales relacionados con la red</t>
+          <t>Deshabilite xp_cmdshell. La característica de SQL Server xp_cmdshell habilita un shell de comandos del sistema operativo interno de SQL Server. Es un riesgo potencial en las auditorías de seguridad.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6668,19 +6680,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6696,12 +6708,12 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Aísle las redes perimetrales y las aplicaciones virtuales de red del resto del patrimonio de SAP, configure Azure Private Link y administre y controle de forma segura los recursos de SAP en Azure</t>
+          <t>El cifrado de servidores de bases de datos de SAP HANA en Azure usa la tecnología de cifrado nativa de SAP HANA. Además, si usa SQL Server en Azure, use el cifrado de datos transparente (TDE) para proteger los datos y los archivos de registro y asegurarse de que las copias de seguridad también están cifradas.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6718,19 +6730,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6746,18 +6758,18 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar el software antimalware de Microsoft en Azure para proteger las máquinas virtuales de archivos malintencionados, adware y otras amenazas.</t>
+          <t>El cifrado de Azure Storage está habilitado para todas las cuentas de Azure Resource Manager y de almacenamiento clásico, y no se puede deshabilitar. Dado que los datos están cifrados de forma predeterminada, no es necesario modificar el código o las aplicaciones para usar el cifrado de Azure Storage.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6768,19 +6780,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6796,18 +6808,18 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Para una protección aún más eficaz, considere la posibilidad de usar Microsoft Defender para punto de conexión.</t>
+          <t>Uso de Azure Key Vault para almacenar los secretos y las credenciales</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6818,19 +6830,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6846,18 +6858,18 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Aísle los servidores de aplicaciones y bases de datos de SAP de Internet o de la red local pasando todo el tráfico a través de la red virtual del centro de conectividad, que está conectada a la red radial mediante el emparejamiento de red virtual. Las redes virtuales emparejadas garantizan que la solución de SAP en Azure esté aislada de la red pública de Internet.</t>
+          <t>Se recomienda bloquear los recursos de Azure después de la implementación correcta para protegerse contra cambios no autorizados. También puede aplicar restricciones y reglas de LOCK por suscripción mediante directivas de Azure personalizadas (rol personalizado).</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6868,19 +6880,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6896,18 +6908,18 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las aplicaciones orientadas a Internet, como SAP Fiori, asegúrese de distribuir la carga según los requisitos de la aplicación mientras se mantienen los niveles de seguridad. Para la seguridad de nivel 7, puede usar un firewall de aplicaciones web (WAF) de terceros disponible en Azure Marketplace.</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6918,19 +6930,19 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6946,18 +6958,18 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Para habilitar la comunicación segura en las soluciones de Azure Monitor para SAP, puede optar por usar un certificado raíz o un certificado de servidor. Le recomendamos encarecidamente que utilice certificados raíz.</t>
+          <t>En función de los requisitos existentes, controles normativos y de cumplimiento (internos y externos): determine qué directivas de Azure y el rol de RBAC de Azure son necesarios</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6968,19 +6980,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6991,23 +7003,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Configuración de disco para Oracle, SQL, HANA</t>
+          <t>Al habilitar Microsoft Defender para punto de conexión en el entorno de SAP, se recomienda excluir los archivos de datos y registro en los servidores DBMS en lugar de dirigirse a todos los servidores. Siga las recomendaciones de su proveedor de DBMS al excluir archivos de destino.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7016,12 +7028,21 @@
         </is>
       </c>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="n"/>
+      <c r="H130" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7030,208 +7051,645 @@
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="n"/>
-      <c r="B131" s="21" t="n"/>
-      <c r="C131" s="21" t="n"/>
+      <c r="A131" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B131" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C131" s="21" t="inlineStr">
+        <is>
+          <t>Delegue un rol personalizado de administrador de SAP con acceso Just-In-Time de Microsoft Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D131" s="21" t="n"/>
-      <c r="E131" s="21" t="n"/>
+      <c r="E131" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="n"/>
+      <c r="H131" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="n"/>
+      <c r="L131" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
       <c r="P131" s="25" t="n"/>
     </row>
     <row r="132" ht="16.5" customHeight="1">
-      <c r="A132" s="21" t="n"/>
-      <c r="B132" s="21" t="n"/>
-      <c r="C132" s="21" t="n"/>
+      <c r="A132" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B132" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C132" s="21" t="inlineStr">
+        <is>
+          <t>cifre los datos en tránsito integrando el producto de seguridad de terceros con comunicaciones de red seguras (SNC) para DIAG (SAP GUI), RFC y SPNEGO para HTTPS</t>
+        </is>
+      </c>
       <c r="D132" s="21" t="n"/>
-      <c r="E132" s="21" t="n"/>
+      <c r="E132" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="n"/>
+      <c r="H132" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
-      <c r="L132" s="25" t="n"/>
+      <c r="L132" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M132" s="25" t="n"/>
       <c r="N132" s="25" t="n"/>
       <c r="O132" s="25" t="n"/>
       <c r="P132" s="25" t="n"/>
     </row>
     <row r="133" ht="16.5" customHeight="1">
-      <c r="A133" s="21" t="n"/>
-      <c r="B133" s="21" t="n"/>
-      <c r="C133" s="21" t="n"/>
+      <c r="A133" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B133" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C133" s="21" t="inlineStr">
+        <is>
+          <t>De forma predeterminada, utilice claves administradas por Microsoft para la funcionalidad de cifrado de entidad de seguridad y use claves administradas por el cliente cuando sea necesario.</t>
+        </is>
+      </c>
       <c r="D133" s="21" t="n"/>
-      <c r="E133" s="21" t="n"/>
+      <c r="E133" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G133" s="21" t="n"/>
-      <c r="H133" s="15" t="n"/>
+      <c r="H133" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
-      <c r="L133" s="25" t="n"/>
+      <c r="L133" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M133" s="25" t="n"/>
       <c r="N133" s="25" t="n"/>
       <c r="O133" s="25" t="n"/>
       <c r="P133" s="25" t="n"/>
     </row>
     <row r="134" ht="16.5" customHeight="1">
-      <c r="A134" s="21" t="n"/>
-      <c r="B134" s="21" t="n"/>
-      <c r="C134" s="21" t="n"/>
+      <c r="A134" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B134" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C134" s="21" t="inlineStr">
+        <is>
+          <t>Use una instancia de Azure Key Vault por aplicación, por entorno, por región.</t>
+        </is>
+      </c>
       <c r="D134" s="21" t="n"/>
-      <c r="E134" s="21" t="n"/>
+      <c r="E134" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G134" s="21" t="n"/>
-      <c r="H134" s="15" t="n"/>
+      <c r="H134" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
-      <c r="L134" s="25" t="n"/>
+      <c r="L134" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M134" s="25" t="n"/>
       <c r="N134" s="25" t="n"/>
       <c r="O134" s="25" t="n"/>
       <c r="P134" s="25" t="n"/>
     </row>
     <row r="135" ht="16.5" customHeight="1">
-      <c r="A135" s="21" t="n"/>
-      <c r="B135" s="21" t="n"/>
-      <c r="C135" s="21" t="n"/>
+      <c r="A135" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B135" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C135" s="21" t="inlineStr">
+        <is>
+          <t>Para controlar y administrar claves y secretos de cifrado de disco para sistemas operativos Windows y Windows que no son de HANA, use Azure Key Vault. SAP HANA no es compatible con Azure Key Vault, por lo que debe usar métodos alternativos como SAP ABAP o claves SSH.</t>
+        </is>
+      </c>
       <c r="D135" s="21" t="n"/>
-      <c r="E135" s="21" t="n"/>
+      <c r="E135" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G135" s="21" t="n"/>
-      <c r="H135" s="15" t="n"/>
+      <c r="H135" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
-      <c r="L135" s="25" t="n"/>
+      <c r="L135" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M135" s="25" t="n"/>
       <c r="N135" s="25" t="n"/>
       <c r="O135" s="25" t="n"/>
       <c r="P135" s="25" t="n"/>
     </row>
     <row r="136" ht="16.5" customHeight="1">
-      <c r="A136" s="21" t="n"/>
-      <c r="B136" s="21" t="n"/>
-      <c r="C136" s="21" t="n"/>
+      <c r="A136" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B136" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C136" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D136" s="21" t="n"/>
-      <c r="E136" s="21" t="n"/>
+      <c r="E136" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G136" s="21" t="n"/>
-      <c r="H136" s="15" t="n"/>
+      <c r="H136" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
-      <c r="L136" s="25" t="n"/>
+      <c r="L136" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M136" s="25" t="n"/>
       <c r="N136" s="25" t="n"/>
       <c r="O136" s="25" t="n"/>
       <c r="P136" s="25" t="n"/>
     </row>
     <row r="137" ht="16.5" customHeight="1">
-      <c r="A137" s="21" t="n"/>
-      <c r="B137" s="21" t="n"/>
-      <c r="C137" s="21" t="n"/>
+      <c r="A137" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B137" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C137" s="21" t="inlineStr">
+        <is>
+          <t>Personalización de los roles de control de acceso basado en rol (RBAC) para SAP en suscripciones de Azure spoke para evitar cambios accidentales relacionados con la red</t>
+        </is>
+      </c>
       <c r="D137" s="21" t="n"/>
-      <c r="E137" s="21" t="n"/>
+      <c r="E137" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G137" s="21" t="n"/>
-      <c r="H137" s="15" t="n"/>
+      <c r="H137" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
-      <c r="L137" s="25" t="n"/>
+      <c r="L137" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M137" s="25" t="n"/>
       <c r="N137" s="25" t="n"/>
       <c r="O137" s="25" t="n"/>
       <c r="P137" s="25" t="n"/>
     </row>
     <row r="138" ht="16.5" customHeight="1">
-      <c r="A138" s="21" t="n"/>
-      <c r="B138" s="21" t="n"/>
-      <c r="C138" s="21" t="n"/>
+      <c r="A138" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B138" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C138" s="21" t="inlineStr">
+        <is>
+          <t>Aísle las redes perimetrales y las aplicaciones virtuales de red del resto del patrimonio de SAP, configure Azure Private Link y administre y controle de forma segura los recursos de SAP en Azure</t>
+        </is>
+      </c>
       <c r="D138" s="21" t="n"/>
-      <c r="E138" s="21" t="n"/>
+      <c r="E138" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G138" s="21" t="n"/>
-      <c r="H138" s="15" t="n"/>
+      <c r="H138" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
-      <c r="L138" s="25" t="n"/>
+      <c r="L138" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M138" s="25" t="n"/>
       <c r="N138" s="25" t="n"/>
       <c r="O138" s="25" t="n"/>
       <c r="P138" s="25" t="n"/>
     </row>
     <row r="139" ht="16.5" customHeight="1">
-      <c r="A139" s="21" t="n"/>
-      <c r="B139" s="21" t="n"/>
-      <c r="C139" s="21" t="n"/>
+      <c r="A139" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B139" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C139" s="21" t="inlineStr">
+        <is>
+          <t>Considere la posibilidad de usar el software antimalware de Microsoft en Azure para proteger las máquinas virtuales de archivos malintencionados, adware y otras amenazas.</t>
+        </is>
+      </c>
       <c r="D139" s="21" t="n"/>
-      <c r="E139" s="21" t="n"/>
+      <c r="E139" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G139" s="21" t="n"/>
-      <c r="H139" s="15" t="n"/>
+      <c r="H139" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
-      <c r="L139" s="25" t="n"/>
+      <c r="L139" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M139" s="25" t="n"/>
       <c r="N139" s="25" t="n"/>
       <c r="O139" s="25" t="n"/>
       <c r="P139" s="25" t="n"/>
     </row>
     <row r="140" ht="16.5" customHeight="1">
-      <c r="A140" s="21" t="n"/>
-      <c r="B140" s="21" t="n"/>
-      <c r="C140" s="21" t="n"/>
+      <c r="A140" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B140" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C140" s="21" t="inlineStr">
+        <is>
+          <t>Para una protección aún más eficaz, considere la posibilidad de usar Microsoft Defender para punto de conexión.</t>
+        </is>
+      </c>
       <c r="D140" s="21" t="n"/>
-      <c r="E140" s="21" t="n"/>
+      <c r="E140" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G140" s="21" t="n"/>
-      <c r="H140" s="15" t="n"/>
+      <c r="H140" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
-      <c r="L140" s="25" t="n"/>
+      <c r="L140" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M140" s="25" t="n"/>
       <c r="N140" s="25" t="n"/>
       <c r="O140" s="25" t="n"/>
       <c r="P140" s="25" t="n"/>
     </row>
     <row r="141" ht="16.5" customHeight="1">
-      <c r="A141" s="21" t="n"/>
-      <c r="B141" s="21" t="n"/>
-      <c r="C141" s="21" t="n"/>
+      <c r="A141" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B141" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C141" s="21" t="inlineStr">
+        <is>
+          <t>Aísle los servidores de aplicaciones y bases de datos de SAP de Internet o de la red local pasando todo el tráfico a través de la red virtual del centro de conectividad, que está conectada a la red radial mediante el emparejamiento de red virtual. Las redes virtuales emparejadas garantizan que la solución de SAP en Azure esté aislada de la red pública de Internet.</t>
+        </is>
+      </c>
       <c r="D141" s="21" t="n"/>
-      <c r="E141" s="21" t="n"/>
+      <c r="E141" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G141" s="21" t="n"/>
-      <c r="H141" s="15" t="n"/>
+      <c r="H141" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
-      <c r="L141" s="25" t="n"/>
+      <c r="L141" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M141" s="25" t="n"/>
       <c r="N141" s="25" t="n"/>
       <c r="O141" s="25" t="n"/>
       <c r="P141" s="25" t="n"/>
     </row>
     <row r="142" ht="16.5" customHeight="1">
-      <c r="A142" s="21" t="n"/>
-      <c r="B142" s="21" t="n"/>
-      <c r="C142" s="21" t="n"/>
+      <c r="A142" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B142" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C142" s="21" t="inlineStr">
+        <is>
+          <t>En el caso de las aplicaciones orientadas a Internet, como SAP Fiori, asegúrese de distribuir la carga según los requisitos de la aplicación mientras se mantienen los niveles de seguridad. Para la seguridad de nivel 7, puede usar un firewall de aplicaciones web (WAF) de terceros disponible en Azure Marketplace.</t>
+        </is>
+      </c>
       <c r="D142" s="21" t="n"/>
-      <c r="E142" s="21" t="n"/>
+      <c r="E142" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G142" s="21" t="n"/>
-      <c r="H142" s="15" t="n"/>
+      <c r="H142" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
-      <c r="L142" s="25" t="n"/>
+      <c r="L142" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M142" s="25" t="n"/>
       <c r="N142" s="25" t="n"/>
       <c r="O142" s="25" t="n"/>
       <c r="P142" s="25" t="n"/>
     </row>
     <row r="143" ht="16.5" customHeight="1">
-      <c r="A143" s="21" t="n"/>
-      <c r="B143" s="21" t="n"/>
-      <c r="C143" s="21" t="n"/>
+      <c r="A143" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B143" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C143" s="21" t="inlineStr">
+        <is>
+          <t>Para habilitar la comunicación segura en las soluciones de Azure Monitor para SAP, puede optar por usar un certificado raíz o un certificado de servidor. Le recomendamos encarecidamente que utilice certificados raíz.</t>
+        </is>
+      </c>
       <c r="D143" s="21" t="n"/>
-      <c r="E143" s="21" t="n"/>
+      <c r="E143" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G143" s="21" t="n"/>
-      <c r="H143" s="15" t="n"/>
+      <c r="H143" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
-      <c r="L143" s="25" t="n"/>
+      <c r="L143" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M143" s="25" t="n"/>
       <c r="N143" s="25" t="n"/>
       <c r="O143" s="25" t="n"/>
@@ -9718,7 +10176,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F131" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F144" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.es.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.es.xlsx
@@ -1712,7 +1712,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
@@ -2852,23 +2852,23 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Optimización de costos</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Aplicación de un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
+          <t>En el caso de usar Azure Premium Storage con SAP HANA, se puede usar el almacenamiento SSD estándar de Azure para seleccionar una solución de almacenamiento rentable. Sin embargo, tenga en cuenta que la elección de SSD estándar o almacenamiento de Azure HDD estándar afectará al Acuerdo de Nivel de Servicio de las máquinas virtuales individuales. Además, para sistemas con menor rendimiento de E/S y baja latencia, como entornos que no son de producción, se pueden usar máquinas virtuales de series inferiores.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2879,19 +2879,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>71dc00cd-4392-4262-8949-20c05e6c0333</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2902,23 +2897,23 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Optimización de costos</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Aplicación de la propagación del principio para reenviar la identidad de la aplicación en la nube de SAP a SAP local (incluida IaaS) a través del conector en la nube</t>
+          <t>Como configuración alternativa de menor costo (multipropósito), puede elegir una SKU de bajo rendimiento para las máquinas virtuales del servidor de base de datos de HANA que no son de producción. Sin embargo, es importante tener en cuenta que algunos tipos de máquinas virtuales, como la serie E, no están certificadas para HANA (directorio de hardware de SAP HANA) o no pueden alcanzar una latencia de almacenamiento inferior a 1 ms.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2929,19 +2924,15 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I46" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>9877f353-2591-4e8b-8381-e9043fed1010</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2962,13 +2953,13 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO en aplicaciones SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics y SAP C4C con Azure AD mediante SAML.</t>
+          <t>Aplicación de un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2979,15 +2970,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I47" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+        </is>
+      </c>
+      <c r="I47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3008,7 +3003,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI mediante SAML.</t>
+          <t>Aplicación de la propagación del principio para reenviar la identidad de la aplicación en la nube de SAP a SAP local (incluida IaaS) a través del conector en la nube</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3025,19 +3020,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3058,7 +3053,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI mediante SAML.</t>
+          <t>Implemente SSO en aplicaciones SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics y SAP C4C con Azure AD mediante SAML.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3073,17 +3068,16 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3104,7 +3098,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Puede implementar SSO en la GUI de SAP mediante SAP NetWeaver SSO o una solución de partner.</t>
+          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI mediante SAML.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3133,7 +3127,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3154,7 +3148,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere el servidor de inicio de sesión seguro de SAP, que es un componente de la solución SSO de SAP.</t>
+          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI mediante SAML.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3172,14 +3166,14 @@
       <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3200,7 +3194,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere el servidor de inicio de sesión seguro de SAP, que es un componente de la solución SSO de SAP.</t>
+          <t>Puede implementar SSO en la GUI de SAP mediante SAP NetWeaver SSO o una solución de partner.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3217,15 +3211,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3246,7 +3244,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Implemente el inicio de sesión único mediante OAuth para SAP NetWeaver a fin de permitir que aplicaciones personalizadas o de terceros accedan a los servicios OData de SAP NetWeaver.</t>
+          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere el servidor de inicio de sesión seguro de SAP, que es un componente de la solución SSO de SAP.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3261,16 +3259,17 @@
         </is>
       </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+      <c r="H53" s="15" t="n"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3291,7 +3290,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Implementación de SSO en SAP HANA</t>
+          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere el servidor de inicio de sesión seguro de SAP, que es un componente de la solución SSO de SAP.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3308,7 +3307,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3316,7 +3315,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3337,7 +3336,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Considere Azure AD como un proveedor de identidades para sistemas SAP hospedados en RISE. Para obtener más información, consulte Integración del servicio con Azure AD.</t>
+          <t>Implemente el inicio de sesión único mediante OAuth para SAP NetWeaver a fin de permitir que aplicaciones personalizadas o de terceros accedan a los servicios OData de SAP NetWeaver.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3354,14 +3353,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3382,7 +3381,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las aplicaciones que acceden a SAP, es posible que desee utilizar la propagación de entidades de seguridad para establecer el inicio de sesión único.</t>
+          <t>Implementación de SSO en SAP HANA</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3399,14 +3398,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3427,7 +3426,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Si usa servicios BTP de SAP o soluciones SaaS que requieren SAP Identity Authentication Service (IAS), considere la posibilidad de implementar SSO entre SAP Cloud Identity Authentication Services y Azure AD para acceder a esos servicios de SAP. Esta integración permite a SAP IAS actuar como proveedor de identidades de proxy y reenvía las solicitudes de autenticación a Azure AD como almacén de usuarios central y proveedor de identidades.</t>
+          <t>Considere Azure AD como un proveedor de identidades para sistemas SAP hospedados en RISE. Para obtener más información, consulte Integración del servicio con Azure AD.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3444,14 +3443,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3472,7 +3471,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Implementación de SSO en SAP BTP</t>
+          <t>En el caso de las aplicaciones que acceden a SAP, es posible que desee utilizar la propagación de entidades de seguridad para establecer el inicio de sesión único.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3489,14 +3488,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3517,7 +3516,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Si usa SAP SuccessFactors, considere la posibilidad de usar el aprovisionamiento automatizado de usuarios de Azure AD. Con esta integración, a medida que agrega nuevos empleados a SAP SuccessFactors, puede crear automáticamente sus cuentas de usuario en Azure AD. Opcionalmente, puede crear cuentas de usuario en Microsoft 365 u otras aplicaciones SaaS compatibles con Azure AD. Utilice la escritura diferida de la dirección de correo electrónico en SAP SuccessFactors.</t>
+          <t>Si usa servicios BTP de SAP o soluciones SaaS que requieren SAP Identity Authentication Service (IAS), considere la posibilidad de implementar SSO entre SAP Cloud Identity Authentication Services y Azure AD para acceder a esos servicios de SAP. Esta integración permite a SAP IAS actuar como proveedor de identidades de proxy y reenvía las solicitudes de autenticación a Azure AD como almacén de usuarios central y proveedor de identidades.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3534,14 +3533,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3552,17 +3551,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>aplicar las directivas de grupo de administración existentes a las suscripciones de SAP</t>
+          <t>Implementación de SSO en SAP BTP</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3579,19 +3578,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3602,23 +3596,23 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Integre aplicaciones estrechamente acopladas en la misma suscripción de SAP para evitar una complejidad adicional de enrutamiento y administración</t>
+          <t>Si usa SAP SuccessFactors, considere la posibilidad de usar el aprovisionamiento automatizado de usuarios de Azure AD. Con esta integración, a medida que agrega nuevos empleados a SAP SuccessFactors, puede crear automáticamente sus cuentas de usuario en Azure AD. Opcionalmente, puede crear cuentas de usuario en Microsoft 365 u otras aplicaciones SaaS compatibles con Azure AD. Utilice la escritura diferida de la dirección de correo electrónico en SAP SuccessFactors.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3629,19 +3623,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3662,13 +3651,13 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aprovechar la suscripción como unidad de escalado y escalar nuestros recursos, considere implementar la suscripción por entorno, por ejemplo. Sandbox, no-prod, prod </t>
+          <t>aplicar las directivas de grupo de administración existentes a las suscripciones de SAP</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3679,19 +3668,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3712,7 +3701,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Garantizar el aumento de la cuota como parte del aprovisionamiento de suscripciones (por ejemplo, el total de núcleos de máquina virtual disponibles dentro de una suscripción)</t>
+          <t>Integre aplicaciones estrechamente acopladas en la misma suscripción de SAP para evitar una complejidad adicional de enrutamiento y administración</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3729,19 +3718,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3762,13 +3751,13 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>La API de cuota es una API de REST que se puede usar para ver y administrar las cuotas de los servicios de Azure. Considere usarlo si es necesario.</t>
+          <t xml:space="preserve">Aprovechar la suscripción como unidad de escalado y escalar nuestros recursos, considere implementar la suscripción por entorno, por ejemplo. Sandbox, no-prod, prod </t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3779,15 +3768,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3808,7 +3801,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Si realiza la implementación en una zona de disponibilidad, asegúrese de que la implementación de la zona de la máquina virtual esté disponible una vez que se haya aprobado la cuota. Envíe una solicitud de soporte técnico con la suscripción, la serie de máquinas virtuales, el número de CPU y la zona de disponibilidad necesarias.</t>
+          <t>Garantizar el aumento de la cuota como parte del aprovisionamiento de suscripciones (por ejemplo, el total de núcleos de máquina virtual disponibles dentro de una suscripción)</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3825,15 +3818,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3854,13 +3851,13 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios y funciones requeridos estén disponibles dentro de las regiones de implementación elegidas, por ejemplo. ANF, Zona, etc.</t>
+          <t>La API de cuota es una API de REST que se puede usar para ver y administrar las cuotas de los servicios de Azure. Considere usarlo si es necesario.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3871,19 +3868,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3904,13 +3896,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la etiqueta de recurso de Azure para la categorización de costos y la agrupación de recursos (facturación, departamento (o unidad de negocio), entorno (producción, fase, desarrollo), nivel (nivel web, nivel de aplicación), propietario de la aplicación, ProjectName)</t>
+          <t>Si realiza la implementación en una zona de disponibilidad, asegúrese de que la implementación de la zona de la máquina virtual esté disponible una vez que se haya aprobado la cuota. Envíe una solicitud de soporte técnico con la suscripción, la serie de máquinas virtuales, el número de CPU y la zona de disponibilidad necesarias.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3921,19 +3913,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3944,17 +3932,17 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Ayude a proteger la base de datos de HANA mediante el servicio Azure Backup.</t>
+          <t>Asegúrese de que los servicios y funciones requeridos estén disponibles dentro de las regiones de implementación elegidas, por ejemplo. ANF, Zona, etc.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3971,19 +3959,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3994,17 +3982,17 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Si implementa Azure NetApp Files para la base de datos HANA, Oracle o DB2, use la herramienta Azure Application Consistent Snapshot (AzAcSnap) para tomar instantáneas coherentes con la aplicación. AzAcSnap también es compatible con las bases de datos de Oracle. Considere la posibilidad de usar AzAcSnap en una máquina virtual central en lugar de en máquinas virtuales individuales.</t>
+          <t>Aproveche la etiqueta de recurso de Azure para la categorización de costos y la agrupación de recursos (facturación, departamento (o unidad de negocio), entorno (producción, fase, desarrollo), nivel (nivel web, nivel de aplicación), propietario de la aplicación, ProjectName)</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -4021,15 +4009,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4045,12 +4037,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la zona horaria coincida entre el sistema operativo y el sistema SAP.</t>
+          <t>Ayude a proteger la base de datos de HANA mediante el servicio Azure Backup.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4067,15 +4059,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4091,12 +4087,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>No agrupe diferentes servicios de aplicaciones en el mismo clúster. Por ejemplo, no combine DRBD y clústeres de servicios centrales en el mismo clúster. Sin embargo, puede usar el mismo clúster de Pacemaker para administrar aproximadamente cinco servicios centrales diferentes (clúster de varios SID).</t>
+          <t>Si implementa Azure NetApp Files para la base de datos HANA, Oracle o DB2, use la herramienta Azure Application Consistent Snapshot (AzAcSnap) para tomar instantáneas coherentes con la aplicación. AzAcSnap también es compatible con las bases de datos de Oracle. Considere la posibilidad de usar AzAcSnap en una máquina virtual central en lugar de en máquinas virtuales individuales.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4113,19 +4109,15 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4146,13 +4138,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de ejecutar sistemas de desarrollo y pruebas en un modelo de repetición para ahorrar y optimizar los costos de ejecución de Azure.</t>
+          <t>Asegúrese de que la zona horaria coincida entre el sistema operativo y el sistema SAP.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4163,7 +4155,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4171,7 +4163,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4192,7 +4184,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Si se asocia con los clientes mediante la administración de sus propiedades de SAP, considere la posibilidad de usar Azure Lighthouse. Azure Lighthouse permite a los proveedores de servicios administrados usar los servicios de identidad nativos de Azure para autenticarse en el entorno de los clientes. Pone el control en manos de los clientes, ya que pueden revocar el acceso en cualquier momento y auditar las acciones de los proveedores de servicios.</t>
+          <t>No agrupe diferentes servicios de aplicaciones en el mismo clúster. Por ejemplo, no combine DRBD y clústeres de servicios centrales en el mismo clúster. Sin embargo, puede usar el mismo clúster de Pacemaker para administrar aproximadamente cinco servicios centrales diferentes (clúster de varios SID).</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4209,15 +4201,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4238,13 +4234,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Update Manager para comprobar el estado de las actualizaciones disponibles para una sola máquina virtual o varias máquinas virtuales y considere la posibilidad de programar revisiones periódicas.</t>
+          <t>Considere la posibilidad de ejecutar sistemas de desarrollo y pruebas en un modelo de repetición para ahorrar y optimizar los costos de ejecución de Azure.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4255,19 +4251,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4288,13 +4280,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Optimice y gestione las operaciones de SAP Basis mediante SAP Landscape Management (LaMa). Use el conector de SAP LaMa para Azure para reubicar, copiar, clonar y actualizar sistemas SAP.</t>
+          <t>Si se asocia con los clientes mediante la administración de sus propiedades de SAP, considere la posibilidad de usar Azure Lighthouse. Azure Lighthouse permite a los proveedores de servicios administrados usar los servicios de identidad nativos de Azure para autenticarse en el entorno de los clientes. Pone el control en manos de los clientes, ya que pueden revocar el acceso en cualquier momento y auditar las acciones de los proveedores de servicios.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4305,19 +4297,15 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4333,12 +4321,12 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor para soluciones SAP para supervisar las cargas de trabajo de SAP (SAP HANA, clústeres de SUSE de alta disponibilidad y sistemas SQL) en Azure. Considere la posibilidad de complementar las soluciones de Azure Monitor para SAP con SAP Solution Manager.</t>
+          <t>Use Azure Update Manager para comprobar el estado de las actualizaciones disponibles para una sola máquina virtual o varias máquinas virtuales y considere la posibilidad de programar revisiones periódicas.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4355,19 +4343,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4383,18 +4371,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Ejecute una comprobación de extensión de máquina virtual para SAP. VM Extension for SAP usa la identidad administrada asignada de una máquina virtual (VM) para acceder a los datos de configuración y supervisión de VM. La comprobación garantiza que todas las métricas de rendimiento de la aplicación SAP proceden de la extensión de Azure para SAP subyacente.</t>
+          <t>Optimice y gestione las operaciones de SAP Basis mediante SAP Landscape Management (LaMa). Use el conector de SAP LaMa para Azure para reubicar, copiar, clonar y actualizar sistemas SAP.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4405,19 +4393,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4438,7 +4426,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
+          <t>Use Azure Monitor para soluciones SAP para supervisar las cargas de trabajo de SAP (SAP HANA, clústeres de SUSE de alta disponibilidad y sistemas SQL) en Azure. Considere la posibilidad de complementar las soluciones de Azure Monitor para SAP con SAP Solution Manager.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4455,19 +4443,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4488,13 +4476,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Use el Monitor de conexión en Azure Network Watcher para supervisar las métricas de latencia de las bases de datos y los servidores de aplicaciones de SAP. O bien, recopile y muestre medidas de latencia de red mediante Azure Monitor.</t>
+          <t>Ejecute una comprobación de extensión de máquina virtual para SAP. VM Extension for SAP usa la identidad administrada asignada de una máquina virtual (VM) para acceder a los datos de configuración y supervisión de VM. La comprobación garantiza que todas las métricas de rendimiento de la aplicación SAP proceden de la extensión de Azure para SAP subyacente.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4505,19 +4493,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4538,13 +4526,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones SAP.</t>
+          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4555,19 +4543,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4588,7 +4576,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Realice una comprobación de calidad de SAP HANA en la infraestructura de Azure aprovisionada para comprobar que las máquinas virtuales aprovisionadas cumplen con los procedimientos recomendados de SAP HANA en Azure.</t>
+          <t>Use el Monitor de conexión en Azure Network Watcher para supervisar las métricas de latencia de las bases de datos y los servidores de aplicaciones de SAP. O bien, recopile y muestre medidas de latencia de red mediante Azure Monitor.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4605,15 +4593,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4634,7 +4626,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Para cada suscripción de Azure, ejecute una prueba de latencia en las zonas de disponibilidad de Azure antes de la implementación zonal para elegir zonas de baja latencia para la implementación de SAP en Azure.</t>
+          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones SAP.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4651,19 +4643,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4684,7 +4676,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Ejecute el informe de resistencia para asegurarse de que la configuración de toda la infraestructura de Azure aprovisionada (proceso, base de datos, redes, almacenamiento, Site Recovery) cumple con la configuración definida por Cloud Adaption Framework para Azure.</t>
+          <t>Realice una comprobación de calidad de SAP HANA en la infraestructura de Azure aprovisionada para comprobar que las máquinas virtuales aprovisionadas cumplen con los procedimientos recomendados de SAP HANA en Azure.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4701,19 +4693,15 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4734,13 +4722,13 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Implemente la protección contra amenazas mediante la solución Microsoft Sentinel para SAP. Utilice esta solución para supervisar sus sistemas SAP y detectar amenazas sofisticadas en toda la lógica empresarial y las capas de aplicación.</t>
+          <t>Para cada suscripción de Azure, ejecute una prueba de latencia en las zonas de disponibilidad de Azure antes de la implementación zonal para elegir zonas de baja latencia para la implementación de SAP en Azure.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4751,19 +4739,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4784,7 +4772,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>El etiquetado de Azure se puede aprovechar para agrupar y realizar un seguimiento lógico de los recursos, automatizar sus implementaciones y, lo que es más importante, proporcionar visibilidad de los costos incurridos.</t>
+          <t>Ejecute el informe de resistencia para asegurarse de que la configuración de toda la infraestructura de Azure aprovisionada (proceso, base de datos, redes, almacenamiento, Site Recovery) cumple con la configuración definida por Cloud Adaption Framework para Azure.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4801,19 +4789,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4829,18 +4817,18 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Use la supervisión de latencia entre máquinas virtuales para aplicaciones sensibles a la latencia.</t>
+          <t>Implemente la protección contra amenazas mediante la solución Microsoft Sentinel para SAP. Utilice esta solución para supervisar sus sistemas SAP y detectar amenazas sofisticadas en toda la lógica empresarial y las capas de aplicación.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4851,15 +4839,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4875,12 +4867,12 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones SAP.</t>
+          <t>El etiquetado de Azure se puede aprovechar para agrupar y realizar un seguimiento lógico de los recursos, automatizar sus implementaciones y, lo que es más importante, proporcionar visibilidad de los costos incurridos.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4897,19 +4889,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4930,13 +4922,13 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Excluya todos los sistemas de archivos de bases de datos y programas ejecutables de los análisis antivirus. Incluirlos podría dar lugar a problemas de rendimiento. Consulte con los proveedores de bases de datos para obtener detalles prescriptivos sobre la lista de exclusión. Por ejemplo, Oracle recomienda excluir /oracle/&lt;sid&gt;/sapdata de los análisis antivirus.</t>
+          <t>Use la supervisión de latencia entre máquinas virtuales para aplicaciones sensibles a la latencia.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4947,7 +4939,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
         </is>
       </c>
       <c r="I88" s="15" t="n"/>
@@ -4955,7 +4947,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4976,13 +4968,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de recopilar estadísticas de base de datos completas para bases de datos que no son de HANA después de la migración. Por ejemplo, implemente la nota de SAP 1020260 - Entrega de estadísticas de Oracle.</t>
+          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones SAP.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4993,15 +4985,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5022,7 +5018,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Oracle Automatic Storage Management (ASM) para todas las implementaciones de Oracle que usan SAP en Azure.</t>
+          <t>Excluya todos los sistemas de archivos de bases de datos y programas ejecutables de los análisis antivirus. Incluirlos podría dar lugar a problemas de rendimiento. Consulte con los proveedores de bases de datos para obtener detalles prescriptivos sobre la lista de exclusión. Por ejemplo, Oracle recomienda excluir /oracle/&lt;sid&gt;/sapdata de los análisis antivirus.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5039,19 +5035,15 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5072,13 +5064,13 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>En el caso de SAP en Azure que ejecuta Oracle, una colección de scripts SQL puede ayudarle a diagnosticar problemas de rendimiento.  Los informes de repositorio automático de cargas de trabajo (AWR) contienen información valiosa para diagnosticar problemas en el sistema Oracle. Le recomendamos que ejecute un informe de AWR durante varias sesiones y elija las horas punta para él, a fin de garantizar una amplia cobertura del análisis.</t>
+          <t>Considere la posibilidad de recopilar estadísticas de base de datos completas para bases de datos que no son de HANA después de la migración. Por ejemplo, implemente la nota de SAP 1020260 - Entrega de estadísticas de Oracle.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5089,19 +5081,15 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5112,17 +5100,17 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Para la entrega segura de aplicaciones HTTP/S, use Application Gateway v2 y asegúrese de que la protección y las directivas de WAF están habilitadas.</t>
+          <t>Considere la posibilidad de usar Oracle Automatic Storage Management (ASM) para todas las implementaciones de Oracle que usan SAP en Azure.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5139,19 +5127,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5162,17 +5150,17 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Si el DNS o el nombre virtual de la máquina virtual no se cambia durante la migración a Azure, el DNS en segundo plano y los nombres virtuales conectan muchas interfaces del sistema en el entorno de SAP, y los clientes solo conocen a veces las interfaces que los desarrolladores definen a lo largo del tiempo. Los desafíos de conexión surgen entre varios sistemas cuando los nombres virtuales o DNS cambian después de las migraciones, y se recomienda conservar los alias DNS para evitar este tipo de dificultades.</t>
+          <t>En el caso de SAP en Azure que ejecuta Oracle, una colección de scripts SQL puede ayudarle a diagnosticar problemas de rendimiento.  Los informes de repositorio automático de cargas de trabajo (AWR) contienen información valiosa para diagnosticar problemas en el sistema Oracle. Le recomendamos que ejecute un informe de AWR durante varias sesiones y elija las horas punta para él, a fin de garantizar una amplia cobertura del análisis.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5189,19 +5177,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5217,12 +5205,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Utilice diferentes zonas DNS para distinguir cada entorno (espacio aislado, desarrollo, preproducción y producción) entre sí. La excepción es para las implementaciones de SAP con su propia red virtual; en este caso, es posible que las zonas DNS privadas no sean necesarias.</t>
+          <t>Para la entrega segura de aplicaciones HTTP/S, use Application Gateway v2 y asegúrese de que la protección y las directivas de WAF están habilitadas.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5239,19 +5227,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5267,12 +5255,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>El emparejamiento de red virtual local y global proporciona conectividad y son los enfoques preferidos para garantizar la conectividad entre las zonas de aterrizaje para las implementaciones de SAP en varias regiones de Azure</t>
+          <t>Si el DNS o el nombre virtual de la máquina virtual no se cambia durante la migración a Azure, el DNS en segundo plano y los nombres virtuales conectan muchas interfaces del sistema en el entorno de SAP, y los clientes solo conocen a veces las interfaces que los desarrolladores definen a lo largo del tiempo. Los desafíos de conexión surgen entre varios sistemas cuando los nombres virtuales o DNS cambian después de las migraciones, y se recomienda conservar los alias DNS para evitar este tipo de dificultades.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5289,19 +5277,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5317,18 +5305,18 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>No se admite la implementación de ninguna aplicación virtual de red entre la aplicación SAP y el servidor de base de datos SAP</t>
+          <t>Utilice diferentes zonas DNS para distinguir cada entorno (espacio aislado, desarrollo, preproducción y producción) entre sí. La excepción es para las implementaciones de SAP con su propia red virtual; en este caso, es posible que las zonas DNS privadas no sean necesarias.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5339,19 +5327,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2731110</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5372,7 +5360,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Use Virtual WAN para implementaciones de Azure en redes nuevas, grandes o globales en las que necesite conectividad de tránsito global entre regiones de Azure y ubicaciones locales. Con este enfoque, no tendrá que configurar manualmente el enrutamiento transitivo para las redes de Azure y puede seguir un estándar para las implementaciones de SAP en Azure.</t>
+          <t>El emparejamiento de red virtual local y global proporciona conectividad y son los enfoques preferidos para garantizar la conectividad entre las zonas de aterrizaje para las implementaciones de SAP en varias regiones de Azure</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5389,19 +5377,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5422,13 +5410,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de implementar aplicaciones virtuales de red (NVA) entre regiones solo si se usan aplicaciones virtuales de red de asociados. Las aplicaciones virtuales de red entre regiones o redes virtuales no son necesarias si hay aplicaciones virtuales de red nativas. Al implementar tecnologías de redes de asociados y aplicaciones virtuales de red, siga las instrucciones del proveedor para comprobar las configuraciones conflictivas con las redes de Azure.</t>
+          <t>No se admite la implementación de ninguna aplicación virtual de red entre la aplicación SAP y el servidor de base de datos SAP</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5439,19 +5427,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5472,7 +5460,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN administra la conectividad entre redes virtuales de radio para topologías basadas en WAN virtuales (sin necesidad de configurar el enrutamiento definido por el usuario [UDR] o NVA), y el rendimiento máximo de red para el tráfico de red virtual a red virtual en el mismo centro virtual es de 50 gigabits por segundo. Si es necesario, las zonas de aterrizaje de SAP pueden usar el emparejamiento de red virtual para conectarse a otras zonas de aterrizaje y superar esta limitación de ancho de banda.</t>
+          <t>Use Virtual WAN para implementaciones de Azure en redes nuevas, grandes o globales en las que necesite conectividad de tránsito global entre regiones de Azure y ubicaciones locales. Con este enfoque, no tendrá que configurar manualmente el enrutamiento transitivo para las redes de Azure y puede seguir un estándar para las implementaciones de SAP en Azure.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5489,19 +5477,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5517,18 +5505,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>No se recomienda la asignación de I.P pública a la máquina virtual que ejecuta SAP Workload.</t>
+          <t>Considere la posibilidad de implementar aplicaciones virtuales de red (NVA) entre regiones solo si se usan aplicaciones virtuales de red de asociados. Las aplicaciones virtuales de red entre regiones o redes virtuales no son necesarias si hay aplicaciones virtuales de red nativas. Al implementar tecnologías de redes de asociados y aplicaciones virtuales de red, siga las instrucciones del proveedor para comprobar las configuraciones conflictivas con las redes de Azure.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5539,19 +5527,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5567,18 +5555,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de reservar la dirección I.P en el lado de la recuperación ante desastres al configurar ASR</t>
+          <t>Virtual WAN administra la conectividad entre redes virtuales de radio para topologías basadas en WAN virtuales (sin necesidad de configurar el enrutamiento definido por el usuario [UDR] o NVA), y el rendimiento máximo de red para el tráfico de red virtual a red virtual en el mismo centro virtual es de 50 gigabits por segundo. Si es necesario, las zonas de aterrizaje de SAP pueden usar el emparejamiento de red virtual para conectarse a otras zonas de aterrizaje y superar esta limitación de ancho de banda.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5589,19 +5577,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5622,7 +5610,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Evite el uso de intervalos de direcciones IP superpuestos para los sitios de producción y recuperación ante desastres.</t>
+          <t>No se recomienda la asignación de I.P pública a la máquina virtual que ejecuta SAP Workload.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5651,7 +5639,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5672,13 +5660,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Aunque Azure le ayuda a crear varias subredes delegadas en una red virtual, solo puede existir una subred delegada en una red virtual para Azure NetApp Files. Se producirá un error al intentar crear un nuevo volumen si se utiliza más de una subred delegada para Azure NetApp Files.</t>
+          <t>Considere la posibilidad de reservar la dirección I.P en el lado de la recuperación ante desastres al configurar ASR</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5689,19 +5677,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5717,18 +5705,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Evite el uso de intervalos de direcciones IP superpuestos para los sitios de producción y recuperación ante desastres.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5739,19 +5727,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5767,12 +5755,12 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway y Web Application Firewall tienen limitaciones cuando Application Gateway actúa como proxy inverso para aplicaciones web de SAP, como se muestra en la comparación entre Application Gateway, SAP Web Dispatcher y otros servicios de terceros.</t>
+          <t>Aunque Azure le ayuda a crear varias subredes delegadas en una red virtual, solo puede existir una subred delegada en una red virtual para Azure NetApp Files. Se producirá un error al intentar crear un nuevo volumen si se utiliza más de una subred delegada para Azure NetApp Files.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5789,19 +5777,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5822,7 +5810,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5839,19 +5827,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5872,7 +5860,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Aproveche las directivas de Web Application Firewall en Azure Front Door cuando use Azure Front Door y Application Gateway para proteger las aplicaciones HTTP/S. Bloquee Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Application Gateway y Web Application Firewall tienen limitaciones cuando Application Gateway actúa como proxy inverso para aplicaciones web de SAP, como se muestra en la comparación entre Application Gateway, SAP Web Dispatcher y otros servicios de terceros.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5889,19 +5877,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5922,7 +5910,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Utilice un firewall de aplicaciones web para analizar su tráfico cuando esté expuesto a Internet. Otra opción es usarlo con el equilibrador de carga o con recursos que tengan funcionalidades de firewall integradas, como Application Gateway o soluciones de terceros.</t>
+          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5944,14 +5932,14 @@
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5972,7 +5960,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Use Virtual WAN para implementaciones de Azure en redes nuevas, grandes o globales en las que necesite conectividad de tránsito global entre regiones de Azure y ubicaciones locales. Con este enfoque, no tendrá que configurar manualmente el enrutamiento transitivo para las redes de Azure y puede seguir un estándar para las implementaciones de SAP en Azure.</t>
+          <t>Aproveche las directivas de Web Application Firewall en Azure Front Door cuando use Azure Front Door y Application Gateway para proteger las aplicaciones HTTP/S. Bloquee Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5989,19 +5977,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6022,7 +6010,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Para evitar la pérdida de datos, use Azure Private Link para acceder de forma segura a los recursos de plataforma como servicio, como Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, etc. El punto de conexión privado de Azure también puede ayudar a proteger el tráfico entre redes virtuales y servicios como Azure Storage, Azure Backup, etc. El tráfico entre la red virtual y el servicio habilitado para punto de conexión privado viaja a través de la red global de Microsoft, lo que impide su exposición a la red pública de Internet.</t>
+          <t>Utilice un firewall de aplicaciones web para analizar su tráfico cuando esté expuesto a Internet. Otra opción es usarlo con el equilibrador de carga o con recursos que tengan funcionalidades de firewall integradas, como Application Gateway o soluciones de terceros.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6039,19 +6027,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6067,18 +6055,18 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las redes aceleradas de Azure están habilitadas en las máquinas virtuales que se usan en las capas de aplicación SAP y DBMS.</t>
+          <t>Use Virtual WAN para implementaciones de Azure en redes nuevas, grandes o globales en las que necesite conectividad de tránsito global entre regiones de Azure y ubicaciones locales. Con este enfoque, no tendrá que configurar manualmente el enrutamiento transitivo para las redes de Azure y puede seguir un estándar para las implementaciones de SAP en Azure.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6089,19 +6077,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6117,12 +6105,12 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones internas de Azure Load Balancer están configuradas para usar Direct Server Return (DSR). Esta configuración reducirá la latencia cuando se utilicen configuraciones internas del equilibrador de carga para configuraciones de alta disponibilidad en la capa DBMS.</t>
+          <t>Para evitar la pérdida de datos, use Azure Private Link para acceder de forma segura a los recursos de plataforma como servicio, como Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, etc. El punto de conexión privado de Azure también puede ayudar a proteger el tráfico entre redes virtuales y servicios como Azure Storage, Azure Backup, etc. El tráfico entre la red virtual y el servicio habilitado para punto de conexión privado viaja a través de la red global de Microsoft, lo que impide su exposición a la red pública de Internet.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6139,19 +6127,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6172,13 +6160,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Puede usar reglas de grupo de seguridad de aplicaciones (ASG) y NSG para definir listas de control de acceso de seguridad de red entre la aplicación SAP y las capas DBMS. Los ASG agrupan las máquinas virtuales para ayudar a administrar su seguridad.</t>
+          <t>Asegúrese de que las redes aceleradas de Azure están habilitadas en las máquinas virtuales que se usan en las capas de aplicación SAP y DBMS.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6189,19 +6177,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6222,13 +6210,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>No se admite la colocación de la capa de aplicación de SAP y DBMS de SAP en diferentes redes virtuales de Azure que no están emparejadas.</t>
+          <t>Asegúrese de que las implementaciones internas de Azure Load Balancer están configuradas para usar Direct Server Return (DSR). Esta configuración reducirá la latencia cuando se utilicen configuraciones internas del equilibrador de carga para configuraciones de alta disponibilidad en la capa DBMS.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6239,19 +6227,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6272,7 +6260,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Para obtener una latencia de red óptima con aplicaciones SAP, considere la posibilidad de usar grupos de selección de ubicación por proximidad de Azure.</t>
+          <t>Puede usar reglas de grupo de seguridad de aplicaciones (ASG) y NSG para definir listas de control de acceso de seguridad de red entre la aplicación SAP y las capas DBMS. Los ASG agrupan las máquinas virtuales para ayudar a administrar su seguridad.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6289,19 +6277,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6322,7 +6310,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>NO se admite en absoluto la ejecución de una capa de servidor de aplicaciones de SAP y una capa de DBMS divididas entre el entorno local y Azure. Ambas capas deben residir completamente en el entorno local o en Azure.</t>
+          <t>No se admite la colocación de la capa de aplicación de SAP y DBMS de SAP en diferentes redes virtuales de Azure que no están emparejadas.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6351,7 +6339,7 @@
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6372,13 +6360,13 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>No se recomienda hospedar el sistema de administración de bases de datos (DBMS) y las capas de aplicación de los sistemas SAP en diferentes redes virtuales y conectarlas con el emparejamiento de redes virtuales debido a los costos sustanciales que puede producir un tráfico de red excesivo entre las capas. Se recomienda el uso de subredes dentro de la red virtual de Azure para separar la capa de aplicación de SAP y la capa de DBMS.</t>
+          <t>Para obtener una latencia de red óptima con aplicaciones SAP, considere la posibilidad de usar grupos de selección de ubicación por proximidad de Azure.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6389,19 +6377,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6422,7 +6410,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Si utiliza Load Balancer con sistemas operativos invitados Linux, compruebe que el parámetro de red de Linux net.ipv4.tcp_timestamps esté establecido en 0.</t>
+          <t>NO se admite en absoluto la ejecución de una capa de servidor de aplicaciones de SAP y una capa de DBMS divididas entre el entorno local y Azure. Ambas capas deben residir completamente en el entorno local o en Azure.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6439,19 +6427,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6472,13 +6460,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las implementaciones de SAP RISE/ECS, el emparejamiento virtual es la forma preferida de establecer la conectividad con el entorno de Azure existente del cliente. Tanto la red virtual de SAP como las redes virtuales del cliente están protegidas con grupos de seguridad de red (NSG), lo que permite la comunicación en los puertos de SAP y de base de datos a través del emparejamiento de redes virtuales</t>
+          <t>No se recomienda hospedar el sistema de administración de bases de datos (DBMS) y las capas de aplicación de los sistemas SAP en diferentes redes virtuales y conectarlas con el emparejamiento de redes virtuales debido a los costos sustanciales que puede producir un tráfico de red excesivo entre las capas. Se recomienda el uso de subredes dentro de la red virtual de Azure para separar la capa de aplicación de SAP y la capa de DBMS.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6489,14 +6477,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6507,23 +6500,23 @@
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Si ejecuta máquinas virtuales Windows y Linux en Azure, en el entorno local o en otros entornos en la nube, puede usar el Centro de administración de actualizaciones de Automatización de Azure para administrar las actualizaciones del sistema operativo, incluidas las revisiones de seguridad.</t>
+          <t>Si utiliza Load Balancer con sistemas operativos invitados Linux, compruebe que el parámetro de red de Linux net.ipv4.tcp_timestamps esté establecido en 0.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6534,19 +6527,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6557,17 +6550,17 @@
     <row r="121" ht="16.5" customHeight="1">
       <c r="A121" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Revise de forma rutinaria las notas de seguridad de SAP OSS, ya que SAP publica parches de seguridad muy críticos, o revisiones, que requieren una acción inmediata para proteger sus sistemas SAP.</t>
+          <t>En el caso de las implementaciones de SAP RISE/ECS, el emparejamiento virtual es la forma preferida de establecer la conectividad con el entorno de Azure existente del cliente. Tanto la red virtual de SAP como las redes virtuales del cliente están protegidas con grupos de seguridad de red (NSG), lo que permite la comunicación en los puertos de SAP y de base de datos a través del emparejamiento de redes virtuales</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6584,19 +6577,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6607,23 +6596,23 @@
     <row r="122" ht="16.5" customHeight="1">
       <c r="A122" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Excelencia operativa</t>
         </is>
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>En el caso de SAP en SQL Server, puede deshabilitar la cuenta de administrador del sistema de SQL Server porque los sistemas SAP en SQL Server no usan la cuenta. Asegúrese de que otro usuario con derechos de administrador del sistema pueda acceder al servidor antes de deshabilitar la cuenta de administrador del sistema original.</t>
+          <t>Revise las copias de seguridad de bases de datos de SAP HANA para máquinas virtuales de Azure.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6634,7 +6623,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
         </is>
       </c>
       <c r="I122" s="15" t="n"/>
@@ -6642,7 +6631,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>ff5136bd-dcf1-4d2b-ae52-39333efdf45a</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6653,23 +6642,23 @@
     <row r="123" ht="16.5" customHeight="1">
       <c r="A123" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Excelencia operativa</t>
         </is>
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Deshabilite xp_cmdshell. La característica de SQL Server xp_cmdshell habilita un shell de comandos del sistema operativo interno de SQL Server. Es un riesgo potencial en las auditorías de seguridad.</t>
+          <t>Revise la supervisión integrada de Site Recovery, si se usa para SAP.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6680,19 +6669,15 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>cafde29d-a0af-4bcd-87c0-0f299d63f0e8</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6703,17 +6688,17 @@
     <row r="124" ht="16.5" customHeight="1">
       <c r="A124" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Excelencia operativa</t>
         </is>
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>El cifrado de servidores de bases de datos de SAP HANA en Azure usa la tecnología de cifrado nativa de SAP HANA. Además, si usa SQL Server en Azure, use el cifrado de datos transparente (TDE) para proteger los datos y los archivos de registro y asegurarse de que las copias de seguridad también están cifradas.</t>
+          <t>Revise la guía Supervisión del entorno del sistema SAP HANA.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6730,19 +6715,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
+          <t>https://help.sap.com/docs/SAP_HANA_PLATFORM/c4d7c773af4a4e5dbebb6548d6e2d4f4/e3111d2ebb5710149510cc120646bf3f.html?locale=en-US</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>82d7b8de-d3f1-44a0-830b-38e200e82acf</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6753,17 +6734,17 @@
     <row r="125" ht="16.5" customHeight="1">
       <c r="A125" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Excelencia operativa</t>
         </is>
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>El cifrado de Azure Storage está habilitado para todas las cuentas de Azure Resource Manager y de almacenamiento clásico, y no se puede deshabilitar. Dado que los datos están cifrados de forma predeterminada, no es necesario modificar el código o las aplicaciones para usar el cifrado de Azure Storage.</t>
+          <t>Revise las estrategias de copia de seguridad de Oracle Database en máquinas virtuales Linux de Azure.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6780,19 +6761,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/oracle-database-backup-strategies</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>c823873a-2bec-4c2a-b684-a1ce8ae80efd</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6803,23 +6780,23 @@
     <row r="126" ht="16.5" customHeight="1">
       <c r="A126" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Excelencia operativa</t>
         </is>
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Key Vault para almacenar los secretos y las credenciales</t>
+          <t>Revise el uso de Azure Blob Storage con SQL Server 2016.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6830,19 +6807,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/sql/relational-databases/tutorial-use-azure-blob-storage-service-with-sql-server-2016?view=sql-server-ver16</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>2943b6d8-1d31-4e19-ade7-78e6b26d1962</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6853,17 +6825,17 @@
     <row r="127" ht="16.5" customHeight="1">
       <c r="A127" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Excelencia operativa</t>
         </is>
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Se recomienda bloquear los recursos de Azure después de la implementación correcta para protegerse contra cambios no autorizados. También puede aplicar restricciones y reglas de LOCK por suscripción mediante directivas de Azure personalizadas (rol personalizado).</t>
+          <t>Revise el uso de Copia de seguridad automatizada v2 para máquinas virtuales de Azure.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6880,19 +6852,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-sql/virtual-machines/windows/automated-backup?view=azuresql</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>b82e650f-676d-417d-994d-fc33ca54ec14</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6903,23 +6870,23 @@
     <row r="128" ht="16.5" customHeight="1">
       <c r="A128" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Excelencia operativa</t>
         </is>
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
+          <t>Habilitación del acelerador de escritura para la serie M cuando se utilizan discos premium (V1)</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6928,21 +6895,12 @@
         </is>
       </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H128" s="15" t="n"/>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>347c2dcc-e6eb-4b04-80c5-628b171aa62d</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6953,23 +6911,23 @@
     <row r="129" ht="16.5" customHeight="1">
       <c r="A129" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>En función de los requisitos existentes, controles normativos y de cumplimiento (internos y externos): determine qué directivas de Azure y el rol de RBAC de Azure son necesarios</t>
+          <t>Pruebe la latencia de la zona de disponibilidad.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6980,19 +6938,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>b96512cf-996f-4b17-b9b8-6b16db1a2a94</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7003,23 +6956,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Al habilitar Microsoft Defender para punto de conexión en el entorno de SAP, se recomienda excluir los archivos de datos y registro en los servidores DBMS en lugar de dirigirse a todos los servidores. Siga las recomendaciones de su proveedor de DBMS al excluir archivos de destino.</t>
+          <t>Active SAP EarlyWatch Alert para todos los componentes de SAP.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7030,19 +6983,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://support.sap.com/en/offerings-programs/support-services/earlywatch-alert.html</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/techops/3362700736.html</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>9fd7ffd4-da11-49f6-a374-8d03e94c511d</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7053,23 +7006,23 @@
     <row r="131" ht="16.5" customHeight="1">
       <c r="A131" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Delegue un rol personalizado de administrador de SAP con acceso Just-In-Time de Microsoft Defender for Cloud.</t>
+          <t>Revise la latencia del servidor de aplicaciones SAP al servidor de bases de datos mediante el informe ABAPMeter de SAP /SSA/CAT.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
       <c r="E131" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7080,19 +7033,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/sap-on-azure-general-update-march-2019/ba-p/377456</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://me.sap.com/notes/0002879613</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b9b140cf-413a-483d-aad2-8802c4e3c017</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7103,23 +7056,23 @@
     <row r="132" ht="16.5" customHeight="1">
       <c r="A132" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>cifre los datos en tránsito integrando el producto de seguridad de terceros con comunicaciones de red seguras (SNC) para DIAG (SAP GUI), RFC y SPNEGO para HTTPS</t>
+          <t>Revise la supervisión del rendimiento de SQL Server mediante CCMS.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7128,21 +7081,12 @@
         </is>
       </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
-        </is>
-      </c>
+      <c r="H132" s="15" t="n"/>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>62fbf0f8-51db-49e1-a961-bb5df7a35f80</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7153,17 +7097,17 @@
     <row r="133" ht="16.5" customHeight="1">
       <c r="A133" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice claves administradas por Microsoft para la funcionalidad de cifrado de entidad de seguridad y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>Pruebe la latencia de red entre las máquinas virtuales de la capa de aplicación de SAP y las máquinas virtuales de DBMS (NIPING).</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7180,19 +7124,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+          <t>https://me.sap.com/notes/500235</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1100926/E</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>35709da7-fc7d-4efe-bb20-2e91547b7390</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7203,23 +7147,23 @@
     <row r="134" ht="16.5" customHeight="1">
       <c r="A134" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Use una instancia de Azure Key Vault por aplicación, por entorno, por región.</t>
+          <t>Revise las alertas de SAP HANA Studio.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7230,19 +7174,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/en-us/azure/sap/large-instances/hana-monitor-troubleshoot</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>9e9bb4c8-e934-4e4b-a13c-6f7c7c38eb43</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7253,23 +7192,23 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Para controlar y administrar claves y secretos de cifrado de disco para sistemas operativos Windows y Windows que no son de HANA, use Azure Key Vault. SAP HANA no es compatible con Azure Key Vault, por lo que debe usar métodos alternativos como SAP ABAP o claves SSH.</t>
+          <t>Realice comprobaciones de estado de SAP HANA mediante HANA_Configuration_Minichecks.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7280,19 +7219,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1969700</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>f1a92ab5-9509-4b57-86ff-b0ade361b694</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7308,12 +7242,12 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Si ejecuta máquinas virtuales Windows y Linux en Azure, en el entorno local o en otros entornos en la nube, puede usar el Centro de administración de actualizaciones de Automatización de Azure para administrar las actualizaciones del sistema operativo, incluidas las revisiones de seguridad.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7330,14 +7264,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7353,18 +7292,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Personalización de los roles de control de acceso basado en rol (RBAC) para SAP en suscripciones de Azure spoke para evitar cambios accidentales relacionados con la red</t>
+          <t>Revise de forma rutinaria las notas de seguridad de SAP OSS, ya que SAP publica parches de seguridad muy críticos, o revisiones, que requieren una acción inmediata para proteger sus sistemas SAP.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7375,19 +7314,19 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7403,18 +7342,18 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Aísle las redes perimetrales y las aplicaciones virtuales de red del resto del patrimonio de SAP, configure Azure Private Link y administre y controle de forma segura los recursos de SAP en Azure</t>
+          <t>En el caso de SAP en SQL Server, puede deshabilitar la cuenta de administrador del sistema de SQL Server porque los sistemas SAP en SQL Server no usan la cuenta. Asegúrese de que otro usuario con derechos de administrador del sistema pueda acceder al servidor antes de deshabilitar la cuenta de administrador del sistema original.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7425,19 +7364,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7453,18 +7387,18 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar el software antimalware de Microsoft en Azure para proteger las máquinas virtuales de archivos malintencionados, adware y otras amenazas.</t>
+          <t>Deshabilite xp_cmdshell. La característica de SQL Server xp_cmdshell habilita un shell de comandos del sistema operativo interno de SQL Server. Es un riesgo potencial en las auditorías de seguridad.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7475,19 +7409,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7503,18 +7437,18 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Para una protección aún más eficaz, considere la posibilidad de usar Microsoft Defender para punto de conexión.</t>
+          <t>El cifrado de servidores de bases de datos de SAP HANA en Azure usa la tecnología de cifrado nativa de SAP HANA. Además, si usa SQL Server en Azure, use el cifrado de datos transparente (TDE) para proteger los datos y los archivos de registro y asegurarse de que las copias de seguridad también están cifradas.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7525,19 +7459,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7553,18 +7487,18 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Aísle los servidores de aplicaciones y bases de datos de SAP de Internet o de la red local pasando todo el tráfico a través de la red virtual del centro de conectividad, que está conectada a la red radial mediante el emparejamiento de red virtual. Las redes virtuales emparejadas garantizan que la solución de SAP en Azure esté aislada de la red pública de Internet.</t>
+          <t>El cifrado de Azure Storage está habilitado para todas las cuentas de Azure Resource Manager y de almacenamiento clásico, y no se puede deshabilitar. Dado que los datos están cifrados de forma predeterminada, no es necesario modificar el código o las aplicaciones para usar el cifrado de Azure Storage.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7575,19 +7509,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7603,18 +7537,18 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las aplicaciones orientadas a Internet, como SAP Fiori, asegúrese de distribuir la carga según los requisitos de la aplicación mientras se mantienen los niveles de seguridad. Para la seguridad de nivel 7, puede usar un firewall de aplicaciones web (WAF) de terceros disponible en Azure Marketplace.</t>
+          <t>Uso de Azure Key Vault para almacenar los secretos y las credenciales</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7625,19 +7559,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7653,12 +7587,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Para habilitar la comunicación segura en las soluciones de Azure Monitor para SAP, puede optar por usar un certificado raíz o un certificado de servidor. Le recomendamos encarecidamente que utilice certificados raíz.</t>
+          <t>Se recomienda bloquear los recursos de Azure después de la implementación correcta para protegerse contra cambios no autorizados. También puede aplicar restricciones y reglas de LOCK por suscripción mediante directivas de Azure personalizadas (rol personalizado).</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7675,19 +7609,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7696,256 +7630,795 @@
       <c r="P143" s="25" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1">
-      <c r="A144" s="21" t="n"/>
-      <c r="B144" s="21" t="n"/>
-      <c r="C144" s="21" t="n"/>
+      <c r="A144" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B144" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C144" s="21" t="inlineStr">
+        <is>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
+        </is>
+      </c>
       <c r="D144" s="21" t="n"/>
-      <c r="E144" s="21" t="n"/>
+      <c r="E144" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G144" s="21" t="n"/>
-      <c r="H144" s="15" t="n"/>
+      <c r="H144" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
-      <c r="L144" s="25" t="n"/>
+      <c r="L144" s="25" t="inlineStr">
+        <is>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+        </is>
+      </c>
       <c r="M144" s="25" t="n"/>
       <c r="N144" s="25" t="n"/>
       <c r="O144" s="25" t="n"/>
       <c r="P144" s="25" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1">
-      <c r="A145" s="21" t="n"/>
-      <c r="B145" s="21" t="n"/>
-      <c r="C145" s="21" t="n"/>
+      <c r="A145" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B145" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C145" s="21" t="inlineStr">
+        <is>
+          <t>En función de los requisitos existentes, controles normativos y de cumplimiento (internos y externos): determine qué directivas de Azure y el rol de RBAC de Azure son necesarios</t>
+        </is>
+      </c>
       <c r="D145" s="21" t="n"/>
-      <c r="E145" s="21" t="n"/>
+      <c r="E145" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G145" s="21" t="n"/>
-      <c r="H145" s="15" t="n"/>
+      <c r="H145" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
-      <c r="L145" s="25" t="n"/>
+      <c r="L145" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M145" s="25" t="n"/>
       <c r="N145" s="25" t="n"/>
       <c r="O145" s="25" t="n"/>
       <c r="P145" s="25" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1">
-      <c r="A146" s="21" t="n"/>
-      <c r="B146" s="21" t="n"/>
-      <c r="C146" s="21" t="n"/>
+      <c r="A146" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B146" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C146" s="21" t="inlineStr">
+        <is>
+          <t>Al habilitar Microsoft Defender para punto de conexión en el entorno de SAP, se recomienda excluir los archivos de datos y registro en los servidores DBMS en lugar de dirigirse a todos los servidores. Siga las recomendaciones de su proveedor de DBMS al excluir archivos de destino.</t>
+        </is>
+      </c>
       <c r="D146" s="21" t="n"/>
-      <c r="E146" s="21" t="n"/>
+      <c r="E146" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G146" s="21" t="n"/>
-      <c r="H146" s="15" t="n"/>
+      <c r="H146" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
-      <c r="L146" s="25" t="n"/>
+      <c r="L146" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M146" s="25" t="n"/>
       <c r="N146" s="25" t="n"/>
       <c r="O146" s="25" t="n"/>
       <c r="P146" s="25" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1">
-      <c r="A147" s="21" t="n"/>
-      <c r="B147" s="21" t="n"/>
-      <c r="C147" s="21" t="n"/>
+      <c r="A147" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B147" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C147" s="21" t="inlineStr">
+        <is>
+          <t>Delegue un rol personalizado de administrador de SAP con acceso Just-In-Time de Microsoft Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D147" s="21" t="n"/>
-      <c r="E147" s="21" t="n"/>
+      <c r="E147" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G147" s="21" t="n"/>
-      <c r="H147" s="15" t="n"/>
+      <c r="H147" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
-      <c r="L147" s="25" t="n"/>
+      <c r="L147" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M147" s="25" t="n"/>
       <c r="N147" s="25" t="n"/>
       <c r="O147" s="25" t="n"/>
       <c r="P147" s="25" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1">
-      <c r="A148" s="21" t="n"/>
-      <c r="B148" s="21" t="n"/>
-      <c r="C148" s="21" t="n"/>
+      <c r="A148" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B148" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C148" s="21" t="inlineStr">
+        <is>
+          <t>cifre los datos en tránsito integrando el producto de seguridad de terceros con comunicaciones de red seguras (SNC) para DIAG (SAP GUI), RFC y SPNEGO para HTTPS</t>
+        </is>
+      </c>
       <c r="D148" s="21" t="n"/>
-      <c r="E148" s="21" t="n"/>
+      <c r="E148" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G148" s="21" t="n"/>
-      <c r="H148" s="15" t="n"/>
+      <c r="H148" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
-      <c r="L148" s="25" t="n"/>
+      <c r="L148" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M148" s="25" t="n"/>
       <c r="N148" s="25" t="n"/>
       <c r="O148" s="25" t="n"/>
       <c r="P148" s="25" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1">
-      <c r="A149" s="21" t="n"/>
-      <c r="B149" s="21" t="n"/>
-      <c r="C149" s="21" t="n"/>
+      <c r="A149" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B149" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C149" s="21" t="inlineStr">
+        <is>
+          <t>De forma predeterminada, utilice claves administradas por Microsoft para la funcionalidad de cifrado de entidad de seguridad y use claves administradas por el cliente cuando sea necesario.</t>
+        </is>
+      </c>
       <c r="D149" s="21" t="n"/>
-      <c r="E149" s="21" t="n"/>
+      <c r="E149" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G149" s="21" t="n"/>
-      <c r="H149" s="15" t="n"/>
+      <c r="H149" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
-      <c r="L149" s="25" t="n"/>
+      <c r="L149" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M149" s="25" t="n"/>
       <c r="N149" s="25" t="n"/>
       <c r="O149" s="25" t="n"/>
       <c r="P149" s="25" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1">
-      <c r="A150" s="21" t="n"/>
-      <c r="B150" s="21" t="n"/>
-      <c r="C150" s="21" t="n"/>
+      <c r="A150" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B150" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C150" s="21" t="inlineStr">
+        <is>
+          <t>Use una instancia de Azure Key Vault por aplicación, por entorno, por región.</t>
+        </is>
+      </c>
       <c r="D150" s="21" t="n"/>
-      <c r="E150" s="21" t="n"/>
+      <c r="E150" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G150" s="21" t="n"/>
-      <c r="H150" s="15" t="n"/>
+      <c r="H150" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
-      <c r="L150" s="25" t="n"/>
+      <c r="L150" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M150" s="25" t="n"/>
       <c r="N150" s="25" t="n"/>
       <c r="O150" s="25" t="n"/>
       <c r="P150" s="25" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1">
-      <c r="A151" s="21" t="n"/>
-      <c r="B151" s="21" t="n"/>
-      <c r="C151" s="21" t="n"/>
+      <c r="A151" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B151" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C151" s="21" t="inlineStr">
+        <is>
+          <t>Para controlar y administrar claves y secretos de cifrado de disco para sistemas operativos Windows y Windows que no son de HANA, use Azure Key Vault. SAP HANA no es compatible con Azure Key Vault, por lo que debe usar métodos alternativos como SAP ABAP o claves SSH.</t>
+        </is>
+      </c>
       <c r="D151" s="21" t="n"/>
-      <c r="E151" s="21" t="n"/>
+      <c r="E151" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G151" s="21" t="n"/>
-      <c r="H151" s="15" t="n"/>
+      <c r="H151" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
-      <c r="L151" s="25" t="n"/>
+      <c r="L151" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M151" s="25" t="n"/>
       <c r="N151" s="25" t="n"/>
       <c r="O151" s="25" t="n"/>
       <c r="P151" s="25" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1">
-      <c r="A152" s="21" t="n"/>
-      <c r="B152" s="21" t="n"/>
-      <c r="C152" s="21" t="n"/>
+      <c r="A152" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B152" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C152" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D152" s="21" t="n"/>
-      <c r="E152" s="21" t="n"/>
+      <c r="E152" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="n"/>
+      <c r="H152" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
-      <c r="L152" s="25" t="n"/>
+      <c r="L152" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M152" s="25" t="n"/>
       <c r="N152" s="25" t="n"/>
       <c r="O152" s="25" t="n"/>
       <c r="P152" s="25" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1">
-      <c r="A153" s="21" t="n"/>
-      <c r="B153" s="21" t="n"/>
-      <c r="C153" s="21" t="n"/>
+      <c r="A153" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B153" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C153" s="21" t="inlineStr">
+        <is>
+          <t>Personalización de los roles de control de acceso basado en rol (RBAC) para SAP en suscripciones de Azure spoke para evitar cambios accidentales relacionados con la red</t>
+        </is>
+      </c>
       <c r="D153" s="21" t="n"/>
-      <c r="E153" s="21" t="n"/>
+      <c r="E153" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
-      <c r="L153" s="25" t="n"/>
+      <c r="L153" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M153" s="25" t="n"/>
       <c r="N153" s="25" t="n"/>
       <c r="O153" s="25" t="n"/>
       <c r="P153" s="25" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1">
-      <c r="A154" s="21" t="n"/>
-      <c r="B154" s="21" t="n"/>
-      <c r="C154" s="21" t="n"/>
+      <c r="A154" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B154" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C154" s="21" t="inlineStr">
+        <is>
+          <t>Aísle las redes perimetrales y las aplicaciones virtuales de red del resto del patrimonio de SAP, configure Azure Private Link y administre y controle de forma segura los recursos de SAP en Azure</t>
+        </is>
+      </c>
       <c r="D154" s="21" t="n"/>
-      <c r="E154" s="21" t="n"/>
+      <c r="E154" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="n"/>
+      <c r="H154" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
-      <c r="L154" s="25" t="n"/>
+      <c r="L154" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M154" s="25" t="n"/>
       <c r="N154" s="25" t="n"/>
       <c r="O154" s="25" t="n"/>
       <c r="P154" s="25" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1">
-      <c r="A155" s="21" t="n"/>
-      <c r="B155" s="21" t="n"/>
-      <c r="C155" s="21" t="n"/>
+      <c r="A155" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B155" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C155" s="21" t="inlineStr">
+        <is>
+          <t>Considere la posibilidad de usar el software antimalware de Microsoft en Azure para proteger las máquinas virtuales de archivos malintencionados, adware y otras amenazas.</t>
+        </is>
+      </c>
       <c r="D155" s="21" t="n"/>
-      <c r="E155" s="21" t="n"/>
+      <c r="E155" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G155" s="21" t="n"/>
-      <c r="H155" s="15" t="n"/>
+      <c r="H155" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
-      <c r="L155" s="25" t="n"/>
+      <c r="L155" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M155" s="25" t="n"/>
       <c r="N155" s="25" t="n"/>
       <c r="O155" s="25" t="n"/>
       <c r="P155" s="25" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1">
-      <c r="A156" s="21" t="n"/>
-      <c r="B156" s="21" t="n"/>
-      <c r="C156" s="21" t="n"/>
+      <c r="A156" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B156" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C156" s="21" t="inlineStr">
+        <is>
+          <t>Para una protección aún más eficaz, considere la posibilidad de usar Microsoft Defender para punto de conexión.</t>
+        </is>
+      </c>
       <c r="D156" s="21" t="n"/>
-      <c r="E156" s="21" t="n"/>
+      <c r="E156" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="n"/>
+      <c r="H156" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
-      <c r="L156" s="25" t="n"/>
+      <c r="L156" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M156" s="25" t="n"/>
       <c r="N156" s="25" t="n"/>
       <c r="O156" s="25" t="n"/>
       <c r="P156" s="25" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1">
-      <c r="A157" s="21" t="n"/>
-      <c r="B157" s="21" t="n"/>
-      <c r="C157" s="21" t="n"/>
+      <c r="A157" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B157" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C157" s="21" t="inlineStr">
+        <is>
+          <t>Aísle los servidores de aplicaciones y bases de datos de SAP de Internet o de la red local pasando todo el tráfico a través de la red virtual del centro de conectividad, que está conectada a la red radial mediante el emparejamiento de red virtual. Las redes virtuales emparejadas garantizan que la solución de SAP en Azure esté aislada de la red pública de Internet.</t>
+        </is>
+      </c>
       <c r="D157" s="21" t="n"/>
-      <c r="E157" s="21" t="n"/>
+      <c r="E157" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G157" s="21" t="n"/>
-      <c r="H157" s="15" t="n"/>
+      <c r="H157" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
-      <c r="L157" s="25" t="n"/>
+      <c r="L157" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M157" s="25" t="n"/>
       <c r="N157" s="25" t="n"/>
       <c r="O157" s="25" t="n"/>
       <c r="P157" s="25" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="21" t="n"/>
-      <c r="B158" s="21" t="n"/>
-      <c r="C158" s="21" t="n"/>
+      <c r="A158" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B158" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C158" s="21" t="inlineStr">
+        <is>
+          <t>En el caso de las aplicaciones orientadas a Internet, como SAP Fiori, asegúrese de distribuir la carga según los requisitos de la aplicación mientras se mantienen los niveles de seguridad. Para la seguridad de nivel 7, puede usar un firewall de aplicaciones web (WAF) de terceros disponible en Azure Marketplace.</t>
+        </is>
+      </c>
       <c r="D158" s="21" t="n"/>
-      <c r="E158" s="21" t="n"/>
+      <c r="E158" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="n"/>
+      <c r="H158" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="25" t="n"/>
+      <c r="L158" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M158" s="25" t="n"/>
       <c r="N158" s="25" t="n"/>
       <c r="O158" s="25" t="n"/>
       <c r="P158" s="25" t="n"/>
     </row>
     <row r="159" ht="16.5" customHeight="1">
-      <c r="A159" s="21" t="n"/>
-      <c r="B159" s="21" t="n"/>
-      <c r="C159" s="21" t="n"/>
+      <c r="A159" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B159" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C159" s="21" t="inlineStr">
+        <is>
+          <t>Para habilitar la comunicación segura en las soluciones de Azure Monitor para SAP, puede optar por usar un certificado raíz o un certificado de servidor. Le recomendamos encarecidamente que utilice certificados raíz.</t>
+        </is>
+      </c>
       <c r="D159" s="21" t="n"/>
-      <c r="E159" s="21" t="n"/>
+      <c r="E159" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G159" s="21" t="n"/>
-      <c r="H159" s="15" t="n"/>
+      <c r="H159" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
-      <c r="L159" s="25" t="n"/>
+      <c r="L159" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M159" s="25" t="n"/>
       <c r="N159" s="25" t="n"/>
       <c r="O159" s="25" t="n"/>
@@ -10176,7 +10649,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F144" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F160" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.es.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.es.xlsx
@@ -1712,7 +1712,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
@@ -2852,23 +2852,23 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Optimización de costos</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Aplicación de un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
+          <t>En el caso de usar Azure Premium Storage con SAP HANA, se puede usar el almacenamiento SSD estándar de Azure para seleccionar una solución de almacenamiento rentable. Sin embargo, tenga en cuenta que la elección de SSD estándar o almacenamiento de Azure HDD estándar afectará al Acuerdo de Nivel de Servicio de las máquinas virtuales individuales. Además, para sistemas con menor rendimiento de E/S y baja latencia, como entornos que no son de producción, se pueden usar máquinas virtuales de series inferiores.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2879,19 +2879,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>71dc00cd-4392-4262-8949-20c05e6c0333</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2902,23 +2897,23 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Optimización de costos</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Aplicación de la propagación del principio para reenviar la identidad de la aplicación en la nube de SAP a SAP local (incluida IaaS) a través del conector en la nube</t>
+          <t>Como configuración alternativa de menor costo (multipropósito), puede elegir una SKU de bajo rendimiento para las máquinas virtuales del servidor de base de datos de HANA que no son de producción. Sin embargo, es importante tener en cuenta que algunos tipos de máquinas virtuales, como la serie E, no están certificadas para HANA (directorio de hardware de SAP HANA) o no pueden alcanzar una latencia de almacenamiento inferior a 1 ms.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2929,19 +2924,15 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I46" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>9877f353-2591-4e8b-8381-e9043fed1010</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2962,13 +2953,13 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO en aplicaciones SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics y SAP C4C con Azure AD mediante SAML.</t>
+          <t>Aplicación de un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2979,15 +2970,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I47" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+        </is>
+      </c>
+      <c r="I47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3008,7 +3003,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI mediante SAML.</t>
+          <t>Aplicación de la propagación de la entidad de seguridad para reenviar la identidad de la aplicación en la nube de SAP a SAP local (incluida IaaS) a través del conector en la nube</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3025,19 +3020,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3058,7 +3053,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI mediante SAML.</t>
+          <t>Implemente SSO en aplicaciones SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics y SAP C4C con Azure AD mediante SAML.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3073,17 +3068,16 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3104,7 +3098,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Puede implementar SSO en la GUI de SAP mediante SAP NetWeaver SSO o una solución de partner.</t>
+          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI mediante SAML.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3133,7 +3127,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3154,7 +3148,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere el servidor de inicio de sesión seguro de SAP, que es un componente de la solución SSO de SAP.</t>
+          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI mediante SAML.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3172,14 +3166,14 @@
       <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3200,7 +3194,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere el servidor de inicio de sesión seguro de SAP, que es un componente de la solución SSO de SAP.</t>
+          <t>Puede implementar SSO en la GUI de SAP mediante SAP NetWeaver SSO o una solución de partner.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3217,15 +3211,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3246,7 +3244,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Implemente el inicio de sesión único mediante OAuth para SAP NetWeaver a fin de permitir que aplicaciones personalizadas o de terceros accedan a los servicios OData de SAP NetWeaver.</t>
+          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere el servidor de inicio de sesión seguro de SAP, que es un componente de la solución SSO de SAP.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3261,16 +3259,17 @@
         </is>
       </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+      <c r="H53" s="15" t="n"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3291,7 +3290,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Implementación de SSO en SAP HANA</t>
+          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere el servidor de inicio de sesión seguro de SAP, que es un componente de la solución SSO de SAP.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3308,7 +3307,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3316,7 +3315,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3337,7 +3336,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Considere Azure AD como un proveedor de identidades para sistemas SAP hospedados en RISE. Para obtener más información, consulte Integración del servicio con Azure AD.</t>
+          <t>Implemente el inicio de sesión único mediante OAuth para SAP NetWeaver a fin de permitir que aplicaciones personalizadas o de terceros accedan a los servicios OData de SAP NetWeaver.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3354,14 +3353,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3382,7 +3381,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las aplicaciones que acceden a SAP, es posible que desee utilizar la propagación de entidades de seguridad para establecer el inicio de sesión único.</t>
+          <t>Implementación de SSO en SAP HANA</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3399,14 +3398,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3427,7 +3426,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Si usa servicios BTP de SAP o soluciones SaaS que requieren SAP Identity Authentication Service (IAS), considere la posibilidad de implementar SSO entre SAP Cloud Identity Authentication Services y Azure AD para acceder a esos servicios de SAP. Esta integración permite a SAP IAS actuar como proveedor de identidades de proxy y reenvía las solicitudes de autenticación a Azure AD como almacén de usuarios central y proveedor de identidades.</t>
+          <t>Considere Azure AD como un proveedor de identidades para sistemas SAP hospedados en RISE. Para obtener más información, consulte Integración del servicio con Azure AD.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3444,14 +3443,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3472,7 +3471,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Implementación de SSO en SAP BTP</t>
+          <t>En el caso de las aplicaciones que acceden a SAP, es posible que desee utilizar la propagación de entidades de seguridad para establecer el inicio de sesión único.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3489,14 +3488,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3517,7 +3516,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Si usa SAP SuccessFactors, considere la posibilidad de usar el aprovisionamiento automatizado de usuarios de Azure AD. Con esta integración, a medida que agrega nuevos empleados a SAP SuccessFactors, puede crear automáticamente sus cuentas de usuario en Azure AD. Opcionalmente, puede crear cuentas de usuario en Microsoft 365 u otras aplicaciones SaaS compatibles con Azure AD. Utilice la escritura diferida de la dirección de correo electrónico en SAP SuccessFactors.</t>
+          <t>Si usa servicios BTP de SAP o soluciones SaaS que requieren SAP Identity Authentication Service (IAS), considere la posibilidad de implementar SSO entre SAP Cloud Identity Authentication Services y Azure AD para acceder a esos servicios de SAP. Esta integración permite a SAP IAS actuar como proveedor de identidades de proxy y reenvía las solicitudes de autenticación a Azure AD como almacén de usuarios central y proveedor de identidades.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3534,14 +3533,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3552,17 +3551,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>aplicar las directivas de grupo de administración existentes a las suscripciones de SAP</t>
+          <t>Implementación de SSO en SAP BTP</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3579,19 +3578,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3602,23 +3596,23 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Integre aplicaciones estrechamente acopladas en la misma suscripción de SAP para evitar una complejidad adicional de enrutamiento y administración</t>
+          <t>Si usa SAP SuccessFactors, considere la posibilidad de usar el aprovisionamiento automatizado de usuarios de Azure AD. Con esta integración, a medida que agrega nuevos empleados a SAP SuccessFactors, puede crear automáticamente sus cuentas de usuario en Azure AD. Opcionalmente, puede crear cuentas de usuario en Microsoft 365 u otras aplicaciones SaaS compatibles con Azure AD. Utilice la escritura diferida de la dirección de correo electrónico en SAP SuccessFactors.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3629,19 +3623,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3662,13 +3651,13 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aprovechar la suscripción como unidad de escalado y escalar nuestros recursos, considere implementar la suscripción por entorno, por ejemplo. Sandbox, no-prod, prod </t>
+          <t>aplicar las directivas de grupo de administración existentes a las suscripciones de SAP</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3679,19 +3668,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3712,7 +3701,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Garantizar el aumento de la cuota como parte del aprovisionamiento de suscripciones (por ejemplo, el total de núcleos de máquina virtual disponibles dentro de una suscripción)</t>
+          <t>Integre aplicaciones estrechamente acopladas en la misma suscripción de SAP para evitar una complejidad adicional de enrutamiento y administración</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3729,19 +3718,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3762,13 +3751,13 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>La API de cuota es una API de REST que se puede usar para ver y administrar las cuotas de los servicios de Azure. Considere usarlo si es necesario.</t>
+          <t xml:space="preserve">Aprovechar la suscripción como unidad de escalado y escalar nuestros recursos, considere implementar la suscripción por entorno, por ejemplo. Sandbox, no-prod, prod </t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3779,15 +3768,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3808,7 +3801,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Si realiza la implementación en una zona de disponibilidad, asegúrese de que la implementación de la zona de la máquina virtual esté disponible una vez que se haya aprobado la cuota. Envíe una solicitud de soporte técnico con la suscripción, la serie de máquinas virtuales, el número de CPU y la zona de disponibilidad necesarias.</t>
+          <t>Garantizar el aumento de la cuota como parte del aprovisionamiento de suscripciones (por ejemplo, el total de núcleos de máquina virtual disponibles dentro de una suscripción)</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3825,15 +3818,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3854,13 +3851,13 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios y funciones requeridos estén disponibles dentro de las regiones de implementación elegidas, por ejemplo. ANF, Zona, etc.</t>
+          <t>La API de cuota es una API de REST que se puede usar para ver y administrar las cuotas de los servicios de Azure. Considere usarlo si es necesario.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3871,19 +3868,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3904,13 +3896,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la etiqueta de recurso de Azure para la categorización de costos y la agrupación de recursos (facturación, departamento (o unidad de negocio), entorno (producción, fase, desarrollo), nivel (nivel web, nivel de aplicación), propietario de la aplicación, ProjectName)</t>
+          <t>Si realiza la implementación en una zona de disponibilidad, asegúrese de que la implementación de la zona de la máquina virtual esté disponible una vez que se haya aprobado la cuota. Envíe una solicitud de soporte técnico con la suscripción, la serie de máquinas virtuales, el número de CPU y la zona de disponibilidad necesarias.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3921,19 +3913,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3944,17 +3932,17 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Ayude a proteger la base de datos de HANA mediante el servicio Azure Backup.</t>
+          <t>Asegúrese de que los servicios y funciones requeridos estén disponibles dentro de las regiones de implementación elegidas, por ejemplo. ANF, Zona, etc.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3971,19 +3959,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3994,17 +3982,17 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Si implementa Azure NetApp Files para la base de datos HANA, Oracle o DB2, use la herramienta Azure Application Consistent Snapshot (AzAcSnap) para tomar instantáneas coherentes con la aplicación. AzAcSnap también es compatible con las bases de datos de Oracle. Considere la posibilidad de usar AzAcSnap en una máquina virtual central en lugar de en máquinas virtuales individuales.</t>
+          <t>Aproveche la etiqueta de recurso de Azure para la categorización de costos y la agrupación de recursos (facturación, departamento (o unidad de negocio), entorno (producción, fase, desarrollo), nivel (nivel web, nivel de aplicación), propietario de la aplicación, ProjectName)</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -4021,15 +4009,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4045,12 +4037,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la zona horaria coincida entre el sistema operativo y el sistema SAP.</t>
+          <t>Ayude a proteger la base de datos de HANA mediante el servicio Azure Backup.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4067,15 +4059,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4091,12 +4087,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>No agrupe diferentes servicios de aplicaciones en el mismo clúster. Por ejemplo, no combine DRBD y clústeres de servicios centrales en el mismo clúster. Sin embargo, puede usar el mismo clúster de Pacemaker para administrar aproximadamente cinco servicios centrales diferentes (clúster de varios SID).</t>
+          <t>Si implementa Azure NetApp Files para la base de datos HANA, Oracle o DB2, use la herramienta Azure Application Consistent Snapshot (AzAcSnap) para tomar instantáneas coherentes con la aplicación. AzAcSnap también es compatible con las bases de datos de Oracle. Considere la posibilidad de usar AzAcSnap en una máquina virtual central en lugar de en máquinas virtuales individuales.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4113,19 +4109,15 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4146,13 +4138,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de ejecutar sistemas de desarrollo y pruebas en un modelo de repetición para ahorrar y optimizar los costos de ejecución de Azure.</t>
+          <t>Asegúrese de que la zona horaria coincida entre el sistema operativo y el sistema SAP.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4163,7 +4155,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4171,7 +4163,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4192,7 +4184,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Si se asocia con los clientes mediante la administración de sus propiedades de SAP, considere la posibilidad de usar Azure Lighthouse. Azure Lighthouse permite a los proveedores de servicios administrados usar los servicios de identidad nativos de Azure para autenticarse en el entorno de los clientes. Pone el control en manos de los clientes, ya que pueden revocar el acceso en cualquier momento y auditar las acciones de los proveedores de servicios.</t>
+          <t>No agrupe diferentes servicios de aplicaciones en el mismo clúster. Por ejemplo, no combine DRBD y clústeres de servicios centrales en el mismo clúster. Sin embargo, puede usar el mismo clúster de Pacemaker para administrar aproximadamente cinco servicios centrales diferentes (clúster de varios SID).</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4209,15 +4201,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4238,13 +4234,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Update Manager para comprobar el estado de las actualizaciones disponibles para una sola máquina virtual o varias máquinas virtuales y considere la posibilidad de programar revisiones periódicas.</t>
+          <t>Considere la posibilidad de ejecutar sistemas de desarrollo y pruebas en un modelo de repetición para ahorrar y optimizar los costos de ejecución de Azure.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4255,19 +4251,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4288,13 +4280,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Optimice y gestione las operaciones de SAP Basis mediante SAP Landscape Management (LaMa). Use el conector de SAP LaMa para Azure para reubicar, copiar, clonar y actualizar sistemas SAP.</t>
+          <t>Si se asocia con los clientes mediante la administración de sus propiedades de SAP, considere la posibilidad de usar Azure Lighthouse. Azure Lighthouse permite a los proveedores de servicios administrados usar los servicios de identidad nativos de Azure para autenticarse en el entorno de los clientes. Pone el control en manos de los clientes, ya que pueden revocar el acceso en cualquier momento y auditar las acciones de los proveedores de servicios.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4305,19 +4297,15 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4333,12 +4321,12 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor para soluciones SAP para supervisar las cargas de trabajo de SAP (SAP HANA, clústeres de SUSE de alta disponibilidad y sistemas SQL) en Azure. Considere la posibilidad de complementar las soluciones de Azure Monitor para SAP con SAP Solution Manager.</t>
+          <t>Use Azure Update Manager para comprobar el estado de las actualizaciones disponibles para una sola máquina virtual o varias máquinas virtuales y considere la posibilidad de programar revisiones periódicas.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4355,19 +4343,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4383,18 +4371,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Ejecute una comprobación de extensión de máquina virtual para SAP. VM Extension for SAP usa la identidad administrada asignada de una máquina virtual (VM) para acceder a los datos de configuración y supervisión de VM. La comprobación garantiza que todas las métricas de rendimiento de la aplicación SAP proceden de la extensión de Azure para SAP subyacente.</t>
+          <t>Optimice y gestione las operaciones de SAP Basis mediante SAP Landscape Management (LaMa). Use el conector de SAP LaMa para Azure para reubicar, copiar, clonar y actualizar sistemas SAP.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4405,19 +4393,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4438,7 +4426,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
+          <t>Use Azure Monitor para soluciones SAP para supervisar las cargas de trabajo de SAP (SAP HANA, clústeres de SUSE de alta disponibilidad y sistemas SQL) en Azure. Considere la posibilidad de complementar las soluciones de Azure Monitor para SAP con SAP Solution Manager.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4455,19 +4443,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4488,13 +4476,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Use el Monitor de conexión en Azure Network Watcher para supervisar las métricas de latencia de las bases de datos y los servidores de aplicaciones de SAP. O bien, recopile y muestre medidas de latencia de red mediante Azure Monitor.</t>
+          <t>Ejecute una comprobación de extensión de máquina virtual para SAP. VM Extension for SAP usa la identidad administrada asignada de una máquina virtual (VM) para acceder a los datos de configuración y supervisión de VM. La comprobación garantiza que todas las métricas de rendimiento de la aplicación SAP proceden de la extensión de Azure para SAP subyacente.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4505,19 +4493,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4538,13 +4526,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones SAP.</t>
+          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4555,19 +4543,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4588,7 +4576,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Realice una comprobación de calidad de SAP HANA en la infraestructura de Azure aprovisionada para comprobar que las máquinas virtuales aprovisionadas cumplen con los procedimientos recomendados de SAP HANA en Azure.</t>
+          <t>Use el Monitor de conexión en Azure Network Watcher para supervisar las métricas de latencia de las bases de datos y los servidores de aplicaciones de SAP. O bien, recopile y muestre medidas de latencia de red mediante Azure Monitor.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4605,15 +4593,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4634,13 +4626,13 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Para cada suscripción de Azure, ejecute una prueba de latencia en las zonas de disponibilidad de Azure antes de la implementación zonal para elegir zonas de baja latencia para la implementación de SAP en Azure.</t>
+          <t>Realice una comprobación de calidad de SAP HANA en la infraestructura de Azure aprovisionada para comprobar que las máquinas virtuales aprovisionadas cumplen con los procedimientos recomendados de SAP HANA en Azure.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4651,19 +4643,15 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="inlineStr">
-        <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4684,13 +4672,13 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Ejecute el informe de resistencia para asegurarse de que la configuración de toda la infraestructura de Azure aprovisionada (proceso, base de datos, redes, almacenamiento, Site Recovery) cumple con la configuración definida por Cloud Adaption Framework para Azure.</t>
+          <t>Para cada suscripción de Azure, ejecute una prueba de latencia en las zonas de disponibilidad de Azure antes de la implementación zonal para elegir zonas de baja latencia para la implementación de SAP en Azure.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4701,19 +4689,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4734,7 +4722,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Implemente la protección contra amenazas mediante la solución Microsoft Sentinel para SAP. Utilice esta solución para supervisar sus sistemas SAP y detectar amenazas sofisticadas en toda la lógica empresarial y las capas de aplicación.</t>
+          <t>Ejecute el informe de resistencia para asegurarse de que la configuración de toda la infraestructura de Azure aprovisionada (proceso, base de datos, redes, almacenamiento, Site Recovery) cumple con la configuración definida por Cloud Adaption Framework para Azure.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4751,19 +4739,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4784,7 +4772,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>El etiquetado de Azure se puede aprovechar para agrupar y realizar un seguimiento lógico de los recursos, automatizar sus implementaciones y, lo que es más importante, proporcionar visibilidad de los costos incurridos.</t>
+          <t>Implemente la protección contra amenazas mediante la solución Microsoft Sentinel para SAP. Utilice esta solución para supervisar sus sistemas SAP y detectar amenazas sofisticadas en toda la lógica empresarial y las capas de aplicación.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4801,19 +4789,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4829,18 +4817,18 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Use la supervisión de latencia entre máquinas virtuales para aplicaciones sensibles a la latencia.</t>
+          <t>El etiquetado de Azure se puede aprovechar para agrupar y realizar un seguimiento lógico de los recursos, automatizar sus implementaciones y, lo que es más importante, proporcionar visibilidad de los costos incurridos.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4851,15 +4839,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4880,13 +4872,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones SAP.</t>
+          <t>Use la supervisión de latencia entre máquinas virtuales para aplicaciones sensibles a la latencia.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4897,19 +4889,15 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
-        </is>
-      </c>
-      <c r="I87" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+        </is>
+      </c>
+      <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4930,7 +4918,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Excluya todos los sistemas de archivos de bases de datos y programas ejecutables de los análisis antivirus. Incluirlos podría dar lugar a problemas de rendimiento. Consulte con los proveedores de bases de datos para obtener detalles prescriptivos sobre la lista de exclusión. Por ejemplo, Oracle recomienda excluir /oracle/&lt;sid&gt;/sapdata de los análisis antivirus.</t>
+          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones SAP.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4947,15 +4935,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I88" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+        </is>
+      </c>
+      <c r="I88" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4976,13 +4968,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de recopilar estadísticas de base de datos completas para bases de datos que no son de HANA después de la migración. Por ejemplo, implemente la nota de SAP 1020260 - Entrega de estadísticas de Oracle.</t>
+          <t>Excluya todos los sistemas de archivos de bases de datos y programas ejecutables de los análisis antivirus. Incluirlos podría dar lugar a problemas de rendimiento. Consulte con los proveedores de bases de datos para obtener detalles prescriptivos sobre la lista de exclusión. Por ejemplo, Oracle recomienda excluir /oracle/&lt;sid&gt;/sapdata de los análisis antivirus.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4993,7 +4985,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
         </is>
       </c>
       <c r="I89" s="15" t="n"/>
@@ -5001,7 +4993,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5022,13 +5014,13 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Oracle Automatic Storage Management (ASM) para todas las implementaciones de Oracle que usan SAP en Azure.</t>
+          <t>Considere la posibilidad de recopilar estadísticas de base de datos completas para bases de datos que no son de HANA después de la migración. Por ejemplo, implemente la nota de SAP 1020260 - Entrega de estadísticas de Oracle.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5039,19 +5031,15 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5072,7 +5060,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>En el caso de SAP en Azure que ejecuta Oracle, una colección de scripts SQL puede ayudarle a diagnosticar problemas de rendimiento.  Los informes de repositorio automático de cargas de trabajo (AWR) contienen información valiosa para diagnosticar problemas en el sistema Oracle. Le recomendamos que ejecute un informe de AWR durante varias sesiones y elija las horas punta para él, a fin de garantizar una amplia cobertura del análisis.</t>
+          <t>Considere la posibilidad de usar Oracle Automatic Storage Management (ASM) para todas las implementaciones de Oracle que usan SAP en Azure.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5089,19 +5077,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5112,17 +5100,17 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Para la entrega segura de aplicaciones HTTP/S, use Application Gateway v2 y asegúrese de que la protección y las directivas de WAF están habilitadas.</t>
+          <t>En el caso de SAP en Azure que ejecuta Oracle, una colección de scripts SQL puede ayudarle a diagnosticar problemas de rendimiento.  Los informes de repositorio automático de cargas de trabajo (AWR) contienen información valiosa para diagnosticar problemas en el sistema Oracle. Le recomendamos que ejecute un informe de AWR durante varias sesiones y elija las horas punta para él, a fin de garantizar una amplia cobertura del análisis.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5139,19 +5127,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5162,23 +5150,23 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Si el DNS o el nombre virtual de la máquina virtual no se cambia durante la migración a Azure, el DNS en segundo plano y los nombres virtuales conectan muchas interfaces del sistema en el entorno de SAP, y los clientes solo conocen a veces las interfaces que los desarrolladores definen a lo largo del tiempo. Los desafíos de conexión surgen entre varios sistemas cuando los nombres virtuales o DNS cambian después de las migraciones, y se recomienda conservar los alias DNS para evitar este tipo de dificultades.</t>
+          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones SAP.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5189,19 +5177,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5217,12 +5205,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Utilice diferentes zonas DNS para distinguir cada entorno (espacio aislado, desarrollo, preproducción y producción) entre sí. La excepción es para las implementaciones de SAP con su propia red virtual; en este caso, es posible que las zonas DNS privadas no sean necesarias.</t>
+          <t>Para la entrega segura de aplicaciones HTTP/S, use Application Gateway v2 y asegúrese de que la protección y las directivas de WAF están habilitadas.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5239,19 +5227,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5267,12 +5255,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>El emparejamiento de red virtual local y global proporciona conectividad y son los enfoques preferidos para garantizar la conectividad entre las zonas de aterrizaje para las implementaciones de SAP en varias regiones de Azure</t>
+          <t>Si el DNS o el nombre virtual de la máquina virtual no se cambia durante la migración a Azure, el DNS en segundo plano y los nombres virtuales conectan muchas interfaces del sistema en el entorno de SAP, y los clientes solo conocen a veces las interfaces que los desarrolladores definen a lo largo del tiempo. Los desafíos de conexión surgen entre varios sistemas cuando los nombres virtuales o DNS cambian después de las migraciones, y se recomienda conservar los alias DNS para evitar este tipo de dificultades.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5289,19 +5277,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5317,18 +5305,18 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>No se admite la implementación de ninguna aplicación virtual de red entre la aplicación SAP y el servidor de base de datos SAP</t>
+          <t>Utilice diferentes zonas DNS para distinguir cada entorno (espacio aislado, desarrollo, preproducción y producción) entre sí. La excepción es para las implementaciones de SAP con su propia red virtual; en este caso, es posible que las zonas DNS privadas no sean necesarias.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5339,19 +5327,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2731110</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5372,7 +5360,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Use Virtual WAN para implementaciones de Azure en redes nuevas, grandes o globales en las que necesite conectividad de tránsito global entre regiones de Azure y ubicaciones locales. Con este enfoque, no tendrá que configurar manualmente el enrutamiento transitivo para las redes de Azure y puede seguir un estándar para las implementaciones de SAP en Azure.</t>
+          <t>El emparejamiento de red virtual local y global proporciona conectividad y son los enfoques preferidos para garantizar la conectividad entre las zonas de aterrizaje para las implementaciones de SAP en varias regiones de Azure</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5389,19 +5377,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5422,13 +5410,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de implementar aplicaciones virtuales de red (NVA) entre regiones solo si se usan aplicaciones virtuales de red de asociados. Las aplicaciones virtuales de red entre regiones o redes virtuales no son necesarias si hay aplicaciones virtuales de red nativas. Al implementar tecnologías de redes de asociados y aplicaciones virtuales de red, siga las instrucciones del proveedor para comprobar las configuraciones conflictivas con las redes de Azure.</t>
+          <t>No se admite la implementación de ninguna aplicación virtual de red entre la aplicación SAP y el servidor de base de datos SAP</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5439,19 +5427,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5472,7 +5460,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN administra la conectividad entre redes virtuales de radio para topologías basadas en WAN virtuales (sin necesidad de configurar el enrutamiento definido por el usuario [UDR] o NVA), y el rendimiento máximo de red para el tráfico de red virtual a red virtual en el mismo centro virtual es de 50 gigabits por segundo. Si es necesario, las zonas de aterrizaje de SAP pueden usar el emparejamiento de red virtual para conectarse a otras zonas de aterrizaje y superar esta limitación de ancho de banda.</t>
+          <t>Use Virtual WAN para implementaciones de Azure en redes nuevas, grandes o globales en las que necesite conectividad de tránsito global entre regiones de Azure y ubicaciones locales. Con este enfoque, no tendrá que configurar manualmente el enrutamiento transitivo para las redes de Azure y puede seguir un estándar para las implementaciones de SAP en Azure.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5489,19 +5477,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5517,18 +5505,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>No se recomienda la asignación de I.P pública a la máquina virtual que ejecuta SAP Workload.</t>
+          <t>Considere la posibilidad de implementar aplicaciones virtuales de red (NVA) entre regiones solo si se usan aplicaciones virtuales de red de asociados. Las aplicaciones virtuales de red entre regiones o redes virtuales no son necesarias si hay aplicaciones virtuales de red nativas. Al implementar tecnologías de redes de asociados y aplicaciones virtuales de red, siga las instrucciones del proveedor para comprobar las configuraciones conflictivas con las redes de Azure.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5539,19 +5527,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5567,18 +5555,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de reservar la dirección I.P en el lado de la recuperación ante desastres al configurar ASR</t>
+          <t>Virtual WAN administra la conectividad entre redes virtuales de radio para topologías basadas en WAN virtuales (sin necesidad de configurar el enrutamiento definido por el usuario [UDR] o NVA), y el rendimiento máximo de red para el tráfico de red virtual a red virtual en el mismo centro virtual es de 50 gigabits por segundo. Si es necesario, las zonas de aterrizaje de SAP pueden usar el emparejamiento de red virtual para conectarse a otras zonas de aterrizaje y superar esta limitación de ancho de banda.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5589,19 +5577,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5622,7 +5610,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Evite el uso de intervalos de direcciones IP superpuestos para los sitios de producción y recuperación ante desastres.</t>
+          <t>No se recomienda la asignación de direcciones IP públicas a la máquina virtual que ejecuta SAP Workload.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5651,7 +5639,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5672,13 +5660,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Aunque Azure le ayuda a crear varias subredes delegadas en una red virtual, solo puede existir una subred delegada en una red virtual para Azure NetApp Files. Se producirá un error al intentar crear un nuevo volumen si se utiliza más de una subred delegada para Azure NetApp Files.</t>
+          <t>Considere la posibilidad de reservar la dirección IP en el lado de la recuperación ante desastres al configurar ASR</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5689,19 +5677,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5717,18 +5705,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Evite el uso de intervalos de direcciones IP superpuestos para los sitios de producción y recuperación ante desastres.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5739,19 +5727,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5767,12 +5755,12 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway y Web Application Firewall tienen limitaciones cuando Application Gateway actúa como proxy inverso para aplicaciones web de SAP, como se muestra en la comparación entre Application Gateway, SAP Web Dispatcher y otros servicios de terceros.</t>
+          <t>Aunque Azure le ayuda a crear varias subredes delegadas en una red virtual, solo puede existir una subred delegada en una red virtual para Azure NetApp Files. Se producirá un error al intentar crear un nuevo volumen si se utiliza más de una subred delegada para Azure NetApp Files.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5789,19 +5777,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5822,7 +5810,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5839,19 +5827,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5872,7 +5860,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Aproveche las directivas de Web Application Firewall en Azure Front Door cuando use Azure Front Door y Application Gateway para proteger las aplicaciones HTTP/S. Bloquee Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Application Gateway y Web Application Firewall tienen limitaciones cuando Application Gateway actúa como proxy inverso para aplicaciones web de SAP, como se muestra en la comparación entre Application Gateway, SAP Web Dispatcher y otros servicios de terceros.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5889,19 +5877,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5922,7 +5910,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Utilice un firewall de aplicaciones web para analizar su tráfico cuando esté expuesto a Internet. Otra opción es usarlo con el equilibrador de carga o con recursos que tengan funcionalidades de firewall integradas, como Application Gateway o soluciones de terceros.</t>
+          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5944,14 +5932,14 @@
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5972,7 +5960,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Use Virtual WAN para implementaciones de Azure en redes nuevas, grandes o globales en las que necesite conectividad de tránsito global entre regiones de Azure y ubicaciones locales. Con este enfoque, no tendrá que configurar manualmente el enrutamiento transitivo para las redes de Azure y puede seguir un estándar para las implementaciones de SAP en Azure.</t>
+          <t>Aproveche las directivas de Web Application Firewall en Azure Front Door cuando use Azure Front Door y Application Gateway para proteger las aplicaciones HTTP/S. Bloquee Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5989,19 +5977,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6022,7 +6010,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Para evitar la pérdida de datos, use Azure Private Link para acceder de forma segura a los recursos de plataforma como servicio, como Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, etc. El punto de conexión privado de Azure también puede ayudar a proteger el tráfico entre redes virtuales y servicios como Azure Storage, Azure Backup, etc. El tráfico entre la red virtual y el servicio habilitado para punto de conexión privado viaja a través de la red global de Microsoft, lo que impide su exposición a la red pública de Internet.</t>
+          <t>Utilice un firewall de aplicaciones web para analizar su tráfico cuando esté expuesto a Internet. Otra opción es usarlo con el equilibrador de carga o con recursos que tengan funcionalidades de firewall integradas, como Application Gateway o soluciones de terceros.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6039,19 +6027,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6067,18 +6055,18 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las redes aceleradas de Azure están habilitadas en las máquinas virtuales que se usan en las capas de aplicación SAP y DBMS.</t>
+          <t>Use Virtual WAN para implementaciones de Azure en redes nuevas, grandes o globales en las que necesite conectividad de tránsito global entre regiones de Azure y ubicaciones locales. Con este enfoque, no tendrá que configurar manualmente el enrutamiento transitivo para las redes de Azure y puede seguir un estándar para las implementaciones de SAP en Azure.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6089,19 +6077,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6117,12 +6105,12 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones internas de Azure Load Balancer están configuradas para usar Direct Server Return (DSR). Esta configuración reducirá la latencia cuando se utilicen configuraciones internas del equilibrador de carga para configuraciones de alta disponibilidad en la capa DBMS.</t>
+          <t>Para evitar la pérdida de datos, use Azure Private Link para acceder de forma segura a los recursos de plataforma como servicio, como Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, etc. El punto de conexión privado de Azure también puede ayudar a proteger el tráfico entre redes virtuales y servicios como Azure Storage, Azure Backup, etc. El tráfico entre la red virtual y el servicio habilitado para punto de conexión privado viaja a través de la red global de Microsoft, lo que impide su exposición a la red pública de Internet.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6139,19 +6127,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6172,13 +6160,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Puede usar reglas de grupo de seguridad de aplicaciones (ASG) y NSG para definir listas de control de acceso de seguridad de red entre la aplicación SAP y las capas DBMS. Los ASG agrupan las máquinas virtuales para ayudar a administrar su seguridad.</t>
+          <t>Asegúrese de que las redes aceleradas de Azure están habilitadas en las máquinas virtuales que se usan en las capas de aplicación SAP y DBMS.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6189,19 +6177,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6222,13 +6210,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>No se admite la colocación de la capa de aplicación de SAP y DBMS de SAP en diferentes redes virtuales de Azure que no están emparejadas.</t>
+          <t>Asegúrese de que las implementaciones internas de Azure Load Balancer están configuradas para usar Direct Server Return (DSR). Esta configuración reducirá la latencia cuando se utilicen configuraciones internas del equilibrador de carga para configuraciones de alta disponibilidad en la capa DBMS.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6239,19 +6227,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6272,7 +6260,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Para obtener una latencia de red óptima con aplicaciones SAP, considere la posibilidad de usar grupos de selección de ubicación por proximidad de Azure.</t>
+          <t>Puede usar reglas de grupo de seguridad de aplicaciones (ASG) y NSG para definir listas de control de acceso de seguridad de red entre la aplicación SAP y las capas DBMS. Los ASG agrupan las máquinas virtuales para ayudar a administrar su seguridad.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6289,19 +6277,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6322,7 +6310,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>NO se admite en absoluto la ejecución de una capa de servidor de aplicaciones de SAP y una capa de DBMS divididas entre el entorno local y Azure. Ambas capas deben residir completamente en el entorno local o en Azure.</t>
+          <t>No se admite la colocación de la capa de aplicación de SAP y DBMS de SAP en diferentes redes virtuales de Azure que no están emparejadas.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6351,7 +6339,7 @@
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6372,13 +6360,13 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>No se recomienda hospedar el sistema de administración de bases de datos (DBMS) y las capas de aplicación de los sistemas SAP en diferentes redes virtuales y conectarlas con el emparejamiento de redes virtuales debido a los costos sustanciales que puede producir un tráfico de red excesivo entre las capas. Se recomienda el uso de subredes dentro de la red virtual de Azure para separar la capa de aplicación de SAP y la capa de DBMS.</t>
+          <t>Para obtener una latencia de red óptima con aplicaciones SAP, considere la posibilidad de usar grupos de selección de ubicación por proximidad de Azure.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6389,19 +6377,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6422,7 +6410,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Si utiliza Load Balancer con sistemas operativos invitados Linux, compruebe que el parámetro de red de Linux net.ipv4.tcp_timestamps esté establecido en 0.</t>
+          <t>NO se admite en absoluto la ejecución de una capa de servidor de aplicaciones de SAP y una capa de DBMS divididas entre el entorno local y Azure. Ambas capas deben residir completamente en el entorno local o en Azure.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6439,19 +6427,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6472,13 +6460,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las implementaciones de SAP RISE/ECS, el emparejamiento virtual es la forma preferida de establecer la conectividad con el entorno de Azure existente del cliente. Tanto la red virtual de SAP como las redes virtuales del cliente están protegidas con grupos de seguridad de red (NSG), lo que permite la comunicación en los puertos de SAP y de base de datos a través del emparejamiento de redes virtuales</t>
+          <t>No se recomienda hospedar el sistema de administración de bases de datos (DBMS) y las capas de aplicación de los sistemas SAP en diferentes redes virtuales y conectarlas con el emparejamiento de redes virtuales debido a los costos sustanciales que puede producir un tráfico de red excesivo entre las capas. Se recomienda el uso de subredes dentro de la red virtual de Azure para separar la capa de aplicación de SAP y la capa de DBMS.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6489,14 +6477,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6507,23 +6500,23 @@
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Si ejecuta máquinas virtuales Windows y Linux en Azure, en el entorno local o en otros entornos en la nube, puede usar el Centro de administración de actualizaciones de Automatización de Azure para administrar las actualizaciones del sistema operativo, incluidas las revisiones de seguridad.</t>
+          <t>Si utiliza Load Balancer con sistemas operativos invitados Linux, compruebe que el parámetro de red de Linux net.ipv4.tcp_timestamps esté establecido en 0.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6534,19 +6527,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6557,17 +6550,17 @@
     <row r="121" ht="16.5" customHeight="1">
       <c r="A121" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Revise de forma rutinaria las notas de seguridad de SAP OSS, ya que SAP publica parches de seguridad muy críticos, o revisiones, que requieren una acción inmediata para proteger sus sistemas SAP.</t>
+          <t>En el caso de las implementaciones de SAP RISE/ECS, el emparejamiento virtual es la forma preferida de establecer la conectividad con el entorno de Azure existente del cliente. Tanto la red virtual de SAP como las redes virtuales del cliente están protegidas con grupos de seguridad de red (NSG), lo que permite la comunicación en los puertos de SAP y de base de datos a través del emparejamiento de redes virtuales</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6584,19 +6577,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6607,23 +6596,23 @@
     <row r="122" ht="16.5" customHeight="1">
       <c r="A122" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Excelencia operativa</t>
         </is>
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>En el caso de SAP en SQL Server, puede deshabilitar la cuenta de administrador del sistema de SQL Server porque los sistemas SAP en SQL Server no usan la cuenta. Asegúrese de que otro usuario con derechos de administrador del sistema pueda acceder al servidor antes de deshabilitar la cuenta de administrador del sistema original.</t>
+          <t>Revise las copias de seguridad de bases de datos de SAP HANA para máquinas virtuales de Azure.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6634,7 +6623,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
         </is>
       </c>
       <c r="I122" s="15" t="n"/>
@@ -6642,7 +6631,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>ff5136bd-dcf1-4d2b-ae52-39333efdf45a</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6653,23 +6642,23 @@
     <row r="123" ht="16.5" customHeight="1">
       <c r="A123" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Excelencia operativa</t>
         </is>
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Deshabilite xp_cmdshell. La característica de SQL Server xp_cmdshell habilita un shell de comandos del sistema operativo interno de SQL Server. Es un riesgo potencial en las auditorías de seguridad.</t>
+          <t>Revise la supervisión integrada de Site Recovery, si se usa para SAP.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6680,19 +6669,15 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>cafde29d-a0af-4bcd-87c0-0f299d63f0e8</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6703,17 +6688,17 @@
     <row r="124" ht="16.5" customHeight="1">
       <c r="A124" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Excelencia operativa</t>
         </is>
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>El cifrado de servidores de bases de datos de SAP HANA en Azure usa la tecnología de cifrado nativa de SAP HANA. Además, si usa SQL Server en Azure, use el cifrado de datos transparente (TDE) para proteger los datos y los archivos de registro y asegurarse de que las copias de seguridad también están cifradas.</t>
+          <t>Revise la guía Supervisión del entorno del sistema SAP HANA.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6730,19 +6715,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
+          <t>https://help.sap.com/docs/SAP_HANA_PLATFORM/c4d7c773af4a4e5dbebb6548d6e2d4f4/e3111d2ebb5710149510cc120646bf3f.html?locale=en-US</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>82d7b8de-d3f1-44a0-830b-38e200e82acf</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6753,17 +6734,17 @@
     <row r="125" ht="16.5" customHeight="1">
       <c r="A125" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Excelencia operativa</t>
         </is>
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>El cifrado de Azure Storage está habilitado para todas las cuentas de Azure Resource Manager y de almacenamiento clásico, y no se puede deshabilitar. Dado que los datos están cifrados de forma predeterminada, no es necesario modificar el código o las aplicaciones para usar el cifrado de Azure Storage.</t>
+          <t>Revise las estrategias de copia de seguridad de Oracle Database en máquinas virtuales Linux de Azure.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6780,19 +6761,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/oracle-database-backup-strategies</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>c823873a-2bec-4c2a-b684-a1ce8ae80efd</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6803,23 +6780,23 @@
     <row r="126" ht="16.5" customHeight="1">
       <c r="A126" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Excelencia operativa</t>
         </is>
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Key Vault para almacenar los secretos y las credenciales</t>
+          <t>Revise el uso de Azure Blob Storage con SQL Server 2016.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6830,19 +6807,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/sql/relational-databases/tutorial-use-azure-blob-storage-service-with-sql-server-2016?view=sql-server-ver16</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>2943b6d8-1d31-4e19-ade7-78e6b26d1962</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6853,17 +6825,17 @@
     <row r="127" ht="16.5" customHeight="1">
       <c r="A127" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Excelencia operativa</t>
         </is>
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Se recomienda bloquear los recursos de Azure después de la implementación correcta para protegerse contra cambios no autorizados. También puede aplicar restricciones y reglas de LOCK por suscripción mediante directivas de Azure personalizadas (rol personalizado).</t>
+          <t>Revise el uso de Copia de seguridad automatizada v2 para máquinas virtuales de Azure.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6880,19 +6852,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-sql/virtual-machines/windows/automated-backup?view=azuresql</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>b82e650f-676d-417d-994d-fc33ca54ec14</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6903,23 +6870,23 @@
     <row r="128" ht="16.5" customHeight="1">
       <c r="A128" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Excelencia operativa</t>
         </is>
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
+          <t>Habilitación del acelerador de escritura para la serie M cuando se utilizan discos premium (V1)</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6928,21 +6895,12 @@
         </is>
       </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H128" s="15" t="n"/>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>347c2dcc-e6eb-4b04-80c5-628b171aa62d</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6953,23 +6911,23 @@
     <row r="129" ht="16.5" customHeight="1">
       <c r="A129" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>En función de los requisitos existentes, controles normativos y de cumplimiento (internos y externos): determine qué directivas de Azure y el rol de RBAC de Azure son necesarios</t>
+          <t>Pruebe la latencia de la zona de disponibilidad.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6980,19 +6938,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>b96512cf-996f-4b17-b9b8-6b16db1a2a94</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7003,23 +6956,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Al habilitar Microsoft Defender para punto de conexión en el entorno de SAP, se recomienda excluir los archivos de datos y registro en los servidores DBMS en lugar de dirigirse a todos los servidores. Siga las recomendaciones de su proveedor de DBMS al excluir archivos de destino.</t>
+          <t>Active SAP EarlyWatch Alert para todos los componentes de SAP.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7030,19 +6983,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://support.sap.com/en/offerings-programs/support-services/earlywatch-alert.html</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/techops/3362700736.html</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>9fd7ffd4-da11-49f6-a374-8d03e94c511d</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7053,23 +7006,23 @@
     <row r="131" ht="16.5" customHeight="1">
       <c r="A131" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Delegue un rol personalizado de administrador de SAP con acceso Just-In-Time de Microsoft Defender for Cloud.</t>
+          <t>Revise la latencia del servidor de aplicaciones SAP al servidor de bases de datos mediante el informe ABAPMeter de SAP /SSA/CAT.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
       <c r="E131" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7080,19 +7033,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/sap-on-azure-general-update-march-2019/ba-p/377456</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://me.sap.com/notes/0002879613</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b9b140cf-413a-483d-aad2-8802c4e3c017</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7103,23 +7056,23 @@
     <row r="132" ht="16.5" customHeight="1">
       <c r="A132" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>cifre los datos en tránsito integrando el producto de seguridad de terceros con comunicaciones de red seguras (SNC) para DIAG (SAP GUI), RFC y SPNEGO para HTTPS</t>
+          <t>Revise la supervisión del rendimiento de SQL Server mediante CCMS.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7128,21 +7081,12 @@
         </is>
       </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
-        </is>
-      </c>
+      <c r="H132" s="15" t="n"/>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>62fbf0f8-51db-49e1-a961-bb5df7a35f80</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7153,17 +7097,17 @@
     <row r="133" ht="16.5" customHeight="1">
       <c r="A133" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice claves administradas por Microsoft para la funcionalidad de cifrado de entidad de seguridad y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>Pruebe la latencia de red entre las máquinas virtuales de la capa de aplicación de SAP y las máquinas virtuales de DBMS (NIPING).</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7180,19 +7124,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+          <t>https://me.sap.com/notes/500235</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1100926/E</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>35709da7-fc7d-4efe-bb20-2e91547b7390</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7203,23 +7147,23 @@
     <row r="134" ht="16.5" customHeight="1">
       <c r="A134" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Use una instancia de Azure Key Vault por aplicación, por entorno, por región.</t>
+          <t>Revise las alertas de SAP HANA Studio.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7230,19 +7174,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/en-us/azure/sap/large-instances/hana-monitor-troubleshoot</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>9e9bb4c8-e934-4e4b-a13c-6f7c7c38eb43</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7253,23 +7192,23 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Para controlar y administrar claves y secretos de cifrado de disco para sistemas operativos Windows y Windows que no son de HANA, use Azure Key Vault. SAP HANA no es compatible con Azure Key Vault, por lo que debe usar métodos alternativos como SAP ABAP o claves SSH.</t>
+          <t>Realice comprobaciones de estado de SAP HANA mediante HANA_Configuration_Minichecks.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7280,19 +7219,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1969700</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>f1a92ab5-9509-4b57-86ff-b0ade361b694</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7308,12 +7242,12 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Si ejecuta máquinas virtuales Windows y Linux en Azure, en el entorno local o en otros entornos en la nube, puede usar el Centro de administración de actualizaciones de Automatización de Azure para administrar las actualizaciones del sistema operativo, incluidas las revisiones de seguridad.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7330,14 +7264,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7353,18 +7292,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Personalización de los roles de control de acceso basado en rol (RBAC) para SAP en suscripciones de Azure spoke para evitar cambios accidentales relacionados con la red</t>
+          <t>Revise de forma rutinaria las notas de seguridad de SAP OSS, ya que SAP publica parches de seguridad muy críticos, o revisiones, que requieren una acción inmediata para proteger sus sistemas SAP.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7375,19 +7314,19 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7403,18 +7342,18 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Aísle las redes perimetrales y las aplicaciones virtuales de red del resto del patrimonio de SAP, configure Azure Private Link y administre y controle de forma segura los recursos de SAP en Azure</t>
+          <t>En el caso de SAP en SQL Server, puede deshabilitar la cuenta de administrador del sistema de SQL Server porque los sistemas SAP en SQL Server no usan la cuenta. Asegúrese de que otro usuario con derechos de administrador del sistema pueda acceder al servidor antes de deshabilitar la cuenta de administrador del sistema original.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7425,19 +7364,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7453,18 +7387,18 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar el software antimalware de Microsoft en Azure para proteger las máquinas virtuales de archivos malintencionados, adware y otras amenazas.</t>
+          <t>Deshabilite xp_cmdshell. La característica de SQL Server xp_cmdshell habilita un shell de comandos del sistema operativo interno de SQL Server. Es un riesgo potencial en las auditorías de seguridad.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7475,19 +7409,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7503,18 +7437,18 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Para una protección aún más eficaz, considere la posibilidad de usar Microsoft Defender para punto de conexión.</t>
+          <t>El cifrado de servidores de bases de datos de SAP HANA en Azure usa la tecnología de cifrado nativa de SAP HANA. Además, si usa SQL Server en Azure, use el cifrado de datos transparente (TDE) para proteger los datos y los archivos de registro y asegurarse de que las copias de seguridad también están cifradas.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7525,19 +7459,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7553,18 +7487,18 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Aísle los servidores de aplicaciones y bases de datos de SAP de Internet o de la red local pasando todo el tráfico a través de la red virtual del centro de conectividad, que está conectada a la red radial mediante el emparejamiento de red virtual. Las redes virtuales emparejadas garantizan que la solución de SAP en Azure esté aislada de la red pública de Internet.</t>
+          <t>El cifrado de Azure Storage está habilitado para todas las cuentas de Azure Resource Manager y de almacenamiento clásico, y no se puede deshabilitar. Dado que los datos están cifrados de forma predeterminada, no es necesario modificar el código o las aplicaciones para usar el cifrado de Azure Storage.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7575,19 +7509,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7603,18 +7537,18 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las aplicaciones orientadas a Internet, como SAP Fiori, asegúrese de distribuir la carga según los requisitos de la aplicación mientras se mantienen los niveles de seguridad. Para la seguridad de nivel 7, puede usar un firewall de aplicaciones web (WAF) de terceros disponible en Azure Marketplace.</t>
+          <t>Uso de Azure Key Vault para almacenar los secretos y las credenciales</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7625,19 +7559,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7653,12 +7587,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Para habilitar la comunicación segura en las soluciones de Azure Monitor para SAP, puede optar por usar un certificado raíz o un certificado de servidor. Le recomendamos encarecidamente que utilice certificados raíz.</t>
+          <t>Se recomienda bloquear los recursos de Azure después de la implementación correcta para protegerse contra cambios no autorizados. También puede aplicar restricciones y reglas de LOCK por suscripción mediante directivas de Azure personalizadas (rol personalizado).</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7675,19 +7609,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7696,256 +7630,795 @@
       <c r="P143" s="25" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1">
-      <c r="A144" s="21" t="n"/>
-      <c r="B144" s="21" t="n"/>
-      <c r="C144" s="21" t="n"/>
+      <c r="A144" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B144" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C144" s="21" t="inlineStr">
+        <is>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
+        </is>
+      </c>
       <c r="D144" s="21" t="n"/>
-      <c r="E144" s="21" t="n"/>
+      <c r="E144" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G144" s="21" t="n"/>
-      <c r="H144" s="15" t="n"/>
+      <c r="H144" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
-      <c r="L144" s="25" t="n"/>
+      <c r="L144" s="25" t="inlineStr">
+        <is>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+        </is>
+      </c>
       <c r="M144" s="25" t="n"/>
       <c r="N144" s="25" t="n"/>
       <c r="O144" s="25" t="n"/>
       <c r="P144" s="25" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1">
-      <c r="A145" s="21" t="n"/>
-      <c r="B145" s="21" t="n"/>
-      <c r="C145" s="21" t="n"/>
+      <c r="A145" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B145" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C145" s="21" t="inlineStr">
+        <is>
+          <t>En función de los requisitos existentes, controles normativos y de cumplimiento (internos y externos): determine qué directivas de Azure y el rol de RBAC de Azure son necesarios</t>
+        </is>
+      </c>
       <c r="D145" s="21" t="n"/>
-      <c r="E145" s="21" t="n"/>
+      <c r="E145" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G145" s="21" t="n"/>
-      <c r="H145" s="15" t="n"/>
+      <c r="H145" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
-      <c r="L145" s="25" t="n"/>
+      <c r="L145" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M145" s="25" t="n"/>
       <c r="N145" s="25" t="n"/>
       <c r="O145" s="25" t="n"/>
       <c r="P145" s="25" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1">
-      <c r="A146" s="21" t="n"/>
-      <c r="B146" s="21" t="n"/>
-      <c r="C146" s="21" t="n"/>
+      <c r="A146" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B146" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C146" s="21" t="inlineStr">
+        <is>
+          <t>Al habilitar Microsoft Defender para punto de conexión en el entorno de SAP, se recomienda excluir los archivos de datos y registro en los servidores DBMS en lugar de dirigirse a todos los servidores. Siga las recomendaciones de su proveedor de DBMS al excluir archivos de destino.</t>
+        </is>
+      </c>
       <c r="D146" s="21" t="n"/>
-      <c r="E146" s="21" t="n"/>
+      <c r="E146" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G146" s="21" t="n"/>
-      <c r="H146" s="15" t="n"/>
+      <c r="H146" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
-      <c r="L146" s="25" t="n"/>
+      <c r="L146" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M146" s="25" t="n"/>
       <c r="N146" s="25" t="n"/>
       <c r="O146" s="25" t="n"/>
       <c r="P146" s="25" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1">
-      <c r="A147" s="21" t="n"/>
-      <c r="B147" s="21" t="n"/>
-      <c r="C147" s="21" t="n"/>
+      <c r="A147" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B147" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C147" s="21" t="inlineStr">
+        <is>
+          <t>Delegue un rol personalizado de administrador de SAP con acceso Just-In-Time de Microsoft Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D147" s="21" t="n"/>
-      <c r="E147" s="21" t="n"/>
+      <c r="E147" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G147" s="21" t="n"/>
-      <c r="H147" s="15" t="n"/>
+      <c r="H147" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
-      <c r="L147" s="25" t="n"/>
+      <c r="L147" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M147" s="25" t="n"/>
       <c r="N147" s="25" t="n"/>
       <c r="O147" s="25" t="n"/>
       <c r="P147" s="25" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1">
-      <c r="A148" s="21" t="n"/>
-      <c r="B148" s="21" t="n"/>
-      <c r="C148" s="21" t="n"/>
+      <c r="A148" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B148" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C148" s="21" t="inlineStr">
+        <is>
+          <t>cifre los datos en tránsito integrando el producto de seguridad de terceros con comunicaciones de red seguras (SNC) para DIAG (SAP GUI), RFC y SPNEGO para HTTPS</t>
+        </is>
+      </c>
       <c r="D148" s="21" t="n"/>
-      <c r="E148" s="21" t="n"/>
+      <c r="E148" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G148" s="21" t="n"/>
-      <c r="H148" s="15" t="n"/>
+      <c r="H148" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
-      <c r="L148" s="25" t="n"/>
+      <c r="L148" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M148" s="25" t="n"/>
       <c r="N148" s="25" t="n"/>
       <c r="O148" s="25" t="n"/>
       <c r="P148" s="25" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1">
-      <c r="A149" s="21" t="n"/>
-      <c r="B149" s="21" t="n"/>
-      <c r="C149" s="21" t="n"/>
+      <c r="A149" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B149" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C149" s="21" t="inlineStr">
+        <is>
+          <t>De forma predeterminada, utilice claves administradas por Microsoft para la funcionalidad de cifrado de entidad de seguridad y use claves administradas por el cliente cuando sea necesario.</t>
+        </is>
+      </c>
       <c r="D149" s="21" t="n"/>
-      <c r="E149" s="21" t="n"/>
+      <c r="E149" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G149" s="21" t="n"/>
-      <c r="H149" s="15" t="n"/>
+      <c r="H149" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
-      <c r="L149" s="25" t="n"/>
+      <c r="L149" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M149" s="25" t="n"/>
       <c r="N149" s="25" t="n"/>
       <c r="O149" s="25" t="n"/>
       <c r="P149" s="25" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1">
-      <c r="A150" s="21" t="n"/>
-      <c r="B150" s="21" t="n"/>
-      <c r="C150" s="21" t="n"/>
+      <c r="A150" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B150" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C150" s="21" t="inlineStr">
+        <is>
+          <t>Use una instancia de Azure Key Vault por aplicación, por entorno, por región.</t>
+        </is>
+      </c>
       <c r="D150" s="21" t="n"/>
-      <c r="E150" s="21" t="n"/>
+      <c r="E150" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G150" s="21" t="n"/>
-      <c r="H150" s="15" t="n"/>
+      <c r="H150" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
-      <c r="L150" s="25" t="n"/>
+      <c r="L150" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M150" s="25" t="n"/>
       <c r="N150" s="25" t="n"/>
       <c r="O150" s="25" t="n"/>
       <c r="P150" s="25" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1">
-      <c r="A151" s="21" t="n"/>
-      <c r="B151" s="21" t="n"/>
-      <c r="C151" s="21" t="n"/>
+      <c r="A151" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B151" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C151" s="21" t="inlineStr">
+        <is>
+          <t>Para controlar y administrar claves y secretos de cifrado de disco para sistemas operativos Windows y Windows que no son de HANA, use Azure Key Vault. SAP HANA no es compatible con Azure Key Vault, por lo que debe usar métodos alternativos como SAP ABAP o claves SSH.</t>
+        </is>
+      </c>
       <c r="D151" s="21" t="n"/>
-      <c r="E151" s="21" t="n"/>
+      <c r="E151" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G151" s="21" t="n"/>
-      <c r="H151" s="15" t="n"/>
+      <c r="H151" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
-      <c r="L151" s="25" t="n"/>
+      <c r="L151" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M151" s="25" t="n"/>
       <c r="N151" s="25" t="n"/>
       <c r="O151" s="25" t="n"/>
       <c r="P151" s="25" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1">
-      <c r="A152" s="21" t="n"/>
-      <c r="B152" s="21" t="n"/>
-      <c r="C152" s="21" t="n"/>
+      <c r="A152" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B152" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C152" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D152" s="21" t="n"/>
-      <c r="E152" s="21" t="n"/>
+      <c r="E152" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="n"/>
+      <c r="H152" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
-      <c r="L152" s="25" t="n"/>
+      <c r="L152" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M152" s="25" t="n"/>
       <c r="N152" s="25" t="n"/>
       <c r="O152" s="25" t="n"/>
       <c r="P152" s="25" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1">
-      <c r="A153" s="21" t="n"/>
-      <c r="B153" s="21" t="n"/>
-      <c r="C153" s="21" t="n"/>
+      <c r="A153" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B153" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C153" s="21" t="inlineStr">
+        <is>
+          <t>Personalización de los roles de control de acceso basado en rol (RBAC) para SAP en suscripciones de Azure spoke para evitar cambios accidentales relacionados con la red</t>
+        </is>
+      </c>
       <c r="D153" s="21" t="n"/>
-      <c r="E153" s="21" t="n"/>
+      <c r="E153" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
-      <c r="L153" s="25" t="n"/>
+      <c r="L153" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M153" s="25" t="n"/>
       <c r="N153" s="25" t="n"/>
       <c r="O153" s="25" t="n"/>
       <c r="P153" s="25" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1">
-      <c r="A154" s="21" t="n"/>
-      <c r="B154" s="21" t="n"/>
-      <c r="C154" s="21" t="n"/>
+      <c r="A154" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B154" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C154" s="21" t="inlineStr">
+        <is>
+          <t>Aísle las redes perimetrales y las aplicaciones virtuales de red del resto del patrimonio de SAP, configure Azure Private Link y administre y controle de forma segura los recursos de SAP en Azure</t>
+        </is>
+      </c>
       <c r="D154" s="21" t="n"/>
-      <c r="E154" s="21" t="n"/>
+      <c r="E154" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="n"/>
+      <c r="H154" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
-      <c r="L154" s="25" t="n"/>
+      <c r="L154" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M154" s="25" t="n"/>
       <c r="N154" s="25" t="n"/>
       <c r="O154" s="25" t="n"/>
       <c r="P154" s="25" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1">
-      <c r="A155" s="21" t="n"/>
-      <c r="B155" s="21" t="n"/>
-      <c r="C155" s="21" t="n"/>
+      <c r="A155" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B155" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C155" s="21" t="inlineStr">
+        <is>
+          <t>Considere la posibilidad de usar el software antimalware de Microsoft en Azure para proteger las máquinas virtuales de archivos malintencionados, adware y otras amenazas.</t>
+        </is>
+      </c>
       <c r="D155" s="21" t="n"/>
-      <c r="E155" s="21" t="n"/>
+      <c r="E155" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G155" s="21" t="n"/>
-      <c r="H155" s="15" t="n"/>
+      <c r="H155" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
-      <c r="L155" s="25" t="n"/>
+      <c r="L155" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M155" s="25" t="n"/>
       <c r="N155" s="25" t="n"/>
       <c r="O155" s="25" t="n"/>
       <c r="P155" s="25" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1">
-      <c r="A156" s="21" t="n"/>
-      <c r="B156" s="21" t="n"/>
-      <c r="C156" s="21" t="n"/>
+      <c r="A156" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B156" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C156" s="21" t="inlineStr">
+        <is>
+          <t>Para una protección aún más eficaz, considere la posibilidad de usar Microsoft Defender para punto de conexión.</t>
+        </is>
+      </c>
       <c r="D156" s="21" t="n"/>
-      <c r="E156" s="21" t="n"/>
+      <c r="E156" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="n"/>
+      <c r="H156" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
-      <c r="L156" s="25" t="n"/>
+      <c r="L156" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M156" s="25" t="n"/>
       <c r="N156" s="25" t="n"/>
       <c r="O156" s="25" t="n"/>
       <c r="P156" s="25" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1">
-      <c r="A157" s="21" t="n"/>
-      <c r="B157" s="21" t="n"/>
-      <c r="C157" s="21" t="n"/>
+      <c r="A157" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B157" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C157" s="21" t="inlineStr">
+        <is>
+          <t>Aísle los servidores de aplicaciones y bases de datos de SAP de Internet o de la red local pasando todo el tráfico a través de la red virtual del centro de conectividad, que está conectada a la red radial mediante el emparejamiento de red virtual. Las redes virtuales emparejadas garantizan que la solución de SAP en Azure esté aislada de la red pública de Internet.</t>
+        </is>
+      </c>
       <c r="D157" s="21" t="n"/>
-      <c r="E157" s="21" t="n"/>
+      <c r="E157" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G157" s="21" t="n"/>
-      <c r="H157" s="15" t="n"/>
+      <c r="H157" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
-      <c r="L157" s="25" t="n"/>
+      <c r="L157" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M157" s="25" t="n"/>
       <c r="N157" s="25" t="n"/>
       <c r="O157" s="25" t="n"/>
       <c r="P157" s="25" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="21" t="n"/>
-      <c r="B158" s="21" t="n"/>
-      <c r="C158" s="21" t="n"/>
+      <c r="A158" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B158" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C158" s="21" t="inlineStr">
+        <is>
+          <t>En el caso de las aplicaciones orientadas a Internet, como SAP Fiori, asegúrese de distribuir la carga según los requisitos de la aplicación mientras se mantienen los niveles de seguridad. Para la seguridad de nivel 7, puede usar un firewall de aplicaciones web (WAF) de terceros disponible en Azure Marketplace.</t>
+        </is>
+      </c>
       <c r="D158" s="21" t="n"/>
-      <c r="E158" s="21" t="n"/>
+      <c r="E158" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="n"/>
+      <c r="H158" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="25" t="n"/>
+      <c r="L158" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M158" s="25" t="n"/>
       <c r="N158" s="25" t="n"/>
       <c r="O158" s="25" t="n"/>
       <c r="P158" s="25" t="n"/>
     </row>
     <row r="159" ht="16.5" customHeight="1">
-      <c r="A159" s="21" t="n"/>
-      <c r="B159" s="21" t="n"/>
-      <c r="C159" s="21" t="n"/>
+      <c r="A159" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B159" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C159" s="21" t="inlineStr">
+        <is>
+          <t>Para habilitar la comunicación segura en las soluciones de Azure Monitor para SAP, puede optar por usar un certificado raíz o un certificado de servidor. Le recomendamos encarecidamente que utilice certificados raíz.</t>
+        </is>
+      </c>
       <c r="D159" s="21" t="n"/>
-      <c r="E159" s="21" t="n"/>
+      <c r="E159" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G159" s="21" t="n"/>
-      <c r="H159" s="15" t="n"/>
+      <c r="H159" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
-      <c r="L159" s="25" t="n"/>
+      <c r="L159" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M159" s="25" t="n"/>
       <c r="N159" s="25" t="n"/>
       <c r="O159" s="25" t="n"/>
@@ -10176,7 +10649,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F144" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F160" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.es.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.es.xlsx
@@ -1712,7 +1712,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Optimización de costos</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Realizar solicitudes de cuota para la SKU y las zonas de máquina virtual correctas</t>
+          <t>Automatice SAP System Start-Stop para gestionar los costes.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2789,13 +2789,17 @@
         </is>
       </c>
       <c r="G43" s="21" t="n"/>
-      <c r="H43" s="15" t="n"/>
+      <c r="H43" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/optimize-your-azure-costs-by-automating-sap-system-start-stop/ba-p/2120675</t>
+        </is>
+      </c>
       <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>925d1f8c-01f3-4a67-948e-aabf0a1fad60</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2816,13 +2820,13 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Automatice SAP System Start-Stop para gestionar los costes.</t>
+          <t>En el caso de usar Azure Premium Storage con SAP HANA, se puede usar el almacenamiento SSD estándar de Azure para seleccionar una solución de almacenamiento rentable. Sin embargo, tenga en cuenta que la elección de SSD estándar o almacenamiento de Azure HDD estándar afectará al Acuerdo de Nivel de Servicio de las máquinas virtuales individuales. Además, para sistemas con menor rendimiento de E/S y baja latencia, como entornos que no son de producción, se pueden usar máquinas virtuales de series inferiores.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2833,7 +2837,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/optimize-your-azure-costs-by-automating-sap-system-start-stop/ba-p/2120675</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2841,7 +2845,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>925d1f8c-01f3-4a67-948e-aabf0a1fad60</t>
+          <t>71dc00cd-4392-4262-8949-20c05e6c0333</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2852,23 +2856,23 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Optimización de costos</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Aplicación de un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
+          <t>Como configuración alternativa de menor costo (multipropósito), puede elegir una SKU de bajo rendimiento para las máquinas virtuales del servidor de base de datos de HANA que no son de producción. Sin embargo, es importante tener en cuenta que algunos tipos de máquinas virtuales, como la serie E, no están certificadas para HANA (directorio de hardware de SAP HANA) o no pueden alcanzar una latencia de almacenamiento inferior a 1 ms.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2879,19 +2883,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>9877f353-2591-4e8b-8381-e9043fed1010</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2912,13 +2911,13 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Aplicación de la propagación del principio para reenviar la identidad de la aplicación en la nube de SAP a SAP local (incluida IaaS) a través del conector en la nube</t>
+          <t>Aplicación de un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2929,19 +2928,19 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
         </is>
       </c>
       <c r="I46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2962,7 +2961,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO en aplicaciones SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics y SAP C4C con Azure AD mediante SAML.</t>
+          <t>Aplicación de la propagación de la entidad de seguridad para reenviar la identidad de la aplicación en la nube de SAP a SAP local (incluida IaaS) a través del conector en la nube</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2982,12 +2981,16 @@
           <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
-      <c r="I47" s="15" t="n"/>
+      <c r="I47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+        </is>
+      </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3008,7 +3011,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI mediante SAML.</t>
+          <t>Implemente SSO en aplicaciones SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics y SAP C4C con Azure AD mediante SAML.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3025,19 +3028,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3073,17 +3071,21 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3104,7 +3106,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Puede implementar SSO en la GUI de SAP mediante SAP NetWeaver SSO o una solución de partner.</t>
+          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI mediante SAML.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3119,21 +3121,17 @@
         </is>
       </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
-        </is>
-      </c>
+      <c r="H50" s="15" t="n"/>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3154,7 +3152,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere el servidor de inicio de sesión seguro de SAP, que es un componente de la solución SSO de SAP.</t>
+          <t>Puede implementar SSO en la GUI de SAP mediante SAP NetWeaver SSO o una solución de partner.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3169,17 +3167,21 @@
         </is>
       </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="n"/>
+      <c r="H51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
       <c r="I51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3215,17 +3217,17 @@
         </is>
       </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="inlineStr">
-        <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="n"/>
+      <c r="H52" s="15" t="n"/>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3246,7 +3248,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Implemente el inicio de sesión único mediante OAuth para SAP NetWeaver a fin de permitir que aplicaciones personalizadas o de terceros accedan a los servicios OData de SAP NetWeaver.</t>
+          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere el servidor de inicio de sesión seguro de SAP, que es un componente de la solución SSO de SAP.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3263,14 +3265,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3291,7 +3293,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Implementación de SSO en SAP HANA</t>
+          <t>Implemente el inicio de sesión único mediante OAuth para SAP NetWeaver a fin de permitir que aplicaciones personalizadas o de terceros accedan a los servicios OData de SAP NetWeaver.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3308,7 +3310,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3316,7 +3318,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3337,7 +3339,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Considere Azure AD como un proveedor de identidades para sistemas SAP hospedados en RISE. Para obtener más información, consulte Integración del servicio con Azure AD.</t>
+          <t>Implementación de SSO en SAP HANA</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3354,14 +3356,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3382,7 +3384,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las aplicaciones que acceden a SAP, es posible que desee utilizar la propagación de entidades de seguridad para establecer el inicio de sesión único.</t>
+          <t>Considere Azure AD como un proveedor de identidades para sistemas SAP hospedados en RISE. Para obtener más información, consulte Integración del servicio con Azure AD.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3399,14 +3401,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3427,7 +3429,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Si usa servicios BTP de SAP o soluciones SaaS que requieren SAP Identity Authentication Service (IAS), considere la posibilidad de implementar SSO entre SAP Cloud Identity Authentication Services y Azure AD para acceder a esos servicios de SAP. Esta integración permite a SAP IAS actuar como proveedor de identidades de proxy y reenvía las solicitudes de autenticación a Azure AD como almacén de usuarios central y proveedor de identidades.</t>
+          <t>En el caso de las aplicaciones que acceden a SAP, es posible que desee utilizar la propagación de entidades de seguridad para establecer el inicio de sesión único.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3444,14 +3446,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3472,7 +3474,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Implementación de SSO en SAP BTP</t>
+          <t>Si usa servicios BTP de SAP o soluciones SaaS que requieren SAP Identity Authentication Service (IAS), considere la posibilidad de implementar SSO entre SAP Cloud Identity Authentication Services y Azure AD para acceder a esos servicios de SAP. Esta integración permite a SAP IAS actuar como proveedor de identidades de proxy y reenvía las solicitudes de autenticación a Azure AD como almacén de usuarios central y proveedor de identidades.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3489,14 +3491,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3517,7 +3519,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Si usa SAP SuccessFactors, considere la posibilidad de usar el aprovisionamiento automatizado de usuarios de Azure AD. Con esta integración, a medida que agrega nuevos empleados a SAP SuccessFactors, puede crear automáticamente sus cuentas de usuario en Azure AD. Opcionalmente, puede crear cuentas de usuario en Microsoft 365 u otras aplicaciones SaaS compatibles con Azure AD. Utilice la escritura diferida de la dirección de correo electrónico en SAP SuccessFactors.</t>
+          <t>Implementación de SSO en SAP BTP</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3534,14 +3536,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3552,17 +3554,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>aplicar las directivas de grupo de administración existentes a las suscripciones de SAP</t>
+          <t>Si usa SAP SuccessFactors, considere la posibilidad de usar el aprovisionamiento automatizado de usuarios de Azure AD. Con esta integración, a medida que agrega nuevos empleados a SAP SuccessFactors, puede crear automáticamente sus cuentas de usuario en Azure AD. Opcionalmente, puede crear cuentas de usuario en Microsoft 365 u otras aplicaciones SaaS compatibles con Azure AD. Utilice la escritura diferida de la dirección de correo electrónico en SAP SuccessFactors.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3579,19 +3581,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3612,13 +3609,13 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Integre aplicaciones estrechamente acopladas en la misma suscripción de SAP para evitar una complejidad adicional de enrutamiento y administración</t>
+          <t>aplicar las directivas de grupo de administración existentes a las suscripciones de SAP</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3629,19 +3626,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3662,7 +3659,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aprovechar la suscripción como unidad de escalado y escalar nuestros recursos, considere implementar la suscripción por entorno, por ejemplo. Sandbox, no-prod, prod </t>
+          <t>Integre aplicaciones estrechamente acopladas en la misma suscripción de SAP para evitar una complejidad adicional de enrutamiento y administración</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3684,14 +3681,14 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3712,7 +3709,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Garantizar el aumento de la cuota como parte del aprovisionamiento de suscripciones (por ejemplo, el total de núcleos de máquina virtual disponibles dentro de una suscripción)</t>
+          <t xml:space="preserve">Aprovechar la suscripción como unidad de escalado y escalar nuestros recursos, considere implementar la suscripción por entorno, por ejemplo. Sandbox, no-prod, prod </t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3729,19 +3726,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3762,13 +3759,13 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>La API de cuota es una API de REST que se puede usar para ver y administrar las cuotas de los servicios de Azure. Considere usarlo si es necesario.</t>
+          <t>Garantizar el aumento de la cuota como parte del aprovisionamiento de suscripciones (por ejemplo, el total de núcleos de máquina virtual disponibles dentro de una suscripción)</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3779,15 +3776,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3808,13 +3809,13 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Si realiza la implementación en una zona de disponibilidad, asegúrese de que la implementación de la zona de la máquina virtual esté disponible una vez que se haya aprobado la cuota. Envíe una solicitud de soporte técnico con la suscripción, la serie de máquinas virtuales, el número de CPU y la zona de disponibilidad necesarias.</t>
+          <t>La API de cuota es una API de REST que se puede usar para ver y administrar las cuotas de los servicios de Azure. Considere usarlo si es necesario.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3825,7 +3826,7 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
         </is>
       </c>
       <c r="I65" s="15" t="n"/>
@@ -3833,7 +3834,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3854,7 +3855,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios y funciones requeridos estén disponibles dentro de las regiones de implementación elegidas, por ejemplo. ANF, Zona, etc.</t>
+          <t>Si realiza la implementación en una zona de disponibilidad, asegúrese de que la implementación de la zona de la máquina virtual esté disponible una vez que se haya aprobado la cuota. Envíe una solicitud de soporte técnico con la suscripción, la serie de máquinas virtuales, el número de CPU y la zona de disponibilidad necesarias.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3871,19 +3872,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3904,13 +3900,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la etiqueta de recurso de Azure para la categorización de costos y la agrupación de recursos (facturación, departamento (o unidad de negocio), entorno (producción, fase, desarrollo), nivel (nivel web, nivel de aplicación), propietario de la aplicación, ProjectName)</t>
+          <t>Asegúrese de que los servicios y funciones requeridos estén disponibles dentro de las regiones de implementación elegidas, por ejemplo. ANF, Zona, etc.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3921,19 +3917,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3944,23 +3940,23 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Seguimiento</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Ayude a proteger la base de datos de HANA mediante el servicio Azure Backup.</t>
+          <t>Aproveche la etiqueta de recurso de Azure para la categorización de costos y la agrupación de recursos (facturación, departamento (o unidad de negocio), entorno (producción, fase, desarrollo), nivel (nivel web, nivel de aplicación), propietario de la aplicación, ProjectName)</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3971,19 +3967,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4004,13 +4000,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Si implementa Azure NetApp Files para la base de datos HANA, Oracle o DB2, use la herramienta Azure Application Consistent Snapshot (AzAcSnap) para tomar instantáneas coherentes con la aplicación. AzAcSnap también es compatible con las bases de datos de Oracle. Considere la posibilidad de usar AzAcSnap en una máquina virtual central en lugar de en máquinas virtuales individuales.</t>
+          <t>Ayude a proteger la base de datos de HANA mediante el servicio Azure Backup.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4021,15 +4017,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4045,18 +4045,18 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la zona horaria coincida entre el sistema operativo y el sistema SAP.</t>
+          <t>Si implementa Azure NetApp Files para la base de datos HANA, Oracle o DB2, use la herramienta Azure Application Consistent Snapshot (AzAcSnap) para tomar instantáneas coherentes con la aplicación. AzAcSnap también es compatible con las bases de datos de Oracle. Considere la posibilidad de usar AzAcSnap en una máquina virtual central en lugar de en máquinas virtuales individuales.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4067,7 +4067,7 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
         </is>
       </c>
       <c r="I70" s="15" t="n"/>
@@ -4075,7 +4075,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4096,13 +4096,13 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>No agrupe diferentes servicios de aplicaciones en el mismo clúster. Por ejemplo, no combine DRBD y clústeres de servicios centrales en el mismo clúster. Sin embargo, puede usar el mismo clúster de Pacemaker para administrar aproximadamente cinco servicios centrales diferentes (clúster de varios SID).</t>
+          <t>Asegúrese de que la zona horaria coincida entre el sistema operativo y el sistema SAP.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4113,19 +4113,15 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4146,13 +4142,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de ejecutar sistemas de desarrollo y pruebas en un modelo de repetición para ahorrar y optimizar los costos de ejecución de Azure.</t>
+          <t>No agrupe diferentes servicios de aplicaciones en el mismo clúster. Por ejemplo, no combine DRBD y clústeres de servicios centrales en el mismo clúster. Sin embargo, puede usar el mismo clúster de Pacemaker para administrar aproximadamente cinco servicios centrales diferentes (clúster de varios SID).</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4163,15 +4159,19 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
-        </is>
-      </c>
-      <c r="I72" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4192,13 +4192,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Si se asocia con los clientes mediante la administración de sus propiedades de SAP, considere la posibilidad de usar Azure Lighthouse. Azure Lighthouse permite a los proveedores de servicios administrados usar los servicios de identidad nativos de Azure para autenticarse en el entorno de los clientes. Pone el control en manos de los clientes, ya que pueden revocar el acceso en cualquier momento y auditar las acciones de los proveedores de servicios.</t>
+          <t>Considere la posibilidad de ejecutar sistemas de desarrollo y pruebas en un modelo de repetición para ahorrar y optimizar los costos de ejecución de Azure.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4209,7 +4209,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4217,7 +4217,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Update Manager para comprobar el estado de las actualizaciones disponibles para una sola máquina virtual o varias máquinas virtuales y considere la posibilidad de programar revisiones periódicas.</t>
+          <t>Si se asocia con los clientes mediante la administración de sus propiedades de SAP, considere la posibilidad de usar Azure Lighthouse. Azure Lighthouse permite a los proveedores de servicios administrados usar los servicios de identidad nativos de Azure para autenticarse en el entorno de los clientes. Pone el control en manos de los clientes, ya que pueden revocar el acceso en cualquier momento y auditar las acciones de los proveedores de servicios.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4255,19 +4255,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4288,13 +4284,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Optimice y gestione las operaciones de SAP Basis mediante SAP Landscape Management (LaMa). Use el conector de SAP LaMa para Azure para reubicar, copiar, clonar y actualizar sistemas SAP.</t>
+          <t>Use Azure Update Manager para comprobar el estado de las actualizaciones disponibles para una sola máquina virtual o varias máquinas virtuales y considere la posibilidad de programar revisiones periódicas.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4305,19 +4301,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4333,18 +4329,18 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor para soluciones SAP para supervisar las cargas de trabajo de SAP (SAP HANA, clústeres de SUSE de alta disponibilidad y sistemas SQL) en Azure. Considere la posibilidad de complementar las soluciones de Azure Monitor para SAP con SAP Solution Manager.</t>
+          <t>Optimice y gestione las operaciones de SAP Basis mediante SAP Landscape Management (LaMa). Use el conector de SAP LaMa para Azure para reubicar, copiar, clonar y actualizar sistemas SAP.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4355,19 +4351,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4388,13 +4384,13 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Ejecute una comprobación de extensión de máquina virtual para SAP. VM Extension for SAP usa la identidad administrada asignada de una máquina virtual (VM) para acceder a los datos de configuración y supervisión de VM. La comprobación garantiza que todas las métricas de rendimiento de la aplicación SAP proceden de la extensión de Azure para SAP subyacente.</t>
+          <t>Use Azure Monitor para soluciones SAP para supervisar las cargas de trabajo de SAP (SAP HANA, clústeres de SUSE de alta disponibilidad y sistemas SQL) en Azure. Considere la posibilidad de complementar las soluciones de Azure Monitor para SAP con SAP Solution Manager.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4405,19 +4401,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4438,13 +4434,13 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
+          <t>Ejecute una comprobación de extensión de máquina virtual para SAP. VM Extension for SAP usa la identidad administrada asignada de una máquina virtual (VM) para acceder a los datos de configuración y supervisión de VM. La comprobación garantiza que todas las métricas de rendimiento de la aplicación SAP proceden de la extensión de Azure para SAP subyacente.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4455,19 +4451,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4488,7 +4484,7 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Use el Monitor de conexión en Azure Network Watcher para supervisar las métricas de latencia de las bases de datos y los servidores de aplicaciones de SAP. O bien, recopile y muestre medidas de latencia de red mediante Azure Monitor.</t>
+          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4505,19 +4501,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4538,13 +4534,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones SAP.</t>
+          <t>Use el Monitor de conexión en Azure Network Watcher para supervisar las métricas de latencia de las bases de datos y los servidores de aplicaciones de SAP. O bien, recopile y muestre medidas de latencia de red mediante Azure Monitor.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4555,19 +4551,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -5112,23 +5108,23 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Fiabilidad</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Para la entrega segura de aplicaciones HTTP/S, use Application Gateway v2 y asegúrese de que la protección y las directivas de WAF están habilitadas.</t>
+          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones SAP.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5139,19 +5135,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5167,12 +5163,12 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Si el DNS o el nombre virtual de la máquina virtual no se cambia durante la migración a Azure, el DNS en segundo plano y los nombres virtuales conectan muchas interfaces del sistema en el entorno de SAP, y los clientes solo conocen a veces las interfaces que los desarrolladores definen a lo largo del tiempo. Los desafíos de conexión surgen entre varios sistemas cuando los nombres virtuales o DNS cambian después de las migraciones, y se recomienda conservar los alias DNS para evitar este tipo de dificultades.</t>
+          <t>Para la entrega segura de aplicaciones HTTP/S, use Application Gateway v2 y asegúrese de que la protección y las directivas de WAF están habilitadas.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5189,19 +5185,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5222,7 +5218,7 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Utilice diferentes zonas DNS para distinguir cada entorno (espacio aislado, desarrollo, preproducción y producción) entre sí. La excepción es para las implementaciones de SAP con su propia red virtual; en este caso, es posible que las zonas DNS privadas no sean necesarias.</t>
+          <t>Si el DNS o el nombre virtual de la máquina virtual no se cambia durante la migración a Azure, el DNS en segundo plano y los nombres virtuales conectan muchas interfaces del sistema en el entorno de SAP, y los clientes solo conocen a veces las interfaces que los desarrolladores definen a lo largo del tiempo. Los desafíos de conexión surgen entre varios sistemas cuando los nombres virtuales o DNS cambian después de las migraciones, y se recomienda conservar los alias DNS para evitar este tipo de dificultades.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5251,7 +5247,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5267,12 +5263,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>El emparejamiento de red virtual local y global proporciona conectividad y son los enfoques preferidos para garantizar la conectividad entre las zonas de aterrizaje para las implementaciones de SAP en varias regiones de Azure</t>
+          <t>Utilice diferentes zonas DNS para distinguir cada entorno (espacio aislado, desarrollo, preproducción y producción) entre sí. La excepción es para las implementaciones de SAP con su propia red virtual; en este caso, es posible que las zonas DNS privadas no sean necesarias.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5289,19 +5285,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5322,13 +5318,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>No se admite la implementación de ninguna aplicación virtual de red entre la aplicación SAP y el servidor de base de datos SAP</t>
+          <t>El emparejamiento de red virtual local y global proporciona conectividad y son los enfoques preferidos para garantizar la conectividad entre las zonas de aterrizaje para las implementaciones de SAP en varias regiones de Azure</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5339,19 +5335,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2731110</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5372,13 +5368,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Use Virtual WAN para implementaciones de Azure en redes nuevas, grandes o globales en las que necesite conectividad de tránsito global entre regiones de Azure y ubicaciones locales. Con este enfoque, no tendrá que configurar manualmente el enrutamiento transitivo para las redes de Azure y puede seguir un estándar para las implementaciones de SAP en Azure.</t>
+          <t>No se admite la implementación de ninguna aplicación virtual de red entre la aplicación SAP y el servidor de base de datos SAP</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5389,19 +5385,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5422,7 +5418,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de implementar aplicaciones virtuales de red (NVA) entre regiones solo si se usan aplicaciones virtuales de red de asociados. Las aplicaciones virtuales de red entre regiones o redes virtuales no son necesarias si hay aplicaciones virtuales de red nativas. Al implementar tecnologías de redes de asociados y aplicaciones virtuales de red, siga las instrucciones del proveedor para comprobar las configuraciones conflictivas con las redes de Azure.</t>
+          <t>Use Virtual WAN para implementaciones de Azure en redes nuevas, grandes o globales en las que necesite conectividad de tránsito global entre regiones de Azure y ubicaciones locales. Con este enfoque, no tendrá que configurar manualmente el enrutamiento transitivo para las redes de Azure y puede seguir un estándar para las implementaciones de SAP en Azure.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5439,19 +5435,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5472,7 +5468,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN administra la conectividad entre redes virtuales de radio para topologías basadas en WAN virtuales (sin necesidad de configurar el enrutamiento definido por el usuario [UDR] o NVA), y el rendimiento máximo de red para el tráfico de red virtual a red virtual en el mismo centro virtual es de 50 gigabits por segundo. Si es necesario, las zonas de aterrizaje de SAP pueden usar el emparejamiento de red virtual para conectarse a otras zonas de aterrizaje y superar esta limitación de ancho de banda.</t>
+          <t>Considere la posibilidad de implementar aplicaciones virtuales de red (NVA) entre regiones solo si se usan aplicaciones virtuales de red de asociados. Las aplicaciones virtuales de red entre regiones o redes virtuales no son necesarias si hay aplicaciones virtuales de red nativas. Al implementar tecnologías de redes de asociados y aplicaciones virtuales de red, siga las instrucciones del proveedor para comprobar las configuraciones conflictivas con las redes de Azure.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5489,19 +5485,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5517,18 +5513,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>No se recomienda la asignación de I.P pública a la máquina virtual que ejecuta SAP Workload.</t>
+          <t>Virtual WAN administra la conectividad entre redes virtuales de radio para topologías basadas en WAN virtuales (sin necesidad de configurar el enrutamiento definido por el usuario [UDR] o NVA), y el rendimiento máximo de red para el tráfico de red virtual a red virtual en el mismo centro virtual es de 50 gigabits por segundo. Si es necesario, las zonas de aterrizaje de SAP pueden usar el emparejamiento de red virtual para conectarse a otras zonas de aterrizaje y superar esta limitación de ancho de banda.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5539,19 +5535,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5572,7 +5568,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de reservar la dirección I.P en el lado de la recuperación ante desastres al configurar ASR</t>
+          <t>No se recomienda la asignación de direcciones IP públicas a la máquina virtual que ejecuta SAP Workload.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5589,19 +5585,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5622,7 +5618,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Evite el uso de intervalos de direcciones IP superpuestos para los sitios de producción y recuperación ante desastres.</t>
+          <t>Considere la posibilidad de reservar la dirección IP en el lado de la recuperación ante desastres al configurar ASR</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5639,19 +5635,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5672,13 +5668,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Aunque Azure le ayuda a crear varias subredes delegadas en una red virtual, solo puede existir una subred delegada en una red virtual para Azure NetApp Files. Se producirá un error al intentar crear un nuevo volumen si se utiliza más de una subred delegada para Azure NetApp Files.</t>
+          <t>Evite el uso de intervalos de direcciones IP superpuestos para los sitios de producción y recuperación ante desastres.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5689,19 +5685,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5717,12 +5713,12 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plan de propiedad intelectual</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Aunque Azure le ayuda a crear varias subredes delegadas en una red virtual, solo puede existir una subred delegada en una red virtual para Azure NetApp Files. Se producirá un error al intentar crear un nuevo volumen si se utiliza más de una subred delegada para Azure NetApp Files.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5739,19 +5735,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5772,7 +5768,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway y Web Application Firewall tienen limitaciones cuando Application Gateway actúa como proxy inverso para aplicaciones web de SAP, como se muestra en la comparación entre Application Gateway, SAP Web Dispatcher y otros servicios de terceros.</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5789,19 +5785,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5822,7 +5818,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Application Gateway y Web Application Firewall tienen limitaciones cuando Application Gateway actúa como proxy inverso para aplicaciones web de SAP, como se muestra en la comparación entre Application Gateway, SAP Web Dispatcher y otros servicios de terceros.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5839,19 +5835,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5872,7 +5868,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Aproveche las directivas de Web Application Firewall en Azure Front Door cuando use Azure Front Door y Application Gateway para proteger las aplicaciones HTTP/S. Bloquee Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5889,19 +5885,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5922,7 +5918,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Utilice un firewall de aplicaciones web para analizar su tráfico cuando esté expuesto a Internet. Otra opción es usarlo con el equilibrador de carga o con recursos que tengan funcionalidades de firewall integradas, como Application Gateway o soluciones de terceros.</t>
+          <t>Aproveche las directivas de Web Application Firewall en Azure Front Door cuando use Azure Front Door y Application Gateway para proteger las aplicaciones HTTP/S. Bloquee Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5939,7 +5935,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
@@ -5951,7 +5947,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5972,7 +5968,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Use Virtual WAN para implementaciones de Azure en redes nuevas, grandes o globales en las que necesite conectividad de tránsito global entre regiones de Azure y ubicaciones locales. Con este enfoque, no tendrá que configurar manualmente el enrutamiento transitivo para las redes de Azure y puede seguir un estándar para las implementaciones de SAP en Azure.</t>
+          <t>Utilice un firewall de aplicaciones web para analizar su tráfico cuando esté expuesto a Internet. Otra opción es usarlo con el equilibrador de carga o con recursos que tengan funcionalidades de firewall integradas, como Application Gateway o soluciones de terceros.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5989,19 +5985,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6022,7 +6018,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Para evitar la pérdida de datos, use Azure Private Link para acceder de forma segura a los recursos de plataforma como servicio, como Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, etc. El punto de conexión privado de Azure también puede ayudar a proteger el tráfico entre redes virtuales y servicios como Azure Storage, Azure Backup, etc. El tráfico entre la red virtual y el servicio habilitado para punto de conexión privado viaja a través de la red global de Microsoft, lo que impide su exposición a la red pública de Internet.</t>
+          <t>Use Virtual WAN para implementaciones de Azure en redes nuevas, grandes o globales en las que necesite conectividad de tránsito global entre regiones de Azure y ubicaciones locales. Con este enfoque, no tendrá que configurar manualmente el enrutamiento transitivo para las redes de Azure y puede seguir un estándar para las implementaciones de SAP en Azure.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6039,19 +6035,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6067,18 +6063,18 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las redes aceleradas de Azure están habilitadas en las máquinas virtuales que se usan en las capas de aplicación SAP y DBMS.</t>
+          <t>Para evitar la pérdida de datos, use Azure Private Link para acceder de forma segura a los recursos de plataforma como servicio, como Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, etc. El punto de conexión privado de Azure también puede ayudar a proteger el tráfico entre redes virtuales y servicios como Azure Storage, Azure Backup, etc. El tráfico entre la red virtual y el servicio habilitado para punto de conexión privado viaja a través de la red global de Microsoft, lo que impide su exposición a la red pública de Internet.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6089,19 +6085,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6122,13 +6118,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones internas de Azure Load Balancer están configuradas para usar Direct Server Return (DSR). Esta configuración reducirá la latencia cuando se utilicen configuraciones internas del equilibrador de carga para configuraciones de alta disponibilidad en la capa DBMS.</t>
+          <t>Asegúrese de que las redes aceleradas de Azure están habilitadas en las máquinas virtuales que se usan en las capas de aplicación SAP y DBMS.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6139,19 +6135,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6172,7 +6168,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Puede usar reglas de grupo de seguridad de aplicaciones (ASG) y NSG para definir listas de control de acceso de seguridad de red entre la aplicación SAP y las capas DBMS. Los ASG agrupan las máquinas virtuales para ayudar a administrar su seguridad.</t>
+          <t>Asegúrese de que las implementaciones internas de Azure Load Balancer están configuradas para usar Direct Server Return (DSR). Esta configuración reducirá la latencia cuando se utilicen configuraciones internas del equilibrador de carga para configuraciones de alta disponibilidad en la capa DBMS.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6189,19 +6185,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6222,13 +6218,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>No se admite la colocación de la capa de aplicación de SAP y DBMS de SAP en diferentes redes virtuales de Azure que no están emparejadas.</t>
+          <t>Puede usar reglas de grupo de seguridad de aplicaciones (ASG) y NSG para definir listas de control de acceso de seguridad de red entre la aplicación SAP y las capas DBMS. Los ASG agrupan las máquinas virtuales para ayudar a administrar su seguridad.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6239,19 +6235,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6272,13 +6268,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Para obtener una latencia de red óptima con aplicaciones SAP, considere la posibilidad de usar grupos de selección de ubicación por proximidad de Azure.</t>
+          <t>No se admite la colocación de la capa de aplicación de SAP y DBMS de SAP en diferentes redes virtuales de Azure que no están emparejadas.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6289,19 +6285,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6322,13 +6318,13 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>NO se admite en absoluto la ejecución de una capa de servidor de aplicaciones de SAP y una capa de DBMS divididas entre el entorno local y Azure. Ambas capas deben residir completamente en el entorno local o en Azure.</t>
+          <t>Para obtener una latencia de red óptima con aplicaciones SAP, considere la posibilidad de usar grupos de selección de ubicación por proximidad de Azure.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6339,19 +6335,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6372,7 +6368,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>No se recomienda hospedar el sistema de administración de bases de datos (DBMS) y las capas de aplicación de los sistemas SAP en diferentes redes virtuales y conectarlas con el emparejamiento de redes virtuales debido a los costos sustanciales que puede producir un tráfico de red excesivo entre las capas. Se recomienda el uso de subredes dentro de la red virtual de Azure para separar la capa de aplicación de SAP y la capa de DBMS.</t>
+          <t>NO se admite en absoluto la ejecución de una capa de servidor de aplicaciones de SAP y una capa de DBMS divididas entre el entorno local y Azure. Ambas capas deben residir completamente en el entorno local o en Azure.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6401,7 +6397,7 @@
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6422,7 +6418,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Si utiliza Load Balancer con sistemas operativos invitados Linux, compruebe que el parámetro de red de Linux net.ipv4.tcp_timestamps esté establecido en 0.</t>
+          <t>No se recomienda hospedar el sistema de administración de bases de datos (DBMS) y las capas de aplicación de los sistemas SAP en diferentes redes virtuales y conectarlas con el emparejamiento de redes virtuales debido a los costos sustanciales que puede producir un tráfico de red excesivo entre las capas. Se recomienda el uso de subredes dentro de la red virtual de Azure para separar la capa de aplicación de SAP y la capa de DBMS.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6439,19 +6435,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6472,13 +6468,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las implementaciones de SAP RISE/ECS, el emparejamiento virtual es la forma preferida de establecer la conectividad con el entorno de Azure existente del cliente. Tanto la red virtual de SAP como las redes virtuales del cliente están protegidas con grupos de seguridad de red (NSG), lo que permite la comunicación en los puertos de SAP y de base de datos a través del emparejamiento de redes virtuales</t>
+          <t>Si utiliza Load Balancer con sistemas operativos invitados Linux, compruebe que el parámetro de red de Linux net.ipv4.tcp_timestamps esté establecido en 0.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6489,14 +6485,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6507,17 +6508,17 @@
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Si ejecuta máquinas virtuales Windows y Linux en Azure, en el entorno local o en otros entornos en la nube, puede usar el Centro de administración de actualizaciones de Automatización de Azure para administrar las actualizaciones del sistema operativo, incluidas las revisiones de seguridad.</t>
+          <t>En el caso de las implementaciones de SAP RISE/ECS, el emparejamiento virtual es la forma preferida de establecer la conectividad con el entorno de Azure existente del cliente. Tanto la red virtual de SAP como las redes virtuales del cliente están protegidas con grupos de seguridad de red (NSG), lo que permite la comunicación en los puertos de SAP y de base de datos a través del emparejamiento de redes virtuales</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6534,19 +6535,15 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6557,23 +6554,23 @@
     <row r="121" ht="16.5" customHeight="1">
       <c r="A121" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Excelencia operativa</t>
         </is>
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Revise de forma rutinaria las notas de seguridad de SAP OSS, ya que SAP publica parches de seguridad muy críticos, o revisiones, que requieren una acción inmediata para proteger sus sistemas SAP.</t>
+          <t>Revise las copias de seguridad de bases de datos de SAP HANA para máquinas virtuales de Azure.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6584,19 +6581,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>ff5136bd-dcf1-4d2b-ae52-39333efdf45a</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6607,23 +6600,23 @@
     <row r="122" ht="16.5" customHeight="1">
       <c r="A122" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Excelencia operativa</t>
         </is>
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>En el caso de SAP en SQL Server, puede deshabilitar la cuenta de administrador del sistema de SQL Server porque los sistemas SAP en SQL Server no usan la cuenta. Asegúrese de que otro usuario con derechos de administrador del sistema pueda acceder al servidor antes de deshabilitar la cuenta de administrador del sistema original.</t>
+          <t>Revise la supervisión integrada de Site Recovery, si se usa para SAP.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6634,7 +6627,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I122" s="15" t="n"/>
@@ -6642,7 +6635,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>cafde29d-a0af-4bcd-87c0-0f299d63f0e8</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6653,17 +6646,17 @@
     <row r="123" ht="16.5" customHeight="1">
       <c r="A123" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Excelencia operativa</t>
         </is>
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Deshabilite xp_cmdshell. La característica de SQL Server xp_cmdshell habilita un shell de comandos del sistema operativo interno de SQL Server. Es un riesgo potencial en las auditorías de seguridad.</t>
+          <t>Revise la guía Supervisión del entorno del sistema SAP HANA.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6680,19 +6673,15 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
-        </is>
-      </c>
+          <t>https://help.sap.com/docs/SAP_HANA_PLATFORM/c4d7c773af4a4e5dbebb6548d6e2d4f4/e3111d2ebb5710149510cc120646bf3f.html?locale=en-US</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>82d7b8de-d3f1-44a0-830b-38e200e82acf</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6703,23 +6692,23 @@
     <row r="124" ht="16.5" customHeight="1">
       <c r="A124" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Excelencia operativa</t>
         </is>
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>El cifrado de servidores de bases de datos de SAP HANA en Azure usa la tecnología de cifrado nativa de SAP HANA. Además, si usa SQL Server en Azure, use el cifrado de datos transparente (TDE) para proteger los datos y los archivos de registro y asegurarse de que las copias de seguridad también están cifradas.</t>
+          <t>Revise las estrategias de copia de seguridad de Oracle Database en máquinas virtuales Linux de Azure.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6730,19 +6719,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/oracle-database-backup-strategies</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>c823873a-2bec-4c2a-b684-a1ce8ae80efd</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6753,17 +6738,17 @@
     <row r="125" ht="16.5" customHeight="1">
       <c r="A125" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Excelencia operativa</t>
         </is>
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>El cifrado de Azure Storage está habilitado para todas las cuentas de Azure Resource Manager y de almacenamiento clásico, y no se puede deshabilitar. Dado que los datos están cifrados de forma predeterminada, no es necesario modificar el código o las aplicaciones para usar el cifrado de Azure Storage.</t>
+          <t>Revise el uso de Azure Blob Storage con SQL Server 2016.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6780,19 +6765,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/sql/relational-databases/tutorial-use-azure-blob-storage-service-with-sql-server-2016?view=sql-server-ver16</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>2943b6d8-1d31-4e19-ade7-78e6b26d1962</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6803,23 +6784,23 @@
     <row r="126" ht="16.5" customHeight="1">
       <c r="A126" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Excelencia operativa</t>
         </is>
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Key Vault para almacenar los secretos y las credenciales</t>
+          <t>Revise el uso de Copia de seguridad automatizada v2 para máquinas virtuales de Azure.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6830,19 +6811,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-sql/virtual-machines/windows/automated-backup?view=azuresql</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>b82e650f-676d-417d-994d-fc33ca54ec14</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6853,23 +6829,23 @@
     <row r="127" ht="16.5" customHeight="1">
       <c r="A127" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Excelencia operativa</t>
         </is>
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Se recomienda bloquear los recursos de Azure después de la implementación correcta para protegerse contra cambios no autorizados. También puede aplicar restricciones y reglas de LOCK por suscripción mediante directivas de Azure personalizadas (rol personalizado).</t>
+          <t>Habilitación del acelerador de escritura para la serie M cuando se utilizan discos premium (V1)</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6878,21 +6854,12 @@
         </is>
       </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H127" s="15" t="n"/>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>347c2dcc-e6eb-4b04-80c5-628b171aa62d</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6903,17 +6870,17 @@
     <row r="128" ht="16.5" customHeight="1">
       <c r="A128" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
+          <t>Pruebe la latencia de la zona de disponibilidad.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6930,19 +6897,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>b96512cf-996f-4b17-b9b8-6b16db1a2a94</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6953,23 +6915,23 @@
     <row r="129" ht="16.5" customHeight="1">
       <c r="A129" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>En función de los requisitos existentes, controles normativos y de cumplimiento (internos y externos): determine qué directivas de Azure y el rol de RBAC de Azure son necesarios</t>
+          <t>Active SAP EarlyWatch Alert para todos los componentes de SAP.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6980,19 +6942,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+          <t>https://support.sap.com/en/offerings-programs/support-services/earlywatch-alert.html</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/techops/3362700736.html</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>9fd7ffd4-da11-49f6-a374-8d03e94c511d</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7003,23 +6965,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Al habilitar Microsoft Defender para punto de conexión en el entorno de SAP, se recomienda excluir los archivos de datos y registro en los servidores DBMS en lugar de dirigirse a todos los servidores. Siga las recomendaciones de su proveedor de DBMS al excluir archivos de destino.</t>
+          <t>Revise la latencia del servidor de aplicaciones SAP al servidor de bases de datos mediante el informe ABAPMeter de SAP /SSA/CAT.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7030,19 +6992,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/sap-on-azure-general-update-march-2019/ba-p/377456</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://me.sap.com/notes/0002879613</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>b9b140cf-413a-483d-aad2-8802c4e3c017</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7053,23 +7015,23 @@
     <row r="131" ht="16.5" customHeight="1">
       <c r="A131" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Delegue un rol personalizado de administrador de SAP con acceso Just-In-Time de Microsoft Defender for Cloud.</t>
+          <t>Revise la supervisión del rendimiento de SQL Server mediante CCMS.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
       <c r="E131" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7078,21 +7040,12 @@
         </is>
       </c>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H131" s="15" t="n"/>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>62fbf0f8-51db-49e1-a961-bb5df7a35f80</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7103,23 +7056,23 @@
     <row r="132" ht="16.5" customHeight="1">
       <c r="A132" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>cifre los datos en tránsito integrando el producto de seguridad de terceros con comunicaciones de red seguras (SNC) para DIAG (SAP GUI), RFC y SPNEGO para HTTPS</t>
+          <t>Pruebe la latencia de red entre las máquinas virtuales de la capa de aplicación de SAP y las máquinas virtuales de DBMS (NIPING).</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7130,19 +7083,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://me.sap.com/notes/500235</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+          <t>https://me.sap.com/notes/1100926/E</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>35709da7-fc7d-4efe-bb20-2e91547b7390</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7153,17 +7106,17 @@
     <row r="133" ht="16.5" customHeight="1">
       <c r="A133" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice claves administradas por Microsoft para la funcionalidad de cifrado de entidad de seguridad y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>Revise las alertas de SAP HANA Studio.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7180,19 +7133,14 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/en-us/azure/sap/large-instances/hana-monitor-troubleshoot</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>9e9bb4c8-e934-4e4b-a13c-6f7c7c38eb43</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7203,23 +7151,23 @@
     <row r="134" ht="16.5" customHeight="1">
       <c r="A134" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Rendimiento</t>
         </is>
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Use una instancia de Azure Key Vault por aplicación, por entorno, por región.</t>
+          <t>Realice comprobaciones de estado de SAP HANA mediante HANA_Configuration_Minichecks.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7230,19 +7178,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1969700</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>f1a92ab5-9509-4b57-86ff-b0ade361b694</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7258,18 +7201,18 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Para controlar y administrar claves y secretos de cifrado de disco para sistemas operativos Windows y Windows que no son de HANA, use Azure Key Vault. SAP HANA no es compatible con Azure Key Vault, por lo que debe usar métodos alternativos como SAP ABAP o claves SSH.</t>
+          <t>Si ejecuta máquinas virtuales Windows y Linux en Azure, en el entorno local o en otros entornos en la nube, puede usar el Centro de administración de actualizaciones de Automatización de Azure para administrar las actualizaciones del sistema operativo, incluidas las revisiones de seguridad.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7280,19 +7223,19 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7308,12 +7251,12 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Revise de forma rutinaria las notas de seguridad de SAP OSS, ya que SAP publica parches de seguridad muy críticos, o revisiones, que requieren una acción inmediata para proteger sus sistemas SAP.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7330,14 +7273,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7353,18 +7301,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Personalización de los roles de control de acceso basado en rol (RBAC) para SAP en suscripciones de Azure spoke para evitar cambios accidentales relacionados con la red</t>
+          <t>En el caso de SAP en SQL Server, puede deshabilitar la cuenta de administrador del sistema de SQL Server porque los sistemas SAP en SQL Server no usan la cuenta. Asegúrese de que otro usuario con derechos de administrador del sistema pueda acceder al servidor antes de deshabilitar la cuenta de administrador del sistema original.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7375,19 +7323,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7403,12 +7346,12 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Aísle las redes perimetrales y las aplicaciones virtuales de red del resto del patrimonio de SAP, configure Azure Private Link y administre y controle de forma segura los recursos de SAP en Azure</t>
+          <t>Deshabilite xp_cmdshell. La característica de SQL Server xp_cmdshell habilita un shell de comandos del sistema operativo interno de SQL Server. Es un riesgo potencial en las auditorías de seguridad.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7425,19 +7368,19 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7453,18 +7396,18 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar el software antimalware de Microsoft en Azure para proteger las máquinas virtuales de archivos malintencionados, adware y otras amenazas.</t>
+          <t>El cifrado de servidores de bases de datos de SAP HANA en Azure usa la tecnología de cifrado nativa de SAP HANA. Además, si usa SQL Server en Azure, use el cifrado de datos transparente (TDE) para proteger los datos y los archivos de registro y asegurarse de que las copias de seguridad también están cifradas.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7475,19 +7418,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7503,18 +7446,18 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Para una protección aún más eficaz, considere la posibilidad de usar Microsoft Defender para punto de conexión.</t>
+          <t>El cifrado de Azure Storage está habilitado para todas las cuentas de Azure Resource Manager y de almacenamiento clásico, y no se puede deshabilitar. Dado que los datos están cifrados de forma predeterminada, no es necesario modificar el código o las aplicaciones para usar el cifrado de Azure Storage.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7525,19 +7468,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7553,12 +7496,12 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Aísle los servidores de aplicaciones y bases de datos de SAP de Internet o de la red local pasando todo el tráfico a través de la red virtual del centro de conectividad, que está conectada a la red radial mediante el emparejamiento de red virtual. Las redes virtuales emparejadas garantizan que la solución de SAP en Azure esté aislada de la red pública de Internet.</t>
+          <t>Uso de Azure Key Vault para almacenar los secretos y las credenciales</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7575,19 +7518,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7603,18 +7546,18 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las aplicaciones orientadas a Internet, como SAP Fiori, asegúrese de distribuir la carga según los requisitos de la aplicación mientras se mantienen los niveles de seguridad. Para la seguridad de nivel 7, puede usar un firewall de aplicaciones web (WAF) de terceros disponible en Azure Marketplace.</t>
+          <t>Se recomienda bloquear los recursos de Azure después de la implementación correcta para protegerse contra cambios no autorizados. También puede aplicar restricciones y reglas de LOCK por suscripción mediante directivas de Azure personalizadas (rol personalizado).</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7625,19 +7568,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7653,12 +7596,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Para habilitar la comunicación segura en las soluciones de Azure Monitor para SAP, puede optar por usar un certificado raíz o un certificado de servidor. Le recomendamos encarecidamente que utilice certificados raíz.</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7675,19 +7618,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7696,240 +7639,745 @@
       <c r="P143" s="25" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1">
-      <c r="A144" s="21" t="n"/>
-      <c r="B144" s="21" t="n"/>
-      <c r="C144" s="21" t="n"/>
+      <c r="A144" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B144" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C144" s="21" t="inlineStr">
+        <is>
+          <t>En función de los requisitos existentes, controles normativos y de cumplimiento (internos y externos): determine qué directivas de Azure y el rol de RBAC de Azure son necesarios</t>
+        </is>
+      </c>
       <c r="D144" s="21" t="n"/>
-      <c r="E144" s="21" t="n"/>
+      <c r="E144" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G144" s="21" t="n"/>
-      <c r="H144" s="15" t="n"/>
+      <c r="H144" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
-      <c r="L144" s="25" t="n"/>
+      <c r="L144" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M144" s="25" t="n"/>
       <c r="N144" s="25" t="n"/>
       <c r="O144" s="25" t="n"/>
       <c r="P144" s="25" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1">
-      <c r="A145" s="21" t="n"/>
-      <c r="B145" s="21" t="n"/>
-      <c r="C145" s="21" t="n"/>
+      <c r="A145" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B145" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C145" s="21" t="inlineStr">
+        <is>
+          <t>Al habilitar Microsoft Defender para punto de conexión en el entorno de SAP, se recomienda excluir los archivos de datos y registro en los servidores DBMS en lugar de dirigirse a todos los servidores. Siga las recomendaciones de su proveedor de DBMS al excluir archivos de destino.</t>
+        </is>
+      </c>
       <c r="D145" s="21" t="n"/>
-      <c r="E145" s="21" t="n"/>
+      <c r="E145" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G145" s="21" t="n"/>
-      <c r="H145" s="15" t="n"/>
+      <c r="H145" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
-      <c r="L145" s="25" t="n"/>
+      <c r="L145" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M145" s="25" t="n"/>
       <c r="N145" s="25" t="n"/>
       <c r="O145" s="25" t="n"/>
       <c r="P145" s="25" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1">
-      <c r="A146" s="21" t="n"/>
-      <c r="B146" s="21" t="n"/>
-      <c r="C146" s="21" t="n"/>
+      <c r="A146" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B146" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C146" s="21" t="inlineStr">
+        <is>
+          <t>Delegue un rol personalizado de administrador de SAP con acceso Just-In-Time de Microsoft Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D146" s="21" t="n"/>
-      <c r="E146" s="21" t="n"/>
+      <c r="E146" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G146" s="21" t="n"/>
-      <c r="H146" s="15" t="n"/>
+      <c r="H146" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
-      <c r="L146" s="25" t="n"/>
+      <c r="L146" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M146" s="25" t="n"/>
       <c r="N146" s="25" t="n"/>
       <c r="O146" s="25" t="n"/>
       <c r="P146" s="25" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1">
-      <c r="A147" s="21" t="n"/>
-      <c r="B147" s="21" t="n"/>
-      <c r="C147" s="21" t="n"/>
+      <c r="A147" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B147" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C147" s="21" t="inlineStr">
+        <is>
+          <t>cifre los datos en tránsito integrando el producto de seguridad de terceros con comunicaciones de red seguras (SNC) para DIAG (SAP GUI), RFC y SPNEGO para HTTPS</t>
+        </is>
+      </c>
       <c r="D147" s="21" t="n"/>
-      <c r="E147" s="21" t="n"/>
+      <c r="E147" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G147" s="21" t="n"/>
-      <c r="H147" s="15" t="n"/>
+      <c r="H147" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
-      <c r="L147" s="25" t="n"/>
+      <c r="L147" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M147" s="25" t="n"/>
       <c r="N147" s="25" t="n"/>
       <c r="O147" s="25" t="n"/>
       <c r="P147" s="25" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1">
-      <c r="A148" s="21" t="n"/>
-      <c r="B148" s="21" t="n"/>
-      <c r="C148" s="21" t="n"/>
+      <c r="A148" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B148" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C148" s="21" t="inlineStr">
+        <is>
+          <t>De forma predeterminada, utilice claves administradas por Microsoft para la funcionalidad de cifrado de entidad de seguridad y use claves administradas por el cliente cuando sea necesario.</t>
+        </is>
+      </c>
       <c r="D148" s="21" t="n"/>
-      <c r="E148" s="21" t="n"/>
+      <c r="E148" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G148" s="21" t="n"/>
-      <c r="H148" s="15" t="n"/>
+      <c r="H148" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
-      <c r="L148" s="25" t="n"/>
+      <c r="L148" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M148" s="25" t="n"/>
       <c r="N148" s="25" t="n"/>
       <c r="O148" s="25" t="n"/>
       <c r="P148" s="25" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1">
-      <c r="A149" s="21" t="n"/>
-      <c r="B149" s="21" t="n"/>
-      <c r="C149" s="21" t="n"/>
+      <c r="A149" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B149" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C149" s="21" t="inlineStr">
+        <is>
+          <t>Use una instancia de Azure Key Vault por aplicación, por entorno, por región.</t>
+        </is>
+      </c>
       <c r="D149" s="21" t="n"/>
-      <c r="E149" s="21" t="n"/>
+      <c r="E149" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G149" s="21" t="n"/>
-      <c r="H149" s="15" t="n"/>
+      <c r="H149" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
-      <c r="L149" s="25" t="n"/>
+      <c r="L149" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M149" s="25" t="n"/>
       <c r="N149" s="25" t="n"/>
       <c r="O149" s="25" t="n"/>
       <c r="P149" s="25" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1">
-      <c r="A150" s="21" t="n"/>
-      <c r="B150" s="21" t="n"/>
-      <c r="C150" s="21" t="n"/>
+      <c r="A150" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B150" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C150" s="21" t="inlineStr">
+        <is>
+          <t>Para controlar y administrar claves y secretos de cifrado de disco para sistemas operativos Windows y Windows que no son de HANA, use Azure Key Vault. SAP HANA no es compatible con Azure Key Vault, por lo que debe usar métodos alternativos como SAP ABAP o claves SSH.</t>
+        </is>
+      </c>
       <c r="D150" s="21" t="n"/>
-      <c r="E150" s="21" t="n"/>
+      <c r="E150" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G150" s="21" t="n"/>
-      <c r="H150" s="15" t="n"/>
+      <c r="H150" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
-      <c r="L150" s="25" t="n"/>
+      <c r="L150" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M150" s="25" t="n"/>
       <c r="N150" s="25" t="n"/>
       <c r="O150" s="25" t="n"/>
       <c r="P150" s="25" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1">
-      <c r="A151" s="21" t="n"/>
-      <c r="B151" s="21" t="n"/>
-      <c r="C151" s="21" t="n"/>
+      <c r="A151" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B151" s="21" t="inlineStr">
+        <is>
+          <t>Secretos</t>
+        </is>
+      </c>
+      <c r="C151" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D151" s="21" t="n"/>
-      <c r="E151" s="21" t="n"/>
+      <c r="E151" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G151" s="21" t="n"/>
-      <c r="H151" s="15" t="n"/>
+      <c r="H151" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
-      <c r="L151" s="25" t="n"/>
+      <c r="L151" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M151" s="25" t="n"/>
       <c r="N151" s="25" t="n"/>
       <c r="O151" s="25" t="n"/>
       <c r="P151" s="25" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1">
-      <c r="A152" s="21" t="n"/>
-      <c r="B152" s="21" t="n"/>
-      <c r="C152" s="21" t="n"/>
+      <c r="A152" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B152" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C152" s="21" t="inlineStr">
+        <is>
+          <t>Personalización de los roles de control de acceso basado en rol (RBAC) para SAP en suscripciones de Azure spoke para evitar cambios accidentales relacionados con la red</t>
+        </is>
+      </c>
       <c r="D152" s="21" t="n"/>
-      <c r="E152" s="21" t="n"/>
+      <c r="E152" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="n"/>
+      <c r="H152" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
-      <c r="L152" s="25" t="n"/>
+      <c r="L152" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M152" s="25" t="n"/>
       <c r="N152" s="25" t="n"/>
       <c r="O152" s="25" t="n"/>
       <c r="P152" s="25" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1">
-      <c r="A153" s="21" t="n"/>
-      <c r="B153" s="21" t="n"/>
-      <c r="C153" s="21" t="n"/>
+      <c r="A153" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B153" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C153" s="21" t="inlineStr">
+        <is>
+          <t>Aísle las redes perimetrales y las aplicaciones virtuales de red del resto del patrimonio de SAP, configure Azure Private Link y administre y controle de forma segura los recursos de SAP en Azure</t>
+        </is>
+      </c>
       <c r="D153" s="21" t="n"/>
-      <c r="E153" s="21" t="n"/>
+      <c r="E153" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
-      <c r="L153" s="25" t="n"/>
+      <c r="L153" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M153" s="25" t="n"/>
       <c r="N153" s="25" t="n"/>
       <c r="O153" s="25" t="n"/>
       <c r="P153" s="25" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1">
-      <c r="A154" s="21" t="n"/>
-      <c r="B154" s="21" t="n"/>
-      <c r="C154" s="21" t="n"/>
+      <c r="A154" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B154" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C154" s="21" t="inlineStr">
+        <is>
+          <t>Considere la posibilidad de usar el software antimalware de Microsoft en Azure para proteger las máquinas virtuales de archivos malintencionados, adware y otras amenazas.</t>
+        </is>
+      </c>
       <c r="D154" s="21" t="n"/>
-      <c r="E154" s="21" t="n"/>
+      <c r="E154" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="n"/>
+      <c r="H154" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
-      <c r="L154" s="25" t="n"/>
+      <c r="L154" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M154" s="25" t="n"/>
       <c r="N154" s="25" t="n"/>
       <c r="O154" s="25" t="n"/>
       <c r="P154" s="25" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1">
-      <c r="A155" s="21" t="n"/>
-      <c r="B155" s="21" t="n"/>
-      <c r="C155" s="21" t="n"/>
+      <c r="A155" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B155" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C155" s="21" t="inlineStr">
+        <is>
+          <t>Para una protección aún más eficaz, considere la posibilidad de usar Microsoft Defender para punto de conexión.</t>
+        </is>
+      </c>
       <c r="D155" s="21" t="n"/>
-      <c r="E155" s="21" t="n"/>
+      <c r="E155" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G155" s="21" t="n"/>
-      <c r="H155" s="15" t="n"/>
+      <c r="H155" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
-      <c r="L155" s="25" t="n"/>
+      <c r="L155" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M155" s="25" t="n"/>
       <c r="N155" s="25" t="n"/>
       <c r="O155" s="25" t="n"/>
       <c r="P155" s="25" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1">
-      <c r="A156" s="21" t="n"/>
-      <c r="B156" s="21" t="n"/>
-      <c r="C156" s="21" t="n"/>
+      <c r="A156" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B156" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C156" s="21" t="inlineStr">
+        <is>
+          <t>Aísle los servidores de aplicaciones y bases de datos de SAP de Internet o de la red local pasando todo el tráfico a través de la red virtual del centro de conectividad, que está conectada a la red radial mediante el emparejamiento de red virtual. Las redes virtuales emparejadas garantizan que la solución de SAP en Azure esté aislada de la red pública de Internet.</t>
+        </is>
+      </c>
       <c r="D156" s="21" t="n"/>
-      <c r="E156" s="21" t="n"/>
+      <c r="E156" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="n"/>
+      <c r="H156" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
-      <c r="L156" s="25" t="n"/>
+      <c r="L156" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M156" s="25" t="n"/>
       <c r="N156" s="25" t="n"/>
       <c r="O156" s="25" t="n"/>
       <c r="P156" s="25" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1">
-      <c r="A157" s="21" t="n"/>
-      <c r="B157" s="21" t="n"/>
-      <c r="C157" s="21" t="n"/>
+      <c r="A157" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B157" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C157" s="21" t="inlineStr">
+        <is>
+          <t>En el caso de las aplicaciones orientadas a Internet, como SAP Fiori, asegúrese de distribuir la carga según los requisitos de la aplicación mientras se mantienen los niveles de seguridad. Para la seguridad de nivel 7, puede usar un firewall de aplicaciones web (WAF) de terceros disponible en Azure Marketplace.</t>
+        </is>
+      </c>
       <c r="D157" s="21" t="n"/>
-      <c r="E157" s="21" t="n"/>
+      <c r="E157" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G157" s="21" t="n"/>
-      <c r="H157" s="15" t="n"/>
+      <c r="H157" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
-      <c r="L157" s="25" t="n"/>
+      <c r="L157" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M157" s="25" t="n"/>
       <c r="N157" s="25" t="n"/>
       <c r="O157" s="25" t="n"/>
       <c r="P157" s="25" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="21" t="n"/>
-      <c r="B158" s="21" t="n"/>
-      <c r="C158" s="21" t="n"/>
+      <c r="A158" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B158" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C158" s="21" t="inlineStr">
+        <is>
+          <t>Para habilitar la comunicación segura en las soluciones de Azure Monitor para SAP, puede optar por usar un certificado raíz o un certificado de servidor. Le recomendamos encarecidamente que utilice certificados raíz.</t>
+        </is>
+      </c>
       <c r="D158" s="21" t="n"/>
-      <c r="E158" s="21" t="n"/>
+      <c r="E158" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="n"/>
+      <c r="H158" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="25" t="n"/>
+      <c r="L158" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M158" s="25" t="n"/>
       <c r="N158" s="25" t="n"/>
       <c r="O158" s="25" t="n"/>
@@ -10176,7 +10624,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F144" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F159" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.es.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.es.xlsx
@@ -941,7 +941,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -10728,6 +10728,11 @@
           <t>Use the "Import latest checklist" button to get the latest version of a review checklist</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Esta comprobación aún no se ha examinado</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>en</t>
@@ -10750,6 +10755,11 @@
           <t>Topología y conectividad de red</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hay un elemento de acción asociado a esta comprobación</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>ja</t>
@@ -10772,6 +10782,11 @@
           <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Esta comprobación se ha verificado y no hay más elementos de acción asociados a ella</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>ko</t>
@@ -10781,12 +10796,17 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No es necesario</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Gestión y Seguimiento</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Recomendación entendida, pero no necesaria por los requisitos actuales</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -10808,7 +10828,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Not applicable for current design</t>
+          <t>No aplicable para el diseño actual</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">

--- a/spreadsheet/macrofree/sap_checklist.es.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.es.xlsx
@@ -7996,18 +7996,18 @@
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Personalización de los roles de control de acceso basado en rol (RBAC) para SAP en suscripciones de Azure spoke para evitar cambios accidentales relacionados con la red</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8018,14 +8018,19 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8046,7 +8051,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Personalización de los roles de control de acceso basado en rol (RBAC) para SAP en suscripciones de Azure spoke para evitar cambios accidentales relacionados con la red</t>
+          <t>Aísle las redes perimetrales y las aplicaciones virtuales de red del resto del patrimonio de SAP, configure Azure Private Link y administre y controle de forma segura los recursos de SAP en Azure</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8063,19 +8068,19 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8096,13 +8101,13 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Aísle las redes perimetrales y las aplicaciones virtuales de red del resto del patrimonio de SAP, configure Azure Private Link y administre y controle de forma segura los recursos de SAP en Azure</t>
+          <t>Considere la posibilidad de usar el software antimalware de Microsoft en Azure para proteger las máquinas virtuales de archivos malintencionados, adware y otras amenazas.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8113,19 +8118,19 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8146,7 +8151,7 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar el software antimalware de Microsoft en Azure para proteger las máquinas virtuales de archivos malintencionados, adware y otras amenazas.</t>
+          <t>Para una protección aún más eficaz, considere la posibilidad de usar Microsoft Defender para punto de conexión.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8163,19 +8168,19 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8196,13 +8201,13 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Para una protección aún más eficaz, considere la posibilidad de usar Microsoft Defender para punto de conexión.</t>
+          <t>Aísle los servidores de aplicaciones y bases de datos de SAP de Internet o de la red local pasando todo el tráfico a través de la red virtual del centro de conectividad, que está conectada a la red radial mediante el emparejamiento de red virtual. Las redes virtuales emparejadas garantizan que la solución de SAP en Azure esté aislada de la red pública de Internet.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8213,19 +8218,19 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8246,13 +8251,13 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Aísle los servidores de aplicaciones y bases de datos de SAP de Internet o de la red local pasando todo el tráfico a través de la red virtual del centro de conectividad, que está conectada a la red radial mediante el emparejamiento de red virtual. Las redes virtuales emparejadas garantizan que la solución de SAP en Azure esté aislada de la red pública de Internet.</t>
+          <t>En el caso de las aplicaciones orientadas a Internet, como SAP Fiori, asegúrese de distribuir la carga según los requisitos de la aplicación mientras se mantienen los niveles de seguridad. Para la seguridad de nivel 7, puede usar un firewall de aplicaciones web (WAF) de terceros disponible en Azure Marketplace.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8263,19 +8268,19 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8296,13 +8301,13 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las aplicaciones orientadas a Internet, como SAP Fiori, asegúrese de distribuir la carga según los requisitos de la aplicación mientras se mantienen los niveles de seguridad. Para la seguridad de nivel 7, puede usar un firewall de aplicaciones web (WAF) de terceros disponible en Azure Marketplace.</t>
+          <t>Para habilitar la comunicación segura en las soluciones de Azure Monitor para SAP, puede optar por usar un certificado raíz o un certificado de servidor. Le recomendamos encarecidamente que utilice certificados raíz.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8313,19 +8318,19 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8334,50 +8339,16 @@
       <c r="P157" s="25" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
-        </is>
-      </c>
-      <c r="B158" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="C158" s="21" t="inlineStr">
-        <is>
-          <t>Para habilitar la comunicación segura en las soluciones de Azure Monitor para SAP, puede optar por usar un certificado raíz o un certificado de servidor. Le recomendamos encarecidamente que utilice certificados raíz.</t>
-        </is>
-      </c>
+      <c r="A158" s="21" t="n"/>
+      <c r="B158" s="21" t="n"/>
+      <c r="C158" s="21" t="n"/>
       <c r="D158" s="21" t="n"/>
-      <c r="E158" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E158" s="21" t="n"/>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H158" s="15" t="n"/>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="25" t="inlineStr">
-        <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
-        </is>
-      </c>
+      <c r="L158" s="25" t="n"/>
       <c r="M158" s="25" t="n"/>
       <c r="N158" s="25" t="n"/>
       <c r="O158" s="25" t="n"/>
@@ -10624,7 +10595,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F159" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F158" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.es.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.es.xlsx
@@ -6168,7 +6168,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones internas de Azure Load Balancer están configuradas para usar Direct Server Return (DSR). Esta configuración reducirá la latencia cuando se utilicen configuraciones internas del equilibrador de carga para configuraciones de alta disponibilidad en la capa DBMS.</t>
+          <t>Asegúrese de que las implementaciones internas de Azure Load Balancer están configuradas para usar Direct Server Return (DSR). Esta configuración (Habilitación de IP flotante) reducirá la latencia cuando se utilicen configuraciones internas del equilibrador de carga para configuraciones de alta disponibilidad en la capa DBMS.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>

--- a/spreadsheet/macrofree/sap_checklist.es.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.es.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure Center for SAP Solutions (ACSS) es una oferta de Azure que convierte a SAP en una carga de trabajo de nivel superior en Azure. ACSS es una solución integral que permite crear y ejecutar sistemas SAP como una carga de trabajo unificada en Azure y proporciona una base más fluida para la innovación. Puede aprovechar las funcionalidades de administración de los sistemas SAP nuevos y existentes basados en Azure.</t>
+          <t>Azure Center for SAP solutions (ACSS) es una oferta de Azure que convierte a SAP en una carga de trabajo de nivel superior en Azure. ACSS es una solución integral que permite crear y ejecutar sistemas SAP como una carga de trabajo unificada en Azure y proporciona una base más fluida para la innovación. Puede aprovechar las capacidades de administración de los sistemas SAP basados en Azure nuevos y existentes.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Realice una recuperación a un momento dado de sus bases de datos de producción en cualquier momento y en un período de tiempo que cumpla con su RTO; La recuperación a un momento dado suele incluir errores del operador al eliminar datos en la capa DBMS o a través de SAP, por cierto</t>
+          <t>Realice una recuperación a un momento dado para sus bases de datos de producción en cualquier momento y en un período de tiempo que cumpla con su RTO; La recuperación a un momento dado suele incluir errores del operador que eliminan datos en la capa DBMS o a través de SAP, por cierto</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Pruebe los tiempos de copia de seguridad y recuperación para verificar que cumplen con los requisitos de RTO para restaurar todos los sistemas simultáneamente después de un desastre.</t>
+          <t>Pruebe los tiempos de copia de seguridad y recuperación para verificar que cumplan con los requisitos de RTO para restaurar todos los sistemas simultáneamente después de un desastre.</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Puede replicar el almacenamiento estándar entre regiones emparejadas, pero no puede usar el almacenamiento estándar para almacenar las bases de datos o los discos duros virtuales. Las copias de seguridad solo se pueden replicar entre las regiones emparejadas que utilice. Para todos los demás datos, ejecute la replicación mediante características nativas de DBMS, como SQL Server Always On o SAP HANA System Replication. Use una combinación de Site Recovery, rsync o robocopy y otro software de terceros para la capa de aplicación de SAP.</t>
+          <t>Puede replicar el almacenamiento estándar entre regiones emparejadas, pero no puede usar el almacenamiento estándar para almacenar sus bases de datos o discos duros virtuales. Solo puede replicar copias de seguridad entre las regiones emparejadas que utilice. Para todos los demás datos, ejecute la replicación mediante características nativas de DBMS, como SQL Server Always On o SAP HANA System Replication. Utilice una combinación de Site Recovery, rsync o robocopy y otro software de terceros para la capa de aplicación de SAP.</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Configure conexiones de ExpressRoute desde el entorno local a las regiones de recuperación ante desastres de Azure principal y secundaria. Además, como alternativa al uso de ExpressRoute, considere la posibilidad de configurar conexiones VPN desde el entorno local a las regiones de recuperación ante desastres de Azure principal y secundaria.</t>
+          <t>Configure las conexiones de ExpressRoute desde el entorno local a las regiones de recuperación ante desastres de Azure principal y secundaria. Además, como alternativa al uso de ExpressRoute, considere la posibilidad de configurar conexiones VPN desde el entorno local a las regiones de recuperación ante desastres de Azure principal y secundaria.</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Se debe usar la tecnología de replicación de bases de datos nativas para sincronizar la base de datos en un par de alta disponibilidad.</t>
+          <t>Se debe usar la tecnología de replicación de base de datos nativa para sincronizar la base de datos en un par de alta disponibilidad.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Use Site Recovery para replicar un servidor de aplicaciones en un sitio de recuperación ante desastres. Site Recovery también puede ayudar a replicar máquinas virtuales de clúster de servicios centrales en el sitio de recuperación ante desastres. Al invocar la recuperación ante desastres, deberá volver a configurar el clúster de Linux Pacemaker en el sitio de recuperación ante desastres (por ejemplo, reemplazar el VIP o SBD, ejecutar corosync.conf, etc.).</t>
+          <t>Use Site Recovery para replicar un servidor de aplicaciones en un sitio de recuperación ante desastres. Site Recovery también puede ayudar a replicar máquinas virtuales de clúster de servicios centrales en el sitio de recuperación ante desastres. Al invocar la recuperación ante desastres, deberá volver a configurar el clúster de Linux Pacemaker en el sitio de recuperación ante desastres (por ejemplo, reemplazar el VIP o el SBD, ejecutar corosync.conf, etc.).</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>En el caso de SAP y bases de datos de SAP, considere la posibilidad de implementar clústeres de conmutación por error automática. En Windows, los clústeres de conmutación por error de Windows Server admiten la conmutación por error. En Linux, Linux Pacemaker o herramientas de terceros como SIOS Protection Suite y Veritas InfoScale admiten la conmutación por error.</t>
+          <t>En el caso de SAP y bases de datos de SAP, considere la posibilidad de implementar clústeres de conmutación por error automática. En Windows, los clústeres de conmutación por error de Windows Server admiten la conmutación por error. En Linux, Linux Pacemaker o herramientas de terceros, como SIOS Protection Suite y Veritas InfoScale, admiten la conmutación por error.</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Azure no admite arquitecturas en las que las máquinas virtuales principal y secundaria compartan el almacenamiento de los datos de DBMS. Para la capa DBMS, el patrón de arquitectura común es replicar bases de datos al mismo tiempo y con pilas de almacenamiento diferentes a las que usan las máquinas virtuales principal y secundaria.</t>
+          <t>Azure no admite arquitecturas en las que las máquinas virtuales principal y secundaria compartan almacenamiento para los datos de DBMS. Para la capa DBMS, el patrón de arquitectura común es replicar bases de datos al mismo tiempo y con pilas de almacenamiento diferentes a las que usan las máquinas virtuales principales y secundarias.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Los datos de DBMS y los archivos de registro de transacciones y puesta al día se almacenan en el almacenamiento en bloque compatible con Azure o en Azure NetApp Files. Azure Files o Azure Premium Files no se admiten como almacenamiento para datos de DBMS o archivos de registro de puesta al día con la carga de trabajo de SAP.</t>
+          <t>Los datos de DBMS y los archivos de registro de transacciones/puesta al día se almacenan en el almacenamiento en bloque compatible con Azure o en Azure NetApp Files. Azure Files o Azure Premium Files no se admiten como almacenamiento para datos de DBMS ni archivos de registro de puesta al día con la carga de trabajo de SAP.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Puede usar discos compartidos de Azure en Windows para componentes ASCS + SCS y escenarios específicos de alta disponibilidad. Configure los clústeres de conmutación por error por separado para los componentes de la capa de aplicación de SAP y la capa de DBMS. Actualmente, Azure no admite arquitecturas de alta disponibilidad que combinen componentes de la capa de aplicación de SAP y la capa de DBMS en un clúster de conmutación por error.</t>
+          <t>Puede usar discos compartidos de Azure en Windows para componentes ASCS + SCS y escenarios específicos de alta disponibilidad. Configure los clústeres de conmutación por error por separado para los componentes de la capa de aplicación de SAP y la capa de DBMS. Actualmente, Azure no admite arquitecturas de alta disponibilidad que combinen los componentes de la capa de aplicación de SAP y la capa de DBMS en un clúster de conmutación por error.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>La mayoría de los clústeres de conmutación por error para los componentes de la capa de aplicación (ASCS) de SAP y la capa de DBMS requieren una dirección IP virtual para un clúster de conmutación por error.  Azure Load Balancer debe controlar la dirección IP virtual para todos los demás casos. Un principio de diseño es usar un equilibrador de carga por configuración de clúster. Te recomendamos que utilices la versión estándar del equilibrador de carga (SKU de equilibrador de carga estándar).</t>
+          <t>La mayoría de los clústeres de conmutación por error para los componentes de la capa de aplicación (ASCS) de SAP y la capa de DBMS requieren una dirección IP virtual para un clúster de conmutación por error.  Azure Load Balancer debe controlar la dirección IP virtual para todos los demás casos. Un principio de diseño es usar un equilibrador de carga por configuración de clúster. Te recomendamos que utilices la versión estándar del equilibrador de carga (SKU de Standard Load Balancer).</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Antes de implementar la infraestructura de alta disponibilidad, y en función de la región que elija, determine si desea realizar la implementación con un conjunto de disponibilidad de Azure o una zona de disponibilidad.</t>
+          <t>Antes de implementar la infraestructura de alta disponibilidad, y en función de la región que elija, determine si desea implementar con un conjunto de disponibilidad de Azure o con una zona de disponibilidad.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Si desea cumplir los acuerdos de nivel de servicio de infraestructura para las aplicaciones de los componentes de SAP (servicios centrales, servidores de aplicaciones y bases de datos), debe elegir las mismas opciones de alta disponibilidad (máquinas virtuales, conjuntos de disponibilidad, zonas de disponibilidad) para todos los componentes.</t>
+          <t>Si desea cumplir los acuerdos de nivel de servicio de infraestructura para sus aplicaciones para componentes de SAP (servicios centrales, servidores de aplicaciones y bases de datos), debe elegir las mismas opciones de alta disponibilidad (máquinas virtuales, conjuntos de disponibilidad, zonas de disponibilidad) para todos los componentes.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>No mezcle servidores de diferentes roles en el mismo conjunto de disponibilidad. Mantenga las máquinas virtuales de servicios centrales, las máquinas virtuales de base de datos y las máquinas virtuales de aplicaciones en sus propios conjuntos de disponibilidad</t>
+          <t>No mezcle servidores de diferentes roles en el mismo conjunto de disponibilidad. Mantenga las máquinas virtuales de servicios centrales, las máquinas virtuales de bases de datos y las máquinas virtuales de aplicaciones en sus propios conjuntos de disponibilidad</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>No se pueden implementar conjuntos de disponibilidad de Azure dentro de una zona de disponibilidad de Azure a menos que se usen grupos de selección de ubicación de proximidad.</t>
+          <t>No se pueden implementar conjuntos de disponibilidad de Azure en una zona de disponibilidad de Azure a menos que se usen grupos de selección de ubicación por proximidad.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Al crear conjuntos de disponibilidad, use el número máximo de dominios de error y dominios de actualización disponibles. Por ejemplo, si implementa más de dos máquinas virtuales en un conjunto de disponibilidad, use el número máximo de dominios de error (tres) y suficientes dominios de actualización para limitar el efecto de posibles errores de hardware físico, interrupciones de red o interrupciones de energía, además del mantenimiento planeado de Azure. El número predeterminado de dominios de error es dos y no puede cambiarlo en línea más adelante.</t>
+          <t>Al crear conjuntos de disponibilidad, use el número máximo de dominios de error y dominios de actualización disponibles. Por ejemplo, si implementa más de dos máquinas virtuales en un conjunto de disponibilidad, use el número máximo de dominios de error (tres) y suficientes dominios de actualización para limitar el efecto de posibles errores de hardware físico, interrupciones de red o interrupciones de energía, además del mantenimiento planeado de Azure. El número predeterminado de dominios de error es dos y no se puede cambiar en línea más adelante.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Cuando se usan grupos de selección con selección de ubicación de proximidad de Azure en una implementación de conjunto de disponibilidad, los tres componentes de SAP (servicios centrales, servidor de aplicaciones y base de datos) deben estar en el mismo grupo con selección de ubicación de proximidad.</t>
+          <t>Cuando se usan grupos de selección de ubicación de proximidad de Azure en una implementación de conjunto de disponibilidad, los tres componentes de SAP (servicios centrales, servidor de aplicaciones y base de datos) deben estar en el mismo grupo de selección de ubicación por proximidad.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Use un grupo de selección de ubicación de proximidad por SID de SAP. Los grupos no abarcan zonas de disponibilidad ni regiones de Azure</t>
+          <t>Utilice un grupo de ubicación de proximidad por SID de SAP. Los grupos no se extienden entre zonas de disponibilidad ni regiones de Azure</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Actualmente, Azure no admite la combinación de ASCS y alta disponibilidad de base de datos en el mismo clúster de Linux Pacemaker; sepáralos en grupos individuales. Sin embargo, puede combinar hasta cinco clústeres de servicios centrales en un par de máquinas virtuales.</t>
+          <t>Actualmente, Azure no admite la combinación de ASCS y DB HA en el mismo clúster de Linux Pacemaker; sepárelos en grupos individuales. Sin embargo, puede combinar hasta cinco clústeres de servicios centrales en un par de máquinas virtuales.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Azure admite la instalación y configuración de SAP HANA y las instancias de ASCS/SCS y ERS en el mismo clúster de alta disponibilidad que se ejecuta en Red Hat Enterprise Linux (RHEL).</t>
+          <t>Azure admite la instalación y configuración de SAP HANA, ASCS/SCS e instancias de ERS en el mismo clúster de alta disponibilidad que se ejecuta en Red Hat Enterprise Linux (RHEL).</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Debe ejecutar SAP HANA en Azure solo en los tipos de almacenamiento certificados por SAP. Tenga en cuenta que ciertos volúmenes deben ejecutarse en determinadas configuraciones de disco, cuando corresponda. Estas configuraciones incluyen la habilitación del acelerador de escritura y el uso del almacenamiento premium. También debe asegurarse de que el sistema de archivos que se ejecuta en el almacenamiento es compatible con el DBMS que se ejecuta en la máquina.</t>
+          <t>Debe ejecutar SAP HANA en Azure solo en los tipos de almacenamiento certificados por SAP. Tenga en cuenta que ciertos volúmenes deben ejecutarse en ciertas configuraciones de disco, cuando corresponda. Estas configuraciones incluyen la habilitación del Acelerador de escritura y el uso del almacenamiento Premium. También debe asegurarse de que el sistema de archivos que se ejecuta en el almacenamiento sea compatible con el DBMS que se ejecuta en la máquina.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Es posible que los diferentes servicios de almacenamiento nativos de Azure (como Azure Files, Azure NetApp Files, Azure Shared Disk) no estén disponibles en todas las regiones. Por lo tanto, para tener una configuración de SAP similar en la región de recuperación ante desastres después de la conmutación por error, asegúrese de que el servicio de almacenamiento correspondiente se ofrece en el sitio de recuperación ante desastres.</t>
+          <t>Es posible que los diferentes servicios de almacenamiento nativo de Azure (como Azure Files, Azure NetApp Files, Azure Shared Disk) no estén disponibles en todas las regiones. Por lo tanto, para tener una configuración de SAP similar en la región de recuperación ante desastres después de la conmutación por error, asegúrese de que el servicio de almacenamiento correspondiente se ofrezca en el sitio de recuperación ante desastres.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>En el caso de usar Azure Premium Storage con SAP HANA, se puede usar el almacenamiento SSD estándar de Azure para seleccionar una solución de almacenamiento rentable. Sin embargo, tenga en cuenta que la elección de SSD estándar o almacenamiento de Azure HDD estándar afectará al Acuerdo de Nivel de Servicio de las máquinas virtuales individuales. Además, para sistemas con menor rendimiento de E/S y baja latencia, como entornos que no son de producción, se pueden usar máquinas virtuales de series inferiores.</t>
+          <t>En el caso de usar Azure Premium Storage con SAP HANA, el almacenamiento SSD estándar de Azure se puede usar para seleccionar una solución de almacenamiento económica en cuanto a costos. Sin embargo, tenga en cuenta que la elección del almacenamiento SSD estándar o HDD estándar de Azure afectará al Acuerdo de Nivel de Servicio de las máquinas virtuales individuales. Además, para sistemas con menor rendimiento de E/S y baja latencia, como entornos que no son de producción, se pueden usar máquinas virtuales de series inferiores.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Como configuración alternativa de menor costo (multipropósito), puede elegir una SKU de bajo rendimiento para las máquinas virtuales del servidor de base de datos de HANA que no son de producción. Sin embargo, es importante tener en cuenta que algunos tipos de máquinas virtuales, como la serie E, no están certificadas para HANA (directorio de hardware de SAP HANA) o no pueden alcanzar una latencia de almacenamiento inferior a 1 ms.</t>
+          <t>Como configuración alternativa de menor costo (multipropósito), puede elegir una SKU de bajo rendimiento para las máquinas virtuales de servidor de base de datos HANA que no son de producción. Sin embargo, es importante tener en cuenta que algunos tipos de máquinas virtuales, como la serie E, no están certificadas por HANA (directorio de hardware de SAP HANA) o no pueden alcanzar una latencia de almacenamiento inferior a 1 ms.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Aplicación de la propagación de la entidad de seguridad para reenviar la identidad de la aplicación en la nube de SAP a SAP local (incluida IaaS) a través del conector en la nube</t>
+          <t>Aplicación de la propagación de la entidad de seguridad para reenviar la identidad de la aplicación en la nube de SAP a SAP local (incluida la IaaS) a través del conector en la nube</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI mediante SAML.</t>
+          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI, mediante SAML.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI mediante SAML.</t>
+          <t>Implemente SSO en aplicaciones web basadas en SAP NetWeaver, como SAP Fiori y SAP Web GUI, mediante SAML.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Puede implementar SSO en la GUI de SAP mediante SAP NetWeaver SSO o una solución de partner.</t>
+          <t>Puede implementar el inicio de sesión único en la interfaz gráfica de usuario de SAP mediante el inicio de sesión único de SAP NetWeaver o una solución de socio.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere el servidor de inicio de sesión seguro de SAP, que es un componente de la solución SSO de SAP.</t>
+          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere la posibilidad de utilizar SAP Secure Login Server, que es un componente de la solución SAP SSO.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere el servidor de inicio de sesión seguro de SAP, que es un componente de la solución SSO de SAP.</t>
+          <t>Para SSO para SAP GUI y acceso al navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociación GSSAPI simple y protegido) debido a su facilidad de configuración y mantenimiento. Para SSO con certificados de cliente X.509, considere la posibilidad de utilizar SAP Secure Login Server, que es un componente de la solución SAP SSO.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Si usa SAP SuccessFactors, considere la posibilidad de usar el aprovisionamiento automatizado de usuarios de Azure AD. Con esta integración, a medida que agrega nuevos empleados a SAP SuccessFactors, puede crear automáticamente sus cuentas de usuario en Azure AD. Opcionalmente, puede crear cuentas de usuario en Microsoft 365 u otras aplicaciones SaaS compatibles con Azure AD. Utilice la escritura diferida de la dirección de correo electrónico en SAP SuccessFactors.</t>
+          <t>Si usa SAP SuccessFactors, considere la posibilidad de usar el aprovisionamiento automatizado de usuarios de Azure AD. Con esta integración, a medida que agregue nuevos empleados a SAP SuccessFactors, puede crear automáticamente sus cuentas de usuario en Azure AD. Opcionalmente, puede crear cuentas de usuario en Microsoft 365 u otras aplicaciones SaaS compatibles con Azure AD. Utilice la reescritura de la dirección de correo electrónico en SAP SuccessFactors.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3612,7 +3612,11 @@
           <t>aplicar las directivas de grupo de administración existentes a las suscripciones de SAP</t>
         </is>
       </c>
-      <c r="D61" s="21" t="n"/>
+      <c r="D61" s="21" t="inlineStr">
+        <is>
+          <t>Mantenga la jerarquía del grupo de administración razonablemente plana, no más de cuatro.</t>
+        </is>
+      </c>
       <c r="E61" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -3659,7 +3663,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Integre aplicaciones estrechamente acopladas en la misma suscripción de SAP para evitar una complejidad adicional de enrutamiento y administración</t>
+          <t>Integre aplicaciones estrechamente acopladas en la misma suscripción de SAP para evitar la complejidad adicional del enrutamiento y la administración</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3709,7 +3713,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aprovechar la suscripción como unidad de escalado y escalar nuestros recursos, considere implementar la suscripción por entorno, por ejemplo. Sandbox, no-prod, prod </t>
+          <t xml:space="preserve">Aprovechar la suscripción como unidad de escala y escalar nuestros recursos, considere implementar la suscripción por entorno, por ejemplo. Sandbox, no prod, prod </t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3809,7 +3813,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>La API de cuota es una API de REST que se puede usar para ver y administrar las cuotas de los servicios de Azure. Considere usarlo si es necesario.</t>
+          <t>La API de cuota es una API de REST que puede usar para ver y administrar las cuotas de los servicios de Azure. Considere usarlo si es necesario.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3855,7 +3859,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Si realiza la implementación en una zona de disponibilidad, asegúrese de que la implementación de la zona de la máquina virtual esté disponible una vez que se haya aprobado la cuota. Envíe una solicitud de soporte técnico con la suscripción, la serie de máquinas virtuales, el número de CPU y la zona de disponibilidad necesarias.</t>
+          <t>Si se implementa en una zona de disponibilidad, asegúrese de que la implementación de zona de la máquina virtual esté disponible una vez que se haya aprobado la cuota. Envíe una solicitud de soporte técnico con la suscripción, la serie de máquinas virtuales, el número de CPU y la zona de disponibilidad necesarias.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3900,7 +3904,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios y funciones requeridos estén disponibles dentro de las regiones de implementación elegidas, por ejemplo. ANF, Zona, etc.</t>
+          <t>Asegúrese de que los servicios y funciones necesarios estén disponibles dentro de las regiones de implementación elegidas, por ejemplo. ANF, Zona, etc.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3950,7 +3954,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la etiqueta de recurso de Azure para la categorización de costos y la agrupación de recursos (facturación, departamento (o unidad de negocio), entorno (producción, fase, desarrollo), nivel (nivel web, nivel de aplicación), propietario de la aplicación, ProjectName)</t>
+          <t>Aproveche la etiqueta de recurso de Azure para la categorización de costos y la agrupación de recursos (: BillTo, Departamento (o unidad de negocio), Medio ambiente (producción, Fase, Desarrollo), Nivel (nivel web, nivel de aplicación), Propietario de la aplicación, Nombre del proyecto)</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3995,7 +3999,7 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>BCDR (en inglés)</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
@@ -4045,12 +4049,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>BCDR (en inglés)</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Si implementa Azure NetApp Files para la base de datos HANA, Oracle o DB2, use la herramienta Azure Application Consistent Snapshot (AzAcSnap) para tomar instantáneas coherentes con la aplicación. AzAcSnap también es compatible con las bases de datos de Oracle. Considere la posibilidad de usar AzAcSnap en una máquina virtual central en lugar de en máquinas virtuales individuales.</t>
+          <t>Si implementa Azure NetApp Files para la base de datos HANA, Oracle o DB2, use la herramienta Azure Application Consistent Snapshot (AzAcSnap) para tomar instantáneas coherentes con la aplicación. AzAcSnap también es compatible con bases de datos de Oracle. Considere la posibilidad de usar AzAcSnap en una máquina virtual central en lugar de en máquinas virtuales individuales.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4096,7 +4100,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la zona horaria coincida entre el sistema operativo y el sistema SAP.</t>
+          <t>Asegúrese de que las zonas horarias coincidan entre el sistema operativo y el sistema SAP.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4238,7 +4242,7 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Si se asocia con los clientes mediante la administración de sus propiedades de SAP, considere la posibilidad de usar Azure Lighthouse. Azure Lighthouse permite a los proveedores de servicios administrados usar los servicios de identidad nativos de Azure para autenticarse en el entorno de los clientes. Pone el control en manos de los clientes, ya que pueden revocar el acceso en cualquier momento y auditar las acciones de los proveedores de servicios.</t>
+          <t>Si se asocia con los clientes mediante la administración de sus propiedades de SAP, considere la posibilidad de Azure Lighthouse. Azure Lighthouse permite a los proveedores de servicios administrados usar los servicios de identidad nativos de Azure para autenticarse en el entorno de los clientes. Pone el control en manos de los clientes, ya que pueden revocar el acceso en cualquier momento y auditar las acciones de los proveedores de servicios.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4284,7 +4288,7 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Update Manager para comprobar el estado de las actualizaciones disponibles para una sola máquina virtual o varias máquinas virtuales y considere la posibilidad de programar revisiones periódicas.</t>
+          <t>Use Azure Update Manager para comprobar el estado de las actualizaciones disponibles para una sola máquina virtual o varias máquinas virtuales y considere la posibilidad de programar la aplicación periódica de revisiones.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4384,7 +4388,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor para soluciones SAP para supervisar las cargas de trabajo de SAP (SAP HANA, clústeres de SUSE de alta disponibilidad y sistemas SQL) en Azure. Considere la posibilidad de complementar las soluciones de Azure Monitor para SAP con SAP Solution Manager.</t>
+          <t>Use las soluciones de Azure Monitor para SAP para supervisar las cargas de trabajo de SAP (SAP HANA, clústeres de SUSE de alta disponibilidad y sistemas SQL) en Azure. Considere la posibilidad de complementar las soluciones de Azure Monitor para SAP con SAP Solution Manager.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4434,7 +4438,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Ejecute una comprobación de extensión de máquina virtual para SAP. VM Extension for SAP usa la identidad administrada asignada de una máquina virtual (VM) para acceder a los datos de configuración y supervisión de VM. La comprobación garantiza que todas las métricas de rendimiento de la aplicación SAP proceden de la extensión de Azure para SAP subyacente.</t>
+          <t>Ejecute una extensión de máquina virtual para la comprobación de SAP. VM Extension for SAP usa la identidad administrada asignada de una máquina virtual (VM) para acceder a los datos de configuración y supervisión de VM. La comprobación garantiza que todas las métricas de rendimiento de la aplicación SAP procedan de la extensión de Azure para SAP subyacente.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4680,7 +4684,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Ejecute el informe de resistencia para asegurarse de que la configuración de toda la infraestructura de Azure aprovisionada (proceso, base de datos, redes, almacenamiento, Site Recovery) cumple con la configuración definida por Cloud Adaption Framework para Azure.</t>
+          <t>Ejecute el informe de resistencia para asegurarse de que la configuración de toda la infraestructura de Azure aprovisionada (proceso, base de datos, redes, almacenamiento, Site Recovery) cumpla con la configuración definida por Cloud Adaption Framework para Azure.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4780,7 +4784,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>El etiquetado de Azure se puede aprovechar para agrupar y realizar un seguimiento lógico de los recursos, automatizar sus implementaciones y, lo que es más importante, proporcionar visibilidad de los costos incurridos.</t>
+          <t>El etiquetado de Azure se puede aprovechar para agrupar y realizar un seguimiento lógicos de los recursos, automatizar sus implementaciones y, lo que es más importante, proporcionar visibilidad de los costos incurridos.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4830,7 +4834,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Use la supervisión de latencia entre máquinas virtuales para aplicaciones sensibles a la latencia.</t>
+          <t>Utilice la supervisión de latencia entre máquinas virtuales para aplicaciones sensibles a la latencia.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4876,7 +4880,7 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones SAP.</t>
+          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones de SAP.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4926,7 +4930,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Excluya todos los sistemas de archivos de bases de datos y programas ejecutables de los análisis antivirus. Incluirlos podría dar lugar a problemas de rendimiento. Consulte con los proveedores de bases de datos para obtener detalles prescriptivos sobre la lista de exclusión. Por ejemplo, Oracle recomienda excluir /oracle/&lt;sid&gt;/sapdata de los análisis antivirus.</t>
+          <t>Excluya todos los sistemas de archivos de bases de datos y programas ejecutables de los análisis antivirus. Incluirlos podría provocar problemas de rendimiento. Consulte con los proveedores de bases de datos para obtener detalles prescriptivos sobre la lista de exclusión. Por ejemplo, Oracle recomienda excluir /oracle/&lt;sid&gt;/sapdata de los análisis antivirus.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4972,7 +4976,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de recopilar estadísticas de base de datos completas para bases de datos que no son de HANA después de la migración. Por ejemplo, implemente la nota de SAP 1020260 - Entrega de estadísticas de Oracle.</t>
+          <t>Considere la posibilidad de recopilar estadísticas completas de bases de datos que no sean de HANA después de la migración. Por ejemplo, implemente la nota de SAP 1020260 - Entrega de estadísticas de Oracle.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -5018,7 +5022,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Oracle Automatic Storage Management (ASM) para todas las implementaciones de Oracle que usan SAP en Azure.</t>
+          <t>Considere la posibilidad de usar Oracle Automatic Storage Management (ASM) para todas las implementaciones de Oracle que utilicen SAP en Azure.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5068,7 +5072,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>En el caso de SAP en Azure que ejecuta Oracle, una colección de scripts SQL puede ayudarle a diagnosticar problemas de rendimiento.  Los informes de repositorio automático de cargas de trabajo (AWR) contienen información valiosa para diagnosticar problemas en el sistema Oracle. Le recomendamos que ejecute un informe de AWR durante varias sesiones y elija las horas punta para él, a fin de garantizar una amplia cobertura del análisis.</t>
+          <t>En el caso de SAP en Azure que ejecuta Oracle, una colección de scripts SQL puede ayudarle a diagnosticar problemas de rendimiento.  Los informes de Automatic Workload Repository (AWR) contienen información valiosa para diagnosticar problemas en el sistema Oracle. Le recomendamos que ejecute un informe de AWR durante varias sesiones y elija las horas punta para él, a fin de garantizar una amplia cobertura del análisis.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5118,7 +5122,7 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones SAP.</t>
+          <t>Use la supervisión de Azure Site Recovery para mantener el estado del servicio de recuperación ante desastres para los servidores de aplicaciones de SAP.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5158,7 +5162,7 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
@@ -5168,7 +5172,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Para la entrega segura de aplicaciones HTTP/S, use Application Gateway v2 y asegúrese de que la protección y las directivas de WAF están habilitadas.</t>
+          <t>Para la entrega segura de aplicaciones HTTP/S, use Application Gateway v2 y asegúrese de que la protección y las directivas de WAF estén habilitadas.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5208,7 +5212,7 @@
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B94" s="21" t="inlineStr">
@@ -5218,7 +5222,7 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Si el DNS o el nombre virtual de la máquina virtual no se cambia durante la migración a Azure, el DNS en segundo plano y los nombres virtuales conectan muchas interfaces del sistema en el entorno de SAP, y los clientes solo conocen a veces las interfaces que los desarrolladores definen a lo largo del tiempo. Los desafíos de conexión surgen entre varios sistemas cuando los nombres virtuales o DNS cambian después de las migraciones, y se recomienda conservar los alias DNS para evitar este tipo de dificultades.</t>
+          <t>Si el DNS o el nombre virtual de la máquina virtual no se cambia durante la migración a Azure, el DNS en segundo plano y los nombres virtuales conectan muchas interfaces del sistema en el entorno de SAP, y los clientes solo a veces son conscientes de las interfaces que los desarrolladores definen a lo largo del tiempo. Surgen desafíos de conexión entre varios sistemas cuando los nombres virtuales o de DNS cambian después de las migraciones, y se recomienda conservar los alias de DNS para evitar este tipo de dificultades.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5258,7 +5262,7 @@
     <row r="95" ht="16.5" customHeight="1">
       <c r="A95" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B95" s="21" t="inlineStr">
@@ -5268,7 +5272,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Utilice diferentes zonas DNS para distinguir cada entorno (espacio aislado, desarrollo, preproducción y producción) entre sí. La excepción es para las implementaciones de SAP con su propia red virtual; en este caso, es posible que las zonas DNS privadas no sean necesarias.</t>
+          <t>Utilice diferentes zonas DNS para distinguir cada entorno (espacio aislado, desarrollo, preproducción y producción) entre sí. La excepción es para las implementaciones de SAP con su propia red virtual; aquí, es posible que las zonas DNS privadas no sean necesarias.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5308,7 +5312,7 @@
     <row r="96" ht="16.5" customHeight="1">
       <c r="A96" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B96" s="21" t="inlineStr">
@@ -5321,7 +5325,11 @@
           <t>El emparejamiento de red virtual local y global proporciona conectividad y son los enfoques preferidos para garantizar la conectividad entre las zonas de aterrizaje para las implementaciones de SAP en varias regiones de Azure</t>
         </is>
       </c>
-      <c r="D96" s="21" t="n"/>
+      <c r="D96" s="21" t="inlineStr">
+        <is>
+          <t>Al configurar el emparejamiento de red virtual, use la opción Permitir tráfico a redes virtuales remotas.</t>
+        </is>
+      </c>
       <c r="E96" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -5358,7 +5366,7 @@
     <row r="97" ht="16.5" customHeight="1">
       <c r="A97" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B97" s="21" t="inlineStr">
@@ -5368,7 +5376,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>No se admite la implementación de ninguna aplicación virtual de red entre la aplicación SAP y el servidor de base de datos SAP</t>
+          <t>No se admite la implementación de ninguna NVA entre la aplicación SAP y el servidor de base de datos SAP</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5408,7 +5416,7 @@
     <row r="98" ht="16.5" customHeight="1">
       <c r="A98" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B98" s="21" t="inlineStr">
@@ -5458,7 +5466,7 @@
     <row r="99" ht="16.5" customHeight="1">
       <c r="A99" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B99" s="21" t="inlineStr">
@@ -5468,7 +5476,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de implementar aplicaciones virtuales de red (NVA) entre regiones solo si se usan aplicaciones virtuales de red de asociados. Las aplicaciones virtuales de red entre regiones o redes virtuales no son necesarias si hay aplicaciones virtuales de red nativas. Al implementar tecnologías de redes de asociados y aplicaciones virtuales de red, siga las instrucciones del proveedor para comprobar las configuraciones conflictivas con las redes de Azure.</t>
+          <t>Considere la posibilidad de implementar aplicaciones virtuales de red (NVA) entre regiones solo si se usan NVA de asociados. Las aplicaciones virtuales de red entre regiones o redes virtuales no son necesarias si hay aplicaciones virtuales de red nativas. Al implementar tecnologías de redes de asociados y NVA, siga las instrucciones del proveedor para comprobar las configuraciones conflictivas con las redes de Azure.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5508,7 +5516,7 @@
     <row r="100" ht="16.5" customHeight="1">
       <c r="A100" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B100" s="21" t="inlineStr">
@@ -5518,7 +5526,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN administra la conectividad entre redes virtuales de radio para topologías basadas en WAN virtuales (sin necesidad de configurar el enrutamiento definido por el usuario [UDR] o NVA), y el rendimiento máximo de red para el tráfico de red virtual a red virtual en el mismo centro virtual es de 50 gigabits por segundo. Si es necesario, las zonas de aterrizaje de SAP pueden usar el emparejamiento de red virtual para conectarse a otras zonas de aterrizaje y superar esta limitación de ancho de banda.</t>
+          <t>Virtual WAN administra la conectividad entre redes virtuales de radio para topologías basadas en WAN virtuales (sin necesidad de configurar el enrutamiento definido por el usuario [UDR] o NVA) y el rendimiento máximo de red para el tráfico de red virtual a red virtual en el mismo centro virtual es de 50 gigabits por segundo. Si es necesario, las zonas de aterrizaje de SAP pueden usar el emparejamiento de red virtual para conectarse a otras zonas de aterrizaje y superar esta limitación de ancho de banda.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5558,12 +5566,12 @@
     <row r="101" ht="16.5" customHeight="1">
       <c r="A101" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>Plan de PI</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
@@ -5608,12 +5616,12 @@
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>Plan de PI</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
@@ -5658,12 +5666,12 @@
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>Plan de PI</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
@@ -5708,12 +5716,12 @@
     <row r="104" ht="16.5" customHeight="1">
       <c r="A104" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Plan de propiedad intelectual</t>
+          <t>Plan de PI</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
@@ -5758,7 +5766,7 @@
     <row r="105" ht="16.5" customHeight="1">
       <c r="A105" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B105" s="21" t="inlineStr">
@@ -5768,7 +5776,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado del tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Use Azure Firewall para controlar el tráfico de salida de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico este/oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5808,7 +5816,7 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
@@ -5858,7 +5866,7 @@
     <row r="107" ht="16.5" customHeight="1">
       <c r="A107" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B107" s="21" t="inlineStr">
@@ -5868,7 +5876,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Use las directivas de Azure Front Door y WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5908,7 +5916,7 @@
     <row r="108" ht="16.5" customHeight="1">
       <c r="A108" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B108" s="21" t="inlineStr">
@@ -5918,7 +5926,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Aproveche las directivas de Web Application Firewall en Azure Front Door cuando use Azure Front Door y Application Gateway para proteger las aplicaciones HTTP/S. Bloquee Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Aproveche las directivas de firewall de aplicaciones web de Azure Front Door cuando use Azure Front Door y Application Gateway para proteger las aplicaciones HTTP/S. Bloquee Application Gateway para recibir tráfico solo desde Azure Front Door.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5958,7 +5966,7 @@
     <row r="109" ht="16.5" customHeight="1">
       <c r="A109" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B109" s="21" t="inlineStr">
@@ -6008,7 +6016,7 @@
     <row r="110" ht="16.5" customHeight="1">
       <c r="A110" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B110" s="21" t="inlineStr">
@@ -6058,7 +6066,7 @@
     <row r="111" ht="16.5" customHeight="1">
       <c r="A111" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B111" s="21" t="inlineStr">
@@ -6068,7 +6076,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Para evitar la pérdida de datos, use Azure Private Link para acceder de forma segura a los recursos de plataforma como servicio, como Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, etc. El punto de conexión privado de Azure también puede ayudar a proteger el tráfico entre redes virtuales y servicios como Azure Storage, Azure Backup, etc. El tráfico entre la red virtual y el servicio habilitado para punto de conexión privado viaja a través de la red global de Microsoft, lo que impide su exposición a la red pública de Internet.</t>
+          <t>Para evitar la pérdida de datos, use Azure Private Link para acceder de forma segura a los recursos de la plataforma como servicio, como Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, etc. Azure Private Endpoint también puede ayudar a proteger el tráfico entre redes virtuales y servicios como Azure Storage, Azure Backup, etc. El tráfico entre la red virtual y el servicio habilitado para el punto de conexión privado viaja a través de la red global de Microsoft, lo que impide su exposición a la red pública de Internet.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6108,7 +6116,7 @@
     <row r="112" ht="16.5" customHeight="1">
       <c r="A112" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B112" s="21" t="inlineStr">
@@ -6118,7 +6126,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las redes aceleradas de Azure están habilitadas en las máquinas virtuales que se usan en las capas de aplicación SAP y DBMS.</t>
+          <t>Asegúrese de que las redes aceleradas de Azure estén habilitadas en las máquinas virtuales usadas en las capas de aplicación SAP y DBMS.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6158,7 +6166,7 @@
     <row r="113" ht="16.5" customHeight="1">
       <c r="A113" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B113" s="21" t="inlineStr">
@@ -6168,7 +6176,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones internas de Azure Load Balancer están configuradas para usar Direct Server Return (DSR). Esta configuración (Habilitación de IP flotante) reducirá la latencia cuando se utilicen configuraciones internas del equilibrador de carga para configuraciones de alta disponibilidad en la capa DBMS.</t>
+          <t>Asegúrese de que las implementaciones internas de Azure Load Balancer están configuradas para usar Direct Server Return (DSR). Esta configuración (Habilitación de IP flotante) reducirá la latencia cuando se utilicen configuraciones de equilibrador de carga internas para configuraciones de alta disponibilidad en la capa DBMS.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6208,7 +6216,7 @@
     <row r="114" ht="16.5" customHeight="1">
       <c r="A114" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B114" s="21" t="inlineStr">
@@ -6218,7 +6226,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Puede usar reglas de grupo de seguridad de aplicaciones (ASG) y NSG para definir listas de control de acceso de seguridad de red entre la aplicación SAP y las capas DBMS. Los ASG agrupan las máquinas virtuales para ayudar a administrar su seguridad.</t>
+          <t>Puede usar el grupo de seguridad de aplicaciones (ASG) y las reglas de NSG para definir listas de control de acceso de seguridad de red entre la aplicación SAP y las capas de DBMS. Los ASG agrupan las máquinas virtuales para ayudar a administrar su seguridad.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6258,7 +6266,7 @@
     <row r="115" ht="16.5" customHeight="1">
       <c r="A115" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B115" s="21" t="inlineStr">
@@ -6308,7 +6316,7 @@
     <row r="116" ht="16.5" customHeight="1">
       <c r="A116" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B116" s="21" t="inlineStr">
@@ -6358,7 +6366,7 @@
     <row r="117" ht="16.5" customHeight="1">
       <c r="A117" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B117" s="21" t="inlineStr">
@@ -6368,7 +6376,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>NO se admite en absoluto la ejecución de una capa de servidor de aplicaciones de SAP y una capa de DBMS divididas entre el entorno local y Azure. Ambas capas deben residir completamente en el entorno local o en Azure.</t>
+          <t>NO se admite en absoluto la ejecución de una capa de servidor de aplicaciones SAP y una capa de DBMS dividida entre local y Azure. Ambas capas deben residir completamente en el entorno local o en Azure.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6408,7 +6416,7 @@
     <row r="118" ht="16.5" customHeight="1">
       <c r="A118" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B118" s="21" t="inlineStr">
@@ -6418,7 +6426,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>No se recomienda hospedar el sistema de administración de bases de datos (DBMS) y las capas de aplicación de los sistemas SAP en diferentes redes virtuales y conectarlas con el emparejamiento de redes virtuales debido a los costos sustanciales que puede producir un tráfico de red excesivo entre las capas. Se recomienda el uso de subredes dentro de la red virtual de Azure para separar la capa de aplicación de SAP y la capa de DBMS.</t>
+          <t>No se recomienda hospedar el sistema de administración de bases de datos (DBMS) y las capas de aplicación de los sistemas SAP en diferentes redes virtuales y conectarlas con el emparejamiento de redes virtuales debido a los costos sustanciales que puede producir un tráfico de red excesivo entre las capas. Se recomienda usar subredes dentro de la red virtual de Azure para separar la capa de aplicación de SAP y la capa de DBMS.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6458,7 +6466,7 @@
     <row r="119" ht="16.5" customHeight="1">
       <c r="A119" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B119" s="21" t="inlineStr">
@@ -6508,7 +6516,7 @@
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B120" s="21" t="inlineStr">
@@ -6518,7 +6526,7 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las implementaciones de SAP RISE/ECS, el emparejamiento virtual es la forma preferida de establecer la conectividad con el entorno de Azure existente del cliente. Tanto la red virtual de SAP como las redes virtuales del cliente están protegidas con grupos de seguridad de red (NSG), lo que permite la comunicación en los puertos de SAP y de base de datos a través del emparejamiento de redes virtuales</t>
+          <t>En el caso de las implementaciones de SAP RISE/ECS, el emparejamiento virtual es la forma preferida de establecer la conectividad con el entorno de Azure existente del cliente. Tanto la red virtual de SAP como las redes virtuales del cliente están protegidas con grupos de seguridad de red (NSG), lo que permite la comunicación en SAP y los puertos de base de datos a través del emparejamiento de redes virtuales</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6554,7 +6562,7 @@
     <row r="121" ht="16.5" customHeight="1">
       <c r="A121" s="21" t="inlineStr">
         <is>
-          <t>Excelencia operativa</t>
+          <t>Excelencia Operacional</t>
         </is>
       </c>
       <c r="B121" s="21" t="inlineStr">
@@ -6600,7 +6608,7 @@
     <row r="122" ht="16.5" customHeight="1">
       <c r="A122" s="21" t="inlineStr">
         <is>
-          <t>Excelencia operativa</t>
+          <t>Excelencia Operacional</t>
         </is>
       </c>
       <c r="B122" s="21" t="inlineStr">
@@ -6610,7 +6618,7 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Revise la supervisión integrada de Site Recovery, si se usa para SAP.</t>
+          <t>Revise la supervisión integrada de Site Recovery, donde se use para SAP.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
@@ -6646,7 +6654,7 @@
     <row r="123" ht="16.5" customHeight="1">
       <c r="A123" s="21" t="inlineStr">
         <is>
-          <t>Excelencia operativa</t>
+          <t>Excelencia Operacional</t>
         </is>
       </c>
       <c r="B123" s="21" t="inlineStr">
@@ -6656,7 +6664,7 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Revise la guía Supervisión del entorno del sistema SAP HANA.</t>
+          <t>Revise la guía Supervisión del panorama del sistema SAP HANA.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6692,7 +6700,7 @@
     <row r="124" ht="16.5" customHeight="1">
       <c r="A124" s="21" t="inlineStr">
         <is>
-          <t>Excelencia operativa</t>
+          <t>Excelencia Operacional</t>
         </is>
       </c>
       <c r="B124" s="21" t="inlineStr">
@@ -6738,7 +6746,7 @@
     <row r="125" ht="16.5" customHeight="1">
       <c r="A125" s="21" t="inlineStr">
         <is>
-          <t>Excelencia operativa</t>
+          <t>Excelencia Operacional</t>
         </is>
       </c>
       <c r="B125" s="21" t="inlineStr">
@@ -6784,7 +6792,7 @@
     <row r="126" ht="16.5" customHeight="1">
       <c r="A126" s="21" t="inlineStr">
         <is>
-          <t>Excelencia operativa</t>
+          <t>Excelencia Operacional</t>
         </is>
       </c>
       <c r="B126" s="21" t="inlineStr">
@@ -6829,7 +6837,7 @@
     <row r="127" ht="16.5" customHeight="1">
       <c r="A127" s="21" t="inlineStr">
         <is>
-          <t>Excelencia operativa</t>
+          <t>Excelencia Operacional</t>
         </is>
       </c>
       <c r="B127" s="21" t="inlineStr">
@@ -6870,7 +6878,7 @@
     <row r="128" ht="16.5" customHeight="1">
       <c r="A128" s="21" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B128" s="21" t="inlineStr">
@@ -6915,7 +6923,7 @@
     <row r="129" ht="16.5" customHeight="1">
       <c r="A129" s="21" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B129" s="21" t="inlineStr">
@@ -6965,7 +6973,7 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
@@ -7015,7 +7023,7 @@
     <row r="131" ht="16.5" customHeight="1">
       <c r="A131" s="21" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B131" s="21" t="inlineStr">
@@ -7056,7 +7064,7 @@
     <row r="132" ht="16.5" customHeight="1">
       <c r="A132" s="21" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B132" s="21" t="inlineStr">
@@ -7106,7 +7114,7 @@
     <row r="133" ht="16.5" customHeight="1">
       <c r="A133" s="21" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B133" s="21" t="inlineStr">
@@ -7151,7 +7159,7 @@
     <row r="134" ht="16.5" customHeight="1">
       <c r="A134" s="21" t="inlineStr">
         <is>
-          <t>Rendimiento</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B134" s="21" t="inlineStr">
@@ -7206,7 +7214,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Si ejecuta máquinas virtuales Windows y Linux en Azure, en el entorno local o en otros entornos en la nube, puede usar el Centro de administración de actualizaciones de Automatización de Azure para administrar las actualizaciones del sistema operativo, incluidas las revisiones de seguridad.</t>
+          <t>Si ejecuta máquinas virtuales Windows y Linux en Azure, en el entorno local o en otros entornos en la nube, puede usar el Centro de administración de actualizaciones de Azure Automation para administrar las actualizaciones del sistema operativo, incluidas las revisiones de seguridad.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7256,7 +7264,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Revise de forma rutinaria las notas de seguridad de SAP OSS, ya que SAP publica parches de seguridad muy críticos, o revisiones, que requieren una acción inmediata para proteger sus sistemas SAP.</t>
+          <t>Revise de forma rutinaria las notas del OSS de seguridad de SAP, ya que SAP publica parches de seguridad muy críticos, o correcciones en caliente, que requieren una acción inmediata para proteger sus sistemas SAP.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7351,7 +7359,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Deshabilite xp_cmdshell. La característica de SQL Server xp_cmdshell habilita un shell de comandos del sistema operativo interno de SQL Server. Es un riesgo potencial en las auditorías de seguridad.</t>
+          <t>Deshabilite xp_cmdshell. La característica SQL Server xp_cmdshell habilita un shell de comandos del sistema operativo interno de SQL Server. Es un riesgo potencial en las auditorías de seguridad.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7401,7 +7409,7 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>El cifrado de servidores de bases de datos de SAP HANA en Azure usa la tecnología de cifrado nativa de SAP HANA. Además, si usa SQL Server en Azure, use el cifrado de datos transparente (TDE) para proteger los datos y los archivos de registro y asegurarse de que las copias de seguridad también están cifradas.</t>
+          <t>El cifrado de servidores de base de datos de SAP HANA en Azure usa la tecnología de cifrado nativa de SAP HANA. Además, si usa SQL Server en Azure, use el cifrado de datos transparente (TDE) para proteger los datos y los archivos de registro y asegurarse de que las copias de seguridad también estén cifradas.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7451,7 +7459,7 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>El cifrado de Azure Storage está habilitado para todas las cuentas de Azure Resource Manager y de almacenamiento clásico, y no se puede deshabilitar. Dado que los datos están cifrados de forma predeterminada, no es necesario modificar el código o las aplicaciones para usar el cifrado de Azure Storage.</t>
+          <t>El cifrado de Azure Storage está habilitado para todas las cuentas de Azure Resource Manager y de almacenamiento clásico, y no se puede deshabilitar. Dado que los datos están cifrados de forma predeterminada, no es necesario modificar el código ni las aplicaciones para usar el cifrado de Azure Storage.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7551,7 +7559,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Se recomienda bloquear los recursos de Azure después de la implementación correcta para protegerse contra cambios no autorizados. También puede aplicar restricciones y reglas de LOCK por suscripción mediante directivas de Azure personalizadas (rol personalizado).</t>
+          <t>Se recomienda bloquear los recursos de Azure después de la implementación correcta para protegerse contra cambios no autorizados. También puede aplicar restricciones y reglas de LOCK por suscripción mediante directivas de Azure personalizadas (rol Custome).</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7601,7 +7609,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención de los objetos eliminados.</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación temporal y purga habilitadas para permitir la protección de retención para los objetos eliminados.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7651,7 +7659,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>En función de los requisitos existentes, controles normativos y de cumplimiento (internos y externos): determine qué directivas de Azure y el rol de RBAC de Azure son necesarios</t>
+          <t>En función de los requisitos existentes, controles normativos y de cumplimiento (internos y externos): determine qué rol de Azure Policies y Azure RBAC son necesarios</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7701,7 +7709,7 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Al habilitar Microsoft Defender para punto de conexión en el entorno de SAP, se recomienda excluir los archivos de datos y registro en los servidores DBMS en lugar de dirigirse a todos los servidores. Siga las recomendaciones de su proveedor de DBMS al excluir archivos de destino.</t>
+          <t>Al habilitar Microsoft Defender para punto de conexión en el entorno de SAP, se recomienda excluir los archivos de datos y registros en servidores DBMS en lugar de dirigirse a todos los servidores. Siga las recomendaciones de su proveedor de DBMS al excluir archivos de destino.</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7851,7 +7859,7 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice claves administradas por Microsoft para la funcionalidad de cifrado de entidad de seguridad y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>De forma predeterminada, use claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7951,7 +7959,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Para controlar y administrar claves y secretos de cifrado de disco para sistemas operativos Windows y Windows que no son de HANA, use Azure Key Vault. SAP HANA no es compatible con Azure Key Vault, por lo que debe usar métodos alternativos como SAP ABAP o claves SSH.</t>
+          <t>Para controlar y administrar las claves y los secretos de cifrado de disco para sistemas operativos Windows y Windows que no son de HANA, use Azure Key Vault. SAP HANA no es compatible con Azure Key Vault, por lo que debe usar métodos alternativos como SAP ABAP o claves SSH.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -8001,7 +8009,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Personalización de los roles de control de acceso basado en rol (RBAC) para SAP en suscripciones de Azure spoke para evitar cambios accidentales relacionados con la red</t>
+          <t>Personalice los roles de control de acceso basado en roles (RBAC) para las suscripciones de SAP en Azure spoke para evitar cambios accidentales relacionados con la red</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -8051,7 +8059,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Aísle las redes perimetrales y las aplicaciones virtuales de red del resto del patrimonio de SAP, configure Azure Private Link y administre y controle de forma segura los recursos de SAP en Azure</t>
+          <t>Aísle las DMZ y las NVA del resto del patrimonio de SAP, configure Azure Private Link y administre y controle de forma segura los recursos de SAP en Azure</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8101,7 +8109,7 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar el software antimalware de Microsoft en Azure para proteger las máquinas virtuales de archivos malintencionados, adware y otras amenazas.</t>
+          <t>Considere la posibilidad de usar el software antimalware de Microsoft en Azure para proteger sus máquinas virtuales de archivos malintencionados, adware y otras amenazas.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8201,7 +8209,7 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Aísle los servidores de aplicaciones y bases de datos de SAP de Internet o de la red local pasando todo el tráfico a través de la red virtual del centro de conectividad, que está conectada a la red radial mediante el emparejamiento de red virtual. Las redes virtuales emparejadas garantizan que la solución de SAP en Azure esté aislada de la red pública de Internet.</t>
+          <t>Aísle los servidores de bases de datos y aplicaciones de SAP de Internet o de la red local pasando todo el tráfico a través de la red virtual del concentrador, que está conectada a la red radial mediante el emparejamiento de red virtual. Las redes virtuales emparejadas garantizan que la solución de SAP en Azure esté aislada de la red pública de Internet.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -10723,7 +10731,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -10777,7 +10785,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Recomendación entendida, pero no necesaria por los requisitos actuales</t>
+          <t>Recomendación comprendida, pero no necesaria por los requisitos actuales</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
